--- a/BackTest/2020-01-26 BackTest ENJ.xlsx
+++ b/BackTest/2020-01-26 BackTest ENJ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M162"/>
+  <dimension ref="A1:M163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>98.90000000000001</v>
+        <v>99.48999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>98.81999999999999</v>
+        <v>99.48999999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>98.90000000000001</v>
+        <v>99.48999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>98.81999999999999</v>
+        <v>99.48999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>1124.3442</v>
+        <v>18.0923</v>
       </c>
       <c r="G2" t="n">
-        <v>100.4284999999999</v>
+        <v>100.4714999999999</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>98.2</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>98.2</v>
+        <v>98.81999999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>98.2</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>98.2</v>
+        <v>98.81999999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>1150.3408</v>
+        <v>1124.3442</v>
       </c>
       <c r="G3" t="n">
-        <v>100.3751666666666</v>
+        <v>100.4284999999999</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>98.12</v>
+        <v>98.2</v>
       </c>
       <c r="C4" t="n">
-        <v>97.83</v>
+        <v>98.2</v>
       </c>
       <c r="D4" t="n">
-        <v>98.7</v>
+        <v>98.2</v>
       </c>
       <c r="E4" t="n">
-        <v>97.83</v>
+        <v>98.2</v>
       </c>
       <c r="F4" t="n">
-        <v>77563.75290000001</v>
+        <v>1150.3408</v>
       </c>
       <c r="G4" t="n">
-        <v>100.3239999999999</v>
+        <v>100.3751666666666</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>98.01000000000001</v>
+        <v>98.12</v>
       </c>
       <c r="C5" t="n">
-        <v>98.59999999999999</v>
+        <v>97.83</v>
       </c>
       <c r="D5" t="n">
-        <v>98.59999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="E5" t="n">
-        <v>98.01000000000001</v>
+        <v>97.83</v>
       </c>
       <c r="F5" t="n">
-        <v>10762.7688</v>
+        <v>77563.75290000001</v>
       </c>
       <c r="G5" t="n">
-        <v>100.2839999999999</v>
+        <v>100.3239999999999</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>97.83</v>
+        <v>98.01000000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>97.83</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>97.83</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>97.83</v>
+        <v>98.01000000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>352.6114</v>
+        <v>10762.7688</v>
       </c>
       <c r="G6" t="n">
-        <v>100.2178333333333</v>
+        <v>100.2839999999999</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>98.47</v>
+        <v>97.83</v>
       </c>
       <c r="C7" t="n">
-        <v>98.47</v>
+        <v>97.83</v>
       </c>
       <c r="D7" t="n">
-        <v>98.47</v>
+        <v>97.83</v>
       </c>
       <c r="E7" t="n">
-        <v>98.47</v>
+        <v>97.83</v>
       </c>
       <c r="F7" t="n">
-        <v>81.1572</v>
+        <v>352.6114</v>
       </c>
       <c r="G7" t="n">
-        <v>100.1756666666666</v>
+        <v>100.2178333333333</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>97.83</v>
+        <v>98.47</v>
       </c>
       <c r="C8" t="n">
-        <v>98.56999999999999</v>
+        <v>98.47</v>
       </c>
       <c r="D8" t="n">
-        <v>98.56999999999999</v>
+        <v>98.47</v>
       </c>
       <c r="E8" t="n">
-        <v>97.83</v>
+        <v>98.47</v>
       </c>
       <c r="F8" t="n">
-        <v>15540.5205</v>
+        <v>81.1572</v>
       </c>
       <c r="G8" t="n">
-        <v>100.1368333333333</v>
+        <v>100.1756666666666</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -681,19 +681,19 @@
         <v>97.83</v>
       </c>
       <c r="C9" t="n">
-        <v>97.83</v>
+        <v>98.56999999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>97.83</v>
+        <v>98.56999999999999</v>
       </c>
       <c r="E9" t="n">
         <v>97.83</v>
       </c>
       <c r="F9" t="n">
-        <v>4709.7017</v>
+        <v>15540.5205</v>
       </c>
       <c r="G9" t="n">
-        <v>100.084</v>
+        <v>100.1368333333333</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>97.90000000000001</v>
+        <v>97.83</v>
       </c>
       <c r="C10" t="n">
-        <v>97.90000000000001</v>
+        <v>97.83</v>
       </c>
       <c r="D10" t="n">
-        <v>97.90000000000001</v>
+        <v>97.83</v>
       </c>
       <c r="E10" t="n">
-        <v>97.90000000000001</v>
+        <v>97.83</v>
       </c>
       <c r="F10" t="n">
-        <v>8315.560600000001</v>
+        <v>4709.7017</v>
       </c>
       <c r="G10" t="n">
-        <v>100.0323333333333</v>
+        <v>100.084</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>98.23</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>98.23</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>98.23</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>98.23</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="F11" t="n">
-        <v>3469.0406</v>
+        <v>8315.560600000001</v>
       </c>
       <c r="G11" t="n">
-        <v>99.99616666666661</v>
+        <v>100.0323333333333</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -786,19 +786,19 @@
         <v>98.23</v>
       </c>
       <c r="C12" t="n">
-        <v>98.48999999999999</v>
+        <v>98.23</v>
       </c>
       <c r="D12" t="n">
-        <v>98.48999999999999</v>
+        <v>98.23</v>
       </c>
       <c r="E12" t="n">
         <v>98.23</v>
       </c>
       <c r="F12" t="n">
-        <v>28462.7042</v>
+        <v>3469.0406</v>
       </c>
       <c r="G12" t="n">
-        <v>99.96433333333329</v>
+        <v>99.99616666666661</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>98.5</v>
+        <v>98.23</v>
       </c>
       <c r="C13" t="n">
-        <v>98.5</v>
+        <v>98.48999999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>98.5</v>
+        <v>98.48999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>98.5</v>
+        <v>98.23</v>
       </c>
       <c r="F13" t="n">
-        <v>365.5379</v>
+        <v>28462.7042</v>
       </c>
       <c r="G13" t="n">
-        <v>99.92266666666661</v>
+        <v>99.96433333333329</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>98.09999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="C14" t="n">
-        <v>98</v>
+        <v>98.5</v>
       </c>
       <c r="D14" t="n">
-        <v>98.09999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="E14" t="n">
-        <v>98</v>
+        <v>98.5</v>
       </c>
       <c r="F14" t="n">
-        <v>1389.8713</v>
+        <v>365.5379</v>
       </c>
       <c r="G14" t="n">
-        <v>99.87266666666662</v>
+        <v>99.92266666666661</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>98.2</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>98.2</v>
+        <v>98</v>
       </c>
       <c r="D15" t="n">
-        <v>98.2</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="E15" t="n">
-        <v>98.2</v>
+        <v>98</v>
       </c>
       <c r="F15" t="n">
-        <v>365.5379</v>
+        <v>1389.8713</v>
       </c>
       <c r="G15" t="n">
-        <v>99.82766666666662</v>
+        <v>99.87266666666662</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -926,19 +926,19 @@
         <v>98.2</v>
       </c>
       <c r="C16" t="n">
-        <v>97.20999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="D16" t="n">
         <v>98.2</v>
       </c>
       <c r="E16" t="n">
-        <v>97.20999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="F16" t="n">
-        <v>104086.8098</v>
+        <v>365.5379</v>
       </c>
       <c r="G16" t="n">
-        <v>99.76616666666662</v>
+        <v>99.82766666666662</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>98.01000000000001</v>
+        <v>98.2</v>
       </c>
       <c r="C17" t="n">
-        <v>98.28</v>
+        <v>97.20999999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>98.38</v>
+        <v>98.2</v>
       </c>
       <c r="E17" t="n">
-        <v>97.02</v>
+        <v>97.20999999999999</v>
       </c>
       <c r="F17" t="n">
-        <v>44701.91818574913</v>
+        <v>104086.8098</v>
       </c>
       <c r="G17" t="n">
-        <v>99.72249999999995</v>
+        <v>99.76616666666662</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>97.81</v>
+        <v>98.01000000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>97.81</v>
+        <v>98.28</v>
       </c>
       <c r="D18" t="n">
-        <v>97.81</v>
+        <v>98.38</v>
       </c>
       <c r="E18" t="n">
-        <v>97.81</v>
+        <v>97.02</v>
       </c>
       <c r="F18" t="n">
-        <v>3696.5584</v>
+        <v>44701.91818574913</v>
       </c>
       <c r="G18" t="n">
-        <v>99.6693333333333</v>
+        <v>99.72249999999995</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>97.70999999999999</v>
+        <v>97.81</v>
       </c>
       <c r="C19" t="n">
-        <v>97.70999999999999</v>
+        <v>97.81</v>
       </c>
       <c r="D19" t="n">
-        <v>97.70999999999999</v>
+        <v>97.81</v>
       </c>
       <c r="E19" t="n">
-        <v>97.70999999999999</v>
+        <v>97.81</v>
       </c>
       <c r="F19" t="n">
-        <v>44317.5604</v>
+        <v>3696.5584</v>
       </c>
       <c r="G19" t="n">
-        <v>99.61449999999996</v>
+        <v>99.6693333333333</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>97.62</v>
+        <v>97.70999999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>97.62</v>
+        <v>97.70999999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>97.62</v>
+        <v>97.70999999999999</v>
       </c>
       <c r="E20" t="n">
-        <v>97.62</v>
+        <v>97.70999999999999</v>
       </c>
       <c r="F20" t="n">
-        <v>7897.5329</v>
+        <v>44317.5604</v>
       </c>
       <c r="G20" t="n">
-        <v>99.55816666666664</v>
+        <v>99.61449999999996</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>97.63</v>
+        <v>97.62</v>
       </c>
       <c r="C21" t="n">
-        <v>97.61</v>
+        <v>97.62</v>
       </c>
       <c r="D21" t="n">
-        <v>97.63</v>
+        <v>97.62</v>
       </c>
       <c r="E21" t="n">
-        <v>97.61</v>
+        <v>97.62</v>
       </c>
       <c r="F21" t="n">
-        <v>8184.8952</v>
+        <v>7897.5329</v>
       </c>
       <c r="G21" t="n">
-        <v>99.51166666666663</v>
+        <v>99.55816666666664</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>97.62</v>
+        <v>97.63</v>
       </c>
       <c r="C22" t="n">
         <v>97.61</v>
       </c>
       <c r="D22" t="n">
-        <v>97.62</v>
+        <v>97.63</v>
       </c>
       <c r="E22" t="n">
         <v>97.61</v>
       </c>
       <c r="F22" t="n">
-        <v>11311.2798</v>
+        <v>8184.8952</v>
       </c>
       <c r="G22" t="n">
-        <v>99.47016666666663</v>
+        <v>99.51166666666663</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>97.39</v>
+        <v>97.62</v>
       </c>
       <c r="C23" t="n">
-        <v>97.09999999999999</v>
+        <v>97.61</v>
       </c>
       <c r="D23" t="n">
-        <v>97.39</v>
+        <v>97.62</v>
       </c>
       <c r="E23" t="n">
-        <v>97.09999999999999</v>
+        <v>97.61</v>
       </c>
       <c r="F23" t="n">
-        <v>24140.6743</v>
+        <v>11311.2798</v>
       </c>
       <c r="G23" t="n">
-        <v>99.41849999999997</v>
+        <v>99.47016666666663</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>97.09999999999999</v>
+        <v>97.39</v>
       </c>
       <c r="C24" t="n">
         <v>97.09999999999999</v>
       </c>
       <c r="D24" t="n">
+        <v>97.39</v>
+      </c>
+      <c r="E24" t="n">
         <v>97.09999999999999</v>
       </c>
-      <c r="E24" t="n">
-        <v>96.91</v>
-      </c>
       <c r="F24" t="n">
-        <v>98859.44469999999</v>
+        <v>24140.6743</v>
       </c>
       <c r="G24" t="n">
-        <v>99.35349999999997</v>
+        <v>99.41849999999997</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>97.09999999999999</v>
       </c>
       <c r="E25" t="n">
-        <v>97.09999999999999</v>
+        <v>96.91</v>
       </c>
       <c r="F25" t="n">
-        <v>3621.0827</v>
+        <v>98859.44469999999</v>
       </c>
       <c r="G25" t="n">
-        <v>99.28849999999997</v>
+        <v>99.35349999999997</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,7 +1273,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>97.09</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="C26" t="n">
         <v>97.09999999999999</v>
@@ -1282,13 +1282,13 @@
         <v>97.09999999999999</v>
       </c>
       <c r="E26" t="n">
-        <v>97.09</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="F26" t="n">
-        <v>52239.878</v>
+        <v>3621.0827</v>
       </c>
       <c r="G26" t="n">
-        <v>99.22349999999999</v>
+        <v>99.28849999999997</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>97</v>
+        <v>97.09</v>
       </c>
       <c r="C27" t="n">
-        <v>96.90000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D27" t="n">
-        <v>97</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E27" t="n">
-        <v>96.90000000000001</v>
+        <v>97.09</v>
       </c>
       <c r="F27" t="n">
-        <v>140876.4748</v>
+        <v>52239.878</v>
       </c>
       <c r="G27" t="n">
-        <v>99.15683333333331</v>
+        <v>99.22349999999999</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
+        <v>97</v>
+      </c>
+      <c r="C28" t="n">
         <v>96.90000000000001</v>
       </c>
-      <c r="C28" t="n">
-        <v>96.03</v>
-      </c>
       <c r="D28" t="n">
+        <v>97</v>
+      </c>
+      <c r="E28" t="n">
         <v>96.90000000000001</v>
       </c>
-      <c r="E28" t="n">
-        <v>96.03</v>
-      </c>
       <c r="F28" t="n">
-        <v>27730</v>
+        <v>140876.4748</v>
       </c>
       <c r="G28" t="n">
-        <v>99.07733333333331</v>
+        <v>99.15683333333331</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
+        <v>96.90000000000001</v>
+      </c>
+      <c r="C29" t="n">
         <v>96.03</v>
       </c>
-      <c r="C29" t="n">
-        <v>96.98</v>
-      </c>
       <c r="D29" t="n">
-        <v>96.98</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="E29" t="n">
         <v>96.03</v>
       </c>
       <c r="F29" t="n">
-        <v>121711.4748</v>
+        <v>27730</v>
       </c>
       <c r="G29" t="n">
-        <v>99.00866666666663</v>
+        <v>99.07733333333331</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>96.89</v>
+        <v>96.03</v>
       </c>
       <c r="C30" t="n">
-        <v>96.89</v>
+        <v>96.98</v>
       </c>
       <c r="D30" t="n">
-        <v>96.89</v>
+        <v>96.98</v>
       </c>
       <c r="E30" t="n">
-        <v>96.89</v>
+        <v>96.03</v>
       </c>
       <c r="F30" t="n">
-        <v>100108.6933</v>
+        <v>121711.4748</v>
       </c>
       <c r="G30" t="n">
-        <v>98.94349999999996</v>
+        <v>99.00866666666663</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>96.87</v>
+        <v>96.89</v>
       </c>
       <c r="C31" t="n">
-        <v>96.88</v>
+        <v>96.89</v>
       </c>
       <c r="D31" t="n">
-        <v>96.88</v>
+        <v>96.89</v>
       </c>
       <c r="E31" t="n">
-        <v>96.87</v>
+        <v>96.89</v>
       </c>
       <c r="F31" t="n">
-        <v>5225.4704</v>
+        <v>100108.6933</v>
       </c>
       <c r="G31" t="n">
-        <v>98.88316666666664</v>
+        <v>98.94349999999996</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>96.95999999999999</v>
+        <v>96.87</v>
       </c>
       <c r="C32" t="n">
-        <v>97.05</v>
+        <v>96.88</v>
       </c>
       <c r="D32" t="n">
-        <v>97.05</v>
+        <v>96.88</v>
       </c>
       <c r="E32" t="n">
-        <v>96.95999999999999</v>
+        <v>96.87</v>
       </c>
       <c r="F32" t="n">
-        <v>20000</v>
+        <v>5225.4704</v>
       </c>
       <c r="G32" t="n">
-        <v>98.82066666666664</v>
+        <v>98.88316666666664</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,35 +1518,31 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>96.90000000000001</v>
+        <v>96.95999999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>96.90000000000001</v>
+        <v>97.05</v>
       </c>
       <c r="D33" t="n">
-        <v>96.90000000000001</v>
+        <v>97.05</v>
       </c>
       <c r="E33" t="n">
-        <v>96.90000000000001</v>
+        <v>96.95999999999999</v>
       </c>
       <c r="F33" t="n">
-        <v>1268.8554</v>
+        <v>20000</v>
       </c>
       <c r="G33" t="n">
-        <v>98.76566666666663</v>
+        <v>98.82066666666664</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>97.05</v>
-      </c>
-      <c r="K33" t="n">
-        <v>97.05</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
@@ -1557,40 +1553,32 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>96.94</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>96.94</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>96.94</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="E34" t="n">
-        <v>96.94</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="F34" t="n">
-        <v>3805.0265</v>
+        <v>1268.8554</v>
       </c>
       <c r="G34" t="n">
-        <v>98.69966666666663</v>
+        <v>98.76566666666663</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>96.90000000000001</v>
-      </c>
-      <c r="K34" t="n">
-        <v>97.05</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1600,40 +1588,32 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>96.76000000000001</v>
+        <v>96.94</v>
       </c>
       <c r="C35" t="n">
-        <v>96.76000000000001</v>
+        <v>96.94</v>
       </c>
       <c r="D35" t="n">
-        <v>96.76000000000001</v>
+        <v>96.94</v>
       </c>
       <c r="E35" t="n">
-        <v>96.76000000000001</v>
+        <v>96.94</v>
       </c>
       <c r="F35" t="n">
-        <v>2406.7191</v>
+        <v>3805.0265</v>
       </c>
       <c r="G35" t="n">
-        <v>98.6373333333333</v>
+        <v>98.69966666666663</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>96.94</v>
-      </c>
-      <c r="K35" t="n">
-        <v>97.05</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1643,40 +1623,32 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>96.2</v>
+        <v>96.76000000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>96.7</v>
+        <v>96.76000000000001</v>
       </c>
       <c r="D36" t="n">
-        <v>96.7</v>
+        <v>96.76000000000001</v>
       </c>
       <c r="E36" t="n">
-        <v>96.2</v>
+        <v>96.76000000000001</v>
       </c>
       <c r="F36" t="n">
-        <v>2702.8203</v>
+        <v>2406.7191</v>
       </c>
       <c r="G36" t="n">
-        <v>98.56733333333331</v>
+        <v>98.6373333333333</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>96.76000000000001</v>
-      </c>
-      <c r="K36" t="n">
-        <v>97.05</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1686,40 +1658,32 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>96.3</v>
+        <v>96.2</v>
       </c>
       <c r="C37" t="n">
-        <v>96.88</v>
+        <v>96.7</v>
       </c>
       <c r="D37" t="n">
-        <v>96.89</v>
+        <v>96.7</v>
       </c>
       <c r="E37" t="n">
-        <v>96.3</v>
+        <v>96.2</v>
       </c>
       <c r="F37" t="n">
-        <v>6962.5129</v>
+        <v>2702.8203</v>
       </c>
       <c r="G37" t="n">
-        <v>98.50033333333332</v>
+        <v>98.56733333333331</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>96.7</v>
-      </c>
-      <c r="K37" t="n">
-        <v>97.05</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1729,40 +1693,32 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>96.8</v>
+        <v>96.3</v>
       </c>
       <c r="C38" t="n">
         <v>96.88</v>
       </c>
       <c r="D38" t="n">
-        <v>96.88</v>
+        <v>96.89</v>
       </c>
       <c r="E38" t="n">
-        <v>96.8</v>
+        <v>96.3</v>
       </c>
       <c r="F38" t="n">
-        <v>4358.1012</v>
+        <v>6962.5129</v>
       </c>
       <c r="G38" t="n">
-        <v>98.43333333333332</v>
+        <v>98.50033333333332</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>96.88</v>
-      </c>
-      <c r="K38" t="n">
-        <v>97.05</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1772,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>96.3</v>
+        <v>96.8</v>
       </c>
       <c r="C39" t="n">
-        <v>96.3</v>
+        <v>96.88</v>
       </c>
       <c r="D39" t="n">
-        <v>96.3</v>
+        <v>96.88</v>
       </c>
       <c r="E39" t="n">
-        <v>96.3</v>
+        <v>96.8</v>
       </c>
       <c r="F39" t="n">
-        <v>6257.6282</v>
+        <v>4358.1012</v>
       </c>
       <c r="G39" t="n">
-        <v>98.36166666666665</v>
+        <v>98.43333333333332</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1796,14 +1752,8 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>97.05</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1825,28 +1775,20 @@
         <v>96.3</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0001</v>
+        <v>6257.6282</v>
       </c>
       <c r="G40" t="n">
-        <v>98.29666666666665</v>
+        <v>98.36166666666665</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>96.3</v>
-      </c>
-      <c r="K40" t="n">
-        <v>97.05</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1856,40 +1798,32 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>96.8</v>
+        <v>96.3</v>
       </c>
       <c r="C41" t="n">
-        <v>97.23999999999999</v>
+        <v>96.3</v>
       </c>
       <c r="D41" t="n">
-        <v>97.23999999999999</v>
+        <v>96.3</v>
       </c>
       <c r="E41" t="n">
-        <v>96.8</v>
+        <v>96.3</v>
       </c>
       <c r="F41" t="n">
-        <v>36561.8836</v>
+        <v>0.0001</v>
       </c>
       <c r="G41" t="n">
-        <v>98.25116666666665</v>
+        <v>98.29666666666665</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>96.3</v>
-      </c>
-      <c r="K41" t="n">
-        <v>97.05</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1899,40 +1833,32 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>97.45999999999999</v>
+        <v>96.8</v>
       </c>
       <c r="C42" t="n">
-        <v>97.45999999999999</v>
+        <v>97.23999999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>97.45999999999999</v>
+        <v>97.23999999999999</v>
       </c>
       <c r="E42" t="n">
-        <v>97.45999999999999</v>
+        <v>96.8</v>
       </c>
       <c r="F42" t="n">
-        <v>15.4936</v>
+        <v>36561.8836</v>
       </c>
       <c r="G42" t="n">
-        <v>98.20549999999999</v>
+        <v>98.25116666666665</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>97.23999999999999</v>
-      </c>
-      <c r="K42" t="n">
-        <v>97.05</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1942,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>97.12</v>
+        <v>97.45999999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>97.2</v>
+        <v>97.45999999999999</v>
       </c>
       <c r="D43" t="n">
-        <v>97.2</v>
+        <v>97.45999999999999</v>
       </c>
       <c r="E43" t="n">
-        <v>97.12</v>
+        <v>97.45999999999999</v>
       </c>
       <c r="F43" t="n">
-        <v>82327.8983</v>
+        <v>15.4936</v>
       </c>
       <c r="G43" t="n">
-        <v>98.15933333333331</v>
+        <v>98.20549999999999</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1966,14 +1892,8 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>97.05</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1983,7 +1903,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>97.2</v>
+        <v>97.12</v>
       </c>
       <c r="C44" t="n">
         <v>97.2</v>
@@ -1992,31 +1912,23 @@
         <v>97.2</v>
       </c>
       <c r="E44" t="n">
-        <v>97.2</v>
+        <v>97.12</v>
       </c>
       <c r="F44" t="n">
-        <v>1900</v>
+        <v>82327.8983</v>
       </c>
       <c r="G44" t="n">
-        <v>98.11316666666663</v>
+        <v>98.15933333333331</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>97.2</v>
-      </c>
-      <c r="K44" t="n">
-        <v>97.05</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2038,10 +1950,10 @@
         <v>97.2</v>
       </c>
       <c r="F45" t="n">
-        <v>13000</v>
+        <v>1900</v>
       </c>
       <c r="G45" t="n">
-        <v>98.06816666666664</v>
+        <v>98.11316666666663</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2050,14 +1962,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>97.05</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2079,10 +1985,10 @@
         <v>97.2</v>
       </c>
       <c r="F46" t="n">
-        <v>608.3825000000001</v>
+        <v>13000</v>
       </c>
       <c r="G46" t="n">
-        <v>98.01483333333331</v>
+        <v>98.06816666666664</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2091,14 +1997,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>97.05</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2108,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>97.09999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="C47" t="n">
-        <v>97.09999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="D47" t="n">
-        <v>97.09999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="E47" t="n">
-        <v>97.09999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="F47" t="n">
-        <v>10.29866117404737</v>
+        <v>608.3825000000001</v>
       </c>
       <c r="G47" t="n">
-        <v>97.95816666666664</v>
+        <v>98.01483333333331</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2132,14 +2032,8 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>97.05</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2149,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>96.5</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>96.5</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>96.5</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E48" t="n">
-        <v>96.5</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="F48" t="n">
-        <v>10.6518</v>
+        <v>10.29866117404737</v>
       </c>
       <c r="G48" t="n">
-        <v>97.90133333333331</v>
+        <v>97.95816666666664</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2173,14 +2067,8 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>97.05</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2190,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>96.59999999999999</v>
+        <v>96.5</v>
       </c>
       <c r="C49" t="n">
         <v>96.5</v>
       </c>
       <c r="D49" t="n">
-        <v>96.59999999999999</v>
+        <v>96.5</v>
       </c>
       <c r="E49" t="n">
         <v>96.5</v>
       </c>
       <c r="F49" t="n">
-        <v>2775.3755</v>
+        <v>10.6518</v>
       </c>
       <c r="G49" t="n">
-        <v>97.84299999999999</v>
+        <v>97.90133333333331</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2214,14 +2102,8 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>97.05</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2231,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>96.7</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>96.3</v>
+        <v>96.5</v>
       </c>
       <c r="D50" t="n">
-        <v>96.7</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>96.3</v>
+        <v>96.5</v>
       </c>
       <c r="F50" t="n">
-        <v>34573.8412</v>
+        <v>2775.3755</v>
       </c>
       <c r="G50" t="n">
-        <v>97.78316666666665</v>
+        <v>97.84299999999999</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2255,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>97.05</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2272,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
+        <v>96.7</v>
+      </c>
+      <c r="C51" t="n">
         <v>96.3</v>
       </c>
-      <c r="C51" t="n">
-        <v>96.20999999999999</v>
-      </c>
       <c r="D51" t="n">
+        <v>96.7</v>
+      </c>
+      <c r="E51" t="n">
         <v>96.3</v>
       </c>
-      <c r="E51" t="n">
-        <v>96.20999999999999</v>
-      </c>
       <c r="F51" t="n">
-        <v>3428.0117</v>
+        <v>34573.8412</v>
       </c>
       <c r="G51" t="n">
-        <v>97.72266666666664</v>
+        <v>97.78316666666665</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2296,14 +2172,8 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>97.05</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2316,19 +2186,19 @@
         <v>96.3</v>
       </c>
       <c r="C52" t="n">
-        <v>96.3</v>
+        <v>96.20999999999999</v>
       </c>
       <c r="D52" t="n">
         <v>96.3</v>
       </c>
       <c r="E52" t="n">
-        <v>96.3</v>
+        <v>96.20999999999999</v>
       </c>
       <c r="F52" t="n">
-        <v>14590.4235</v>
+        <v>3428.0117</v>
       </c>
       <c r="G52" t="n">
-        <v>97.65266666666665</v>
+        <v>97.72266666666664</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2337,14 +2207,8 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>97.05</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2354,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>96.8</v>
+        <v>96.3</v>
       </c>
       <c r="C53" t="n">
-        <v>96.8</v>
+        <v>96.3</v>
       </c>
       <c r="D53" t="n">
-        <v>96.8</v>
+        <v>96.3</v>
       </c>
       <c r="E53" t="n">
-        <v>96.8</v>
+        <v>96.3</v>
       </c>
       <c r="F53" t="n">
-        <v>374.8069</v>
+        <v>14590.4235</v>
       </c>
       <c r="G53" t="n">
-        <v>97.60383333333333</v>
+        <v>97.65266666666665</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2378,14 +2242,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>97.05</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2395,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>96.84999999999999</v>
+        <v>96.8</v>
       </c>
       <c r="C54" t="n">
-        <v>96.84999999999999</v>
+        <v>96.8</v>
       </c>
       <c r="D54" t="n">
-        <v>96.84999999999999</v>
+        <v>96.8</v>
       </c>
       <c r="E54" t="n">
-        <v>96.84999999999999</v>
+        <v>96.8</v>
       </c>
       <c r="F54" t="n">
-        <v>392.4325</v>
+        <v>374.8069</v>
       </c>
       <c r="G54" t="n">
-        <v>97.55583333333334</v>
+        <v>97.60383333333333</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2419,14 +2277,8 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>97.05</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2439,19 +2291,19 @@
         <v>96.84999999999999</v>
       </c>
       <c r="C55" t="n">
-        <v>96.90000000000001</v>
+        <v>96.84999999999999</v>
       </c>
       <c r="D55" t="n">
-        <v>96.90000000000001</v>
+        <v>96.84999999999999</v>
       </c>
       <c r="E55" t="n">
         <v>96.84999999999999</v>
       </c>
       <c r="F55" t="n">
-        <v>81921.9675</v>
+        <v>392.4325</v>
       </c>
       <c r="G55" t="n">
-        <v>97.51083333333332</v>
+        <v>97.55583333333334</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2460,14 +2312,8 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>97.05</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2477,7 +2323,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>96.90000000000001</v>
+        <v>96.84999999999999</v>
       </c>
       <c r="C56" t="n">
         <v>96.90000000000001</v>
@@ -2486,13 +2332,13 @@
         <v>96.90000000000001</v>
       </c>
       <c r="E56" t="n">
-        <v>96.90000000000001</v>
+        <v>96.84999999999999</v>
       </c>
       <c r="F56" t="n">
-        <v>1969.7897</v>
+        <v>81921.9675</v>
       </c>
       <c r="G56" t="n">
-        <v>97.46583333333332</v>
+        <v>97.51083333333332</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2501,14 +2347,8 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>97.05</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2518,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>97.17</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>97.17</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="D57" t="n">
-        <v>97.17</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="E57" t="n">
-        <v>97.17</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="F57" t="n">
-        <v>6</v>
+        <v>1969.7897</v>
       </c>
       <c r="G57" t="n">
-        <v>97.42833333333331</v>
+        <v>97.46583333333332</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2542,14 +2382,8 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>97.05</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2562,19 +2396,19 @@
         <v>97.17</v>
       </c>
       <c r="C58" t="n">
-        <v>97.2</v>
+        <v>97.17</v>
       </c>
       <c r="D58" t="n">
-        <v>97.2</v>
+        <v>97.17</v>
       </c>
       <c r="E58" t="n">
         <v>97.17</v>
       </c>
       <c r="F58" t="n">
-        <v>1225.554</v>
+        <v>6</v>
       </c>
       <c r="G58" t="n">
-        <v>97.39449999999998</v>
+        <v>97.42833333333331</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2583,14 +2417,8 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>97.05</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2600,7 +2428,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>97.2</v>
+        <v>97.17</v>
       </c>
       <c r="C59" t="n">
         <v>97.2</v>
@@ -2609,13 +2437,13 @@
         <v>97.2</v>
       </c>
       <c r="E59" t="n">
-        <v>97.2</v>
+        <v>97.17</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0001</v>
+        <v>1225.554</v>
       </c>
       <c r="G59" t="n">
-        <v>97.36549999999998</v>
+        <v>97.39449999999998</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2624,14 +2452,8 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>97.05</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2653,10 +2475,10 @@
         <v>97.2</v>
       </c>
       <c r="F60" t="n">
-        <v>9.9999</v>
+        <v>0.0001</v>
       </c>
       <c r="G60" t="n">
-        <v>97.33716666666666</v>
+        <v>97.36549999999998</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2665,14 +2487,8 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>97.05</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2694,10 +2510,10 @@
         <v>97.2</v>
       </c>
       <c r="F61" t="n">
-        <v>2064.0277</v>
+        <v>9.9999</v>
       </c>
       <c r="G61" t="n">
-        <v>97.29899999999999</v>
+        <v>97.33716666666666</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2706,14 +2522,8 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>97.05</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2723,7 +2533,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>97.19</v>
+        <v>97.2</v>
       </c>
       <c r="C62" t="n">
         <v>97.2</v>
@@ -2732,13 +2542,13 @@
         <v>97.2</v>
       </c>
       <c r="E62" t="n">
-        <v>97.19</v>
+        <v>97.2</v>
       </c>
       <c r="F62" t="n">
-        <v>917.0569</v>
+        <v>2064.0277</v>
       </c>
       <c r="G62" t="n">
-        <v>97.27199999999999</v>
+        <v>97.29899999999999</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2747,14 +2557,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>97.05</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2764,7 +2568,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>97.2</v>
+        <v>97.19</v>
       </c>
       <c r="C63" t="n">
         <v>97.2</v>
@@ -2773,13 +2577,13 @@
         <v>97.2</v>
       </c>
       <c r="E63" t="n">
-        <v>97.2</v>
+        <v>97.19</v>
       </c>
       <c r="F63" t="n">
-        <v>552.2329</v>
+        <v>917.0569</v>
       </c>
       <c r="G63" t="n">
-        <v>97.25533333333333</v>
+        <v>97.27199999999999</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2788,14 +2592,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>97.05</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2817,10 +2615,10 @@
         <v>97.2</v>
       </c>
       <c r="F64" t="n">
-        <v>20</v>
+        <v>552.2329</v>
       </c>
       <c r="G64" t="n">
-        <v>97.24483333333333</v>
+        <v>97.25533333333333</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2829,14 +2627,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>97.05</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2858,10 +2650,10 @@
         <v>97.2</v>
       </c>
       <c r="F65" t="n">
-        <v>222.9595</v>
+        <v>20</v>
       </c>
       <c r="G65" t="n">
-        <v>97.22149999999998</v>
+        <v>97.24483333333333</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2870,14 +2662,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>97.05</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2887,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>97.76000000000001</v>
+        <v>97.2</v>
       </c>
       <c r="C66" t="n">
-        <v>97.79000000000001</v>
+        <v>97.2</v>
       </c>
       <c r="D66" t="n">
-        <v>97.79000000000001</v>
+        <v>97.2</v>
       </c>
       <c r="E66" t="n">
-        <v>97.76000000000001</v>
+        <v>97.2</v>
       </c>
       <c r="F66" t="n">
-        <v>10980</v>
+        <v>222.9595</v>
       </c>
       <c r="G66" t="n">
-        <v>97.22083333333332</v>
+        <v>97.22149999999998</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2911,14 +2697,8 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>97.05</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2928,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>97.40000000000001</v>
+        <v>97.76000000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>97.40000000000001</v>
+        <v>97.79000000000001</v>
       </c>
       <c r="D67" t="n">
-        <v>97.40000000000001</v>
+        <v>97.79000000000001</v>
       </c>
       <c r="E67" t="n">
-        <v>97.40000000000001</v>
+        <v>97.76000000000001</v>
       </c>
       <c r="F67" t="n">
-        <v>96</v>
+        <v>10980</v>
       </c>
       <c r="G67" t="n">
-        <v>97.20299999999997</v>
+        <v>97.22083333333332</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2952,14 +2732,8 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>97.05</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2969,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>97.7</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="C68" t="n">
-        <v>98.09</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="D68" t="n">
-        <v>98.09</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="E68" t="n">
-        <v>97.59999999999999</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="F68" t="n">
-        <v>2078.5833</v>
+        <v>96</v>
       </c>
       <c r="G68" t="n">
-        <v>97.19499999999998</v>
+        <v>97.20299999999997</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2993,14 +2767,8 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>97.05</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3010,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>97.5</v>
+        <v>97.7</v>
       </c>
       <c r="C69" t="n">
-        <v>97.5</v>
+        <v>98.09</v>
       </c>
       <c r="D69" t="n">
-        <v>97.5</v>
+        <v>98.09</v>
       </c>
       <c r="E69" t="n">
-        <v>97.5</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="F69" t="n">
-        <v>330</v>
+        <v>2078.5833</v>
       </c>
       <c r="G69" t="n">
-        <v>97.18949999999998</v>
+        <v>97.19499999999998</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3034,14 +2802,8 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>97.05</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3063,10 +2825,10 @@
         <v>97.5</v>
       </c>
       <c r="F70" t="n">
-        <v>157.1994</v>
+        <v>330</v>
       </c>
       <c r="G70" t="n">
-        <v>97.18283333333332</v>
+        <v>97.18949999999998</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3075,14 +2837,8 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>97.05</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3092,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>97.98</v>
+        <v>97.5</v>
       </c>
       <c r="C71" t="n">
-        <v>97.98</v>
+        <v>97.5</v>
       </c>
       <c r="D71" t="n">
-        <v>97.98</v>
+        <v>97.5</v>
       </c>
       <c r="E71" t="n">
-        <v>97.98</v>
+        <v>97.5</v>
       </c>
       <c r="F71" t="n">
-        <v>330</v>
+        <v>157.1994</v>
       </c>
       <c r="G71" t="n">
-        <v>97.17866666666666</v>
+        <v>97.18283333333332</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3116,14 +2872,8 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>97.05</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3133,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>97.3</v>
+        <v>97.98</v>
       </c>
       <c r="C72" t="n">
-        <v>97.3</v>
+        <v>97.98</v>
       </c>
       <c r="D72" t="n">
-        <v>97.3</v>
+        <v>97.98</v>
       </c>
       <c r="E72" t="n">
-        <v>97.3</v>
+        <v>97.98</v>
       </c>
       <c r="F72" t="n">
-        <v>270.2434</v>
+        <v>330</v>
       </c>
       <c r="G72" t="n">
-        <v>97.15883333333333</v>
+        <v>97.17866666666666</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3157,14 +2907,8 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>97.05</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3186,10 +2930,10 @@
         <v>97.3</v>
       </c>
       <c r="F73" t="n">
-        <v>268.811</v>
+        <v>270.2434</v>
       </c>
       <c r="G73" t="n">
-        <v>97.13883333333334</v>
+        <v>97.15883333333333</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3198,14 +2942,8 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>97.05</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3215,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>97.2</v>
+        <v>97.3</v>
       </c>
       <c r="C74" t="n">
-        <v>97.2</v>
+        <v>97.3</v>
       </c>
       <c r="D74" t="n">
-        <v>97.2</v>
+        <v>97.3</v>
       </c>
       <c r="E74" t="n">
-        <v>97.2</v>
+        <v>97.3</v>
       </c>
       <c r="F74" t="n">
-        <v>30</v>
+        <v>268.811</v>
       </c>
       <c r="G74" t="n">
-        <v>97.1255</v>
+        <v>97.13883333333334</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3239,14 +2977,8 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>97.05</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3256,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>97.3</v>
+        <v>97.2</v>
       </c>
       <c r="C75" t="n">
-        <v>97.3</v>
+        <v>97.2</v>
       </c>
       <c r="D75" t="n">
-        <v>97.3</v>
+        <v>97.2</v>
       </c>
       <c r="E75" t="n">
-        <v>97.3</v>
+        <v>97.2</v>
       </c>
       <c r="F75" t="n">
-        <v>114.5984</v>
+        <v>30</v>
       </c>
       <c r="G75" t="n">
-        <v>97.1105</v>
+        <v>97.1255</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3280,14 +3012,8 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>97.05</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3309,10 +3035,10 @@
         <v>97.3</v>
       </c>
       <c r="F76" t="n">
-        <v>103.1385</v>
+        <v>114.5984</v>
       </c>
       <c r="G76" t="n">
-        <v>97.11200000000001</v>
+        <v>97.1105</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3321,14 +3047,8 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>97.05</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3350,10 +3070,10 @@
         <v>97.3</v>
       </c>
       <c r="F77" t="n">
-        <v>92.82470000000001</v>
+        <v>103.1385</v>
       </c>
       <c r="G77" t="n">
-        <v>97.09566666666667</v>
+        <v>97.11200000000001</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3362,14 +3082,8 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>97.05</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3391,10 +3105,10 @@
         <v>97.3</v>
       </c>
       <c r="F78" t="n">
-        <v>83.54219999999999</v>
+        <v>92.82470000000001</v>
       </c>
       <c r="G78" t="n">
-        <v>97.08716666666668</v>
+        <v>97.09566666666667</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3403,14 +3117,8 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>97.05</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3420,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>97.20999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="C79" t="n">
-        <v>97.20999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="D79" t="n">
-        <v>97.20999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="E79" t="n">
-        <v>97.20999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="F79" t="n">
-        <v>2280.0188</v>
+        <v>83.54219999999999</v>
       </c>
       <c r="G79" t="n">
-        <v>97.07883333333334</v>
+        <v>97.08716666666668</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3444,14 +3152,8 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>97.05</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3464,19 +3166,19 @@
         <v>97.20999999999999</v>
       </c>
       <c r="C80" t="n">
-        <v>97.09999999999999</v>
+        <v>97.20999999999999</v>
       </c>
       <c r="D80" t="n">
         <v>97.20999999999999</v>
       </c>
       <c r="E80" t="n">
-        <v>97.09999999999999</v>
+        <v>97.20999999999999</v>
       </c>
       <c r="F80" t="n">
-        <v>1589.3652</v>
+        <v>2280.0188</v>
       </c>
       <c r="G80" t="n">
-        <v>97.07016666666668</v>
+        <v>97.07883333333334</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3485,14 +3187,8 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>97.05</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3502,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>97.01000000000001</v>
+        <v>97.20999999999999</v>
       </c>
       <c r="C81" t="n">
-        <v>96.91</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D81" t="n">
-        <v>97.01000000000001</v>
+        <v>97.20999999999999</v>
       </c>
       <c r="E81" t="n">
-        <v>96.91</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="F81" t="n">
-        <v>1017.7427</v>
+        <v>1589.3652</v>
       </c>
       <c r="G81" t="n">
-        <v>97.05850000000002</v>
+        <v>97.07016666666668</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3526,14 +3222,8 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>97.05</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3543,22 +3233,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>96.91</v>
+        <v>97.01000000000001</v>
       </c>
       <c r="C82" t="n">
         <v>96.91</v>
       </c>
       <c r="D82" t="n">
-        <v>96.91</v>
+        <v>97.01000000000001</v>
       </c>
       <c r="E82" t="n">
         <v>96.91</v>
       </c>
       <c r="F82" t="n">
-        <v>9829.936100000001</v>
+        <v>1017.7427</v>
       </c>
       <c r="G82" t="n">
-        <v>97.04683333333335</v>
+        <v>97.05850000000002</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3567,14 +3257,8 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>97.05</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3584,19 +3268,19 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>97.09999999999999</v>
+        <v>96.91</v>
       </c>
       <c r="C83" t="n">
-        <v>97.09999999999999</v>
+        <v>96.91</v>
       </c>
       <c r="D83" t="n">
-        <v>97.09999999999999</v>
+        <v>96.91</v>
       </c>
       <c r="E83" t="n">
-        <v>97.09999999999999</v>
+        <v>96.91</v>
       </c>
       <c r="F83" t="n">
-        <v>4000</v>
+        <v>9829.936100000001</v>
       </c>
       <c r="G83" t="n">
         <v>97.04683333333335</v>
@@ -3608,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>97.05</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3634,10 +3312,10 @@
         <v>97.09999999999999</v>
       </c>
       <c r="E84" t="n">
-        <v>97</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="F84" t="n">
-        <v>17827.2179</v>
+        <v>4000</v>
       </c>
       <c r="G84" t="n">
         <v>97.04683333333335</v>
@@ -3649,14 +3327,8 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>97.05</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3675,10 +3347,10 @@
         <v>97.09999999999999</v>
       </c>
       <c r="E85" t="n">
-        <v>97.09999999999999</v>
+        <v>97</v>
       </c>
       <c r="F85" t="n">
-        <v>4892.6428</v>
+        <v>17827.2179</v>
       </c>
       <c r="G85" t="n">
         <v>97.04683333333335</v>
@@ -3690,14 +3362,8 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>97.05</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3710,19 +3376,19 @@
         <v>97.09999999999999</v>
       </c>
       <c r="C86" t="n">
-        <v>97.34999999999999</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D86" t="n">
-        <v>97.34999999999999</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E86" t="n">
         <v>97.09999999999999</v>
       </c>
       <c r="F86" t="n">
-        <v>6444.8601</v>
+        <v>4892.6428</v>
       </c>
       <c r="G86" t="n">
-        <v>97.05100000000002</v>
+        <v>97.04683333333335</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3731,14 +3397,8 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>97.05</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3748,7 +3408,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>97.34999999999999</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="C87" t="n">
         <v>97.34999999999999</v>
@@ -3757,13 +3417,13 @@
         <v>97.34999999999999</v>
       </c>
       <c r="E87" t="n">
-        <v>97.34999999999999</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="F87" t="n">
-        <v>135.188</v>
+        <v>6444.8601</v>
       </c>
       <c r="G87" t="n">
-        <v>97.05850000000004</v>
+        <v>97.05100000000002</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3772,14 +3432,8 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>97.05</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3792,19 +3446,19 @@
         <v>97.34999999999999</v>
       </c>
       <c r="C88" t="n">
-        <v>97.09999999999999</v>
+        <v>97.34999999999999</v>
       </c>
       <c r="D88" t="n">
         <v>97.34999999999999</v>
       </c>
       <c r="E88" t="n">
-        <v>97.09999999999999</v>
+        <v>97.34999999999999</v>
       </c>
       <c r="F88" t="n">
-        <v>1117.8713</v>
+        <v>135.188</v>
       </c>
       <c r="G88" t="n">
-        <v>97.07633333333338</v>
+        <v>97.05850000000004</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3813,14 +3467,8 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>97.05</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3830,22 +3478,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>97.09999999999999</v>
+        <v>97.34999999999999</v>
       </c>
       <c r="C89" t="n">
         <v>97.09999999999999</v>
       </c>
       <c r="D89" t="n">
-        <v>97.09999999999999</v>
+        <v>97.34999999999999</v>
       </c>
       <c r="E89" t="n">
         <v>97.09999999999999</v>
       </c>
       <c r="F89" t="n">
-        <v>232.3836</v>
+        <v>1117.8713</v>
       </c>
       <c r="G89" t="n">
-        <v>97.07833333333339</v>
+        <v>97.07633333333338</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3854,14 +3502,8 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>97.05</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3883,10 +3525,10 @@
         <v>97.09999999999999</v>
       </c>
       <c r="F90" t="n">
-        <v>0.3308</v>
+        <v>232.3836</v>
       </c>
       <c r="G90" t="n">
-        <v>97.08183333333339</v>
+        <v>97.07833333333339</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3895,14 +3537,8 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>97.05</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3912,22 +3548,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>97.41</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="C91" t="n">
-        <v>97.41</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D91" t="n">
-        <v>97.41</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E91" t="n">
-        <v>97.41</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="F91" t="n">
-        <v>3000</v>
+        <v>0.3308</v>
       </c>
       <c r="G91" t="n">
-        <v>97.09066666666672</v>
+        <v>97.08183333333339</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3936,14 +3572,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>97.05</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3953,22 +3583,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>97.90000000000001</v>
+        <v>97.41</v>
       </c>
       <c r="C92" t="n">
-        <v>97.90000000000001</v>
+        <v>97.41</v>
       </c>
       <c r="D92" t="n">
-        <v>97.90000000000001</v>
+        <v>97.41</v>
       </c>
       <c r="E92" t="n">
-        <v>97.90000000000001</v>
+        <v>97.41</v>
       </c>
       <c r="F92" t="n">
-        <v>536.0131</v>
+        <v>3000</v>
       </c>
       <c r="G92" t="n">
-        <v>97.10483333333337</v>
+        <v>97.09066666666672</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3977,14 +3607,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>97.05</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3994,7 +3618,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>97.48</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="C93" t="n">
         <v>97.90000000000001</v>
@@ -4003,13 +3627,13 @@
         <v>97.90000000000001</v>
       </c>
       <c r="E93" t="n">
-        <v>96.94</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="F93" t="n">
-        <v>13588.1729</v>
+        <v>536.0131</v>
       </c>
       <c r="G93" t="n">
-        <v>97.12150000000004</v>
+        <v>97.10483333333337</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4018,14 +3642,8 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>97.05</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4038,19 +3656,19 @@
         <v>97.48</v>
       </c>
       <c r="C94" t="n">
-        <v>98.39</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="D94" t="n">
-        <v>98.39</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="E94" t="n">
-        <v>97.48</v>
+        <v>96.94</v>
       </c>
       <c r="F94" t="n">
-        <v>999</v>
+        <v>13588.1729</v>
       </c>
       <c r="G94" t="n">
-        <v>97.14566666666673</v>
+        <v>97.12150000000004</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4059,14 +3677,8 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>97.05</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4076,7 +3688,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>98.39</v>
+        <v>97.48</v>
       </c>
       <c r="C95" t="n">
         <v>98.39</v>
@@ -4085,13 +3697,13 @@
         <v>98.39</v>
       </c>
       <c r="E95" t="n">
-        <v>98.39</v>
+        <v>97.48</v>
       </c>
       <c r="F95" t="n">
-        <v>3000</v>
+        <v>999</v>
       </c>
       <c r="G95" t="n">
-        <v>97.17283333333339</v>
+        <v>97.14566666666673</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4100,14 +3712,8 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>97.05</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4117,22 +3723,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>97.42</v>
+        <v>98.39</v>
       </c>
       <c r="C96" t="n">
-        <v>97.42</v>
+        <v>98.39</v>
       </c>
       <c r="D96" t="n">
-        <v>97.42</v>
+        <v>98.39</v>
       </c>
       <c r="E96" t="n">
-        <v>97.42</v>
+        <v>98.39</v>
       </c>
       <c r="F96" t="n">
-        <v>12000</v>
+        <v>3000</v>
       </c>
       <c r="G96" t="n">
-        <v>97.1848333333334</v>
+        <v>97.17283333333339</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4141,14 +3747,8 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>97.05</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4170,10 +3770,10 @@
         <v>97.42</v>
       </c>
       <c r="F97" t="n">
-        <v>221.9891</v>
+        <v>12000</v>
       </c>
       <c r="G97" t="n">
-        <v>97.1938333333334</v>
+        <v>97.1848333333334</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4182,16 +3782,10 @@
         <v>1</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>97.05</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
-        <v>0.998812467800103</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -4199,22 +3793,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>97.5</v>
+        <v>97.42</v>
       </c>
       <c r="C98" t="n">
-        <v>97.40000000000001</v>
+        <v>97.42</v>
       </c>
       <c r="D98" t="n">
-        <v>97.5</v>
+        <v>97.42</v>
       </c>
       <c r="E98" t="n">
-        <v>97.40000000000001</v>
+        <v>97.42</v>
       </c>
       <c r="F98" t="n">
-        <v>12990.9794</v>
+        <v>221.9891</v>
       </c>
       <c r="G98" t="n">
-        <v>97.20250000000006</v>
+        <v>97.1938333333334</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4234,28 +3828,28 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>97.3</v>
+        <v>97.5</v>
       </c>
       <c r="C99" t="n">
-        <v>97.3</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="D99" t="n">
-        <v>97.3</v>
+        <v>97.5</v>
       </c>
       <c r="E99" t="n">
-        <v>97.3</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="F99" t="n">
-        <v>1000</v>
+        <v>12990.9794</v>
       </c>
       <c r="G99" t="n">
-        <v>97.21916666666672</v>
+        <v>97.20250000000006</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -4281,10 +3875,10 @@
         <v>97.3</v>
       </c>
       <c r="F100" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="G100" t="n">
-        <v>97.23583333333339</v>
+        <v>97.21916666666672</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4304,22 +3898,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>97.98999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="C101" t="n">
-        <v>97.98999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="D101" t="n">
-        <v>97.98999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="E101" t="n">
-        <v>97.98999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="F101" t="n">
-        <v>66.1283</v>
+        <v>27</v>
       </c>
       <c r="G101" t="n">
-        <v>97.24833333333339</v>
+        <v>97.23583333333339</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4339,22 +3933,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>97.5</v>
+        <v>97.98999999999999</v>
       </c>
       <c r="C102" t="n">
-        <v>97.5</v>
+        <v>97.98999999999999</v>
       </c>
       <c r="D102" t="n">
-        <v>97.5</v>
+        <v>97.98999999999999</v>
       </c>
       <c r="E102" t="n">
-        <v>97.5</v>
+        <v>97.98999999999999</v>
       </c>
       <c r="F102" t="n">
-        <v>84.69670000000001</v>
+        <v>66.1283</v>
       </c>
       <c r="G102" t="n">
-        <v>97.24900000000005</v>
+        <v>97.24833333333339</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4386,10 +3980,10 @@
         <v>97.5</v>
       </c>
       <c r="F103" t="n">
-        <v>221.989</v>
+        <v>84.69670000000001</v>
       </c>
       <c r="G103" t="n">
-        <v>97.25400000000006</v>
+        <v>97.24900000000005</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4409,22 +4003,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>97.41</v>
+        <v>97.5</v>
       </c>
       <c r="C104" t="n">
-        <v>97.40000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="D104" t="n">
-        <v>97.41</v>
+        <v>97.5</v>
       </c>
       <c r="E104" t="n">
-        <v>97.40000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="F104" t="n">
-        <v>13000</v>
+        <v>221.989</v>
       </c>
       <c r="G104" t="n">
-        <v>97.25733333333339</v>
+        <v>97.25400000000006</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4444,22 +4038,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>97.98999999999999</v>
+        <v>97.41</v>
       </c>
       <c r="C105" t="n">
-        <v>97.98999999999999</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="D105" t="n">
-        <v>97.98999999999999</v>
+        <v>97.41</v>
       </c>
       <c r="E105" t="n">
-        <v>97.98999999999999</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="F105" t="n">
-        <v>6</v>
+        <v>13000</v>
       </c>
       <c r="G105" t="n">
-        <v>97.27050000000006</v>
+        <v>97.25733333333339</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4479,22 +4073,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>97.09999999999999</v>
+        <v>97.98999999999999</v>
       </c>
       <c r="C106" t="n">
-        <v>97</v>
+        <v>97.98999999999999</v>
       </c>
       <c r="D106" t="n">
-        <v>97.09999999999999</v>
+        <v>97.98999999999999</v>
       </c>
       <c r="E106" t="n">
-        <v>97</v>
+        <v>97.98999999999999</v>
       </c>
       <c r="F106" t="n">
-        <v>4000</v>
+        <v>6</v>
       </c>
       <c r="G106" t="n">
-        <v>97.26716666666672</v>
+        <v>97.27050000000006</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4514,22 +4108,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="C107" t="n">
         <v>97</v>
       </c>
-      <c r="C107" t="n">
-        <v>96.59999999999999</v>
-      </c>
       <c r="D107" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="E107" t="n">
         <v>97</v>
       </c>
-      <c r="E107" t="n">
-        <v>96.59999999999999</v>
-      </c>
       <c r="F107" t="n">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="G107" t="n">
-        <v>97.25883333333338</v>
+        <v>97.26716666666672</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4549,22 +4143,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>96.59999999999999</v>
+        <v>97</v>
       </c>
       <c r="C108" t="n">
         <v>96.59999999999999</v>
       </c>
       <c r="D108" t="n">
-        <v>96.59999999999999</v>
+        <v>97</v>
       </c>
       <c r="E108" t="n">
         <v>96.59999999999999</v>
       </c>
       <c r="F108" t="n">
-        <v>498.3848</v>
+        <v>1000</v>
       </c>
       <c r="G108" t="n">
-        <v>97.26050000000006</v>
+        <v>97.25883333333338</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4584,22 +4178,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>96.79000000000001</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="C109" t="n">
-        <v>96.79000000000001</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="D109" t="n">
-        <v>96.79000000000001</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="E109" t="n">
-        <v>96.79000000000001</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="F109" t="n">
-        <v>40</v>
+        <v>498.3848</v>
       </c>
       <c r="G109" t="n">
-        <v>97.2653333333334</v>
+        <v>97.26050000000006</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4631,10 +4225,10 @@
         <v>96.79000000000001</v>
       </c>
       <c r="F110" t="n">
-        <v>3093.6499</v>
+        <v>40</v>
       </c>
       <c r="G110" t="n">
-        <v>97.27350000000006</v>
+        <v>97.2653333333334</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4654,22 +4248,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>96.78</v>
+        <v>96.79000000000001</v>
       </c>
       <c r="C111" t="n">
-        <v>96.78</v>
+        <v>96.79000000000001</v>
       </c>
       <c r="D111" t="n">
-        <v>96.78</v>
+        <v>96.79000000000001</v>
       </c>
       <c r="E111" t="n">
-        <v>96.78</v>
+        <v>96.79000000000001</v>
       </c>
       <c r="F111" t="n">
-        <v>2113.019251994214</v>
+        <v>3093.6499</v>
       </c>
       <c r="G111" t="n">
-        <v>97.28300000000006</v>
+        <v>97.27350000000006</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4689,22 +4283,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>96.77</v>
+        <v>96.78</v>
       </c>
       <c r="C112" t="n">
-        <v>96.77</v>
+        <v>96.78</v>
       </c>
       <c r="D112" t="n">
-        <v>96.77</v>
+        <v>96.78</v>
       </c>
       <c r="E112" t="n">
-        <v>96.77</v>
+        <v>96.78</v>
       </c>
       <c r="F112" t="n">
-        <v>2683.1049</v>
+        <v>2113.019251994214</v>
       </c>
       <c r="G112" t="n">
-        <v>97.2908333333334</v>
+        <v>97.28300000000006</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4724,22 +4318,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>96.79000000000001</v>
+        <v>96.77</v>
       </c>
       <c r="C113" t="n">
-        <v>96.79000000000001</v>
+        <v>96.77</v>
       </c>
       <c r="D113" t="n">
-        <v>96.79000000000001</v>
+        <v>96.77</v>
       </c>
       <c r="E113" t="n">
-        <v>96.79000000000001</v>
+        <v>96.77</v>
       </c>
       <c r="F113" t="n">
-        <v>360.8359</v>
+        <v>2683.1049</v>
       </c>
       <c r="G113" t="n">
-        <v>97.29066666666672</v>
+        <v>97.2908333333334</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4759,22 +4353,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>96.59999999999999</v>
+        <v>96.79000000000001</v>
       </c>
       <c r="C114" t="n">
-        <v>96.59999999999999</v>
+        <v>96.79000000000001</v>
       </c>
       <c r="D114" t="n">
-        <v>96.59999999999999</v>
+        <v>96.79000000000001</v>
       </c>
       <c r="E114" t="n">
-        <v>96.59999999999999</v>
+        <v>96.79000000000001</v>
       </c>
       <c r="F114" t="n">
-        <v>1084.8681</v>
+        <v>360.8359</v>
       </c>
       <c r="G114" t="n">
-        <v>97.28650000000006</v>
+        <v>97.29066666666672</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4806,10 +4400,10 @@
         <v>96.59999999999999</v>
       </c>
       <c r="F115" t="n">
-        <v>2000</v>
+        <v>1084.8681</v>
       </c>
       <c r="G115" t="n">
-        <v>97.28150000000007</v>
+        <v>97.28650000000006</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4832,28 +4426,32 @@
         <v>96.59999999999999</v>
       </c>
       <c r="C116" t="n">
-        <v>96.59</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="D116" t="n">
         <v>96.59999999999999</v>
       </c>
       <c r="E116" t="n">
-        <v>96.5</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="F116" t="n">
-        <v>3717.4854</v>
+        <v>2000</v>
       </c>
       <c r="G116" t="n">
-        <v>97.27633333333341</v>
+        <v>97.28150000000007</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="K116" t="n">
+        <v>96.59999999999999</v>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
@@ -4864,32 +4462,40 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>96.3</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="C117" t="n">
-        <v>96.3</v>
+        <v>96.59</v>
       </c>
       <c r="D117" t="n">
-        <v>96.3</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="E117" t="n">
-        <v>96.3</v>
+        <v>96.5</v>
       </c>
       <c r="F117" t="n">
-        <v>3221.6486</v>
+        <v>3717.4854</v>
       </c>
       <c r="G117" t="n">
-        <v>97.26183333333341</v>
+        <v>97.27633333333341</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="K117" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4902,29 +4508,37 @@
         <v>96.3</v>
       </c>
       <c r="C118" t="n">
-        <v>96.59999999999999</v>
+        <v>96.3</v>
       </c>
       <c r="D118" t="n">
-        <v>96.59999999999999</v>
+        <v>96.3</v>
       </c>
       <c r="E118" t="n">
-        <v>94.97</v>
+        <v>96.3</v>
       </c>
       <c r="F118" t="n">
-        <v>397844.6606</v>
+        <v>3221.6486</v>
       </c>
       <c r="G118" t="n">
-        <v>97.25183333333342</v>
+        <v>97.26183333333341</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>96.59</v>
+      </c>
+      <c r="K118" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4934,32 +4548,40 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>96.40000000000001</v>
+        <v>96.3</v>
       </c>
       <c r="C119" t="n">
-        <v>96.48</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="D119" t="n">
-        <v>96.5</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="E119" t="n">
-        <v>96.39</v>
+        <v>94.97</v>
       </c>
       <c r="F119" t="n">
-        <v>58590</v>
+        <v>397844.6606</v>
       </c>
       <c r="G119" t="n">
-        <v>97.23983333333341</v>
+        <v>97.25183333333342</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>96.3</v>
+      </c>
+      <c r="K119" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4969,22 +4591,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>96.69</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="C120" t="n">
-        <v>96.20999999999999</v>
+        <v>96.48</v>
       </c>
       <c r="D120" t="n">
-        <v>96.69</v>
+        <v>96.5</v>
       </c>
       <c r="E120" t="n">
-        <v>96.20999999999999</v>
+        <v>96.39</v>
       </c>
       <c r="F120" t="n">
-        <v>10865</v>
+        <v>58590</v>
       </c>
       <c r="G120" t="n">
-        <v>97.22333333333341</v>
+        <v>97.23983333333341</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4993,8 +4615,14 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5004,32 +4632,38 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>96.67</v>
+        <v>96.69</v>
       </c>
       <c r="C121" t="n">
-        <v>96.68000000000001</v>
+        <v>96.20999999999999</v>
       </c>
       <c r="D121" t="n">
         <v>96.69</v>
       </c>
       <c r="E121" t="n">
-        <v>96.67</v>
+        <v>96.20999999999999</v>
       </c>
       <c r="F121" t="n">
-        <v>5150</v>
+        <v>10865</v>
       </c>
       <c r="G121" t="n">
-        <v>97.21466666666676</v>
+        <v>97.22333333333341</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5039,32 +4673,38 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>96.98999999999999</v>
+        <v>96.67</v>
       </c>
       <c r="C122" t="n">
-        <v>96.98999999999999</v>
+        <v>96.68000000000001</v>
       </c>
       <c r="D122" t="n">
-        <v>96.98999999999999</v>
+        <v>96.69</v>
       </c>
       <c r="E122" t="n">
-        <v>96.98999999999999</v>
+        <v>96.67</v>
       </c>
       <c r="F122" t="n">
-        <v>2000</v>
+        <v>5150</v>
       </c>
       <c r="G122" t="n">
-        <v>97.21116666666676</v>
+        <v>97.21466666666676</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5074,22 +4714,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>96.98</v>
+        <v>96.98999999999999</v>
       </c>
       <c r="C123" t="n">
-        <v>96.98</v>
+        <v>96.98999999999999</v>
       </c>
       <c r="D123" t="n">
-        <v>96.98</v>
+        <v>96.98999999999999</v>
       </c>
       <c r="E123" t="n">
-        <v>96.98</v>
+        <v>96.98999999999999</v>
       </c>
       <c r="F123" t="n">
-        <v>12179.3083</v>
+        <v>2000</v>
       </c>
       <c r="G123" t="n">
-        <v>97.20750000000008</v>
+        <v>97.21116666666676</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5098,8 +4738,14 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5109,22 +4755,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>96.31</v>
+        <v>96.98</v>
       </c>
       <c r="C124" t="n">
-        <v>96.31</v>
+        <v>96.98</v>
       </c>
       <c r="D124" t="n">
-        <v>96.31</v>
+        <v>96.98</v>
       </c>
       <c r="E124" t="n">
-        <v>96.31</v>
+        <v>96.98</v>
       </c>
       <c r="F124" t="n">
-        <v>1982.9453</v>
+        <v>12179.3083</v>
       </c>
       <c r="G124" t="n">
-        <v>97.19266666666677</v>
+        <v>97.20750000000008</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5133,8 +4779,14 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5144,22 +4796,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>96.90000000000001</v>
+        <v>96.31</v>
       </c>
       <c r="C125" t="n">
-        <v>96.90000000000001</v>
+        <v>96.31</v>
       </c>
       <c r="D125" t="n">
-        <v>96.90000000000001</v>
+        <v>96.31</v>
       </c>
       <c r="E125" t="n">
-        <v>96.90000000000001</v>
+        <v>96.31</v>
       </c>
       <c r="F125" t="n">
-        <v>7035.7291</v>
+        <v>1982.9453</v>
       </c>
       <c r="G125" t="n">
-        <v>97.18766666666676</v>
+        <v>97.19266666666677</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5168,8 +4820,14 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5179,22 +4837,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>96.88</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="C126" t="n">
-        <v>96.89</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="D126" t="n">
-        <v>96.89</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="E126" t="n">
-        <v>96.88</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="F126" t="n">
-        <v>14689.4068</v>
+        <v>7035.7291</v>
       </c>
       <c r="G126" t="n">
-        <v>97.17266666666677</v>
+        <v>97.18766666666676</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5203,8 +4861,14 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5214,22 +4878,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>96.87</v>
+        <v>96.88</v>
       </c>
       <c r="C127" t="n">
-        <v>96.61</v>
+        <v>96.89</v>
       </c>
       <c r="D127" t="n">
-        <v>96.87</v>
+        <v>96.89</v>
       </c>
       <c r="E127" t="n">
-        <v>96.61</v>
+        <v>96.88</v>
       </c>
       <c r="F127" t="n">
-        <v>8161.2072</v>
+        <v>14689.4068</v>
       </c>
       <c r="G127" t="n">
-        <v>97.15950000000011</v>
+        <v>97.17266666666677</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5238,8 +4902,14 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5249,22 +4919,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>96.89</v>
+        <v>96.87</v>
       </c>
       <c r="C128" t="n">
-        <v>96.88</v>
+        <v>96.61</v>
       </c>
       <c r="D128" t="n">
-        <v>96.89</v>
+        <v>96.87</v>
       </c>
       <c r="E128" t="n">
-        <v>96.88</v>
+        <v>96.61</v>
       </c>
       <c r="F128" t="n">
-        <v>13058.3204</v>
+        <v>8161.2072</v>
       </c>
       <c r="G128" t="n">
-        <v>97.13933333333344</v>
+        <v>97.15950000000011</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5273,8 +4943,14 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5284,22 +4960,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>96.87</v>
+        <v>96.89</v>
       </c>
       <c r="C129" t="n">
-        <v>96.87</v>
+        <v>96.88</v>
       </c>
       <c r="D129" t="n">
-        <v>96.87</v>
+        <v>96.89</v>
       </c>
       <c r="E129" t="n">
-        <v>96.87</v>
+        <v>96.88</v>
       </c>
       <c r="F129" t="n">
-        <v>6377.4669</v>
+        <v>13058.3204</v>
       </c>
       <c r="G129" t="n">
-        <v>97.12883333333343</v>
+        <v>97.13933333333344</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5308,8 +4984,14 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5319,22 +5001,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>96.59999999999999</v>
+        <v>96.87</v>
       </c>
       <c r="C130" t="n">
-        <v>96.59999999999999</v>
+        <v>96.87</v>
       </c>
       <c r="D130" t="n">
-        <v>96.59999999999999</v>
+        <v>96.87</v>
       </c>
       <c r="E130" t="n">
-        <v>96.59999999999999</v>
+        <v>96.87</v>
       </c>
       <c r="F130" t="n">
-        <v>27258.1313</v>
+        <v>6377.4669</v>
       </c>
       <c r="G130" t="n">
-        <v>97.11383333333343</v>
+        <v>97.12883333333343</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5343,8 +5025,14 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5354,22 +5042,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>96.89</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="C131" t="n">
         <v>96.59999999999999</v>
       </c>
       <c r="D131" t="n">
-        <v>96.89</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="E131" t="n">
         <v>96.59999999999999</v>
       </c>
       <c r="F131" t="n">
-        <v>8753.4195</v>
+        <v>27258.1313</v>
       </c>
       <c r="G131" t="n">
-        <v>97.09083333333345</v>
+        <v>97.11383333333343</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5378,8 +5066,14 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5389,22 +5083,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>96.88</v>
+        <v>96.89</v>
       </c>
       <c r="C132" t="n">
         <v>96.59999999999999</v>
       </c>
       <c r="D132" t="n">
-        <v>96.88</v>
+        <v>96.89</v>
       </c>
       <c r="E132" t="n">
         <v>96.59999999999999</v>
       </c>
       <c r="F132" t="n">
-        <v>15145</v>
+        <v>8753.4195</v>
       </c>
       <c r="G132" t="n">
-        <v>97.07916666666679</v>
+        <v>97.09083333333345</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5413,8 +5107,14 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5424,22 +5124,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>96.45</v>
+        <v>96.88</v>
       </c>
       <c r="C133" t="n">
-        <v>96.31</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="D133" t="n">
-        <v>96.45</v>
+        <v>96.88</v>
       </c>
       <c r="E133" t="n">
-        <v>96.31</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="F133" t="n">
-        <v>9929</v>
+        <v>15145</v>
       </c>
       <c r="G133" t="n">
-        <v>97.06266666666679</v>
+        <v>97.07916666666679</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5448,8 +5148,14 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5459,22 +5165,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>96.8</v>
+        <v>96.45</v>
       </c>
       <c r="C134" t="n">
-        <v>96.8</v>
+        <v>96.31</v>
       </c>
       <c r="D134" t="n">
-        <v>96.8</v>
+        <v>96.45</v>
       </c>
       <c r="E134" t="n">
-        <v>96.8</v>
+        <v>96.31</v>
       </c>
       <c r="F134" t="n">
-        <v>1007.6455</v>
+        <v>9929</v>
       </c>
       <c r="G134" t="n">
-        <v>97.05600000000013</v>
+        <v>97.06266666666679</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5483,8 +5189,14 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5506,10 +5218,10 @@
         <v>96.8</v>
       </c>
       <c r="F135" t="n">
-        <v>223.2387</v>
+        <v>1007.6455</v>
       </c>
       <c r="G135" t="n">
-        <v>97.0476666666668</v>
+        <v>97.05600000000013</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5518,8 +5230,14 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5529,7 +5247,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>96.42</v>
+        <v>96.8</v>
       </c>
       <c r="C136" t="n">
         <v>96.8</v>
@@ -5538,13 +5256,13 @@
         <v>96.8</v>
       </c>
       <c r="E136" t="n">
-        <v>96.42</v>
+        <v>96.8</v>
       </c>
       <c r="F136" t="n">
-        <v>433.2972</v>
+        <v>223.2387</v>
       </c>
       <c r="G136" t="n">
-        <v>97.03933333333346</v>
+        <v>97.0476666666668</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5553,8 +5271,14 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5564,22 +5288,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>96.44</v>
+        <v>96.42</v>
       </c>
       <c r="C137" t="n">
-        <v>96.44</v>
+        <v>96.8</v>
       </c>
       <c r="D137" t="n">
-        <v>96.44</v>
+        <v>96.8</v>
       </c>
       <c r="E137" t="n">
-        <v>96.44</v>
+        <v>96.42</v>
       </c>
       <c r="F137" t="n">
-        <v>316.7939</v>
+        <v>433.2972</v>
       </c>
       <c r="G137" t="n">
-        <v>97.02500000000012</v>
+        <v>97.03933333333346</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5588,8 +5312,14 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5599,22 +5329,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>96.78</v>
+        <v>96.44</v>
       </c>
       <c r="C138" t="n">
-        <v>96.77</v>
+        <v>96.44</v>
       </c>
       <c r="D138" t="n">
-        <v>96.78</v>
+        <v>96.44</v>
       </c>
       <c r="E138" t="n">
-        <v>96.77</v>
+        <v>96.44</v>
       </c>
       <c r="F138" t="n">
-        <v>4876</v>
+        <v>316.7939</v>
       </c>
       <c r="G138" t="n">
-        <v>97.01616666666679</v>
+        <v>97.02500000000012</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5623,8 +5353,14 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5634,22 +5370,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>96.98999999999999</v>
+        <v>96.78</v>
       </c>
       <c r="C139" t="n">
-        <v>96.98999999999999</v>
+        <v>96.77</v>
       </c>
       <c r="D139" t="n">
-        <v>96.98999999999999</v>
+        <v>96.78</v>
       </c>
       <c r="E139" t="n">
-        <v>96.98999999999999</v>
+        <v>96.77</v>
       </c>
       <c r="F139" t="n">
-        <v>6</v>
+        <v>4876</v>
       </c>
       <c r="G139" t="n">
-        <v>97.01250000000012</v>
+        <v>97.01616666666679</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5658,8 +5394,14 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5669,22 +5411,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>96.98</v>
+        <v>96.98999999999999</v>
       </c>
       <c r="C140" t="n">
-        <v>96.98</v>
+        <v>96.98999999999999</v>
       </c>
       <c r="D140" t="n">
-        <v>96.98</v>
+        <v>96.98999999999999</v>
       </c>
       <c r="E140" t="n">
-        <v>96.98</v>
+        <v>96.98999999999999</v>
       </c>
       <c r="F140" t="n">
-        <v>7355</v>
+        <v>6</v>
       </c>
       <c r="G140" t="n">
-        <v>97.01050000000011</v>
+        <v>97.01250000000012</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5693,8 +5435,14 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5707,19 +5455,19 @@
         <v>96.98</v>
       </c>
       <c r="C141" t="n">
-        <v>96.98999999999999</v>
+        <v>96.98</v>
       </c>
       <c r="D141" t="n">
-        <v>96.98999999999999</v>
+        <v>96.98</v>
       </c>
       <c r="E141" t="n">
         <v>96.98</v>
       </c>
       <c r="F141" t="n">
-        <v>10889.5444</v>
+        <v>7355</v>
       </c>
       <c r="G141" t="n">
-        <v>97.01183333333344</v>
+        <v>97.01050000000011</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5728,8 +5476,14 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5739,7 +5493,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>96.98999999999999</v>
+        <v>96.98</v>
       </c>
       <c r="C142" t="n">
         <v>96.98999999999999</v>
@@ -5748,13 +5502,13 @@
         <v>96.98999999999999</v>
       </c>
       <c r="E142" t="n">
-        <v>96.98999999999999</v>
+        <v>96.98</v>
       </c>
       <c r="F142" t="n">
-        <v>588.1763999999999</v>
+        <v>10889.5444</v>
       </c>
       <c r="G142" t="n">
-        <v>97.01316666666678</v>
+        <v>97.01183333333344</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5763,8 +5517,14 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5786,10 +5546,10 @@
         <v>96.98999999999999</v>
       </c>
       <c r="F143" t="n">
-        <v>824.2472</v>
+        <v>588.1763999999999</v>
       </c>
       <c r="G143" t="n">
-        <v>97.01133333333343</v>
+        <v>97.01316666666678</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5798,8 +5558,14 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5809,22 +5575,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>96.98</v>
+        <v>96.98999999999999</v>
       </c>
       <c r="C144" t="n">
-        <v>96.98</v>
+        <v>96.98999999999999</v>
       </c>
       <c r="D144" t="n">
         <v>96.98999999999999</v>
       </c>
       <c r="E144" t="n">
-        <v>96.97</v>
+        <v>96.98999999999999</v>
       </c>
       <c r="F144" t="n">
-        <v>9210.763000000001</v>
+        <v>824.2472</v>
       </c>
       <c r="G144" t="n">
-        <v>97.00933333333342</v>
+        <v>97.01133333333343</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5833,8 +5599,14 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5844,7 +5616,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>96.98999999999999</v>
+        <v>96.98</v>
       </c>
       <c r="C145" t="n">
         <v>96.98</v>
@@ -5853,13 +5625,13 @@
         <v>96.98999999999999</v>
       </c>
       <c r="E145" t="n">
-        <v>96.8</v>
+        <v>96.97</v>
       </c>
       <c r="F145" t="n">
-        <v>17584.0311</v>
+        <v>9210.763000000001</v>
       </c>
       <c r="G145" t="n">
-        <v>97.00733333333341</v>
+        <v>97.00933333333342</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5868,8 +5640,14 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5888,13 +5666,13 @@
         <v>96.98999999999999</v>
       </c>
       <c r="E146" t="n">
-        <v>96.98</v>
+        <v>96.8</v>
       </c>
       <c r="F146" t="n">
-        <v>3683.631</v>
+        <v>17584.0311</v>
       </c>
       <c r="G146" t="n">
-        <v>97.00116666666672</v>
+        <v>97.00733333333341</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5903,8 +5681,14 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5917,19 +5701,19 @@
         <v>96.98999999999999</v>
       </c>
       <c r="C147" t="n">
-        <v>96.98999999999999</v>
+        <v>96.98</v>
       </c>
       <c r="D147" t="n">
         <v>96.98999999999999</v>
       </c>
       <c r="E147" t="n">
-        <v>96.98999999999999</v>
+        <v>96.98</v>
       </c>
       <c r="F147" t="n">
-        <v>2912.8738</v>
+        <v>3683.631</v>
       </c>
       <c r="G147" t="n">
-        <v>96.99516666666672</v>
+        <v>97.00116666666672</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5938,8 +5722,14 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5952,19 +5742,19 @@
         <v>96.98999999999999</v>
       </c>
       <c r="C148" t="n">
-        <v>97.19</v>
+        <v>96.98999999999999</v>
       </c>
       <c r="D148" t="n">
-        <v>97.19</v>
+        <v>96.98999999999999</v>
       </c>
       <c r="E148" t="n">
         <v>96.98999999999999</v>
       </c>
       <c r="F148" t="n">
-        <v>12110</v>
+        <v>2912.8738</v>
       </c>
       <c r="G148" t="n">
-        <v>96.9966666666667</v>
+        <v>96.99516666666672</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5973,8 +5763,14 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5984,7 +5780,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>97.19</v>
+        <v>96.98999999999999</v>
       </c>
       <c r="C149" t="n">
         <v>97.19</v>
@@ -5993,13 +5789,13 @@
         <v>97.19</v>
       </c>
       <c r="E149" t="n">
-        <v>97.19</v>
+        <v>96.98999999999999</v>
       </c>
       <c r="F149" t="n">
-        <v>2420</v>
+        <v>12110</v>
       </c>
       <c r="G149" t="n">
-        <v>96.99816666666669</v>
+        <v>96.9966666666667</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6008,8 +5804,14 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6019,7 +5821,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>97.15000000000001</v>
+        <v>97.19</v>
       </c>
       <c r="C150" t="n">
         <v>97.19</v>
@@ -6028,13 +5830,13 @@
         <v>97.19</v>
       </c>
       <c r="E150" t="n">
-        <v>97.15000000000001</v>
+        <v>97.19</v>
       </c>
       <c r="F150" t="n">
-        <v>3512.3537</v>
+        <v>2420</v>
       </c>
       <c r="G150" t="n">
-        <v>96.99966666666667</v>
+        <v>96.99816666666669</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6043,8 +5845,14 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6054,22 +5862,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>97.2</v>
+        <v>97.15000000000001</v>
       </c>
       <c r="C151" t="n">
-        <v>97.2</v>
+        <v>97.19</v>
       </c>
       <c r="D151" t="n">
-        <v>97.2</v>
+        <v>97.19</v>
       </c>
       <c r="E151" t="n">
-        <v>97.2</v>
+        <v>97.15000000000001</v>
       </c>
       <c r="F151" t="n">
-        <v>878.2794</v>
+        <v>3512.3537</v>
       </c>
       <c r="G151" t="n">
-        <v>96.99616666666667</v>
+        <v>96.99966666666667</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6078,8 +5886,14 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6089,22 +5903,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>97</v>
+        <v>97.2</v>
       </c>
       <c r="C152" t="n">
-        <v>97</v>
+        <v>97.2</v>
       </c>
       <c r="D152" t="n">
-        <v>97</v>
+        <v>97.2</v>
       </c>
       <c r="E152" t="n">
-        <v>97</v>
+        <v>97.2</v>
       </c>
       <c r="F152" t="n">
-        <v>10525.6441</v>
+        <v>878.2794</v>
       </c>
       <c r="G152" t="n">
-        <v>96.98116666666668</v>
+        <v>96.99616666666667</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6113,8 +5927,14 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6124,22 +5944,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>97.2</v>
+        <v>97</v>
       </c>
       <c r="C153" t="n">
-        <v>97.2</v>
+        <v>97</v>
       </c>
       <c r="D153" t="n">
-        <v>97.2</v>
+        <v>97</v>
       </c>
       <c r="E153" t="n">
-        <v>97.2</v>
+        <v>97</v>
       </c>
       <c r="F153" t="n">
-        <v>6</v>
+        <v>10525.6441</v>
       </c>
       <c r="G153" t="n">
-        <v>96.96950000000001</v>
+        <v>96.98116666666668</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6148,8 +5968,14 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6159,22 +5985,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>97.09999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="C154" t="n">
-        <v>97.09999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="D154" t="n">
-        <v>97.09999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="E154" t="n">
-        <v>97.09999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="F154" t="n">
-        <v>1461.3629</v>
+        <v>6</v>
       </c>
       <c r="G154" t="n">
-        <v>96.94800000000002</v>
+        <v>96.96950000000001</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6183,8 +6009,14 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6194,22 +6026,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>97.2</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="C155" t="n">
-        <v>97.2</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D155" t="n">
-        <v>97.2</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E155" t="n">
-        <v>97.2</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="F155" t="n">
-        <v>6</v>
+        <v>1461.3629</v>
       </c>
       <c r="G155" t="n">
-        <v>96.92816666666667</v>
+        <v>96.94800000000002</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6218,8 +6050,14 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6229,22 +6067,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>97.01000000000001</v>
+        <v>97.2</v>
       </c>
       <c r="C156" t="n">
-        <v>97.01000000000001</v>
+        <v>97.2</v>
       </c>
       <c r="D156" t="n">
-        <v>97.01000000000001</v>
+        <v>97.2</v>
       </c>
       <c r="E156" t="n">
-        <v>97.01000000000001</v>
+        <v>97.2</v>
       </c>
       <c r="F156" t="n">
-        <v>12860.6742</v>
+        <v>6</v>
       </c>
       <c r="G156" t="n">
-        <v>96.92133333333335</v>
+        <v>96.92816666666667</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6253,8 +6091,14 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6276,10 +6120,10 @@
         <v>97.01000000000001</v>
       </c>
       <c r="F157" t="n">
-        <v>3163.9491</v>
+        <v>12860.6742</v>
       </c>
       <c r="G157" t="n">
-        <v>96.91450000000002</v>
+        <v>96.92133333333335</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6288,8 +6132,14 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6302,19 +6152,19 @@
         <v>97.01000000000001</v>
       </c>
       <c r="C158" t="n">
-        <v>97.2</v>
+        <v>97.01000000000001</v>
       </c>
       <c r="D158" t="n">
-        <v>97.2</v>
+        <v>97.01000000000001</v>
       </c>
       <c r="E158" t="n">
         <v>97.01000000000001</v>
       </c>
       <c r="F158" t="n">
-        <v>442.4327</v>
+        <v>3163.9491</v>
       </c>
       <c r="G158" t="n">
-        <v>96.91116666666669</v>
+        <v>96.91450000000002</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6323,8 +6173,14 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6334,7 +6190,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>97.2</v>
+        <v>97.01000000000001</v>
       </c>
       <c r="C159" t="n">
         <v>97.2</v>
@@ -6343,13 +6199,13 @@
         <v>97.2</v>
       </c>
       <c r="E159" t="n">
-        <v>97.2</v>
+        <v>97.01000000000001</v>
       </c>
       <c r="F159" t="n">
-        <v>635.7907</v>
+        <v>442.4327</v>
       </c>
       <c r="G159" t="n">
-        <v>96.90950000000001</v>
+        <v>96.91116666666669</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6358,8 +6214,14 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6381,10 +6243,10 @@
         <v>97.2</v>
       </c>
       <c r="F160" t="n">
-        <v>1000.3</v>
+        <v>635.7907</v>
       </c>
       <c r="G160" t="n">
-        <v>96.90783333333334</v>
+        <v>96.90950000000001</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6393,8 +6255,14 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6404,22 +6272,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>96.90000000000001</v>
+        <v>97.2</v>
       </c>
       <c r="C161" t="n">
-        <v>96.90000000000001</v>
+        <v>97.2</v>
       </c>
       <c r="D161" t="n">
-        <v>96.90000000000001</v>
+        <v>97.2</v>
       </c>
       <c r="E161" t="n">
-        <v>96.90000000000001</v>
+        <v>97.2</v>
       </c>
       <c r="F161" t="n">
-        <v>3760.8453</v>
+        <v>1000.3</v>
       </c>
       <c r="G161" t="n">
-        <v>96.88966666666667</v>
+        <v>96.90783333333334</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6428,8 +6296,14 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6439,33 +6313,80 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>97.2</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="C162" t="n">
-        <v>97.2</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="D162" t="n">
-        <v>97.2</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="E162" t="n">
-        <v>97.2</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="F162" t="n">
+        <v>3760.8453</v>
+      </c>
+      <c r="G162" t="n">
+        <v>96.88966666666667</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="C163" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="D163" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="E163" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="F163" t="n">
         <v>6</v>
       </c>
-      <c r="G162" t="n">
+      <c r="G163" t="n">
         <v>96.88466666666666</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-26 BackTest ENJ.xlsx
+++ b/BackTest/2020-01-26 BackTest ENJ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M163"/>
+  <dimension ref="A1:N173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>18.0923</v>
       </c>
       <c r="G2" t="n">
+        <v>99.68533333333332</v>
+      </c>
+      <c r="H2" t="n">
         <v>100.4714999999999</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>1124.3442</v>
       </c>
       <c r="G3" t="n">
+        <v>99.57333333333331</v>
+      </c>
+      <c r="H3" t="n">
         <v>100.4284999999999</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>1150.3408</v>
       </c>
       <c r="G4" t="n">
+        <v>99.4593333333333</v>
+      </c>
+      <c r="H4" t="n">
         <v>100.3751666666666</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>77563.75290000001</v>
       </c>
       <c r="G5" t="n">
+        <v>99.31466666666664</v>
+      </c>
+      <c r="H5" t="n">
         <v>100.3239999999999</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>10762.7688</v>
       </c>
       <c r="G6" t="n">
+        <v>99.22866666666663</v>
+      </c>
+      <c r="H6" t="n">
         <v>100.2839999999999</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>352.6114</v>
       </c>
       <c r="G7" t="n">
+        <v>99.09466666666663</v>
+      </c>
+      <c r="H7" t="n">
         <v>100.2178333333333</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>81.1572</v>
       </c>
       <c r="G8" t="n">
+        <v>98.95933333333329</v>
+      </c>
+      <c r="H8" t="n">
         <v>100.1756666666666</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>15540.5205</v>
       </c>
       <c r="G9" t="n">
+        <v>98.88199999999996</v>
+      </c>
+      <c r="H9" t="n">
         <v>100.1368333333333</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>4709.7017</v>
       </c>
       <c r="G10" t="n">
+        <v>98.75533333333328</v>
+      </c>
+      <c r="H10" t="n">
         <v>100.084</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>8315.560600000001</v>
       </c>
       <c r="G11" t="n">
+        <v>98.64199999999997</v>
+      </c>
+      <c r="H11" t="n">
         <v>100.0323333333333</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>3469.0406</v>
       </c>
       <c r="G12" t="n">
+        <v>98.55066666666663</v>
+      </c>
+      <c r="H12" t="n">
         <v>99.99616666666661</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>28462.7042</v>
       </c>
       <c r="G13" t="n">
+        <v>98.48866666666663</v>
+      </c>
+      <c r="H13" t="n">
         <v>99.96433333333329</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>365.5379</v>
       </c>
       <c r="G14" t="n">
+        <v>98.43999999999997</v>
+      </c>
+      <c r="H14" t="n">
         <v>99.92266666666661</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>1389.8713</v>
       </c>
       <c r="G15" t="n">
+        <v>98.3773333333333</v>
+      </c>
+      <c r="H15" t="n">
         <v>99.87266666666662</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>365.5379</v>
       </c>
       <c r="G16" t="n">
+        <v>98.33066666666663</v>
+      </c>
+      <c r="H16" t="n">
         <v>99.82766666666662</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>104086.8098</v>
       </c>
       <c r="G17" t="n">
+        <v>98.17866666666663</v>
+      </c>
+      <c r="H17" t="n">
         <v>99.76616666666662</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>44701.91818574913</v>
       </c>
       <c r="G18" t="n">
+        <v>98.14266666666663</v>
+      </c>
+      <c r="H18" t="n">
         <v>99.72249999999995</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>3696.5584</v>
       </c>
       <c r="G19" t="n">
+        <v>98.11666666666662</v>
+      </c>
+      <c r="H19" t="n">
         <v>99.6693333333333</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>44317.5604</v>
       </c>
       <c r="G20" t="n">
+        <v>98.10866666666662</v>
+      </c>
+      <c r="H20" t="n">
         <v>99.61449999999996</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>7897.5329</v>
       </c>
       <c r="G21" t="n">
+        <v>98.04333333333331</v>
+      </c>
+      <c r="H21" t="n">
         <v>99.55816666666664</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>8184.8952</v>
       </c>
       <c r="G22" t="n">
+        <v>98.02866666666664</v>
+      </c>
+      <c r="H22" t="n">
         <v>99.51166666666663</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>11311.2798</v>
       </c>
       <c r="G23" t="n">
+        <v>97.97133333333331</v>
+      </c>
+      <c r="H23" t="n">
         <v>99.47016666666663</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>24140.6743</v>
       </c>
       <c r="G24" t="n">
+        <v>97.87333333333329</v>
+      </c>
+      <c r="H24" t="n">
         <v>99.41849999999997</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>98859.44469999999</v>
       </c>
       <c r="G25" t="n">
+        <v>97.82466666666663</v>
+      </c>
+      <c r="H25" t="n">
         <v>99.35349999999997</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>3621.0827</v>
       </c>
       <c r="G26" t="n">
+        <v>97.77133333333329</v>
+      </c>
+      <c r="H26" t="n">
         <v>99.28849999999997</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>52239.878</v>
       </c>
       <c r="G27" t="n">
+        <v>97.69599999999994</v>
+      </c>
+      <c r="H27" t="n">
         <v>99.22349999999999</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>140876.4748</v>
       </c>
       <c r="G28" t="n">
+        <v>97.58999999999995</v>
+      </c>
+      <c r="H28" t="n">
         <v>99.15683333333331</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>27730</v>
       </c>
       <c r="G29" t="n">
+        <v>97.42533333333328</v>
+      </c>
+      <c r="H29" t="n">
         <v>99.07733333333331</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>121711.4748</v>
       </c>
       <c r="G30" t="n">
+        <v>97.35733333333329</v>
+      </c>
+      <c r="H30" t="n">
         <v>99.00866666666663</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>100108.6933</v>
       </c>
       <c r="G31" t="n">
+        <v>97.26999999999995</v>
+      </c>
+      <c r="H31" t="n">
         <v>98.94349999999996</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>5225.4704</v>
       </c>
       <c r="G32" t="n">
+        <v>97.24799999999996</v>
+      </c>
+      <c r="H32" t="n">
         <v>98.88316666666664</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>20000</v>
       </c>
       <c r="G33" t="n">
+        <v>97.16599999999995</v>
+      </c>
+      <c r="H33" t="n">
         <v>98.82066666666664</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>1268.8554</v>
       </c>
       <c r="G34" t="n">
+        <v>97.10533333333329</v>
+      </c>
+      <c r="H34" t="n">
         <v>98.76566666666663</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>3805.0265</v>
       </c>
       <c r="G35" t="n">
+        <v>97.05399999999996</v>
+      </c>
+      <c r="H35" t="n">
         <v>98.69966666666663</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>2406.7191</v>
       </c>
       <c r="G36" t="n">
+        <v>96.99666666666663</v>
+      </c>
+      <c r="H36" t="n">
         <v>98.6373333333333</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>2702.8203</v>
       </c>
       <c r="G37" t="n">
+        <v>96.93599999999996</v>
+      </c>
+      <c r="H37" t="n">
         <v>98.56733333333331</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>6962.5129</v>
       </c>
       <c r="G38" t="n">
+        <v>96.88733333333332</v>
+      </c>
+      <c r="H38" t="n">
         <v>98.50033333333332</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>4358.1012</v>
       </c>
       <c r="G39" t="n">
+        <v>96.87266666666665</v>
+      </c>
+      <c r="H39" t="n">
         <v>98.43333333333332</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>6257.6282</v>
       </c>
       <c r="G40" t="n">
+        <v>96.81933333333332</v>
+      </c>
+      <c r="H40" t="n">
         <v>98.36166666666665</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>0.0001</v>
       </c>
       <c r="G41" t="n">
+        <v>96.76599999999999</v>
+      </c>
+      <c r="H41" t="n">
         <v>98.29666666666665</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>36561.8836</v>
       </c>
       <c r="G42" t="n">
+        <v>96.77533333333332</v>
+      </c>
+      <c r="H42" t="n">
         <v>98.25116666666665</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>15.4936</v>
       </c>
       <c r="G43" t="n">
+        <v>96.81266666666666</v>
+      </c>
+      <c r="H43" t="n">
         <v>98.20549999999999</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>82327.8983</v>
       </c>
       <c r="G44" t="n">
+        <v>96.89066666666666</v>
+      </c>
+      <c r="H44" t="n">
         <v>98.15933333333331</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>1900</v>
       </c>
       <c r="G45" t="n">
+        <v>96.90533333333333</v>
+      </c>
+      <c r="H45" t="n">
         <v>98.11316666666663</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>13000</v>
       </c>
       <c r="G46" t="n">
+        <v>96.92599999999999</v>
+      </c>
+      <c r="H46" t="n">
         <v>98.06816666666664</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>608.3825000000001</v>
       </c>
       <c r="G47" t="n">
+        <v>96.94733333333333</v>
+      </c>
+      <c r="H47" t="n">
         <v>98.01483333333331</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>10.29866117404737</v>
       </c>
       <c r="G48" t="n">
+        <v>96.95066666666666</v>
+      </c>
+      <c r="H48" t="n">
         <v>97.95816666666664</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>10.6518</v>
       </c>
       <c r="G49" t="n">
+        <v>96.92399999999999</v>
+      </c>
+      <c r="H49" t="n">
         <v>97.90133333333331</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>2775.3755</v>
       </c>
       <c r="G50" t="n">
+        <v>96.89466666666665</v>
+      </c>
+      <c r="H50" t="n">
         <v>97.84299999999999</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>34573.8412</v>
       </c>
       <c r="G51" t="n">
+        <v>96.86399999999999</v>
+      </c>
+      <c r="H51" t="n">
         <v>97.78316666666665</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>3428.0117</v>
       </c>
       <c r="G52" t="n">
+        <v>96.83133333333332</v>
+      </c>
+      <c r="H52" t="n">
         <v>97.72266666666664</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>14590.4235</v>
       </c>
       <c r="G53" t="n">
+        <v>96.79266666666666</v>
+      </c>
+      <c r="H53" t="n">
         <v>97.65266666666665</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,25 @@
         <v>374.8069</v>
       </c>
       <c r="G54" t="n">
+        <v>96.78733333333334</v>
+      </c>
+      <c r="H54" t="n">
         <v>97.60383333333333</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>96.3</v>
+      </c>
+      <c r="L54" t="n">
+        <v>96.3</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2471,27 @@
         <v>392.4325</v>
       </c>
       <c r="G55" t="n">
+        <v>96.824</v>
+      </c>
+      <c r="H55" t="n">
         <v>97.55583333333334</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="L55" t="n">
+        <v>96.3</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2515,27 @@
         <v>81921.9675</v>
       </c>
       <c r="G56" t="n">
+        <v>96.864</v>
+      </c>
+      <c r="H56" t="n">
         <v>97.51083333333332</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="L56" t="n">
+        <v>96.3</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2559,21 @@
         <v>1969.7897</v>
       </c>
       <c r="G57" t="n">
+        <v>96.84133333333334</v>
+      </c>
+      <c r="H57" t="n">
         <v>97.46583333333332</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2597,21 @@
         <v>6</v>
       </c>
       <c r="G58" t="n">
+        <v>96.82200000000002</v>
+      </c>
+      <c r="H58" t="n">
         <v>97.42833333333331</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2635,21 @@
         <v>1225.554</v>
       </c>
       <c r="G59" t="n">
+        <v>96.82200000000002</v>
+      </c>
+      <c r="H59" t="n">
         <v>97.39449999999998</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2673,21 @@
         <v>0.0001</v>
       </c>
       <c r="G60" t="n">
+        <v>96.82200000000002</v>
+      </c>
+      <c r="H60" t="n">
         <v>97.36549999999998</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2711,21 @@
         <v>9.9999</v>
       </c>
       <c r="G61" t="n">
+        <v>96.82200000000002</v>
+      </c>
+      <c r="H61" t="n">
         <v>97.33716666666666</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2749,21 @@
         <v>2064.0277</v>
       </c>
       <c r="G62" t="n">
+        <v>96.82200000000002</v>
+      </c>
+      <c r="H62" t="n">
         <v>97.29899999999999</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2787,21 @@
         <v>917.0569</v>
       </c>
       <c r="G63" t="n">
+        <v>96.82866666666669</v>
+      </c>
+      <c r="H63" t="n">
         <v>97.27199999999999</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2825,21 @@
         <v>552.2329</v>
       </c>
       <c r="G64" t="n">
+        <v>96.87533333333336</v>
+      </c>
+      <c r="H64" t="n">
         <v>97.25533333333333</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2863,21 @@
         <v>20</v>
       </c>
       <c r="G65" t="n">
+        <v>96.92200000000003</v>
+      </c>
+      <c r="H65" t="n">
         <v>97.24483333333333</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2901,21 @@
         <v>222.9595</v>
       </c>
       <c r="G66" t="n">
+        <v>96.98200000000003</v>
+      </c>
+      <c r="H66" t="n">
         <v>97.22149999999998</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2939,21 @@
         <v>10980</v>
       </c>
       <c r="G67" t="n">
+        <v>97.08733333333336</v>
+      </c>
+      <c r="H67" t="n">
         <v>97.22083333333332</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2977,21 @@
         <v>96</v>
       </c>
       <c r="G68" t="n">
+        <v>97.1606666666667</v>
+      </c>
+      <c r="H68" t="n">
         <v>97.20299999999997</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +3015,21 @@
         <v>2078.5833</v>
       </c>
       <c r="G69" t="n">
+        <v>97.2466666666667</v>
+      </c>
+      <c r="H69" t="n">
         <v>97.19499999999998</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3053,21 @@
         <v>330</v>
       </c>
       <c r="G70" t="n">
+        <v>97.29000000000003</v>
+      </c>
+      <c r="H70" t="n">
         <v>97.18949999999998</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3091,21 @@
         <v>157.1994</v>
       </c>
       <c r="G71" t="n">
+        <v>97.33000000000003</v>
+      </c>
+      <c r="H71" t="n">
         <v>97.18283333333332</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3129,21 @@
         <v>330</v>
       </c>
       <c r="G72" t="n">
+        <v>97.40200000000003</v>
+      </c>
+      <c r="H72" t="n">
         <v>97.17866666666666</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3167,21 @@
         <v>270.2434</v>
       </c>
       <c r="G73" t="n">
+        <v>97.41066666666669</v>
+      </c>
+      <c r="H73" t="n">
         <v>97.15883333333333</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3205,21 @@
         <v>268.811</v>
       </c>
       <c r="G74" t="n">
+        <v>97.41733333333335</v>
+      </c>
+      <c r="H74" t="n">
         <v>97.13883333333334</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3243,21 @@
         <v>30</v>
       </c>
       <c r="G75" t="n">
+        <v>97.41733333333335</v>
+      </c>
+      <c r="H75" t="n">
         <v>97.1255</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3281,21 @@
         <v>114.5984</v>
       </c>
       <c r="G76" t="n">
+        <v>97.42400000000001</v>
+      </c>
+      <c r="H76" t="n">
         <v>97.1105</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3319,21 @@
         <v>103.1385</v>
       </c>
       <c r="G77" t="n">
+        <v>97.43066666666667</v>
+      </c>
+      <c r="H77" t="n">
         <v>97.11200000000001</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3357,21 @@
         <v>92.82470000000001</v>
       </c>
       <c r="G78" t="n">
+        <v>97.43733333333333</v>
+      </c>
+      <c r="H78" t="n">
         <v>97.09566666666667</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3395,21 @@
         <v>83.54219999999999</v>
       </c>
       <c r="G79" t="n">
+        <v>97.44399999999999</v>
+      </c>
+      <c r="H79" t="n">
         <v>97.08716666666668</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3433,21 @@
         <v>2280.0188</v>
       </c>
       <c r="G80" t="n">
+        <v>97.44466666666666</v>
+      </c>
+      <c r="H80" t="n">
         <v>97.07883333333334</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3471,21 @@
         <v>1589.3652</v>
       </c>
       <c r="G81" t="n">
+        <v>97.43799999999997</v>
+      </c>
+      <c r="H81" t="n">
         <v>97.07016666666668</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3509,27 @@
         <v>1017.7427</v>
       </c>
       <c r="G82" t="n">
+        <v>97.37933333333332</v>
+      </c>
+      <c r="H82" t="n">
         <v>97.05850000000002</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>97.09999999999999</v>
+      </c>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3553,27 @@
         <v>9829.936100000001</v>
       </c>
       <c r="G83" t="n">
+        <v>97.34666666666665</v>
+      </c>
+      <c r="H83" t="n">
         <v>97.04683333333335</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="n">
+        <v>96.91</v>
+      </c>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3597,27 @@
         <v>4000</v>
       </c>
       <c r="G84" t="n">
+        <v>97.28066666666665</v>
+      </c>
+      <c r="H84" t="n">
         <v>97.04683333333335</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="n">
+        <v>96.91</v>
+      </c>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3641,27 @@
         <v>17827.2179</v>
       </c>
       <c r="G85" t="n">
+        <v>97.25399999999998</v>
+      </c>
+      <c r="H85" t="n">
         <v>97.04683333333335</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="n">
+        <v>97.09999999999999</v>
+      </c>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3685,27 @@
         <v>4892.6428</v>
       </c>
       <c r="G86" t="n">
+        <v>97.22733333333331</v>
+      </c>
+      <c r="H86" t="n">
         <v>97.04683333333335</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="n">
+        <v>97.09999999999999</v>
+      </c>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3729,27 @@
         <v>6444.8601</v>
       </c>
       <c r="G87" t="n">
+        <v>97.1853333333333</v>
+      </c>
+      <c r="H87" t="n">
         <v>97.05100000000002</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="n">
+        <v>97.09999999999999</v>
+      </c>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3773,25 @@
         <v>135.188</v>
       </c>
       <c r="G88" t="n">
+        <v>97.18866666666663</v>
+      </c>
+      <c r="H88" t="n">
         <v>97.05850000000004</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3815,25 @@
         <v>1117.8713</v>
       </c>
       <c r="G89" t="n">
+        <v>97.1753333333333</v>
+      </c>
+      <c r="H89" t="n">
         <v>97.07633333333338</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3857,25 @@
         <v>232.3836</v>
       </c>
       <c r="G90" t="n">
+        <v>97.16866666666662</v>
+      </c>
+      <c r="H90" t="n">
         <v>97.07833333333339</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +3899,25 @@
         <v>0.3308</v>
       </c>
       <c r="G91" t="n">
+        <v>97.15533333333329</v>
+      </c>
+      <c r="H91" t="n">
         <v>97.08183333333339</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +3941,25 @@
         <v>3000</v>
       </c>
       <c r="G92" t="n">
+        <v>97.16266666666662</v>
+      </c>
+      <c r="H92" t="n">
         <v>97.09066666666672</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +3983,25 @@
         <v>536.0131</v>
       </c>
       <c r="G93" t="n">
+        <v>97.20266666666663</v>
+      </c>
+      <c r="H93" t="n">
         <v>97.10483333333337</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +4025,25 @@
         <v>13588.1729</v>
       </c>
       <c r="G94" t="n">
+        <v>97.24266666666664</v>
+      </c>
+      <c r="H94" t="n">
         <v>97.12150000000004</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +4067,25 @@
         <v>999</v>
       </c>
       <c r="G95" t="n">
+        <v>97.32133333333331</v>
+      </c>
+      <c r="H95" t="n">
         <v>97.14566666666673</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4109,25 @@
         <v>3000</v>
       </c>
       <c r="G96" t="n">
+        <v>97.40733333333333</v>
+      </c>
+      <c r="H96" t="n">
         <v>97.17283333333339</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4151,25 @@
         <v>12000</v>
       </c>
       <c r="G97" t="n">
+        <v>97.44133333333333</v>
+      </c>
+      <c r="H97" t="n">
         <v>97.1848333333334</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
-        <v>1</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4193,25 @@
         <v>221.9891</v>
       </c>
       <c r="G98" t="n">
+        <v>97.47533333333332</v>
+      </c>
+      <c r="H98" t="n">
         <v>97.1938333333334</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4235,25 @@
         <v>12990.9794</v>
       </c>
       <c r="G99" t="n">
+        <v>97.49533333333333</v>
+      </c>
+      <c r="H99" t="n">
         <v>97.20250000000006</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4277,25 @@
         <v>1000</v>
       </c>
       <c r="G100" t="n">
+        <v>97.50866666666667</v>
+      </c>
+      <c r="H100" t="n">
         <v>97.21916666666672</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4319,25 @@
         <v>27</v>
       </c>
       <c r="G101" t="n">
+        <v>97.52200000000001</v>
+      </c>
+      <c r="H101" t="n">
         <v>97.23583333333339</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4361,25 @@
         <v>66.1283</v>
       </c>
       <c r="G102" t="n">
+        <v>97.56466666666668</v>
+      </c>
+      <c r="H102" t="n">
         <v>97.24833333333339</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4403,25 @@
         <v>84.69670000000001</v>
       </c>
       <c r="G103" t="n">
+        <v>97.57466666666669</v>
+      </c>
+      <c r="H103" t="n">
         <v>97.24900000000005</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4445,25 @@
         <v>221.989</v>
       </c>
       <c r="G104" t="n">
+        <v>97.60133333333336</v>
+      </c>
+      <c r="H104" t="n">
         <v>97.25400000000006</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4487,25 @@
         <v>13000</v>
       </c>
       <c r="G105" t="n">
+        <v>97.62133333333337</v>
+      </c>
+      <c r="H105" t="n">
         <v>97.25733333333339</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4529,25 @@
         <v>6</v>
       </c>
       <c r="G106" t="n">
+        <v>97.68066666666671</v>
+      </c>
+      <c r="H106" t="n">
         <v>97.27050000000006</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +4571,25 @@
         <v>4000</v>
       </c>
       <c r="G107" t="n">
+        <v>97.65333333333338</v>
+      </c>
+      <c r="H107" t="n">
         <v>97.26716666666672</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,18 +4613,25 @@
         <v>1000</v>
       </c>
       <c r="G108" t="n">
+        <v>97.56666666666669</v>
+      </c>
+      <c r="H108" t="n">
         <v>97.25883333333338</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,18 +4655,25 @@
         <v>498.3848</v>
       </c>
       <c r="G109" t="n">
+        <v>97.48000000000002</v>
+      </c>
+      <c r="H109" t="n">
         <v>97.26050000000006</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,18 +4697,27 @@
         <v>40</v>
       </c>
       <c r="G110" t="n">
+        <v>97.37333333333335</v>
+      </c>
+      <c r="H110" t="n">
         <v>97.2653333333334</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="n">
+        <v>96.59999999999999</v>
+      </c>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4263,18 +4741,27 @@
         <v>3093.6499</v>
       </c>
       <c r="G111" t="n">
+        <v>97.26666666666667</v>
+      </c>
+      <c r="H111" t="n">
         <v>97.27350000000006</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="n">
+        <v>96.79000000000001</v>
+      </c>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,18 +4785,27 @@
         <v>2113.019251994214</v>
       </c>
       <c r="G112" t="n">
+        <v>97.22399999999999</v>
+      </c>
+      <c r="H112" t="n">
         <v>97.28300000000006</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="n">
+        <v>96.79000000000001</v>
+      </c>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4333,18 +4829,27 @@
         <v>2683.1049</v>
       </c>
       <c r="G113" t="n">
+        <v>97.18066666666665</v>
+      </c>
+      <c r="H113" t="n">
         <v>97.2908333333334</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="n">
+        <v>96.78</v>
+      </c>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,18 +4873,25 @@
         <v>360.8359</v>
       </c>
       <c r="G114" t="n">
+        <v>97.13999999999997</v>
+      </c>
+      <c r="H114" t="n">
         <v>97.29066666666672</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4403,18 +4915,25 @@
         <v>1084.8681</v>
       </c>
       <c r="G115" t="n">
+        <v>97.09333333333331</v>
+      </c>
+      <c r="H115" t="n">
         <v>97.28650000000006</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4438,22 +4957,25 @@
         <v>2000</v>
       </c>
       <c r="G116" t="n">
+        <v>97.04666666666664</v>
+      </c>
+      <c r="H116" t="n">
         <v>97.28150000000007</v>
       </c>
-      <c r="H116" t="n">
-        <v>1</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="K116" t="n">
-        <v>96.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4477,26 +4999,25 @@
         <v>3717.4854</v>
       </c>
       <c r="G117" t="n">
+        <v>96.9533333333333</v>
+      </c>
+      <c r="H117" t="n">
         <v>97.27633333333341</v>
       </c>
-      <c r="H117" t="n">
-        <v>1</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="K117" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4520,26 +5041,25 @@
         <v>3221.6486</v>
       </c>
       <c r="G118" t="n">
+        <v>96.87333333333329</v>
+      </c>
+      <c r="H118" t="n">
         <v>97.26183333333341</v>
       </c>
-      <c r="H118" t="n">
-        <v>1</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>96.59</v>
-      </c>
-      <c r="K118" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4563,26 +5083,25 @@
         <v>397844.6606</v>
       </c>
       <c r="G119" t="n">
+        <v>96.81333333333329</v>
+      </c>
+      <c r="H119" t="n">
         <v>97.25183333333342</v>
       </c>
-      <c r="H119" t="n">
-        <v>1</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>96.3</v>
-      </c>
-      <c r="K119" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4606,24 +5125,25 @@
         <v>58590</v>
       </c>
       <c r="G120" t="n">
+        <v>96.75199999999995</v>
+      </c>
+      <c r="H120" t="n">
         <v>97.23983333333341</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4647,24 +5167,25 @@
         <v>10865</v>
       </c>
       <c r="G121" t="n">
+        <v>96.63333333333328</v>
+      </c>
+      <c r="H121" t="n">
         <v>97.22333333333341</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4688,24 +5209,25 @@
         <v>5150</v>
       </c>
       <c r="G122" t="n">
+        <v>96.61199999999995</v>
+      </c>
+      <c r="H122" t="n">
         <v>97.21466666666676</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4729,24 +5251,25 @@
         <v>2000</v>
       </c>
       <c r="G123" t="n">
+        <v>96.63799999999996</v>
+      </c>
+      <c r="H123" t="n">
         <v>97.21116666666676</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4770,24 +5293,25 @@
         <v>12179.3083</v>
       </c>
       <c r="G124" t="n">
+        <v>96.66333333333331</v>
+      </c>
+      <c r="H124" t="n">
         <v>97.20750000000008</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4811,24 +5335,25 @@
         <v>1982.9453</v>
       </c>
       <c r="G125" t="n">
+        <v>96.6313333333333</v>
+      </c>
+      <c r="H125" t="n">
         <v>97.19266666666677</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4852,24 +5377,25 @@
         <v>7035.7291</v>
       </c>
       <c r="G126" t="n">
+        <v>96.63866666666665</v>
+      </c>
+      <c r="H126" t="n">
         <v>97.18766666666676</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4893,24 +5419,25 @@
         <v>14689.4068</v>
       </c>
       <c r="G127" t="n">
+        <v>96.64599999999999</v>
+      </c>
+      <c r="H127" t="n">
         <v>97.17266666666677</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4934,24 +5461,25 @@
         <v>8161.2072</v>
       </c>
       <c r="G128" t="n">
+        <v>96.63533333333332</v>
+      </c>
+      <c r="H128" t="n">
         <v>97.15950000000011</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4975,24 +5503,25 @@
         <v>13058.3204</v>
       </c>
       <c r="G129" t="n">
+        <v>96.64133333333332</v>
+      </c>
+      <c r="H129" t="n">
         <v>97.13933333333344</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5016,24 +5545,25 @@
         <v>6377.4669</v>
       </c>
       <c r="G130" t="n">
+        <v>96.65933333333332</v>
+      </c>
+      <c r="H130" t="n">
         <v>97.12883333333343</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5057,24 +5587,25 @@
         <v>27258.1313</v>
       </c>
       <c r="G131" t="n">
+        <v>96.65933333333332</v>
+      </c>
+      <c r="H131" t="n">
         <v>97.11383333333343</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5098,24 +5629,25 @@
         <v>8753.4195</v>
       </c>
       <c r="G132" t="n">
+        <v>96.66</v>
+      </c>
+      <c r="H132" t="n">
         <v>97.09083333333345</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5139,24 +5671,25 @@
         <v>15145</v>
       </c>
       <c r="G133" t="n">
+        <v>96.67999999999999</v>
+      </c>
+      <c r="H133" t="n">
         <v>97.07916666666679</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5180,24 +5713,25 @@
         <v>9929</v>
       </c>
       <c r="G134" t="n">
+        <v>96.66066666666666</v>
+      </c>
+      <c r="H134" t="n">
         <v>97.06266666666679</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5221,24 +5755,25 @@
         <v>1007.6455</v>
       </c>
       <c r="G135" t="n">
+        <v>96.68199999999999</v>
+      </c>
+      <c r="H135" t="n">
         <v>97.05600000000013</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5262,24 +5797,25 @@
         <v>223.2387</v>
       </c>
       <c r="G136" t="n">
+        <v>96.72133333333332</v>
+      </c>
+      <c r="H136" t="n">
         <v>97.0476666666668</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5303,24 +5839,25 @@
         <v>433.2972</v>
       </c>
       <c r="G137" t="n">
+        <v>96.7293333333333</v>
+      </c>
+      <c r="H137" t="n">
         <v>97.03933333333346</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5344,24 +5881,25 @@
         <v>316.7939</v>
       </c>
       <c r="G138" t="n">
+        <v>96.69266666666664</v>
+      </c>
+      <c r="H138" t="n">
         <v>97.02500000000012</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5385,24 +5923,25 @@
         <v>4876</v>
       </c>
       <c r="G139" t="n">
+        <v>96.67866666666664</v>
+      </c>
+      <c r="H139" t="n">
         <v>97.01616666666679</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5426,24 +5965,25 @@
         <v>6</v>
       </c>
       <c r="G140" t="n">
+        <v>96.72399999999998</v>
+      </c>
+      <c r="H140" t="n">
         <v>97.01250000000012</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5467,24 +6007,25 @@
         <v>7355</v>
       </c>
       <c r="G141" t="n">
+        <v>96.7293333333333</v>
+      </c>
+      <c r="H141" t="n">
         <v>97.01050000000011</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5508,24 +6049,25 @@
         <v>10889.5444</v>
       </c>
       <c r="G142" t="n">
+        <v>96.73599999999996</v>
+      </c>
+      <c r="H142" t="n">
         <v>97.01183333333344</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5549,24 +6091,25 @@
         <v>588.1763999999999</v>
       </c>
       <c r="G143" t="n">
+        <v>96.76133333333331</v>
+      </c>
+      <c r="H143" t="n">
         <v>97.01316666666678</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5590,24 +6133,25 @@
         <v>824.2472</v>
       </c>
       <c r="G144" t="n">
+        <v>96.76866666666665</v>
+      </c>
+      <c r="H144" t="n">
         <v>97.01133333333343</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5631,24 +6175,25 @@
         <v>9210.763000000001</v>
       </c>
       <c r="G145" t="n">
+        <v>96.776</v>
+      </c>
+      <c r="H145" t="n">
         <v>97.00933333333342</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5672,24 +6217,25 @@
         <v>17584.0311</v>
       </c>
       <c r="G146" t="n">
+        <v>96.80133333333333</v>
+      </c>
+      <c r="H146" t="n">
         <v>97.00733333333341</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5713,24 +6259,25 @@
         <v>3683.631</v>
       </c>
       <c r="G147" t="n">
+        <v>96.82666666666667</v>
+      </c>
+      <c r="H147" t="n">
         <v>97.00116666666672</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5754,24 +6301,25 @@
         <v>2912.8738</v>
       </c>
       <c r="G148" t="n">
+        <v>96.85266666666668</v>
+      </c>
+      <c r="H148" t="n">
         <v>96.99516666666672</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5795,24 +6343,25 @@
         <v>12110</v>
       </c>
       <c r="G149" t="n">
+        <v>96.91133333333336</v>
+      </c>
+      <c r="H149" t="n">
         <v>96.9966666666667</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5836,24 +6385,25 @@
         <v>2420</v>
       </c>
       <c r="G150" t="n">
+        <v>96.93733333333336</v>
+      </c>
+      <c r="H150" t="n">
         <v>96.99816666666669</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5877,24 +6427,25 @@
         <v>3512.3537</v>
       </c>
       <c r="G151" t="n">
+        <v>96.96333333333337</v>
+      </c>
+      <c r="H151" t="n">
         <v>96.99966666666667</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5918,24 +6469,25 @@
         <v>878.2794</v>
       </c>
       <c r="G152" t="n">
+        <v>96.99000000000004</v>
+      </c>
+      <c r="H152" t="n">
         <v>96.99616666666667</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5959,24 +6511,25 @@
         <v>10525.6441</v>
       </c>
       <c r="G153" t="n">
+        <v>97.02733333333337</v>
+      </c>
+      <c r="H153" t="n">
         <v>96.98116666666668</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6000,24 +6553,25 @@
         <v>6</v>
       </c>
       <c r="G154" t="n">
+        <v>97.05600000000004</v>
+      </c>
+      <c r="H154" t="n">
         <v>96.96950000000001</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6041,24 +6595,25 @@
         <v>1461.3629</v>
       </c>
       <c r="G155" t="n">
+        <v>97.06333333333336</v>
+      </c>
+      <c r="H155" t="n">
         <v>96.94800000000002</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6082,24 +6637,25 @@
         <v>6</v>
       </c>
       <c r="G156" t="n">
+        <v>97.07800000000003</v>
+      </c>
+      <c r="H156" t="n">
         <v>96.92816666666667</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6123,24 +6679,25 @@
         <v>12860.6742</v>
       </c>
       <c r="G157" t="n">
+        <v>97.07933333333337</v>
+      </c>
+      <c r="H157" t="n">
         <v>96.92133333333335</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6164,24 +6721,27 @@
         <v>3163.9491</v>
       </c>
       <c r="G158" t="n">
+        <v>97.0806666666667</v>
+      </c>
+      <c r="H158" t="n">
         <v>96.91450000000002</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
+        <v>97.01000000000001</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6205,24 +6765,27 @@
         <v>442.4327</v>
       </c>
       <c r="G159" t="n">
+        <v>97.0946666666667</v>
+      </c>
+      <c r="H159" t="n">
         <v>96.91116666666669</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
+        <v>97.01000000000001</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6246,24 +6809,25 @@
         <v>635.7907</v>
       </c>
       <c r="G160" t="n">
+        <v>97.10933333333337</v>
+      </c>
+      <c r="H160" t="n">
         <v>96.90950000000001</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6287,24 +6851,27 @@
         <v>1000.3</v>
       </c>
       <c r="G161" t="n">
+        <v>97.12400000000004</v>
+      </c>
+      <c r="H161" t="n">
         <v>96.90783333333334</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6328,24 +6895,27 @@
         <v>3760.8453</v>
       </c>
       <c r="G162" t="n">
+        <v>97.11866666666671</v>
+      </c>
+      <c r="H162" t="n">
         <v>96.88966666666667</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6369,24 +6939,453 @@
         <v>6</v>
       </c>
       <c r="G163" t="n">
+        <v>97.13266666666671</v>
+      </c>
+      <c r="H163" t="n">
         <v>96.88466666666666</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
+        <v>96.90000000000001</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="C164" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="D164" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="E164" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="F164" t="n">
+        <v>597.9793</v>
+      </c>
+      <c r="G164" t="n">
+        <v>97.13333333333338</v>
+      </c>
+      <c r="H164" t="n">
+        <v>96.87966666666667</v>
+      </c>
+      <c r="I164" t="n">
+        <v>1</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="C165" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="D165" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="E165" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="F165" t="n">
+        <v>354.2062</v>
+      </c>
+      <c r="G165" t="n">
+        <v>97.13400000000004</v>
+      </c>
+      <c r="H165" t="n">
+        <v>96.87633333333333</v>
+      </c>
+      <c r="I165" t="n">
+        <v>1</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="C166" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="D166" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="E166" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="F166" t="n">
+        <v>749.2394</v>
+      </c>
+      <c r="G166" t="n">
+        <v>97.13466666666672</v>
+      </c>
+      <c r="H166" t="n">
+        <v>96.86316666666667</v>
+      </c>
+      <c r="I166" t="n">
+        <v>1</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="C167" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="D167" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="E167" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="F167" t="n">
+        <v>349.8471</v>
+      </c>
+      <c r="G167" t="n">
+        <v>97.13466666666672</v>
+      </c>
+      <c r="H167" t="n">
+        <v>96.8665</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="C168" t="n">
+        <v>97.56</v>
+      </c>
+      <c r="D168" t="n">
+        <v>97.56</v>
+      </c>
+      <c r="E168" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="F168" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G168" t="n">
+        <v>97.17200000000004</v>
+      </c>
+      <c r="H168" t="n">
+        <v>96.88249999999999</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="C169" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="D169" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="E169" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="F169" t="n">
+        <v>5099.6298</v>
+      </c>
+      <c r="G169" t="n">
+        <v>97.19200000000004</v>
+      </c>
+      <c r="H169" t="n">
+        <v>96.89749999999999</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="C170" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="D170" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="E170" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="F170" t="n">
+        <v>621.6648</v>
+      </c>
+      <c r="G170" t="n">
+        <v>97.21866666666671</v>
+      </c>
+      <c r="H170" t="n">
+        <v>96.90933333333332</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>97.01000000000001</v>
+      </c>
+      <c r="C171" t="n">
+        <v>97.01000000000001</v>
+      </c>
+      <c r="D171" t="n">
+        <v>97.01000000000001</v>
+      </c>
+      <c r="E171" t="n">
+        <v>97.01000000000001</v>
+      </c>
+      <c r="F171" t="n">
+        <v>4901.9608</v>
+      </c>
+      <c r="G171" t="n">
+        <v>97.20600000000005</v>
+      </c>
+      <c r="H171" t="n">
+        <v>96.913</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="C172" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="D172" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="E172" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="F172" t="n">
+        <v>6</v>
+      </c>
+      <c r="G172" t="n">
+        <v>97.2386666666667</v>
+      </c>
+      <c r="H172" t="n">
+        <v>96.925</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>97</v>
+      </c>
+      <c r="C173" t="n">
+        <v>96.91</v>
+      </c>
+      <c r="D173" t="n">
+        <v>97</v>
+      </c>
+      <c r="E173" t="n">
+        <v>96.91</v>
+      </c>
+      <c r="F173" t="n">
+        <v>19655.2854</v>
+      </c>
+      <c r="G173" t="n">
+        <v>97.23200000000004</v>
+      </c>
+      <c r="H173" t="n">
+        <v>96.92733333333332</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-26 BackTest ENJ.xlsx
+++ b/BackTest/2020-01-26 BackTest ENJ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N173"/>
+  <dimension ref="A1:M202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>99.48999999999999</v>
+        <v>100.8</v>
       </c>
       <c r="C2" t="n">
-        <v>99.48999999999999</v>
+        <v>100.8</v>
       </c>
       <c r="D2" t="n">
-        <v>99.48999999999999</v>
+        <v>100.8</v>
       </c>
       <c r="E2" t="n">
-        <v>99.48999999999999</v>
+        <v>100.8</v>
       </c>
       <c r="F2" t="n">
-        <v>18.0923</v>
+        <v>399.9999</v>
       </c>
       <c r="G2" t="n">
-        <v>99.68533333333332</v>
+        <v>303383.1127543406</v>
       </c>
       <c r="H2" t="n">
-        <v>100.4714999999999</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>98.90000000000001</v>
+        <v>101</v>
       </c>
       <c r="C3" t="n">
-        <v>98.81999999999999</v>
+        <v>100.2</v>
       </c>
       <c r="D3" t="n">
-        <v>98.90000000000001</v>
+        <v>101.2</v>
       </c>
       <c r="E3" t="n">
-        <v>98.81999999999999</v>
+        <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>1124.3442</v>
+        <v>199113.2606</v>
       </c>
       <c r="G3" t="n">
-        <v>99.57333333333331</v>
+        <v>104269.8521543406</v>
       </c>
       <c r="H3" t="n">
-        <v>100.4284999999999</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>98.2</v>
+        <v>100.9</v>
       </c>
       <c r="C4" t="n">
-        <v>98.2</v>
+        <v>100.9</v>
       </c>
       <c r="D4" t="n">
-        <v>98.2</v>
+        <v>100.9</v>
       </c>
       <c r="E4" t="n">
-        <v>98.2</v>
+        <v>100.9</v>
       </c>
       <c r="F4" t="n">
-        <v>1150.3408</v>
+        <v>10930</v>
       </c>
       <c r="G4" t="n">
-        <v>99.4593333333333</v>
+        <v>115199.8521543406</v>
       </c>
       <c r="H4" t="n">
-        <v>100.3751666666666</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>98.12</v>
+        <v>100.5</v>
       </c>
       <c r="C5" t="n">
-        <v>97.83</v>
+        <v>100.5</v>
       </c>
       <c r="D5" t="n">
-        <v>98.7</v>
+        <v>100.5</v>
       </c>
       <c r="E5" t="n">
-        <v>97.83</v>
+        <v>100.5</v>
       </c>
       <c r="F5" t="n">
-        <v>77563.75290000001</v>
+        <v>4516.6618</v>
       </c>
       <c r="G5" t="n">
-        <v>99.31466666666664</v>
+        <v>110683.1903543406</v>
       </c>
       <c r="H5" t="n">
-        <v>100.3239999999999</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>98.01000000000001</v>
+        <v>100.9</v>
       </c>
       <c r="C6" t="n">
-        <v>98.59999999999999</v>
+        <v>100.9</v>
       </c>
       <c r="D6" t="n">
-        <v>98.59999999999999</v>
+        <v>100.9</v>
       </c>
       <c r="E6" t="n">
-        <v>98.01000000000001</v>
+        <v>100.9</v>
       </c>
       <c r="F6" t="n">
-        <v>10762.7688</v>
+        <v>65.08580000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>99.22866666666663</v>
+        <v>110748.2761543406</v>
       </c>
       <c r="H6" t="n">
-        <v>100.2839999999999</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>97.83</v>
+        <v>100.9</v>
       </c>
       <c r="C7" t="n">
-        <v>97.83</v>
+        <v>100.9</v>
       </c>
       <c r="D7" t="n">
-        <v>97.83</v>
+        <v>100.9</v>
       </c>
       <c r="E7" t="n">
-        <v>97.83</v>
+        <v>100.9</v>
       </c>
       <c r="F7" t="n">
-        <v>352.6114</v>
+        <v>1301.3904</v>
       </c>
       <c r="G7" t="n">
-        <v>99.09466666666663</v>
+        <v>110748.2761543406</v>
       </c>
       <c r="H7" t="n">
-        <v>100.2178333333333</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>98.47</v>
+        <v>100.9</v>
       </c>
       <c r="C8" t="n">
-        <v>98.47</v>
+        <v>100.9</v>
       </c>
       <c r="D8" t="n">
-        <v>98.47</v>
+        <v>100.9</v>
       </c>
       <c r="E8" t="n">
-        <v>98.47</v>
+        <v>100.9</v>
       </c>
       <c r="F8" t="n">
-        <v>81.1572</v>
+        <v>444.6668</v>
       </c>
       <c r="G8" t="n">
-        <v>98.95933333333329</v>
+        <v>110748.2761543406</v>
       </c>
       <c r="H8" t="n">
-        <v>100.1756666666666</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>97.83</v>
+        <v>100.6</v>
       </c>
       <c r="C9" t="n">
-        <v>98.56999999999999</v>
+        <v>100.6</v>
       </c>
       <c r="D9" t="n">
-        <v>98.56999999999999</v>
+        <v>100.6</v>
       </c>
       <c r="E9" t="n">
-        <v>97.83</v>
+        <v>100.6</v>
       </c>
       <c r="F9" t="n">
-        <v>15540.5205</v>
+        <v>3830.9809</v>
       </c>
       <c r="G9" t="n">
-        <v>98.88199999999996</v>
+        <v>106917.2952543406</v>
       </c>
       <c r="H9" t="n">
-        <v>100.1368333333333</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>97.83</v>
+        <v>100.2</v>
       </c>
       <c r="C10" t="n">
-        <v>97.83</v>
+        <v>100.2</v>
       </c>
       <c r="D10" t="n">
-        <v>97.83</v>
+        <v>100.2</v>
       </c>
       <c r="E10" t="n">
-        <v>97.83</v>
+        <v>100.2</v>
       </c>
       <c r="F10" t="n">
-        <v>4709.7017</v>
+        <v>280</v>
       </c>
       <c r="G10" t="n">
-        <v>98.75533333333328</v>
+        <v>106637.2952543406</v>
       </c>
       <c r="H10" t="n">
-        <v>100.084</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>97.90000000000001</v>
+        <v>100.2</v>
       </c>
       <c r="C11" t="n">
-        <v>97.90000000000001</v>
+        <v>99.97</v>
       </c>
       <c r="D11" t="n">
-        <v>97.90000000000001</v>
+        <v>100.2</v>
       </c>
       <c r="E11" t="n">
-        <v>97.90000000000001</v>
+        <v>99.97</v>
       </c>
       <c r="F11" t="n">
-        <v>8315.560600000001</v>
+        <v>16991.6875</v>
       </c>
       <c r="G11" t="n">
-        <v>98.64199999999997</v>
+        <v>89645.60775434063</v>
       </c>
       <c r="H11" t="n">
-        <v>100.0323333333333</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>98.23</v>
+        <v>100.2</v>
       </c>
       <c r="C12" t="n">
-        <v>98.23</v>
+        <v>100.2</v>
       </c>
       <c r="D12" t="n">
-        <v>98.23</v>
+        <v>100.2</v>
       </c>
       <c r="E12" t="n">
-        <v>98.23</v>
+        <v>100.2</v>
       </c>
       <c r="F12" t="n">
-        <v>3469.0406</v>
+        <v>5262.9768</v>
       </c>
       <c r="G12" t="n">
-        <v>98.55066666666663</v>
+        <v>94908.58455434063</v>
       </c>
       <c r="H12" t="n">
-        <v>99.99616666666661</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>98.23</v>
+        <v>99.97</v>
       </c>
       <c r="C13" t="n">
-        <v>98.48999999999999</v>
+        <v>99.97</v>
       </c>
       <c r="D13" t="n">
-        <v>98.48999999999999</v>
+        <v>99.97</v>
       </c>
       <c r="E13" t="n">
-        <v>98.23</v>
+        <v>99.97</v>
       </c>
       <c r="F13" t="n">
-        <v>28462.7042</v>
+        <v>3762.6514</v>
       </c>
       <c r="G13" t="n">
-        <v>98.48866666666663</v>
+        <v>91145.93315434063</v>
       </c>
       <c r="H13" t="n">
-        <v>99.96433333333329</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>98.5</v>
+        <v>99.97</v>
       </c>
       <c r="C14" t="n">
-        <v>98.5</v>
+        <v>99.97</v>
       </c>
       <c r="D14" t="n">
-        <v>98.5</v>
+        <v>99.97</v>
       </c>
       <c r="E14" t="n">
-        <v>98.5</v>
+        <v>99.97</v>
       </c>
       <c r="F14" t="n">
-        <v>365.5379</v>
+        <v>5000</v>
       </c>
       <c r="G14" t="n">
-        <v>98.43999999999997</v>
+        <v>91145.93315434063</v>
       </c>
       <c r="H14" t="n">
-        <v>99.92266666666661</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>98.09999999999999</v>
+        <v>99.97</v>
       </c>
       <c r="C15" t="n">
-        <v>98</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>98.09999999999999</v>
+        <v>99.97</v>
       </c>
       <c r="E15" t="n">
-        <v>98</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F15" t="n">
-        <v>1389.8713</v>
+        <v>34336.0212</v>
       </c>
       <c r="G15" t="n">
-        <v>98.3773333333333</v>
+        <v>56809.91195434063</v>
       </c>
       <c r="H15" t="n">
-        <v>99.87266666666662</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>98.2</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>98.2</v>
+        <v>100.4</v>
       </c>
       <c r="D16" t="n">
-        <v>98.2</v>
+        <v>100.4</v>
       </c>
       <c r="E16" t="n">
-        <v>98.2</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F16" t="n">
-        <v>365.5379</v>
+        <v>16362.9726</v>
       </c>
       <c r="G16" t="n">
-        <v>98.33066666666663</v>
+        <v>73172.88455434062</v>
       </c>
       <c r="H16" t="n">
-        <v>99.82766666666662</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,36 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>98.2</v>
+        <v>100.5</v>
       </c>
       <c r="C17" t="n">
-        <v>97.20999999999999</v>
+        <v>100.5</v>
       </c>
       <c r="D17" t="n">
-        <v>98.2</v>
+        <v>100.5</v>
       </c>
       <c r="E17" t="n">
-        <v>97.20999999999999</v>
+        <v>100.5</v>
       </c>
       <c r="F17" t="n">
-        <v>104086.8098</v>
+        <v>9</v>
       </c>
       <c r="G17" t="n">
-        <v>98.17866666666663</v>
+        <v>73181.88455434062</v>
       </c>
       <c r="H17" t="n">
-        <v>99.76616666666662</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>98.01000000000001</v>
+        <v>99.91</v>
       </c>
       <c r="C18" t="n">
-        <v>98.28</v>
+        <v>99.91</v>
       </c>
       <c r="D18" t="n">
-        <v>98.38</v>
+        <v>99.91</v>
       </c>
       <c r="E18" t="n">
-        <v>97.02</v>
+        <v>99.91</v>
       </c>
       <c r="F18" t="n">
-        <v>44701.91818574913</v>
+        <v>2030.8006</v>
       </c>
       <c r="G18" t="n">
-        <v>98.14266666666663</v>
+        <v>71151.08395434062</v>
       </c>
       <c r="H18" t="n">
-        <v>99.72249999999995</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,36 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>97.81</v>
+        <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>97.81</v>
+        <v>100</v>
       </c>
       <c r="D19" t="n">
-        <v>97.81</v>
+        <v>100</v>
       </c>
       <c r="E19" t="n">
-        <v>97.81</v>
+        <v>100</v>
       </c>
       <c r="F19" t="n">
-        <v>3696.5584</v>
+        <v>985.5629</v>
       </c>
       <c r="G19" t="n">
-        <v>98.11666666666662</v>
+        <v>72136.64685434062</v>
       </c>
       <c r="H19" t="n">
-        <v>99.6693333333333</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,36 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>97.70999999999999</v>
+        <v>99.89</v>
       </c>
       <c r="C20" t="n">
-        <v>97.70999999999999</v>
+        <v>99.89</v>
       </c>
       <c r="D20" t="n">
-        <v>97.70999999999999</v>
+        <v>99.91</v>
       </c>
       <c r="E20" t="n">
-        <v>97.70999999999999</v>
+        <v>99.89</v>
       </c>
       <c r="F20" t="n">
-        <v>44317.5604</v>
+        <v>7533.7649</v>
       </c>
       <c r="G20" t="n">
-        <v>98.10866666666662</v>
+        <v>64602.88195434062</v>
       </c>
       <c r="H20" t="n">
-        <v>99.61449999999996</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1160,36 +1098,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>97.62</v>
+        <v>99.84</v>
       </c>
       <c r="C21" t="n">
-        <v>97.62</v>
+        <v>99.84</v>
       </c>
       <c r="D21" t="n">
-        <v>97.62</v>
+        <v>99.84</v>
       </c>
       <c r="E21" t="n">
-        <v>97.62</v>
+        <v>99.84</v>
       </c>
       <c r="F21" t="n">
-        <v>7897.5329</v>
+        <v>102.645</v>
       </c>
       <c r="G21" t="n">
-        <v>98.04333333333331</v>
+        <v>64500.23695434062</v>
       </c>
       <c r="H21" t="n">
-        <v>99.55816666666664</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,36 +1133,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>97.63</v>
+        <v>99.84</v>
       </c>
       <c r="C22" t="n">
-        <v>97.61</v>
+        <v>100.5</v>
       </c>
       <c r="D22" t="n">
-        <v>97.63</v>
+        <v>100.5</v>
       </c>
       <c r="E22" t="n">
-        <v>97.61</v>
+        <v>99.84</v>
       </c>
       <c r="F22" t="n">
-        <v>8184.8952</v>
+        <v>7292.7511</v>
       </c>
       <c r="G22" t="n">
-        <v>98.02866666666664</v>
+        <v>71792.98805434062</v>
       </c>
       <c r="H22" t="n">
-        <v>99.51166666666663</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,36 +1168,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>97.62</v>
+        <v>99.81</v>
       </c>
       <c r="C23" t="n">
-        <v>97.61</v>
+        <v>99.73</v>
       </c>
       <c r="D23" t="n">
-        <v>97.62</v>
+        <v>99.81</v>
       </c>
       <c r="E23" t="n">
-        <v>97.61</v>
+        <v>99.73</v>
       </c>
       <c r="F23" t="n">
-        <v>11311.2798</v>
+        <v>5928.8694</v>
       </c>
       <c r="G23" t="n">
-        <v>97.97133333333331</v>
+        <v>65864.11865434062</v>
       </c>
       <c r="H23" t="n">
-        <v>99.47016666666663</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1274,36 +1203,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>97.39</v>
+        <v>99.73</v>
       </c>
       <c r="C24" t="n">
-        <v>97.09999999999999</v>
+        <v>99.73</v>
       </c>
       <c r="D24" t="n">
-        <v>97.39</v>
+        <v>99.73</v>
       </c>
       <c r="E24" t="n">
-        <v>97.09999999999999</v>
+        <v>99.73</v>
       </c>
       <c r="F24" t="n">
-        <v>24140.6743</v>
+        <v>9418.545400000001</v>
       </c>
       <c r="G24" t="n">
-        <v>97.87333333333329</v>
+        <v>65864.11865434062</v>
       </c>
       <c r="H24" t="n">
-        <v>99.41849999999997</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1312,36 +1238,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>97.09999999999999</v>
+        <v>99.70999999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>97.09999999999999</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>97.09999999999999</v>
+        <v>99.70999999999999</v>
       </c>
       <c r="E25" t="n">
-        <v>96.91</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="F25" t="n">
-        <v>98859.44469999999</v>
+        <v>1600</v>
       </c>
       <c r="G25" t="n">
-        <v>97.82466666666663</v>
+        <v>64264.11865434062</v>
       </c>
       <c r="H25" t="n">
-        <v>99.35349999999997</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1350,36 +1273,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>97.09999999999999</v>
+        <v>99.81999999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>97.09999999999999</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>97.09999999999999</v>
+        <v>100.4</v>
       </c>
       <c r="E26" t="n">
-        <v>97.09999999999999</v>
+        <v>99.5</v>
       </c>
       <c r="F26" t="n">
-        <v>3621.0827</v>
+        <v>75319.74490000001</v>
       </c>
       <c r="G26" t="n">
-        <v>97.77133333333329</v>
+        <v>64264.11865434062</v>
       </c>
       <c r="H26" t="n">
-        <v>99.28849999999997</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1388,36 +1308,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>97.09</v>
+        <v>99.63</v>
       </c>
       <c r="C27" t="n">
-        <v>97.09999999999999</v>
+        <v>99.42</v>
       </c>
       <c r="D27" t="n">
-        <v>97.09999999999999</v>
+        <v>99.63</v>
       </c>
       <c r="E27" t="n">
-        <v>97.09</v>
+        <v>99.41</v>
       </c>
       <c r="F27" t="n">
-        <v>52239.878</v>
+        <v>104653.828</v>
       </c>
       <c r="G27" t="n">
-        <v>97.69599999999994</v>
+        <v>-40389.70934565937</v>
       </c>
       <c r="H27" t="n">
-        <v>99.22349999999999</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1426,36 +1343,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>97</v>
+        <v>99.41</v>
       </c>
       <c r="C28" t="n">
-        <v>96.90000000000001</v>
+        <v>99.23</v>
       </c>
       <c r="D28" t="n">
-        <v>97</v>
+        <v>99.41</v>
       </c>
       <c r="E28" t="n">
-        <v>96.90000000000001</v>
+        <v>99.23</v>
       </c>
       <c r="F28" t="n">
-        <v>140876.4748</v>
+        <v>94135.55130000001</v>
       </c>
       <c r="G28" t="n">
-        <v>97.58999999999995</v>
+        <v>-134525.2606456594</v>
       </c>
       <c r="H28" t="n">
-        <v>99.15683333333331</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1464,36 +1378,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>96.90000000000001</v>
+        <v>99.18000000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>96.03</v>
+        <v>98.94</v>
       </c>
       <c r="D29" t="n">
-        <v>96.90000000000001</v>
+        <v>99.18000000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>96.03</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="F29" t="n">
-        <v>27730</v>
+        <v>71704.26029999999</v>
       </c>
       <c r="G29" t="n">
-        <v>97.42533333333328</v>
+        <v>-206229.5209456594</v>
       </c>
       <c r="H29" t="n">
-        <v>99.07733333333331</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1502,36 +1413,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>96.03</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>96.98</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="D30" t="n">
-        <v>96.98</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="E30" t="n">
-        <v>96.03</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="F30" t="n">
-        <v>121711.4748</v>
+        <v>27439.1693</v>
       </c>
       <c r="G30" t="n">
-        <v>97.35733333333329</v>
+        <v>-233668.6902456594</v>
       </c>
       <c r="H30" t="n">
-        <v>99.00866666666663</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1540,36 +1448,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>96.89</v>
+        <v>99.48999999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>96.89</v>
+        <v>99.48999999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>96.89</v>
+        <v>99.48999999999999</v>
       </c>
       <c r="E31" t="n">
-        <v>96.89</v>
+        <v>99.48999999999999</v>
       </c>
       <c r="F31" t="n">
-        <v>100108.6933</v>
+        <v>18.0923</v>
       </c>
       <c r="G31" t="n">
-        <v>97.26999999999995</v>
+        <v>-233650.5979456594</v>
       </c>
       <c r="H31" t="n">
-        <v>98.94349999999996</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1578,36 +1483,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>96.87</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C32" t="n">
-        <v>96.88</v>
+        <v>98.81999999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>96.88</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="E32" t="n">
-        <v>96.87</v>
+        <v>98.81999999999999</v>
       </c>
       <c r="F32" t="n">
-        <v>5225.4704</v>
+        <v>1124.3442</v>
       </c>
       <c r="G32" t="n">
-        <v>97.24799999999996</v>
+        <v>-234774.9421456594</v>
       </c>
       <c r="H32" t="n">
-        <v>98.88316666666664</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1616,36 +1518,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>96.95999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="C33" t="n">
-        <v>97.05</v>
+        <v>98.2</v>
       </c>
       <c r="D33" t="n">
-        <v>97.05</v>
+        <v>98.2</v>
       </c>
       <c r="E33" t="n">
-        <v>96.95999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="F33" t="n">
-        <v>20000</v>
+        <v>1150.3408</v>
       </c>
       <c r="G33" t="n">
-        <v>97.16599999999995</v>
+        <v>-235925.2829456594</v>
       </c>
       <c r="H33" t="n">
-        <v>98.82066666666664</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,36 +1553,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>96.90000000000001</v>
+        <v>98.12</v>
       </c>
       <c r="C34" t="n">
-        <v>96.90000000000001</v>
+        <v>97.83</v>
       </c>
       <c r="D34" t="n">
-        <v>96.90000000000001</v>
+        <v>98.7</v>
       </c>
       <c r="E34" t="n">
-        <v>96.90000000000001</v>
+        <v>97.83</v>
       </c>
       <c r="F34" t="n">
-        <v>1268.8554</v>
+        <v>77563.75290000001</v>
       </c>
       <c r="G34" t="n">
-        <v>97.10533333333329</v>
+        <v>-313489.0358456594</v>
       </c>
       <c r="H34" t="n">
-        <v>98.76566666666663</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1692,36 +1588,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>96.94</v>
+        <v>98.01000000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>96.94</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="D35" t="n">
-        <v>96.94</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="E35" t="n">
-        <v>96.94</v>
+        <v>98.01000000000001</v>
       </c>
       <c r="F35" t="n">
-        <v>3805.0265</v>
+        <v>10762.7688</v>
       </c>
       <c r="G35" t="n">
-        <v>97.05399999999996</v>
+        <v>-302726.2670456594</v>
       </c>
       <c r="H35" t="n">
-        <v>98.69966666666663</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1730,36 +1623,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>96.76000000000001</v>
+        <v>97.83</v>
       </c>
       <c r="C36" t="n">
-        <v>96.76000000000001</v>
+        <v>97.83</v>
       </c>
       <c r="D36" t="n">
-        <v>96.76000000000001</v>
+        <v>97.83</v>
       </c>
       <c r="E36" t="n">
-        <v>96.76000000000001</v>
+        <v>97.83</v>
       </c>
       <c r="F36" t="n">
-        <v>2406.7191</v>
+        <v>352.6114</v>
       </c>
       <c r="G36" t="n">
-        <v>96.99666666666663</v>
+        <v>-303078.8784456594</v>
       </c>
       <c r="H36" t="n">
-        <v>98.6373333333333</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1768,36 +1658,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>96.2</v>
+        <v>98.47</v>
       </c>
       <c r="C37" t="n">
-        <v>96.7</v>
+        <v>98.47</v>
       </c>
       <c r="D37" t="n">
-        <v>96.7</v>
+        <v>98.47</v>
       </c>
       <c r="E37" t="n">
-        <v>96.2</v>
+        <v>98.47</v>
       </c>
       <c r="F37" t="n">
-        <v>2702.8203</v>
+        <v>81.1572</v>
       </c>
       <c r="G37" t="n">
-        <v>96.93599999999996</v>
+        <v>-302997.7212456593</v>
       </c>
       <c r="H37" t="n">
-        <v>98.56733333333331</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1806,36 +1693,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>96.3</v>
+        <v>97.83</v>
       </c>
       <c r="C38" t="n">
-        <v>96.88</v>
+        <v>98.56999999999999</v>
       </c>
       <c r="D38" t="n">
-        <v>96.89</v>
+        <v>98.56999999999999</v>
       </c>
       <c r="E38" t="n">
-        <v>96.3</v>
+        <v>97.83</v>
       </c>
       <c r="F38" t="n">
-        <v>6962.5129</v>
+        <v>15540.5205</v>
       </c>
       <c r="G38" t="n">
-        <v>96.88733333333332</v>
+        <v>-287457.2007456594</v>
       </c>
       <c r="H38" t="n">
-        <v>98.50033333333332</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1844,36 +1728,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>96.8</v>
+        <v>97.83</v>
       </c>
       <c r="C39" t="n">
-        <v>96.88</v>
+        <v>97.83</v>
       </c>
       <c r="D39" t="n">
-        <v>96.88</v>
+        <v>97.83</v>
       </c>
       <c r="E39" t="n">
-        <v>96.8</v>
+        <v>97.83</v>
       </c>
       <c r="F39" t="n">
-        <v>4358.1012</v>
+        <v>4709.7017</v>
       </c>
       <c r="G39" t="n">
-        <v>96.87266666666665</v>
+        <v>-292166.9024456593</v>
       </c>
       <c r="H39" t="n">
-        <v>98.43333333333332</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1882,36 +1763,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>96.3</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>96.3</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="D40" t="n">
-        <v>96.3</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="E40" t="n">
-        <v>96.3</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="F40" t="n">
-        <v>6257.6282</v>
+        <v>8315.560600000001</v>
       </c>
       <c r="G40" t="n">
-        <v>96.81933333333332</v>
+        <v>-283851.3418456593</v>
       </c>
       <c r="H40" t="n">
-        <v>98.36166666666665</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1920,36 +1798,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>96.3</v>
+        <v>98.23</v>
       </c>
       <c r="C41" t="n">
-        <v>96.3</v>
+        <v>98.23</v>
       </c>
       <c r="D41" t="n">
-        <v>96.3</v>
+        <v>98.23</v>
       </c>
       <c r="E41" t="n">
-        <v>96.3</v>
+        <v>98.23</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0001</v>
+        <v>3469.0406</v>
       </c>
       <c r="G41" t="n">
-        <v>96.76599999999999</v>
+        <v>-280382.3012456593</v>
       </c>
       <c r="H41" t="n">
-        <v>98.29666666666665</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1958,36 +1833,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>96.8</v>
+        <v>98.23</v>
       </c>
       <c r="C42" t="n">
-        <v>97.23999999999999</v>
+        <v>98.48999999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>97.23999999999999</v>
+        <v>98.48999999999999</v>
       </c>
       <c r="E42" t="n">
-        <v>96.8</v>
+        <v>98.23</v>
       </c>
       <c r="F42" t="n">
-        <v>36561.8836</v>
+        <v>28462.7042</v>
       </c>
       <c r="G42" t="n">
-        <v>96.77533333333332</v>
+        <v>-251919.5970456593</v>
       </c>
       <c r="H42" t="n">
-        <v>98.25116666666665</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1996,36 +1868,33 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>97.45999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="C43" t="n">
-        <v>97.45999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="D43" t="n">
-        <v>97.45999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="E43" t="n">
-        <v>97.45999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="F43" t="n">
-        <v>15.4936</v>
+        <v>365.5379</v>
       </c>
       <c r="G43" t="n">
-        <v>96.81266666666666</v>
+        <v>-251554.0591456593</v>
       </c>
       <c r="H43" t="n">
-        <v>98.20549999999999</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2034,36 +1903,33 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>97.12</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="C44" t="n">
-        <v>97.2</v>
+        <v>98</v>
       </c>
       <c r="D44" t="n">
-        <v>97.2</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="E44" t="n">
-        <v>97.12</v>
+        <v>98</v>
       </c>
       <c r="F44" t="n">
-        <v>82327.8983</v>
+        <v>1389.8713</v>
       </c>
       <c r="G44" t="n">
-        <v>96.89066666666666</v>
+        <v>-252943.9304456593</v>
       </c>
       <c r="H44" t="n">
-        <v>98.15933333333331</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2072,36 +1938,33 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>97.2</v>
+        <v>98.2</v>
       </c>
       <c r="C45" t="n">
-        <v>97.2</v>
+        <v>98.2</v>
       </c>
       <c r="D45" t="n">
-        <v>97.2</v>
+        <v>98.2</v>
       </c>
       <c r="E45" t="n">
-        <v>97.2</v>
+        <v>98.2</v>
       </c>
       <c r="F45" t="n">
-        <v>1900</v>
+        <v>365.5379</v>
       </c>
       <c r="G45" t="n">
-        <v>96.90533333333333</v>
+        <v>-252578.3925456593</v>
       </c>
       <c r="H45" t="n">
-        <v>98.11316666666663</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,36 +1973,33 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>97.2</v>
+        <v>98.2</v>
       </c>
       <c r="C46" t="n">
-        <v>97.2</v>
+        <v>97.20999999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>97.2</v>
+        <v>98.2</v>
       </c>
       <c r="E46" t="n">
-        <v>97.2</v>
+        <v>97.20999999999999</v>
       </c>
       <c r="F46" t="n">
-        <v>13000</v>
+        <v>104086.8098</v>
       </c>
       <c r="G46" t="n">
-        <v>96.92599999999999</v>
+        <v>-356665.2023456593</v>
       </c>
       <c r="H46" t="n">
-        <v>98.06816666666664</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2148,36 +2008,33 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>97.2</v>
+        <v>98.01000000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>97.2</v>
+        <v>98.28</v>
       </c>
       <c r="D47" t="n">
-        <v>97.2</v>
+        <v>98.38</v>
       </c>
       <c r="E47" t="n">
-        <v>97.2</v>
+        <v>97.02</v>
       </c>
       <c r="F47" t="n">
-        <v>608.3825000000001</v>
+        <v>44701.91818574913</v>
       </c>
       <c r="G47" t="n">
-        <v>96.94733333333333</v>
+        <v>-311963.2841599102</v>
       </c>
       <c r="H47" t="n">
-        <v>98.01483333333331</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2186,36 +2043,33 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>97.09999999999999</v>
+        <v>97.81</v>
       </c>
       <c r="C48" t="n">
-        <v>97.09999999999999</v>
+        <v>97.81</v>
       </c>
       <c r="D48" t="n">
-        <v>97.09999999999999</v>
+        <v>97.81</v>
       </c>
       <c r="E48" t="n">
-        <v>97.09999999999999</v>
+        <v>97.81</v>
       </c>
       <c r="F48" t="n">
-        <v>10.29866117404737</v>
+        <v>3696.5584</v>
       </c>
       <c r="G48" t="n">
-        <v>96.95066666666666</v>
+        <v>-315659.8425599101</v>
       </c>
       <c r="H48" t="n">
-        <v>97.95816666666664</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2224,36 +2078,33 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>96.5</v>
+        <v>97.70999999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>96.5</v>
+        <v>97.70999999999999</v>
       </c>
       <c r="D49" t="n">
-        <v>96.5</v>
+        <v>97.70999999999999</v>
       </c>
       <c r="E49" t="n">
-        <v>96.5</v>
+        <v>97.70999999999999</v>
       </c>
       <c r="F49" t="n">
-        <v>10.6518</v>
+        <v>44317.5604</v>
       </c>
       <c r="G49" t="n">
-        <v>96.92399999999999</v>
+        <v>-359977.4029599102</v>
       </c>
       <c r="H49" t="n">
-        <v>97.90133333333331</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2262,36 +2113,33 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>96.59999999999999</v>
+        <v>97.62</v>
       </c>
       <c r="C50" t="n">
-        <v>96.5</v>
+        <v>97.62</v>
       </c>
       <c r="D50" t="n">
-        <v>96.59999999999999</v>
+        <v>97.62</v>
       </c>
       <c r="E50" t="n">
-        <v>96.5</v>
+        <v>97.62</v>
       </c>
       <c r="F50" t="n">
-        <v>2775.3755</v>
+        <v>7897.5329</v>
       </c>
       <c r="G50" t="n">
-        <v>96.89466666666665</v>
+        <v>-367874.9358599102</v>
       </c>
       <c r="H50" t="n">
-        <v>97.84299999999999</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2300,36 +2148,33 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>96.7</v>
+        <v>97.63</v>
       </c>
       <c r="C51" t="n">
-        <v>96.3</v>
+        <v>97.61</v>
       </c>
       <c r="D51" t="n">
-        <v>96.7</v>
+        <v>97.63</v>
       </c>
       <c r="E51" t="n">
-        <v>96.3</v>
+        <v>97.61</v>
       </c>
       <c r="F51" t="n">
-        <v>34573.8412</v>
+        <v>8184.8952</v>
       </c>
       <c r="G51" t="n">
-        <v>96.86399999999999</v>
+        <v>-376059.8310599102</v>
       </c>
       <c r="H51" t="n">
-        <v>97.78316666666665</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,36 +2183,33 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>96.3</v>
+        <v>97.62</v>
       </c>
       <c r="C52" t="n">
-        <v>96.20999999999999</v>
+        <v>97.61</v>
       </c>
       <c r="D52" t="n">
-        <v>96.3</v>
+        <v>97.62</v>
       </c>
       <c r="E52" t="n">
-        <v>96.20999999999999</v>
+        <v>97.61</v>
       </c>
       <c r="F52" t="n">
-        <v>3428.0117</v>
+        <v>11311.2798</v>
       </c>
       <c r="G52" t="n">
-        <v>96.83133333333332</v>
+        <v>-376059.8310599102</v>
       </c>
       <c r="H52" t="n">
-        <v>97.72266666666664</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2376,36 +2218,33 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>96.3</v>
+        <v>97.39</v>
       </c>
       <c r="C53" t="n">
-        <v>96.3</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>96.3</v>
+        <v>97.39</v>
       </c>
       <c r="E53" t="n">
-        <v>96.3</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="F53" t="n">
-        <v>14590.4235</v>
+        <v>24140.6743</v>
       </c>
       <c r="G53" t="n">
-        <v>96.79266666666666</v>
+        <v>-400200.5053599102</v>
       </c>
       <c r="H53" t="n">
-        <v>97.65266666666665</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2414,40 +2253,33 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>96.8</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>96.8</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D54" t="n">
-        <v>96.8</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E54" t="n">
-        <v>96.8</v>
+        <v>96.91</v>
       </c>
       <c r="F54" t="n">
-        <v>374.8069</v>
+        <v>98859.44469999999</v>
       </c>
       <c r="G54" t="n">
-        <v>96.78733333333334</v>
+        <v>-400200.5053599102</v>
       </c>
       <c r="H54" t="n">
-        <v>97.60383333333333</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" t="n">
-        <v>96.3</v>
-      </c>
-      <c r="L54" t="n">
-        <v>96.3</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2456,42 +2288,33 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>96.84999999999999</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="C55" t="n">
-        <v>96.84999999999999</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D55" t="n">
-        <v>96.84999999999999</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E55" t="n">
-        <v>96.84999999999999</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="F55" t="n">
-        <v>392.4325</v>
+        <v>3621.0827</v>
       </c>
       <c r="G55" t="n">
-        <v>96.824</v>
+        <v>-400200.5053599102</v>
       </c>
       <c r="H55" t="n">
-        <v>97.55583333333334</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>96.3</v>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N55" t="n">
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2500,42 +2323,33 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>96.84999999999999</v>
+        <v>97.09</v>
       </c>
       <c r="C56" t="n">
-        <v>96.90000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>96.90000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E56" t="n">
-        <v>96.84999999999999</v>
+        <v>97.09</v>
       </c>
       <c r="F56" t="n">
-        <v>81921.9675</v>
+        <v>52239.878</v>
       </c>
       <c r="G56" t="n">
-        <v>96.864</v>
+        <v>-400200.5053599102</v>
       </c>
       <c r="H56" t="n">
-        <v>97.51083333333332</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>96.3</v>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N56" t="n">
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2544,36 +2358,33 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>96.90000000000001</v>
+        <v>97</v>
       </c>
       <c r="C57" t="n">
         <v>96.90000000000001</v>
       </c>
       <c r="D57" t="n">
-        <v>96.90000000000001</v>
+        <v>97</v>
       </c>
       <c r="E57" t="n">
         <v>96.90000000000001</v>
       </c>
       <c r="F57" t="n">
-        <v>1969.7897</v>
+        <v>140876.4748</v>
       </c>
       <c r="G57" t="n">
-        <v>96.84133333333334</v>
+        <v>-541076.9801599102</v>
       </c>
       <c r="H57" t="n">
-        <v>97.46583333333332</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2582,36 +2393,33 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>97.17</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="C58" t="n">
-        <v>97.17</v>
+        <v>96.03</v>
       </c>
       <c r="D58" t="n">
-        <v>97.17</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="E58" t="n">
-        <v>97.17</v>
+        <v>96.03</v>
       </c>
       <c r="F58" t="n">
-        <v>6</v>
+        <v>27730</v>
       </c>
       <c r="G58" t="n">
-        <v>96.82200000000002</v>
+        <v>-568806.9801599102</v>
       </c>
       <c r="H58" t="n">
-        <v>97.42833333333331</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2620,36 +2428,33 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>97.17</v>
+        <v>96.03</v>
       </c>
       <c r="C59" t="n">
-        <v>97.2</v>
+        <v>96.98</v>
       </c>
       <c r="D59" t="n">
-        <v>97.2</v>
+        <v>96.98</v>
       </c>
       <c r="E59" t="n">
-        <v>97.17</v>
+        <v>96.03</v>
       </c>
       <c r="F59" t="n">
-        <v>1225.554</v>
+        <v>121711.4748</v>
       </c>
       <c r="G59" t="n">
-        <v>96.82200000000002</v>
+        <v>-447095.5053599102</v>
       </c>
       <c r="H59" t="n">
-        <v>97.39449999999998</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2658,36 +2463,33 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>97.2</v>
+        <v>96.89</v>
       </c>
       <c r="C60" t="n">
-        <v>97.2</v>
+        <v>96.89</v>
       </c>
       <c r="D60" t="n">
-        <v>97.2</v>
+        <v>96.89</v>
       </c>
       <c r="E60" t="n">
-        <v>97.2</v>
+        <v>96.89</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0001</v>
+        <v>100108.6933</v>
       </c>
       <c r="G60" t="n">
-        <v>96.82200000000002</v>
+        <v>-547204.1986599102</v>
       </c>
       <c r="H60" t="n">
-        <v>97.36549999999998</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2696,36 +2498,33 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>97.2</v>
+        <v>96.87</v>
       </c>
       <c r="C61" t="n">
-        <v>97.2</v>
+        <v>96.88</v>
       </c>
       <c r="D61" t="n">
-        <v>97.2</v>
+        <v>96.88</v>
       </c>
       <c r="E61" t="n">
-        <v>97.2</v>
+        <v>96.87</v>
       </c>
       <c r="F61" t="n">
-        <v>9.9999</v>
+        <v>5225.4704</v>
       </c>
       <c r="G61" t="n">
-        <v>96.82200000000002</v>
+        <v>-552429.6690599102</v>
       </c>
       <c r="H61" t="n">
-        <v>97.33716666666666</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2734,36 +2533,33 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>97.2</v>
+        <v>96.95999999999999</v>
       </c>
       <c r="C62" t="n">
-        <v>97.2</v>
+        <v>97.05</v>
       </c>
       <c r="D62" t="n">
-        <v>97.2</v>
+        <v>97.05</v>
       </c>
       <c r="E62" t="n">
-        <v>97.2</v>
+        <v>96.95999999999999</v>
       </c>
       <c r="F62" t="n">
-        <v>2064.0277</v>
+        <v>20000</v>
       </c>
       <c r="G62" t="n">
-        <v>96.82200000000002</v>
+        <v>-532429.6690599102</v>
       </c>
       <c r="H62" t="n">
-        <v>97.29899999999999</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2772,36 +2568,33 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>97.19</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>97.2</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>97.2</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="E63" t="n">
-        <v>97.19</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="F63" t="n">
-        <v>917.0569</v>
+        <v>1268.8554</v>
       </c>
       <c r="G63" t="n">
-        <v>96.82866666666669</v>
+        <v>-533698.5244599102</v>
       </c>
       <c r="H63" t="n">
-        <v>97.27199999999999</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2810,36 +2603,33 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>97.2</v>
+        <v>96.94</v>
       </c>
       <c r="C64" t="n">
-        <v>97.2</v>
+        <v>96.94</v>
       </c>
       <c r="D64" t="n">
-        <v>97.2</v>
+        <v>96.94</v>
       </c>
       <c r="E64" t="n">
-        <v>97.2</v>
+        <v>96.94</v>
       </c>
       <c r="F64" t="n">
-        <v>552.2329</v>
+        <v>3805.0265</v>
       </c>
       <c r="G64" t="n">
-        <v>96.87533333333336</v>
+        <v>-529893.4979599102</v>
       </c>
       <c r="H64" t="n">
-        <v>97.25533333333333</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2848,36 +2638,33 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>97.2</v>
+        <v>96.76000000000001</v>
       </c>
       <c r="C65" t="n">
-        <v>97.2</v>
+        <v>96.76000000000001</v>
       </c>
       <c r="D65" t="n">
-        <v>97.2</v>
+        <v>96.76000000000001</v>
       </c>
       <c r="E65" t="n">
-        <v>97.2</v>
+        <v>96.76000000000001</v>
       </c>
       <c r="F65" t="n">
-        <v>20</v>
+        <v>2406.7191</v>
       </c>
       <c r="G65" t="n">
-        <v>96.92200000000003</v>
+        <v>-532300.2170599102</v>
       </c>
       <c r="H65" t="n">
-        <v>97.24483333333333</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2886,36 +2673,33 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>97.2</v>
+        <v>96.2</v>
       </c>
       <c r="C66" t="n">
-        <v>97.2</v>
+        <v>96.7</v>
       </c>
       <c r="D66" t="n">
-        <v>97.2</v>
+        <v>96.7</v>
       </c>
       <c r="E66" t="n">
-        <v>97.2</v>
+        <v>96.2</v>
       </c>
       <c r="F66" t="n">
-        <v>222.9595</v>
+        <v>2702.8203</v>
       </c>
       <c r="G66" t="n">
-        <v>96.98200000000003</v>
+        <v>-535003.0373599102</v>
       </c>
       <c r="H66" t="n">
-        <v>97.22149999999998</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2924,36 +2708,33 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>97.76000000000001</v>
+        <v>96.3</v>
       </c>
       <c r="C67" t="n">
-        <v>97.79000000000001</v>
+        <v>96.88</v>
       </c>
       <c r="D67" t="n">
-        <v>97.79000000000001</v>
+        <v>96.89</v>
       </c>
       <c r="E67" t="n">
-        <v>97.76000000000001</v>
+        <v>96.3</v>
       </c>
       <c r="F67" t="n">
-        <v>10980</v>
+        <v>6962.5129</v>
       </c>
       <c r="G67" t="n">
-        <v>97.08733333333336</v>
+        <v>-528040.5244599102</v>
       </c>
       <c r="H67" t="n">
-        <v>97.22083333333332</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2962,36 +2743,33 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>97.40000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="C68" t="n">
-        <v>97.40000000000001</v>
+        <v>96.88</v>
       </c>
       <c r="D68" t="n">
-        <v>97.40000000000001</v>
+        <v>96.88</v>
       </c>
       <c r="E68" t="n">
-        <v>97.40000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="F68" t="n">
-        <v>96</v>
+        <v>4358.1012</v>
       </c>
       <c r="G68" t="n">
-        <v>97.1606666666667</v>
+        <v>-528040.5244599102</v>
       </c>
       <c r="H68" t="n">
-        <v>97.20299999999997</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3000,36 +2778,33 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>97.7</v>
+        <v>96.3</v>
       </c>
       <c r="C69" t="n">
-        <v>98.09</v>
+        <v>96.3</v>
       </c>
       <c r="D69" t="n">
-        <v>98.09</v>
+        <v>96.3</v>
       </c>
       <c r="E69" t="n">
-        <v>97.59999999999999</v>
+        <v>96.3</v>
       </c>
       <c r="F69" t="n">
-        <v>2078.5833</v>
+        <v>6257.6282</v>
       </c>
       <c r="G69" t="n">
-        <v>97.2466666666667</v>
+        <v>-534298.1526599103</v>
       </c>
       <c r="H69" t="n">
-        <v>97.19499999999998</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,36 +2813,33 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>97.5</v>
+        <v>96.3</v>
       </c>
       <c r="C70" t="n">
-        <v>97.5</v>
+        <v>96.3</v>
       </c>
       <c r="D70" t="n">
-        <v>97.5</v>
+        <v>96.3</v>
       </c>
       <c r="E70" t="n">
-        <v>97.5</v>
+        <v>96.3</v>
       </c>
       <c r="F70" t="n">
-        <v>330</v>
+        <v>0.0001</v>
       </c>
       <c r="G70" t="n">
-        <v>97.29000000000003</v>
+        <v>-534298.1526599103</v>
       </c>
       <c r="H70" t="n">
-        <v>97.18949999999998</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3076,36 +2848,33 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>97.5</v>
+        <v>96.8</v>
       </c>
       <c r="C71" t="n">
-        <v>97.5</v>
+        <v>97.23999999999999</v>
       </c>
       <c r="D71" t="n">
-        <v>97.5</v>
+        <v>97.23999999999999</v>
       </c>
       <c r="E71" t="n">
-        <v>97.5</v>
+        <v>96.8</v>
       </c>
       <c r="F71" t="n">
-        <v>157.1994</v>
+        <v>36561.8836</v>
       </c>
       <c r="G71" t="n">
-        <v>97.33000000000003</v>
+        <v>-497736.2690599103</v>
       </c>
       <c r="H71" t="n">
-        <v>97.18283333333332</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3114,36 +2883,33 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>97.98</v>
+        <v>97.45999999999999</v>
       </c>
       <c r="C72" t="n">
-        <v>97.98</v>
+        <v>97.45999999999999</v>
       </c>
       <c r="D72" t="n">
-        <v>97.98</v>
+        <v>97.45999999999999</v>
       </c>
       <c r="E72" t="n">
-        <v>97.98</v>
+        <v>97.45999999999999</v>
       </c>
       <c r="F72" t="n">
-        <v>330</v>
+        <v>15.4936</v>
       </c>
       <c r="G72" t="n">
-        <v>97.40200000000003</v>
+        <v>-497720.7754599103</v>
       </c>
       <c r="H72" t="n">
-        <v>97.17866666666666</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3152,36 +2918,33 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>97.3</v>
+        <v>97.12</v>
       </c>
       <c r="C73" t="n">
-        <v>97.3</v>
+        <v>97.2</v>
       </c>
       <c r="D73" t="n">
-        <v>97.3</v>
+        <v>97.2</v>
       </c>
       <c r="E73" t="n">
-        <v>97.3</v>
+        <v>97.12</v>
       </c>
       <c r="F73" t="n">
-        <v>270.2434</v>
+        <v>82327.8983</v>
       </c>
       <c r="G73" t="n">
-        <v>97.41066666666669</v>
+        <v>-580048.6737599103</v>
       </c>
       <c r="H73" t="n">
-        <v>97.15883333333333</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3190,36 +2953,33 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>97.3</v>
+        <v>97.2</v>
       </c>
       <c r="C74" t="n">
-        <v>97.3</v>
+        <v>97.2</v>
       </c>
       <c r="D74" t="n">
-        <v>97.3</v>
+        <v>97.2</v>
       </c>
       <c r="E74" t="n">
-        <v>97.3</v>
+        <v>97.2</v>
       </c>
       <c r="F74" t="n">
-        <v>268.811</v>
+        <v>1900</v>
       </c>
       <c r="G74" t="n">
-        <v>97.41733333333335</v>
+        <v>-580048.6737599103</v>
       </c>
       <c r="H74" t="n">
-        <v>97.13883333333334</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3240,24 +3000,21 @@
         <v>97.2</v>
       </c>
       <c r="F75" t="n">
-        <v>30</v>
+        <v>13000</v>
       </c>
       <c r="G75" t="n">
-        <v>97.41733333333335</v>
+        <v>-580048.6737599103</v>
       </c>
       <c r="H75" t="n">
-        <v>97.1255</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3266,36 +3023,33 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>97.3</v>
+        <v>97.2</v>
       </c>
       <c r="C76" t="n">
-        <v>97.3</v>
+        <v>97.2</v>
       </c>
       <c r="D76" t="n">
-        <v>97.3</v>
+        <v>97.2</v>
       </c>
       <c r="E76" t="n">
-        <v>97.3</v>
+        <v>97.2</v>
       </c>
       <c r="F76" t="n">
-        <v>114.5984</v>
+        <v>608.3825000000001</v>
       </c>
       <c r="G76" t="n">
-        <v>97.42400000000001</v>
+        <v>-580048.6737599103</v>
       </c>
       <c r="H76" t="n">
-        <v>97.1105</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3304,36 +3058,33 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>97.3</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="C77" t="n">
-        <v>97.3</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>97.3</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E77" t="n">
-        <v>97.3</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="F77" t="n">
-        <v>103.1385</v>
+        <v>10.29866117404737</v>
       </c>
       <c r="G77" t="n">
-        <v>97.43066666666667</v>
+        <v>-580058.9724210843</v>
       </c>
       <c r="H77" t="n">
-        <v>97.11200000000001</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3342,36 +3093,33 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>97.3</v>
+        <v>96.5</v>
       </c>
       <c r="C78" t="n">
-        <v>97.3</v>
+        <v>96.5</v>
       </c>
       <c r="D78" t="n">
-        <v>97.3</v>
+        <v>96.5</v>
       </c>
       <c r="E78" t="n">
-        <v>97.3</v>
+        <v>96.5</v>
       </c>
       <c r="F78" t="n">
-        <v>92.82470000000001</v>
+        <v>10.6518</v>
       </c>
       <c r="G78" t="n">
-        <v>97.43733333333333</v>
+        <v>-580069.6242210843</v>
       </c>
       <c r="H78" t="n">
-        <v>97.09566666666667</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3380,36 +3128,33 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>97.3</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>97.3</v>
+        <v>96.5</v>
       </c>
       <c r="D79" t="n">
-        <v>97.3</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="E79" t="n">
-        <v>97.3</v>
+        <v>96.5</v>
       </c>
       <c r="F79" t="n">
-        <v>83.54219999999999</v>
+        <v>2775.3755</v>
       </c>
       <c r="G79" t="n">
-        <v>97.44399999999999</v>
+        <v>-580069.6242210843</v>
       </c>
       <c r="H79" t="n">
-        <v>97.08716666666668</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3418,36 +3163,33 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>97.20999999999999</v>
+        <v>96.7</v>
       </c>
       <c r="C80" t="n">
-        <v>97.20999999999999</v>
+        <v>96.3</v>
       </c>
       <c r="D80" t="n">
-        <v>97.20999999999999</v>
+        <v>96.7</v>
       </c>
       <c r="E80" t="n">
-        <v>97.20999999999999</v>
+        <v>96.3</v>
       </c>
       <c r="F80" t="n">
-        <v>2280.0188</v>
+        <v>34573.8412</v>
       </c>
       <c r="G80" t="n">
-        <v>97.44466666666666</v>
+        <v>-614643.4654210843</v>
       </c>
       <c r="H80" t="n">
-        <v>97.07883333333334</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3456,36 +3198,33 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>97.20999999999999</v>
+        <v>96.3</v>
       </c>
       <c r="C81" t="n">
-        <v>97.09999999999999</v>
+        <v>96.20999999999999</v>
       </c>
       <c r="D81" t="n">
-        <v>97.20999999999999</v>
+        <v>96.3</v>
       </c>
       <c r="E81" t="n">
-        <v>97.09999999999999</v>
+        <v>96.20999999999999</v>
       </c>
       <c r="F81" t="n">
-        <v>1589.3652</v>
+        <v>3428.0117</v>
       </c>
       <c r="G81" t="n">
-        <v>97.43799999999997</v>
+        <v>-618071.4771210843</v>
       </c>
       <c r="H81" t="n">
-        <v>97.07016666666668</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3494,42 +3233,33 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>97.01000000000001</v>
+        <v>96.3</v>
       </c>
       <c r="C82" t="n">
-        <v>96.91</v>
+        <v>96.3</v>
       </c>
       <c r="D82" t="n">
-        <v>97.01000000000001</v>
+        <v>96.3</v>
       </c>
       <c r="E82" t="n">
-        <v>96.91</v>
+        <v>96.3</v>
       </c>
       <c r="F82" t="n">
-        <v>1017.7427</v>
+        <v>14590.4235</v>
       </c>
       <c r="G82" t="n">
-        <v>97.37933333333332</v>
+        <v>-603481.0536210843</v>
       </c>
       <c r="H82" t="n">
-        <v>97.05850000000002</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
-      <c r="K82" t="n">
-        <v>97.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N82" t="n">
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3538,42 +3268,37 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>96.91</v>
+        <v>96.8</v>
       </c>
       <c r="C83" t="n">
-        <v>96.91</v>
+        <v>96.8</v>
       </c>
       <c r="D83" t="n">
-        <v>96.91</v>
+        <v>96.8</v>
       </c>
       <c r="E83" t="n">
-        <v>96.91</v>
+        <v>96.8</v>
       </c>
       <c r="F83" t="n">
-        <v>9829.936100000001</v>
+        <v>374.8069</v>
       </c>
       <c r="G83" t="n">
-        <v>97.34666666666665</v>
+        <v>-603106.2467210843</v>
       </c>
       <c r="H83" t="n">
-        <v>97.04683333333335</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>0</v>
+        <v>96.3</v>
       </c>
       <c r="K83" t="n">
-        <v>96.91</v>
+        <v>96.3</v>
       </c>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N83" t="n">
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3582,42 +3307,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>97.09999999999999</v>
+        <v>96.84999999999999</v>
       </c>
       <c r="C84" t="n">
-        <v>97.09999999999999</v>
+        <v>96.84999999999999</v>
       </c>
       <c r="D84" t="n">
-        <v>97.09999999999999</v>
+        <v>96.84999999999999</v>
       </c>
       <c r="E84" t="n">
-        <v>97.09999999999999</v>
+        <v>96.84999999999999</v>
       </c>
       <c r="F84" t="n">
-        <v>4000</v>
+        <v>392.4325</v>
       </c>
       <c r="G84" t="n">
-        <v>97.28066666666665</v>
+        <v>-602713.8142210844</v>
       </c>
       <c r="H84" t="n">
-        <v>97.04683333333335</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>96.91</v>
-      </c>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N84" t="n">
+        <v>96.3</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3626,42 +3348,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>97.09999999999999</v>
+        <v>96.84999999999999</v>
       </c>
       <c r="C85" t="n">
-        <v>97.09999999999999</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="D85" t="n">
-        <v>97.09999999999999</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="E85" t="n">
-        <v>97</v>
+        <v>96.84999999999999</v>
       </c>
       <c r="F85" t="n">
-        <v>17827.2179</v>
+        <v>81921.9675</v>
       </c>
       <c r="G85" t="n">
-        <v>97.25399999999998</v>
+        <v>-520791.8467210843</v>
       </c>
       <c r="H85" t="n">
-        <v>97.04683333333335</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>97.09999999999999</v>
-      </c>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N85" t="n">
+        <v>96.3</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3670,42 +3389,33 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>97.09999999999999</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="C86" t="n">
-        <v>97.09999999999999</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="D86" t="n">
-        <v>97.09999999999999</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="E86" t="n">
-        <v>97.09999999999999</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="F86" t="n">
-        <v>4892.6428</v>
+        <v>1969.7897</v>
       </c>
       <c r="G86" t="n">
-        <v>97.22733333333331</v>
+        <v>-520791.8467210843</v>
       </c>
       <c r="H86" t="n">
-        <v>97.04683333333335</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
-      <c r="K86" t="n">
-        <v>97.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N86" t="n">
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3714,42 +3424,33 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>97.09999999999999</v>
+        <v>97.17</v>
       </c>
       <c r="C87" t="n">
-        <v>97.34999999999999</v>
+        <v>97.17</v>
       </c>
       <c r="D87" t="n">
-        <v>97.34999999999999</v>
+        <v>97.17</v>
       </c>
       <c r="E87" t="n">
-        <v>97.09999999999999</v>
+        <v>97.17</v>
       </c>
       <c r="F87" t="n">
-        <v>6444.8601</v>
+        <v>6</v>
       </c>
       <c r="G87" t="n">
-        <v>97.1853333333333</v>
+        <v>-520785.8467210843</v>
       </c>
       <c r="H87" t="n">
-        <v>97.05100000000002</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
-      <c r="K87" t="n">
-        <v>97.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N87" t="n">
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3758,40 +3459,33 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>97.34999999999999</v>
+        <v>97.17</v>
       </c>
       <c r="C88" t="n">
-        <v>97.34999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="D88" t="n">
-        <v>97.34999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="E88" t="n">
-        <v>97.34999999999999</v>
+        <v>97.17</v>
       </c>
       <c r="F88" t="n">
-        <v>135.188</v>
+        <v>1225.554</v>
       </c>
       <c r="G88" t="n">
-        <v>97.18866666666663</v>
+        <v>-519560.2927210843</v>
       </c>
       <c r="H88" t="n">
-        <v>97.05850000000004</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N88" t="n">
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3800,40 +3494,33 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>97.34999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="C89" t="n">
-        <v>97.09999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="D89" t="n">
-        <v>97.34999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="E89" t="n">
-        <v>97.09999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="F89" t="n">
-        <v>1117.8713</v>
+        <v>0.0001</v>
       </c>
       <c r="G89" t="n">
-        <v>97.1753333333333</v>
+        <v>-519560.2927210843</v>
       </c>
       <c r="H89" t="n">
-        <v>97.07633333333338</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N89" t="n">
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3842,40 +3529,33 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>97.09999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="C90" t="n">
-        <v>97.09999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="D90" t="n">
-        <v>97.09999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="E90" t="n">
-        <v>97.09999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="F90" t="n">
-        <v>232.3836</v>
+        <v>9.9999</v>
       </c>
       <c r="G90" t="n">
-        <v>97.16866666666662</v>
+        <v>-519560.2927210843</v>
       </c>
       <c r="H90" t="n">
-        <v>97.07833333333339</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N90" t="n">
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3884,40 +3564,33 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>97.09999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="C91" t="n">
-        <v>97.09999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="D91" t="n">
-        <v>97.09999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="E91" t="n">
-        <v>97.09999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="F91" t="n">
-        <v>0.3308</v>
+        <v>2064.0277</v>
       </c>
       <c r="G91" t="n">
-        <v>97.15533333333329</v>
+        <v>-519560.2927210843</v>
       </c>
       <c r="H91" t="n">
-        <v>97.08183333333339</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N91" t="n">
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3926,40 +3599,33 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>97.41</v>
+        <v>97.19</v>
       </c>
       <c r="C92" t="n">
-        <v>97.41</v>
+        <v>97.2</v>
       </c>
       <c r="D92" t="n">
-        <v>97.41</v>
+        <v>97.2</v>
       </c>
       <c r="E92" t="n">
-        <v>97.41</v>
+        <v>97.19</v>
       </c>
       <c r="F92" t="n">
-        <v>3000</v>
+        <v>917.0569</v>
       </c>
       <c r="G92" t="n">
-        <v>97.16266666666662</v>
+        <v>-519560.2927210843</v>
       </c>
       <c r="H92" t="n">
-        <v>97.09066666666672</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N92" t="n">
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3968,40 +3634,33 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>97.90000000000001</v>
+        <v>97.2</v>
       </c>
       <c r="C93" t="n">
-        <v>97.90000000000001</v>
+        <v>97.2</v>
       </c>
       <c r="D93" t="n">
-        <v>97.90000000000001</v>
+        <v>97.2</v>
       </c>
       <c r="E93" t="n">
-        <v>97.90000000000001</v>
+        <v>97.2</v>
       </c>
       <c r="F93" t="n">
-        <v>536.0131</v>
+        <v>552.2329</v>
       </c>
       <c r="G93" t="n">
-        <v>97.20266666666663</v>
+        <v>-519560.2927210843</v>
       </c>
       <c r="H93" t="n">
-        <v>97.10483333333337</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N93" t="n">
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4010,40 +3669,33 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>97.48</v>
+        <v>97.2</v>
       </c>
       <c r="C94" t="n">
-        <v>97.90000000000001</v>
+        <v>97.2</v>
       </c>
       <c r="D94" t="n">
-        <v>97.90000000000001</v>
+        <v>97.2</v>
       </c>
       <c r="E94" t="n">
-        <v>96.94</v>
+        <v>97.2</v>
       </c>
       <c r="F94" t="n">
-        <v>13588.1729</v>
+        <v>20</v>
       </c>
       <c r="G94" t="n">
-        <v>97.24266666666664</v>
+        <v>-519560.2927210843</v>
       </c>
       <c r="H94" t="n">
-        <v>97.12150000000004</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N94" t="n">
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4052,40 +3704,33 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>97.48</v>
+        <v>97.2</v>
       </c>
       <c r="C95" t="n">
-        <v>98.39</v>
+        <v>97.2</v>
       </c>
       <c r="D95" t="n">
-        <v>98.39</v>
+        <v>97.2</v>
       </c>
       <c r="E95" t="n">
-        <v>97.48</v>
+        <v>97.2</v>
       </c>
       <c r="F95" t="n">
-        <v>999</v>
+        <v>222.9595</v>
       </c>
       <c r="G95" t="n">
-        <v>97.32133333333331</v>
+        <v>-519560.2927210843</v>
       </c>
       <c r="H95" t="n">
-        <v>97.14566666666673</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N95" t="n">
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4094,40 +3739,33 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>98.39</v>
+        <v>97.76000000000001</v>
       </c>
       <c r="C96" t="n">
-        <v>98.39</v>
+        <v>97.79000000000001</v>
       </c>
       <c r="D96" t="n">
-        <v>98.39</v>
+        <v>97.79000000000001</v>
       </c>
       <c r="E96" t="n">
-        <v>98.39</v>
+        <v>97.76000000000001</v>
       </c>
       <c r="F96" t="n">
-        <v>3000</v>
+        <v>10980</v>
       </c>
       <c r="G96" t="n">
-        <v>97.40733333333333</v>
+        <v>-508580.2927210843</v>
       </c>
       <c r="H96" t="n">
-        <v>97.17283333333339</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N96" t="n">
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4136,40 +3774,33 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>97.42</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="C97" t="n">
-        <v>97.42</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="D97" t="n">
-        <v>97.42</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="E97" t="n">
-        <v>97.42</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="F97" t="n">
-        <v>12000</v>
+        <v>96</v>
       </c>
       <c r="G97" t="n">
-        <v>97.44133333333333</v>
+        <v>-508676.2927210843</v>
       </c>
       <c r="H97" t="n">
-        <v>97.1848333333334</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N97" t="n">
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4178,40 +3809,33 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>97.42</v>
+        <v>97.7</v>
       </c>
       <c r="C98" t="n">
-        <v>97.42</v>
+        <v>98.09</v>
       </c>
       <c r="D98" t="n">
-        <v>97.42</v>
+        <v>98.09</v>
       </c>
       <c r="E98" t="n">
-        <v>97.42</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="F98" t="n">
-        <v>221.9891</v>
+        <v>2078.5833</v>
       </c>
       <c r="G98" t="n">
-        <v>97.47533333333332</v>
+        <v>-506597.7094210843</v>
       </c>
       <c r="H98" t="n">
-        <v>97.1938333333334</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N98" t="n">
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4223,37 +3847,30 @@
         <v>97.5</v>
       </c>
       <c r="C99" t="n">
-        <v>97.40000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="D99" t="n">
         <v>97.5</v>
       </c>
       <c r="E99" t="n">
-        <v>97.40000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="F99" t="n">
-        <v>12990.9794</v>
+        <v>330</v>
       </c>
       <c r="G99" t="n">
-        <v>97.49533333333333</v>
+        <v>-506927.7094210843</v>
       </c>
       <c r="H99" t="n">
-        <v>97.20250000000006</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N99" t="n">
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4262,40 +3879,33 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>97.3</v>
+        <v>97.5</v>
       </c>
       <c r="C100" t="n">
-        <v>97.3</v>
+        <v>97.5</v>
       </c>
       <c r="D100" t="n">
-        <v>97.3</v>
+        <v>97.5</v>
       </c>
       <c r="E100" t="n">
-        <v>97.3</v>
+        <v>97.5</v>
       </c>
       <c r="F100" t="n">
-        <v>1000</v>
+        <v>157.1994</v>
       </c>
       <c r="G100" t="n">
-        <v>97.50866666666667</v>
+        <v>-506927.7094210843</v>
       </c>
       <c r="H100" t="n">
-        <v>97.21916666666672</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N100" t="n">
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4304,40 +3914,33 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>97.3</v>
+        <v>97.98</v>
       </c>
       <c r="C101" t="n">
-        <v>97.3</v>
+        <v>97.98</v>
       </c>
       <c r="D101" t="n">
-        <v>97.3</v>
+        <v>97.98</v>
       </c>
       <c r="E101" t="n">
-        <v>97.3</v>
+        <v>97.98</v>
       </c>
       <c r="F101" t="n">
-        <v>27</v>
+        <v>330</v>
       </c>
       <c r="G101" t="n">
-        <v>97.52200000000001</v>
+        <v>-506597.7094210843</v>
       </c>
       <c r="H101" t="n">
-        <v>97.23583333333339</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N101" t="n">
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4346,40 +3949,33 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>97.98999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="C102" t="n">
-        <v>97.98999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="D102" t="n">
-        <v>97.98999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="E102" t="n">
-        <v>97.98999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="F102" t="n">
-        <v>66.1283</v>
+        <v>270.2434</v>
       </c>
       <c r="G102" t="n">
-        <v>97.56466666666668</v>
+        <v>-506867.9528210843</v>
       </c>
       <c r="H102" t="n">
-        <v>97.24833333333339</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N102" t="n">
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4388,40 +3984,33 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>97.5</v>
+        <v>97.3</v>
       </c>
       <c r="C103" t="n">
-        <v>97.5</v>
+        <v>97.3</v>
       </c>
       <c r="D103" t="n">
-        <v>97.5</v>
+        <v>97.3</v>
       </c>
       <c r="E103" t="n">
-        <v>97.5</v>
+        <v>97.3</v>
       </c>
       <c r="F103" t="n">
-        <v>84.69670000000001</v>
+        <v>268.811</v>
       </c>
       <c r="G103" t="n">
-        <v>97.57466666666669</v>
+        <v>-506867.9528210843</v>
       </c>
       <c r="H103" t="n">
-        <v>97.24900000000005</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N103" t="n">
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4430,40 +4019,33 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>97.5</v>
+        <v>97.2</v>
       </c>
       <c r="C104" t="n">
-        <v>97.5</v>
+        <v>97.2</v>
       </c>
       <c r="D104" t="n">
-        <v>97.5</v>
+        <v>97.2</v>
       </c>
       <c r="E104" t="n">
-        <v>97.5</v>
+        <v>97.2</v>
       </c>
       <c r="F104" t="n">
-        <v>221.989</v>
+        <v>30</v>
       </c>
       <c r="G104" t="n">
-        <v>97.60133333333336</v>
+        <v>-506897.9528210843</v>
       </c>
       <c r="H104" t="n">
-        <v>97.25400000000006</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N104" t="n">
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4472,40 +4054,33 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>97.41</v>
+        <v>97.3</v>
       </c>
       <c r="C105" t="n">
-        <v>97.40000000000001</v>
+        <v>97.3</v>
       </c>
       <c r="D105" t="n">
-        <v>97.41</v>
+        <v>97.3</v>
       </c>
       <c r="E105" t="n">
-        <v>97.40000000000001</v>
+        <v>97.3</v>
       </c>
       <c r="F105" t="n">
-        <v>13000</v>
+        <v>114.5984</v>
       </c>
       <c r="G105" t="n">
-        <v>97.62133333333337</v>
+        <v>-506783.3544210843</v>
       </c>
       <c r="H105" t="n">
-        <v>97.25733333333339</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N105" t="n">
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4514,40 +4089,33 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>97.98999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="C106" t="n">
-        <v>97.98999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="D106" t="n">
-        <v>97.98999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="E106" t="n">
-        <v>97.98999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="F106" t="n">
-        <v>6</v>
+        <v>103.1385</v>
       </c>
       <c r="G106" t="n">
-        <v>97.68066666666671</v>
+        <v>-506783.3544210843</v>
       </c>
       <c r="H106" t="n">
-        <v>97.27050000000006</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N106" t="n">
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4556,40 +4124,33 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>97.09999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="C107" t="n">
-        <v>97</v>
+        <v>97.3</v>
       </c>
       <c r="D107" t="n">
-        <v>97.09999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="E107" t="n">
-        <v>97</v>
+        <v>97.3</v>
       </c>
       <c r="F107" t="n">
-        <v>4000</v>
+        <v>92.82470000000001</v>
       </c>
       <c r="G107" t="n">
-        <v>97.65333333333338</v>
+        <v>-506783.3544210843</v>
       </c>
       <c r="H107" t="n">
-        <v>97.26716666666672</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N107" t="n">
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4598,40 +4159,33 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>97</v>
+        <v>97.3</v>
       </c>
       <c r="C108" t="n">
-        <v>96.59999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="D108" t="n">
-        <v>97</v>
+        <v>97.3</v>
       </c>
       <c r="E108" t="n">
-        <v>96.59999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="F108" t="n">
-        <v>1000</v>
+        <v>83.54219999999999</v>
       </c>
       <c r="G108" t="n">
-        <v>97.56666666666669</v>
+        <v>-506783.3544210843</v>
       </c>
       <c r="H108" t="n">
-        <v>97.25883333333338</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N108" t="n">
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4640,40 +4194,33 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>96.59999999999999</v>
+        <v>97.20999999999999</v>
       </c>
       <c r="C109" t="n">
-        <v>96.59999999999999</v>
+        <v>97.20999999999999</v>
       </c>
       <c r="D109" t="n">
-        <v>96.59999999999999</v>
+        <v>97.20999999999999</v>
       </c>
       <c r="E109" t="n">
-        <v>96.59999999999999</v>
+        <v>97.20999999999999</v>
       </c>
       <c r="F109" t="n">
-        <v>498.3848</v>
+        <v>2280.0188</v>
       </c>
       <c r="G109" t="n">
-        <v>97.48000000000002</v>
+        <v>-509063.3732210843</v>
       </c>
       <c r="H109" t="n">
-        <v>97.26050000000006</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N109" t="n">
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4682,42 +4229,39 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>96.79000000000001</v>
+        <v>97.20999999999999</v>
       </c>
       <c r="C110" t="n">
-        <v>96.79000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D110" t="n">
-        <v>96.79000000000001</v>
+        <v>97.20999999999999</v>
       </c>
       <c r="E110" t="n">
-        <v>96.79000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="F110" t="n">
-        <v>40</v>
+        <v>1589.3652</v>
       </c>
       <c r="G110" t="n">
-        <v>97.37333333333335</v>
+        <v>-510652.7384210843</v>
       </c>
       <c r="H110" t="n">
-        <v>97.2653333333334</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>0</v>
-      </c>
-      <c r="K110" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N110" t="n">
+        <v>97.20999999999999</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4726,42 +4270,39 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>96.79000000000001</v>
+        <v>97.01000000000001</v>
       </c>
       <c r="C111" t="n">
-        <v>96.79000000000001</v>
+        <v>96.91</v>
       </c>
       <c r="D111" t="n">
-        <v>96.79000000000001</v>
+        <v>97.01000000000001</v>
       </c>
       <c r="E111" t="n">
-        <v>96.79000000000001</v>
+        <v>96.91</v>
       </c>
       <c r="F111" t="n">
-        <v>3093.6499</v>
+        <v>1017.7427</v>
       </c>
       <c r="G111" t="n">
-        <v>97.26666666666667</v>
+        <v>-511670.4811210843</v>
       </c>
       <c r="H111" t="n">
-        <v>97.27350000000006</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>0</v>
-      </c>
-      <c r="K111" t="n">
-        <v>96.79000000000001</v>
-      </c>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N111" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4770,42 +4311,37 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>96.78</v>
+        <v>96.91</v>
       </c>
       <c r="C112" t="n">
-        <v>96.78</v>
+        <v>96.91</v>
       </c>
       <c r="D112" t="n">
-        <v>96.78</v>
+        <v>96.91</v>
       </c>
       <c r="E112" t="n">
-        <v>96.78</v>
+        <v>96.91</v>
       </c>
       <c r="F112" t="n">
-        <v>2113.019251994214</v>
+        <v>9829.936100000001</v>
       </c>
       <c r="G112" t="n">
-        <v>97.22399999999999</v>
+        <v>-511670.4811210843</v>
       </c>
       <c r="H112" t="n">
-        <v>97.28300000000006</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
-      </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
-      <c r="K112" t="n">
-        <v>96.79000000000001</v>
-      </c>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4814,42 +4350,37 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>96.77</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="C113" t="n">
-        <v>96.77</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D113" t="n">
-        <v>96.77</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E113" t="n">
-        <v>96.77</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="F113" t="n">
-        <v>2683.1049</v>
+        <v>4000</v>
       </c>
       <c r="G113" t="n">
-        <v>97.18066666666665</v>
+        <v>-507670.4811210843</v>
       </c>
       <c r="H113" t="n">
-        <v>97.2908333333334</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
-      </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
-      <c r="K113" t="n">
-        <v>96.78</v>
-      </c>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4858,40 +4389,37 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>96.79000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="C114" t="n">
-        <v>96.79000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D114" t="n">
-        <v>96.79000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E114" t="n">
-        <v>96.79000000000001</v>
+        <v>97</v>
       </c>
       <c r="F114" t="n">
-        <v>360.8359</v>
+        <v>17827.2179</v>
       </c>
       <c r="G114" t="n">
-        <v>97.13999999999997</v>
+        <v>-507670.4811210843</v>
       </c>
       <c r="H114" t="n">
-        <v>97.29066666666672</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N114" t="n">
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4900,40 +4428,37 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>96.59999999999999</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="C115" t="n">
-        <v>96.59999999999999</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D115" t="n">
-        <v>96.59999999999999</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E115" t="n">
-        <v>96.59999999999999</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="F115" t="n">
-        <v>1084.8681</v>
+        <v>4892.6428</v>
       </c>
       <c r="G115" t="n">
-        <v>97.09333333333331</v>
+        <v>-507670.4811210843</v>
       </c>
       <c r="H115" t="n">
-        <v>97.28650000000006</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N115" t="n">
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4942,40 +4467,39 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>96.59999999999999</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="C116" t="n">
-        <v>96.59999999999999</v>
+        <v>97.34999999999999</v>
       </c>
       <c r="D116" t="n">
-        <v>96.59999999999999</v>
+        <v>97.34999999999999</v>
       </c>
       <c r="E116" t="n">
-        <v>96.59999999999999</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="F116" t="n">
-        <v>2000</v>
+        <v>6444.8601</v>
       </c>
       <c r="G116" t="n">
-        <v>97.04666666666664</v>
+        <v>-501225.6210210843</v>
       </c>
       <c r="H116" t="n">
-        <v>97.28150000000007</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>0</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N116" t="n">
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4984,40 +4508,39 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>96.59999999999999</v>
+        <v>97.34999999999999</v>
       </c>
       <c r="C117" t="n">
-        <v>96.59</v>
+        <v>97.34999999999999</v>
       </c>
       <c r="D117" t="n">
-        <v>96.59999999999999</v>
+        <v>97.34999999999999</v>
       </c>
       <c r="E117" t="n">
-        <v>96.5</v>
+        <v>97.34999999999999</v>
       </c>
       <c r="F117" t="n">
-        <v>3717.4854</v>
+        <v>135.188</v>
       </c>
       <c r="G117" t="n">
-        <v>96.9533333333333</v>
+        <v>-501225.6210210843</v>
       </c>
       <c r="H117" t="n">
-        <v>97.27633333333341</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>0</v>
+        <v>97.34999999999999</v>
       </c>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N117" t="n">
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5026,40 +4549,39 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>96.3</v>
+        <v>97.34999999999999</v>
       </c>
       <c r="C118" t="n">
-        <v>96.3</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D118" t="n">
-        <v>96.3</v>
+        <v>97.34999999999999</v>
       </c>
       <c r="E118" t="n">
-        <v>96.3</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="F118" t="n">
-        <v>3221.6486</v>
+        <v>1117.8713</v>
       </c>
       <c r="G118" t="n">
-        <v>96.87333333333329</v>
+        <v>-502343.4923210843</v>
       </c>
       <c r="H118" t="n">
-        <v>97.26183333333341</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>0</v>
+        <v>97.34999999999999</v>
       </c>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N118" t="n">
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5068,40 +4590,39 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>96.3</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="C119" t="n">
-        <v>96.59999999999999</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D119" t="n">
-        <v>96.59999999999999</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E119" t="n">
-        <v>94.97</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="F119" t="n">
-        <v>397844.6606</v>
+        <v>232.3836</v>
       </c>
       <c r="G119" t="n">
-        <v>96.81333333333329</v>
+        <v>-502343.4923210843</v>
       </c>
       <c r="H119" t="n">
-        <v>97.25183333333342</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>0</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N119" t="n">
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5110,40 +4631,39 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>96.40000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="C120" t="n">
-        <v>96.48</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D120" t="n">
-        <v>96.5</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E120" t="n">
-        <v>96.39</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="F120" t="n">
-        <v>58590</v>
+        <v>0.3308</v>
       </c>
       <c r="G120" t="n">
-        <v>96.75199999999995</v>
+        <v>-502343.4923210843</v>
       </c>
       <c r="H120" t="n">
-        <v>97.23983333333341</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>0</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N120" t="n">
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5152,40 +4672,39 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>96.69</v>
+        <v>97.41</v>
       </c>
       <c r="C121" t="n">
-        <v>96.20999999999999</v>
+        <v>97.41</v>
       </c>
       <c r="D121" t="n">
-        <v>96.69</v>
+        <v>97.41</v>
       </c>
       <c r="E121" t="n">
-        <v>96.20999999999999</v>
+        <v>97.41</v>
       </c>
       <c r="F121" t="n">
-        <v>10865</v>
+        <v>3000</v>
       </c>
       <c r="G121" t="n">
-        <v>96.63333333333328</v>
+        <v>-499343.4923210843</v>
       </c>
       <c r="H121" t="n">
-        <v>97.22333333333341</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>0</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N121" t="n">
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5194,40 +4713,37 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>96.67</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="C122" t="n">
-        <v>96.68000000000001</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="D122" t="n">
-        <v>96.69</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="E122" t="n">
-        <v>96.67</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="F122" t="n">
-        <v>5150</v>
+        <v>536.0131</v>
       </c>
       <c r="G122" t="n">
-        <v>96.61199999999995</v>
+        <v>-498807.4792210843</v>
       </c>
       <c r="H122" t="n">
-        <v>97.21466666666676</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>0</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N122" t="n">
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5236,40 +4752,37 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>96.98999999999999</v>
+        <v>97.48</v>
       </c>
       <c r="C123" t="n">
-        <v>96.98999999999999</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="D123" t="n">
-        <v>96.98999999999999</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="E123" t="n">
-        <v>96.98999999999999</v>
+        <v>96.94</v>
       </c>
       <c r="F123" t="n">
-        <v>2000</v>
+        <v>13588.1729</v>
       </c>
       <c r="G123" t="n">
-        <v>96.63799999999996</v>
+        <v>-498807.4792210843</v>
       </c>
       <c r="H123" t="n">
-        <v>97.21116666666676</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>0</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N123" t="n">
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5278,40 +4791,37 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>96.98</v>
+        <v>97.48</v>
       </c>
       <c r="C124" t="n">
-        <v>96.98</v>
+        <v>98.39</v>
       </c>
       <c r="D124" t="n">
-        <v>96.98</v>
+        <v>98.39</v>
       </c>
       <c r="E124" t="n">
-        <v>96.98</v>
+        <v>97.48</v>
       </c>
       <c r="F124" t="n">
-        <v>12179.3083</v>
+        <v>999</v>
       </c>
       <c r="G124" t="n">
-        <v>96.66333333333331</v>
+        <v>-497808.4792210843</v>
       </c>
       <c r="H124" t="n">
-        <v>97.20750000000008</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>0</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N124" t="n">
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5320,40 +4830,37 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>96.31</v>
+        <v>98.39</v>
       </c>
       <c r="C125" t="n">
-        <v>96.31</v>
+        <v>98.39</v>
       </c>
       <c r="D125" t="n">
-        <v>96.31</v>
+        <v>98.39</v>
       </c>
       <c r="E125" t="n">
-        <v>96.31</v>
+        <v>98.39</v>
       </c>
       <c r="F125" t="n">
-        <v>1982.9453</v>
+        <v>3000</v>
       </c>
       <c r="G125" t="n">
-        <v>96.6313333333333</v>
+        <v>-497808.4792210843</v>
       </c>
       <c r="H125" t="n">
-        <v>97.19266666666677</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>0</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N125" t="n">
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5362,40 +4869,37 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>96.90000000000001</v>
+        <v>97.42</v>
       </c>
       <c r="C126" t="n">
-        <v>96.90000000000001</v>
+        <v>97.42</v>
       </c>
       <c r="D126" t="n">
-        <v>96.90000000000001</v>
+        <v>97.42</v>
       </c>
       <c r="E126" t="n">
-        <v>96.90000000000001</v>
+        <v>97.42</v>
       </c>
       <c r="F126" t="n">
-        <v>7035.7291</v>
+        <v>12000</v>
       </c>
       <c r="G126" t="n">
-        <v>96.63866666666665</v>
+        <v>-509808.4792210843</v>
       </c>
       <c r="H126" t="n">
-        <v>97.18766666666676</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>0</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N126" t="n">
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5404,40 +4908,37 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>96.88</v>
+        <v>97.42</v>
       </c>
       <c r="C127" t="n">
-        <v>96.89</v>
+        <v>97.42</v>
       </c>
       <c r="D127" t="n">
-        <v>96.89</v>
+        <v>97.42</v>
       </c>
       <c r="E127" t="n">
-        <v>96.88</v>
+        <v>97.42</v>
       </c>
       <c r="F127" t="n">
-        <v>14689.4068</v>
+        <v>221.9891</v>
       </c>
       <c r="G127" t="n">
-        <v>96.64599999999999</v>
+        <v>-509808.4792210843</v>
       </c>
       <c r="H127" t="n">
-        <v>97.17266666666677</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>0</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N127" t="n">
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5446,40 +4947,37 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>96.87</v>
+        <v>97.5</v>
       </c>
       <c r="C128" t="n">
-        <v>96.61</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="D128" t="n">
-        <v>96.87</v>
+        <v>97.5</v>
       </c>
       <c r="E128" t="n">
-        <v>96.61</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="F128" t="n">
-        <v>8161.2072</v>
+        <v>12990.9794</v>
       </c>
       <c r="G128" t="n">
-        <v>96.63533333333332</v>
+        <v>-522799.4586210843</v>
       </c>
       <c r="H128" t="n">
-        <v>97.15950000000011</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>0</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N128" t="n">
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5488,40 +4986,37 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>96.89</v>
+        <v>97.3</v>
       </c>
       <c r="C129" t="n">
-        <v>96.88</v>
+        <v>97.3</v>
       </c>
       <c r="D129" t="n">
-        <v>96.89</v>
+        <v>97.3</v>
       </c>
       <c r="E129" t="n">
-        <v>96.88</v>
+        <v>97.3</v>
       </c>
       <c r="F129" t="n">
-        <v>13058.3204</v>
+        <v>1000</v>
       </c>
       <c r="G129" t="n">
-        <v>96.64133333333332</v>
+        <v>-523799.4586210843</v>
       </c>
       <c r="H129" t="n">
-        <v>97.13933333333344</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>0</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N129" t="n">
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5530,40 +5025,37 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>96.87</v>
+        <v>97.3</v>
       </c>
       <c r="C130" t="n">
-        <v>96.87</v>
+        <v>97.3</v>
       </c>
       <c r="D130" t="n">
-        <v>96.87</v>
+        <v>97.3</v>
       </c>
       <c r="E130" t="n">
-        <v>96.87</v>
+        <v>97.3</v>
       </c>
       <c r="F130" t="n">
-        <v>6377.4669</v>
+        <v>27</v>
       </c>
       <c r="G130" t="n">
-        <v>96.65933333333332</v>
+        <v>-523799.4586210843</v>
       </c>
       <c r="H130" t="n">
-        <v>97.12883333333343</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>0</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N130" t="n">
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5572,40 +5064,37 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>96.59999999999999</v>
+        <v>97.98999999999999</v>
       </c>
       <c r="C131" t="n">
-        <v>96.59999999999999</v>
+        <v>97.98999999999999</v>
       </c>
       <c r="D131" t="n">
-        <v>96.59999999999999</v>
+        <v>97.98999999999999</v>
       </c>
       <c r="E131" t="n">
-        <v>96.59999999999999</v>
+        <v>97.98999999999999</v>
       </c>
       <c r="F131" t="n">
-        <v>27258.1313</v>
+        <v>66.1283</v>
       </c>
       <c r="G131" t="n">
-        <v>96.65933333333332</v>
+        <v>-523733.3303210844</v>
       </c>
       <c r="H131" t="n">
-        <v>97.11383333333343</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>0</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N131" t="n">
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5614,40 +5103,37 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>96.89</v>
+        <v>97.5</v>
       </c>
       <c r="C132" t="n">
-        <v>96.59999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="D132" t="n">
-        <v>96.89</v>
+        <v>97.5</v>
       </c>
       <c r="E132" t="n">
-        <v>96.59999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="F132" t="n">
-        <v>8753.4195</v>
+        <v>84.69670000000001</v>
       </c>
       <c r="G132" t="n">
-        <v>96.66</v>
+        <v>-523818.0270210843</v>
       </c>
       <c r="H132" t="n">
-        <v>97.09083333333345</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>0</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N132" t="n">
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5656,40 +5142,37 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>96.88</v>
+        <v>97.5</v>
       </c>
       <c r="C133" t="n">
-        <v>96.59999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="D133" t="n">
-        <v>96.88</v>
+        <v>97.5</v>
       </c>
       <c r="E133" t="n">
-        <v>96.59999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="F133" t="n">
-        <v>15145</v>
+        <v>221.989</v>
       </c>
       <c r="G133" t="n">
-        <v>96.67999999999999</v>
+        <v>-523818.0270210843</v>
       </c>
       <c r="H133" t="n">
-        <v>97.07916666666679</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>0</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N133" t="n">
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5698,40 +5181,37 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>96.45</v>
+        <v>97.41</v>
       </c>
       <c r="C134" t="n">
-        <v>96.31</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="D134" t="n">
-        <v>96.45</v>
+        <v>97.41</v>
       </c>
       <c r="E134" t="n">
-        <v>96.31</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="F134" t="n">
-        <v>9929</v>
+        <v>13000</v>
       </c>
       <c r="G134" t="n">
-        <v>96.66066666666666</v>
+        <v>-536818.0270210843</v>
       </c>
       <c r="H134" t="n">
-        <v>97.06266666666679</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>0</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N134" t="n">
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5740,40 +5220,37 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>96.8</v>
+        <v>97.98999999999999</v>
       </c>
       <c r="C135" t="n">
-        <v>96.8</v>
+        <v>97.98999999999999</v>
       </c>
       <c r="D135" t="n">
-        <v>96.8</v>
+        <v>97.98999999999999</v>
       </c>
       <c r="E135" t="n">
-        <v>96.8</v>
+        <v>97.98999999999999</v>
       </c>
       <c r="F135" t="n">
-        <v>1007.6455</v>
+        <v>6</v>
       </c>
       <c r="G135" t="n">
-        <v>96.68199999999999</v>
+        <v>-536812.0270210843</v>
       </c>
       <c r="H135" t="n">
-        <v>97.05600000000013</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>0</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N135" t="n">
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5782,40 +5259,37 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>96.8</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="C136" t="n">
-        <v>96.8</v>
+        <v>97</v>
       </c>
       <c r="D136" t="n">
-        <v>96.8</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E136" t="n">
-        <v>96.8</v>
+        <v>97</v>
       </c>
       <c r="F136" t="n">
-        <v>223.2387</v>
+        <v>4000</v>
       </c>
       <c r="G136" t="n">
-        <v>96.72133333333332</v>
+        <v>-540812.0270210843</v>
       </c>
       <c r="H136" t="n">
-        <v>97.0476666666668</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>0</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N136" t="n">
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5824,40 +5298,37 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>96.42</v>
+        <v>97</v>
       </c>
       <c r="C137" t="n">
-        <v>96.8</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="D137" t="n">
-        <v>96.8</v>
+        <v>97</v>
       </c>
       <c r="E137" t="n">
-        <v>96.42</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="F137" t="n">
-        <v>433.2972</v>
+        <v>1000</v>
       </c>
       <c r="G137" t="n">
-        <v>96.7293333333333</v>
+        <v>-541812.0270210843</v>
       </c>
       <c r="H137" t="n">
-        <v>97.03933333333346</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>0</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N137" t="n">
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5866,40 +5337,37 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>96.44</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="C138" t="n">
-        <v>96.44</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="D138" t="n">
-        <v>96.44</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="E138" t="n">
-        <v>96.44</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="F138" t="n">
-        <v>316.7939</v>
+        <v>498.3848</v>
       </c>
       <c r="G138" t="n">
-        <v>96.69266666666664</v>
+        <v>-541812.0270210843</v>
       </c>
       <c r="H138" t="n">
-        <v>97.02500000000012</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>0</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N138" t="n">
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5908,40 +5376,37 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>96.78</v>
+        <v>96.79000000000001</v>
       </c>
       <c r="C139" t="n">
-        <v>96.77</v>
+        <v>96.79000000000001</v>
       </c>
       <c r="D139" t="n">
-        <v>96.78</v>
+        <v>96.79000000000001</v>
       </c>
       <c r="E139" t="n">
-        <v>96.77</v>
+        <v>96.79000000000001</v>
       </c>
       <c r="F139" t="n">
-        <v>4876</v>
+        <v>40</v>
       </c>
       <c r="G139" t="n">
-        <v>96.67866666666664</v>
+        <v>-541772.0270210843</v>
       </c>
       <c r="H139" t="n">
-        <v>97.01616666666679</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>0</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N139" t="n">
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5950,40 +5415,39 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>96.98999999999999</v>
+        <v>96.79000000000001</v>
       </c>
       <c r="C140" t="n">
-        <v>96.98999999999999</v>
+        <v>96.79000000000001</v>
       </c>
       <c r="D140" t="n">
-        <v>96.98999999999999</v>
+        <v>96.79000000000001</v>
       </c>
       <c r="E140" t="n">
-        <v>96.98999999999999</v>
+        <v>96.79000000000001</v>
       </c>
       <c r="F140" t="n">
-        <v>6</v>
+        <v>3093.6499</v>
       </c>
       <c r="G140" t="n">
-        <v>96.72399999999998</v>
+        <v>-541772.0270210843</v>
       </c>
       <c r="H140" t="n">
-        <v>97.01250000000012</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
       <c r="J140" t="n">
-        <v>0</v>
+        <v>96.79000000000001</v>
       </c>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N140" t="n">
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5992,40 +5456,39 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>96.98</v>
+        <v>96.78</v>
       </c>
       <c r="C141" t="n">
-        <v>96.98</v>
+        <v>96.78</v>
       </c>
       <c r="D141" t="n">
-        <v>96.98</v>
+        <v>96.78</v>
       </c>
       <c r="E141" t="n">
-        <v>96.98</v>
+        <v>96.78</v>
       </c>
       <c r="F141" t="n">
-        <v>7355</v>
+        <v>2113.019251994214</v>
       </c>
       <c r="G141" t="n">
-        <v>96.7293333333333</v>
+        <v>-543885.0462730785</v>
       </c>
       <c r="H141" t="n">
-        <v>97.01050000000011</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
       <c r="J141" t="n">
-        <v>0</v>
+        <v>96.79000000000001</v>
       </c>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N141" t="n">
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6034,40 +5497,39 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>96.98</v>
+        <v>96.77</v>
       </c>
       <c r="C142" t="n">
-        <v>96.98999999999999</v>
+        <v>96.77</v>
       </c>
       <c r="D142" t="n">
-        <v>96.98999999999999</v>
+        <v>96.77</v>
       </c>
       <c r="E142" t="n">
-        <v>96.98</v>
+        <v>96.77</v>
       </c>
       <c r="F142" t="n">
-        <v>10889.5444</v>
+        <v>2683.1049</v>
       </c>
       <c r="G142" t="n">
-        <v>96.73599999999996</v>
+        <v>-546568.1511730786</v>
       </c>
       <c r="H142" t="n">
-        <v>97.01183333333344</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
       <c r="J142" t="n">
-        <v>0</v>
+        <v>96.78</v>
       </c>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N142" t="n">
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6076,40 +5538,39 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>96.98999999999999</v>
+        <v>96.79000000000001</v>
       </c>
       <c r="C143" t="n">
-        <v>96.98999999999999</v>
+        <v>96.79000000000001</v>
       </c>
       <c r="D143" t="n">
-        <v>96.98999999999999</v>
+        <v>96.79000000000001</v>
       </c>
       <c r="E143" t="n">
-        <v>96.98999999999999</v>
+        <v>96.79000000000001</v>
       </c>
       <c r="F143" t="n">
-        <v>588.1763999999999</v>
+        <v>360.8359</v>
       </c>
       <c r="G143" t="n">
-        <v>96.76133333333331</v>
+        <v>-546207.3152730786</v>
       </c>
       <c r="H143" t="n">
-        <v>97.01316666666678</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
       <c r="J143" t="n">
-        <v>0</v>
+        <v>96.77</v>
       </c>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N143" t="n">
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6118,40 +5579,39 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>96.98999999999999</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="C144" t="n">
-        <v>96.98999999999999</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="D144" t="n">
-        <v>96.98999999999999</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="E144" t="n">
-        <v>96.98999999999999</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="F144" t="n">
-        <v>824.2472</v>
+        <v>1084.8681</v>
       </c>
       <c r="G144" t="n">
-        <v>96.76866666666665</v>
+        <v>-547292.1833730786</v>
       </c>
       <c r="H144" t="n">
-        <v>97.01133333333343</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
       <c r="J144" t="n">
-        <v>0</v>
+        <v>96.79000000000001</v>
       </c>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N144" t="n">
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6160,40 +5620,39 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>96.98</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="C145" t="n">
-        <v>96.98</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="D145" t="n">
-        <v>96.98999999999999</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="E145" t="n">
-        <v>96.97</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="F145" t="n">
-        <v>9210.763000000001</v>
+        <v>2000</v>
       </c>
       <c r="G145" t="n">
-        <v>96.776</v>
+        <v>-547292.1833730786</v>
       </c>
       <c r="H145" t="n">
-        <v>97.00933333333342</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
       <c r="J145" t="n">
-        <v>0</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N145" t="n">
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6202,40 +5661,39 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>96.98999999999999</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="C146" t="n">
-        <v>96.98</v>
+        <v>96.59</v>
       </c>
       <c r="D146" t="n">
-        <v>96.98999999999999</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="E146" t="n">
-        <v>96.8</v>
+        <v>96.5</v>
       </c>
       <c r="F146" t="n">
-        <v>17584.0311</v>
+        <v>3717.4854</v>
       </c>
       <c r="G146" t="n">
-        <v>96.80133333333333</v>
+        <v>-551009.6687730786</v>
       </c>
       <c r="H146" t="n">
-        <v>97.00733333333341</v>
+        <v>1</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
       <c r="J146" t="n">
-        <v>0</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N146" t="n">
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6244,40 +5702,39 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>96.98999999999999</v>
+        <v>96.3</v>
       </c>
       <c r="C147" t="n">
-        <v>96.98</v>
+        <v>96.3</v>
       </c>
       <c r="D147" t="n">
-        <v>96.98999999999999</v>
+        <v>96.3</v>
       </c>
       <c r="E147" t="n">
-        <v>96.98</v>
+        <v>96.3</v>
       </c>
       <c r="F147" t="n">
-        <v>3683.631</v>
+        <v>3221.6486</v>
       </c>
       <c r="G147" t="n">
-        <v>96.82666666666667</v>
+        <v>-554231.3173730785</v>
       </c>
       <c r="H147" t="n">
-        <v>97.00116666666672</v>
+        <v>1</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
       <c r="J147" t="n">
-        <v>0</v>
+        <v>96.59</v>
       </c>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N147" t="n">
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6286,40 +5743,39 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>96.98999999999999</v>
+        <v>96.3</v>
       </c>
       <c r="C148" t="n">
-        <v>96.98999999999999</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="D148" t="n">
-        <v>96.98999999999999</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="E148" t="n">
-        <v>96.98999999999999</v>
+        <v>94.97</v>
       </c>
       <c r="F148" t="n">
-        <v>2912.8738</v>
+        <v>397844.6606</v>
       </c>
       <c r="G148" t="n">
-        <v>96.85266666666668</v>
+        <v>-156386.6567730785</v>
       </c>
       <c r="H148" t="n">
-        <v>96.99516666666672</v>
+        <v>1</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
       <c r="J148" t="n">
-        <v>0</v>
+        <v>96.3</v>
       </c>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N148" t="n">
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6328,40 +5784,37 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>96.98999999999999</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="C149" t="n">
-        <v>97.19</v>
+        <v>96.48</v>
       </c>
       <c r="D149" t="n">
-        <v>97.19</v>
+        <v>96.5</v>
       </c>
       <c r="E149" t="n">
-        <v>96.98999999999999</v>
+        <v>96.39</v>
       </c>
       <c r="F149" t="n">
-        <v>12110</v>
+        <v>58590</v>
       </c>
       <c r="G149" t="n">
-        <v>96.91133333333336</v>
+        <v>-214976.6567730785</v>
       </c>
       <c r="H149" t="n">
-        <v>96.9966666666667</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="n">
-        <v>0</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N149" t="n">
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6370,40 +5823,37 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>97.19</v>
+        <v>96.69</v>
       </c>
       <c r="C150" t="n">
-        <v>97.19</v>
+        <v>96.20999999999999</v>
       </c>
       <c r="D150" t="n">
-        <v>97.19</v>
+        <v>96.69</v>
       </c>
       <c r="E150" t="n">
-        <v>97.19</v>
+        <v>96.20999999999999</v>
       </c>
       <c r="F150" t="n">
-        <v>2420</v>
+        <v>10865</v>
       </c>
       <c r="G150" t="n">
-        <v>96.93733333333336</v>
+        <v>-225841.6567730785</v>
       </c>
       <c r="H150" t="n">
-        <v>96.99816666666669</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="n">
-        <v>0</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N150" t="n">
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6412,40 +5862,37 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>97.15000000000001</v>
+        <v>96.67</v>
       </c>
       <c r="C151" t="n">
-        <v>97.19</v>
+        <v>96.68000000000001</v>
       </c>
       <c r="D151" t="n">
-        <v>97.19</v>
+        <v>96.69</v>
       </c>
       <c r="E151" t="n">
-        <v>97.15000000000001</v>
+        <v>96.67</v>
       </c>
       <c r="F151" t="n">
-        <v>3512.3537</v>
+        <v>5150</v>
       </c>
       <c r="G151" t="n">
-        <v>96.96333333333337</v>
+        <v>-220691.6567730785</v>
       </c>
       <c r="H151" t="n">
-        <v>96.99966666666667</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="n">
-        <v>0</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N151" t="n">
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6454,40 +5901,37 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>97.2</v>
+        <v>96.98999999999999</v>
       </c>
       <c r="C152" t="n">
-        <v>97.2</v>
+        <v>96.98999999999999</v>
       </c>
       <c r="D152" t="n">
-        <v>97.2</v>
+        <v>96.98999999999999</v>
       </c>
       <c r="E152" t="n">
-        <v>97.2</v>
+        <v>96.98999999999999</v>
       </c>
       <c r="F152" t="n">
-        <v>878.2794</v>
+        <v>2000</v>
       </c>
       <c r="G152" t="n">
-        <v>96.99000000000004</v>
+        <v>-218691.6567730785</v>
       </c>
       <c r="H152" t="n">
-        <v>96.99616666666667</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="n">
-        <v>0</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N152" t="n">
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6496,40 +5940,39 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>97</v>
+        <v>96.98</v>
       </c>
       <c r="C153" t="n">
-        <v>97</v>
+        <v>96.98</v>
       </c>
       <c r="D153" t="n">
-        <v>97</v>
+        <v>96.98</v>
       </c>
       <c r="E153" t="n">
-        <v>97</v>
+        <v>96.98</v>
       </c>
       <c r="F153" t="n">
-        <v>10525.6441</v>
+        <v>12179.3083</v>
       </c>
       <c r="G153" t="n">
-        <v>97.02733333333337</v>
+        <v>-230870.9650730786</v>
       </c>
       <c r="H153" t="n">
-        <v>96.98116666666668</v>
+        <v>1</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
       <c r="J153" t="n">
-        <v>0</v>
+        <v>96.98999999999999</v>
       </c>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N153" t="n">
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6538,40 +5981,39 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>97.2</v>
+        <v>96.31</v>
       </c>
       <c r="C154" t="n">
-        <v>97.2</v>
+        <v>96.31</v>
       </c>
       <c r="D154" t="n">
-        <v>97.2</v>
+        <v>96.31</v>
       </c>
       <c r="E154" t="n">
-        <v>97.2</v>
+        <v>96.31</v>
       </c>
       <c r="F154" t="n">
-        <v>6</v>
+        <v>1982.9453</v>
       </c>
       <c r="G154" t="n">
-        <v>97.05600000000004</v>
+        <v>-232853.9103730785</v>
       </c>
       <c r="H154" t="n">
-        <v>96.96950000000001</v>
+        <v>1</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
       <c r="J154" t="n">
-        <v>0</v>
+        <v>96.98</v>
       </c>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N154" t="n">
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6580,40 +6022,39 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>97.09999999999999</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="C155" t="n">
-        <v>97.09999999999999</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="D155" t="n">
-        <v>97.09999999999999</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="E155" t="n">
-        <v>97.09999999999999</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="F155" t="n">
-        <v>1461.3629</v>
+        <v>7035.7291</v>
       </c>
       <c r="G155" t="n">
-        <v>97.06333333333336</v>
+        <v>-225818.1812730785</v>
       </c>
       <c r="H155" t="n">
-        <v>96.94800000000002</v>
+        <v>1</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
       <c r="J155" t="n">
-        <v>0</v>
+        <v>96.31</v>
       </c>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N155" t="n">
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6622,40 +6063,37 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>97.2</v>
+        <v>96.88</v>
       </c>
       <c r="C156" t="n">
-        <v>97.2</v>
+        <v>96.89</v>
       </c>
       <c r="D156" t="n">
-        <v>97.2</v>
+        <v>96.89</v>
       </c>
       <c r="E156" t="n">
-        <v>97.2</v>
+        <v>96.88</v>
       </c>
       <c r="F156" t="n">
-        <v>6</v>
+        <v>14689.4068</v>
       </c>
       <c r="G156" t="n">
-        <v>97.07800000000003</v>
+        <v>-240507.5880730785</v>
       </c>
       <c r="H156" t="n">
-        <v>96.92816666666667</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="n">
-        <v>0</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N156" t="n">
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6664,40 +6102,37 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>97.01000000000001</v>
+        <v>96.87</v>
       </c>
       <c r="C157" t="n">
-        <v>97.01000000000001</v>
+        <v>96.61</v>
       </c>
       <c r="D157" t="n">
-        <v>97.01000000000001</v>
+        <v>96.87</v>
       </c>
       <c r="E157" t="n">
-        <v>97.01000000000001</v>
+        <v>96.61</v>
       </c>
       <c r="F157" t="n">
-        <v>12860.6742</v>
+        <v>8161.2072</v>
       </c>
       <c r="G157" t="n">
-        <v>97.07933333333337</v>
+        <v>-248668.7952730785</v>
       </c>
       <c r="H157" t="n">
-        <v>96.92133333333335</v>
+        <v>0</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="n">
-        <v>0</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N157" t="n">
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6706,42 +6141,37 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>97.01000000000001</v>
+        <v>96.89</v>
       </c>
       <c r="C158" t="n">
-        <v>97.01000000000001</v>
+        <v>96.88</v>
       </c>
       <c r="D158" t="n">
-        <v>97.01000000000001</v>
+        <v>96.89</v>
       </c>
       <c r="E158" t="n">
-        <v>97.01000000000001</v>
+        <v>96.88</v>
       </c>
       <c r="F158" t="n">
-        <v>3163.9491</v>
+        <v>13058.3204</v>
       </c>
       <c r="G158" t="n">
-        <v>97.0806666666667</v>
+        <v>-235610.4748730786</v>
       </c>
       <c r="H158" t="n">
-        <v>96.91450000000002</v>
+        <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>1</v>
-      </c>
-      <c r="J158" t="n">
-        <v>0</v>
-      </c>
-      <c r="K158" t="n">
-        <v>97.01000000000001</v>
-      </c>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6750,42 +6180,37 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>97.01000000000001</v>
+        <v>96.87</v>
       </c>
       <c r="C159" t="n">
-        <v>97.2</v>
+        <v>96.87</v>
       </c>
       <c r="D159" t="n">
-        <v>97.2</v>
+        <v>96.87</v>
       </c>
       <c r="E159" t="n">
-        <v>97.01000000000001</v>
+        <v>96.87</v>
       </c>
       <c r="F159" t="n">
-        <v>442.4327</v>
+        <v>6377.4669</v>
       </c>
       <c r="G159" t="n">
-        <v>97.0946666666667</v>
+        <v>-241987.9417730785</v>
       </c>
       <c r="H159" t="n">
-        <v>96.91116666666669</v>
+        <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>1</v>
-      </c>
-      <c r="J159" t="n">
-        <v>0</v>
-      </c>
-      <c r="K159" t="n">
-        <v>97.01000000000001</v>
-      </c>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6794,40 +6219,37 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>97.2</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="C160" t="n">
-        <v>97.2</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="D160" t="n">
-        <v>97.2</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="E160" t="n">
-        <v>97.2</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="F160" t="n">
-        <v>635.7907</v>
+        <v>27258.1313</v>
       </c>
       <c r="G160" t="n">
-        <v>97.10933333333337</v>
+        <v>-269246.0730730785</v>
       </c>
       <c r="H160" t="n">
-        <v>96.90950000000001</v>
+        <v>0</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="n">
-        <v>0</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N160" t="n">
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6836,42 +6258,37 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>97.2</v>
+        <v>96.89</v>
       </c>
       <c r="C161" t="n">
-        <v>97.2</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="D161" t="n">
-        <v>97.2</v>
+        <v>96.89</v>
       </c>
       <c r="E161" t="n">
-        <v>97.2</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="F161" t="n">
-        <v>1000.3</v>
+        <v>8753.4195</v>
       </c>
       <c r="G161" t="n">
-        <v>97.12400000000004</v>
+        <v>-269246.0730730785</v>
       </c>
       <c r="H161" t="n">
-        <v>96.90783333333334</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>1</v>
-      </c>
-      <c r="J161" t="n">
-        <v>0</v>
-      </c>
-      <c r="K161" t="n">
-        <v>97.2</v>
-      </c>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6880,42 +6297,37 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>96.90000000000001</v>
+        <v>96.88</v>
       </c>
       <c r="C162" t="n">
-        <v>96.90000000000001</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="D162" t="n">
-        <v>96.90000000000001</v>
+        <v>96.88</v>
       </c>
       <c r="E162" t="n">
-        <v>96.90000000000001</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="F162" t="n">
-        <v>3760.8453</v>
+        <v>15145</v>
       </c>
       <c r="G162" t="n">
-        <v>97.11866666666671</v>
+        <v>-269246.0730730785</v>
       </c>
       <c r="H162" t="n">
-        <v>96.88966666666667</v>
+        <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>1</v>
-      </c>
-      <c r="J162" t="n">
-        <v>0</v>
-      </c>
-      <c r="K162" t="n">
-        <v>97.2</v>
-      </c>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6924,42 +6336,37 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>97.2</v>
+        <v>96.45</v>
       </c>
       <c r="C163" t="n">
-        <v>97.2</v>
+        <v>96.31</v>
       </c>
       <c r="D163" t="n">
-        <v>97.2</v>
+        <v>96.45</v>
       </c>
       <c r="E163" t="n">
-        <v>97.2</v>
+        <v>96.31</v>
       </c>
       <c r="F163" t="n">
-        <v>6</v>
+        <v>9929</v>
       </c>
       <c r="G163" t="n">
-        <v>97.13266666666671</v>
+        <v>-279175.0730730785</v>
       </c>
       <c r="H163" t="n">
-        <v>96.88466666666666</v>
+        <v>0</v>
       </c>
       <c r="I163" t="n">
-        <v>1</v>
-      </c>
-      <c r="J163" t="n">
-        <v>0</v>
-      </c>
-      <c r="K163" t="n">
-        <v>96.90000000000001</v>
-      </c>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6968,42 +6375,39 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>97.2</v>
+        <v>96.8</v>
       </c>
       <c r="C164" t="n">
-        <v>97.2</v>
+        <v>96.8</v>
       </c>
       <c r="D164" t="n">
-        <v>97.2</v>
+        <v>96.8</v>
       </c>
       <c r="E164" t="n">
-        <v>97.2</v>
+        <v>96.8</v>
       </c>
       <c r="F164" t="n">
-        <v>597.9793</v>
+        <v>1007.6455</v>
       </c>
       <c r="G164" t="n">
-        <v>97.13333333333338</v>
+        <v>-278167.4275730785</v>
       </c>
       <c r="H164" t="n">
-        <v>96.87966666666667</v>
+        <v>1</v>
       </c>
       <c r="I164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J164" t="n">
-        <v>0</v>
-      </c>
-      <c r="K164" t="n">
-        <v>97.2</v>
-      </c>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N164" t="n">
+        <v>96.31</v>
+      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7012,42 +6416,37 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>97.2</v>
+        <v>96.8</v>
       </c>
       <c r="C165" t="n">
-        <v>97.2</v>
+        <v>96.8</v>
       </c>
       <c r="D165" t="n">
-        <v>97.2</v>
+        <v>96.8</v>
       </c>
       <c r="E165" t="n">
-        <v>97.2</v>
+        <v>96.8</v>
       </c>
       <c r="F165" t="n">
-        <v>354.2062</v>
+        <v>223.2387</v>
       </c>
       <c r="G165" t="n">
-        <v>97.13400000000004</v>
+        <v>-278167.4275730785</v>
       </c>
       <c r="H165" t="n">
-        <v>96.87633333333333</v>
+        <v>0</v>
       </c>
       <c r="I165" t="n">
-        <v>1</v>
-      </c>
-      <c r="J165" t="n">
-        <v>0</v>
-      </c>
-      <c r="K165" t="n">
-        <v>97.2</v>
-      </c>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7056,42 +6455,37 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>97.2</v>
+        <v>96.42</v>
       </c>
       <c r="C166" t="n">
-        <v>97.2</v>
+        <v>96.8</v>
       </c>
       <c r="D166" t="n">
-        <v>97.2</v>
+        <v>96.8</v>
       </c>
       <c r="E166" t="n">
-        <v>97.2</v>
+        <v>96.42</v>
       </c>
       <c r="F166" t="n">
-        <v>749.2394</v>
+        <v>433.2972</v>
       </c>
       <c r="G166" t="n">
-        <v>97.13466666666672</v>
+        <v>-278167.4275730785</v>
       </c>
       <c r="H166" t="n">
-        <v>96.86316666666667</v>
+        <v>0</v>
       </c>
       <c r="I166" t="n">
-        <v>1</v>
-      </c>
-      <c r="J166" t="n">
-        <v>0</v>
-      </c>
-      <c r="K166" t="n">
-        <v>97.2</v>
-      </c>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7100,40 +6494,37 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>97.2</v>
+        <v>96.44</v>
       </c>
       <c r="C167" t="n">
-        <v>97.2</v>
+        <v>96.44</v>
       </c>
       <c r="D167" t="n">
-        <v>97.2</v>
+        <v>96.44</v>
       </c>
       <c r="E167" t="n">
-        <v>97.2</v>
+        <v>96.44</v>
       </c>
       <c r="F167" t="n">
-        <v>349.8471</v>
+        <v>316.7939</v>
       </c>
       <c r="G167" t="n">
-        <v>97.13466666666672</v>
+        <v>-278484.2214730785</v>
       </c>
       <c r="H167" t="n">
-        <v>96.8665</v>
+        <v>0</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="n">
-        <v>0</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N167" t="n">
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7142,40 +6533,37 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>97.2</v>
+        <v>96.78</v>
       </c>
       <c r="C168" t="n">
-        <v>97.56</v>
+        <v>96.77</v>
       </c>
       <c r="D168" t="n">
-        <v>97.56</v>
+        <v>96.78</v>
       </c>
       <c r="E168" t="n">
-        <v>97.2</v>
+        <v>96.77</v>
       </c>
       <c r="F168" t="n">
-        <v>2000</v>
+        <v>4876</v>
       </c>
       <c r="G168" t="n">
-        <v>97.17200000000004</v>
+        <v>-273608.2214730785</v>
       </c>
       <c r="H168" t="n">
-        <v>96.88249999999999</v>
+        <v>0</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="n">
-        <v>0</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N168" t="n">
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7184,40 +6572,37 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>97.5</v>
+        <v>96.98999999999999</v>
       </c>
       <c r="C169" t="n">
-        <v>97.5</v>
+        <v>96.98999999999999</v>
       </c>
       <c r="D169" t="n">
-        <v>97.5</v>
+        <v>96.98999999999999</v>
       </c>
       <c r="E169" t="n">
-        <v>97.5</v>
+        <v>96.98999999999999</v>
       </c>
       <c r="F169" t="n">
-        <v>5099.6298</v>
+        <v>6</v>
       </c>
       <c r="G169" t="n">
-        <v>97.19200000000004</v>
+        <v>-273602.2214730785</v>
       </c>
       <c r="H169" t="n">
-        <v>96.89749999999999</v>
+        <v>0</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="n">
-        <v>0</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N169" t="n">
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7226,40 +6611,37 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>97.5</v>
+        <v>96.98</v>
       </c>
       <c r="C170" t="n">
-        <v>97.5</v>
+        <v>96.98</v>
       </c>
       <c r="D170" t="n">
-        <v>97.5</v>
+        <v>96.98</v>
       </c>
       <c r="E170" t="n">
-        <v>97.5</v>
+        <v>96.98</v>
       </c>
       <c r="F170" t="n">
-        <v>621.6648</v>
+        <v>7355</v>
       </c>
       <c r="G170" t="n">
-        <v>97.21866666666671</v>
+        <v>-280957.2214730785</v>
       </c>
       <c r="H170" t="n">
-        <v>96.90933333333332</v>
+        <v>0</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="n">
-        <v>0</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N170" t="n">
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7268,40 +6650,37 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>97.01000000000001</v>
+        <v>96.98</v>
       </c>
       <c r="C171" t="n">
-        <v>97.01000000000001</v>
+        <v>96.98999999999999</v>
       </c>
       <c r="D171" t="n">
-        <v>97.01000000000001</v>
+        <v>96.98999999999999</v>
       </c>
       <c r="E171" t="n">
-        <v>97.01000000000001</v>
+        <v>96.98</v>
       </c>
       <c r="F171" t="n">
-        <v>4901.9608</v>
+        <v>10889.5444</v>
       </c>
       <c r="G171" t="n">
-        <v>97.20600000000005</v>
+        <v>-270067.6770730785</v>
       </c>
       <c r="H171" t="n">
-        <v>96.913</v>
+        <v>0</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="n">
-        <v>0</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N171" t="n">
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7310,40 +6689,37 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>97.5</v>
+        <v>96.98999999999999</v>
       </c>
       <c r="C172" t="n">
-        <v>97.5</v>
+        <v>96.98999999999999</v>
       </c>
       <c r="D172" t="n">
-        <v>97.5</v>
+        <v>96.98999999999999</v>
       </c>
       <c r="E172" t="n">
-        <v>97.5</v>
+        <v>96.98999999999999</v>
       </c>
       <c r="F172" t="n">
-        <v>6</v>
+        <v>588.1763999999999</v>
       </c>
       <c r="G172" t="n">
-        <v>97.2386666666667</v>
+        <v>-270067.6770730785</v>
       </c>
       <c r="H172" t="n">
-        <v>96.925</v>
+        <v>0</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="n">
-        <v>0</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N172" t="n">
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7352,40 +6728,1168 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
+        <v>96.98999999999999</v>
+      </c>
+      <c r="C173" t="n">
+        <v>96.98999999999999</v>
+      </c>
+      <c r="D173" t="n">
+        <v>96.98999999999999</v>
+      </c>
+      <c r="E173" t="n">
+        <v>96.98999999999999</v>
+      </c>
+      <c r="F173" t="n">
+        <v>824.2472</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-270067.6770730785</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>96.98</v>
+      </c>
+      <c r="C174" t="n">
+        <v>96.98</v>
+      </c>
+      <c r="D174" t="n">
+        <v>96.98999999999999</v>
+      </c>
+      <c r="E174" t="n">
+        <v>96.97</v>
+      </c>
+      <c r="F174" t="n">
+        <v>9210.763000000001</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-279278.4400730785</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>96.98999999999999</v>
+      </c>
+      <c r="C175" t="n">
+        <v>96.98</v>
+      </c>
+      <c r="D175" t="n">
+        <v>96.98999999999999</v>
+      </c>
+      <c r="E175" t="n">
+        <v>96.8</v>
+      </c>
+      <c r="F175" t="n">
+        <v>17584.0311</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-279278.4400730785</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>96.98999999999999</v>
+      </c>
+      <c r="C176" t="n">
+        <v>96.98</v>
+      </c>
+      <c r="D176" t="n">
+        <v>96.98999999999999</v>
+      </c>
+      <c r="E176" t="n">
+        <v>96.98</v>
+      </c>
+      <c r="F176" t="n">
+        <v>3683.631</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-279278.4400730785</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>96.98999999999999</v>
+      </c>
+      <c r="C177" t="n">
+        <v>96.98999999999999</v>
+      </c>
+      <c r="D177" t="n">
+        <v>96.98999999999999</v>
+      </c>
+      <c r="E177" t="n">
+        <v>96.98999999999999</v>
+      </c>
+      <c r="F177" t="n">
+        <v>2912.8738</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-276365.5662730785</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>96.98999999999999</v>
+      </c>
+      <c r="C178" t="n">
+        <v>97.19</v>
+      </c>
+      <c r="D178" t="n">
+        <v>97.19</v>
+      </c>
+      <c r="E178" t="n">
+        <v>96.98999999999999</v>
+      </c>
+      <c r="F178" t="n">
+        <v>12110</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-264255.5662730785</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>97.19</v>
+      </c>
+      <c r="C179" t="n">
+        <v>97.19</v>
+      </c>
+      <c r="D179" t="n">
+        <v>97.19</v>
+      </c>
+      <c r="E179" t="n">
+        <v>97.19</v>
+      </c>
+      <c r="F179" t="n">
+        <v>2420</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-264255.5662730785</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>97.15000000000001</v>
+      </c>
+      <c r="C180" t="n">
+        <v>97.19</v>
+      </c>
+      <c r="D180" t="n">
+        <v>97.19</v>
+      </c>
+      <c r="E180" t="n">
+        <v>97.15000000000001</v>
+      </c>
+      <c r="F180" t="n">
+        <v>3512.3537</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-264255.5662730785</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="C181" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="D181" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="E181" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="F181" t="n">
+        <v>878.2794</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-263377.2868730785</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
         <v>97</v>
       </c>
-      <c r="C173" t="n">
+      <c r="C182" t="n">
+        <v>97</v>
+      </c>
+      <c r="D182" t="n">
+        <v>97</v>
+      </c>
+      <c r="E182" t="n">
+        <v>97</v>
+      </c>
+      <c r="F182" t="n">
+        <v>10525.6441</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-273902.9309730785</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="C183" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="D183" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="E183" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="F183" t="n">
+        <v>6</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-273896.9309730785</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="C184" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="D184" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="E184" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="F184" t="n">
+        <v>1461.3629</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-275358.2938730785</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="C185" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="D185" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="E185" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="F185" t="n">
+        <v>6</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-275352.2938730785</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>97.01000000000001</v>
+      </c>
+      <c r="C186" t="n">
+        <v>97.01000000000001</v>
+      </c>
+      <c r="D186" t="n">
+        <v>97.01000000000001</v>
+      </c>
+      <c r="E186" t="n">
+        <v>97.01000000000001</v>
+      </c>
+      <c r="F186" t="n">
+        <v>12860.6742</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-288212.9680730785</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>97.01000000000001</v>
+      </c>
+      <c r="C187" t="n">
+        <v>97.01000000000001</v>
+      </c>
+      <c r="D187" t="n">
+        <v>97.01000000000001</v>
+      </c>
+      <c r="E187" t="n">
+        <v>97.01000000000001</v>
+      </c>
+      <c r="F187" t="n">
+        <v>3163.9491</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-288212.9680730785</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>97.01000000000001</v>
+      </c>
+      <c r="C188" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="D188" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="E188" t="n">
+        <v>97.01000000000001</v>
+      </c>
+      <c r="F188" t="n">
+        <v>442.4327</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-287770.5353730785</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="C189" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="D189" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="E189" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="F189" t="n">
+        <v>635.7907</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-287770.5353730785</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="C190" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="D190" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="E190" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="F190" t="n">
+        <v>1000.3</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-287770.5353730785</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>96.90000000000001</v>
+      </c>
+      <c r="C191" t="n">
+        <v>96.90000000000001</v>
+      </c>
+      <c r="D191" t="n">
+        <v>96.90000000000001</v>
+      </c>
+      <c r="E191" t="n">
+        <v>96.90000000000001</v>
+      </c>
+      <c r="F191" t="n">
+        <v>3760.8453</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-291531.3806730785</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="C192" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="D192" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="E192" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="F192" t="n">
+        <v>6</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-291525.3806730785</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="C193" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="D193" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="E193" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="F193" t="n">
+        <v>597.9793</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-291525.3806730785</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="C194" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="D194" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="E194" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="F194" t="n">
+        <v>354.2062</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-291525.3806730785</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="C195" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="D195" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="E195" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="F195" t="n">
+        <v>749.2394</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-291525.3806730785</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="C196" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="D196" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="E196" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="F196" t="n">
+        <v>349.8471</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-291525.3806730785</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="C197" t="n">
+        <v>97.56</v>
+      </c>
+      <c r="D197" t="n">
+        <v>97.56</v>
+      </c>
+      <c r="E197" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="F197" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-289525.3806730785</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="C198" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="D198" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="E198" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="F198" t="n">
+        <v>5099.6298</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-294625.0104730785</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="C199" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="D199" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="E199" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="F199" t="n">
+        <v>621.6648</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-294625.0104730785</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>97.01000000000001</v>
+      </c>
+      <c r="C200" t="n">
+        <v>97.01000000000001</v>
+      </c>
+      <c r="D200" t="n">
+        <v>97.01000000000001</v>
+      </c>
+      <c r="E200" t="n">
+        <v>97.01000000000001</v>
+      </c>
+      <c r="F200" t="n">
+        <v>4901.9608</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-299526.9712730785</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="C201" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="D201" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="E201" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="F201" t="n">
+        <v>6</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-299520.9712730785</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>97</v>
+      </c>
+      <c r="C202" t="n">
         <v>96.91</v>
       </c>
-      <c r="D173" t="n">
+      <c r="D202" t="n">
         <v>97</v>
       </c>
-      <c r="E173" t="n">
+      <c r="E202" t="n">
         <v>96.91</v>
       </c>
-      <c r="F173" t="n">
+      <c r="F202" t="n">
         <v>19655.2854</v>
       </c>
-      <c r="G173" t="n">
-        <v>97.23200000000004</v>
-      </c>
-      <c r="H173" t="n">
-        <v>96.92733333333332</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="n">
-        <v>0</v>
-      </c>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N173" t="n">
+      <c r="G202" t="n">
+        <v>-319176.2566730785</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M202" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-26 BackTest ENJ.xlsx
+++ b/BackTest/2020-01-26 BackTest ENJ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M202"/>
+  <dimension ref="A1:N160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>100.8</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>100.8</v>
+        <v>98</v>
       </c>
       <c r="D2" t="n">
-        <v>100.8</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>100.8</v>
+        <v>98</v>
       </c>
       <c r="F2" t="n">
-        <v>399.9999</v>
+        <v>1389.8713</v>
       </c>
       <c r="G2" t="n">
-        <v>303383.1127543406</v>
+        <v>-252943.9304456593</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>101</v>
+        <v>98.2</v>
       </c>
       <c r="C3" t="n">
-        <v>100.2</v>
+        <v>98.2</v>
       </c>
       <c r="D3" t="n">
-        <v>101.2</v>
+        <v>98.2</v>
       </c>
       <c r="E3" t="n">
-        <v>100</v>
+        <v>98.2</v>
       </c>
       <c r="F3" t="n">
-        <v>199113.2606</v>
+        <v>365.5379</v>
       </c>
       <c r="G3" t="n">
-        <v>104269.8521543406</v>
+        <v>-252578.3925456593</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>100.9</v>
+        <v>98.2</v>
       </c>
       <c r="C4" t="n">
-        <v>100.9</v>
+        <v>97.20999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>100.9</v>
+        <v>98.2</v>
       </c>
       <c r="E4" t="n">
-        <v>100.9</v>
+        <v>97.20999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>10930</v>
+        <v>104086.8098</v>
       </c>
       <c r="G4" t="n">
-        <v>115199.8521543406</v>
+        <v>-356665.2023456593</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>100.5</v>
+        <v>98.01000000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>100.5</v>
+        <v>98.28</v>
       </c>
       <c r="D5" t="n">
-        <v>100.5</v>
+        <v>98.38</v>
       </c>
       <c r="E5" t="n">
-        <v>100.5</v>
+        <v>97.02</v>
       </c>
       <c r="F5" t="n">
-        <v>4516.6618</v>
+        <v>44701.91818574913</v>
       </c>
       <c r="G5" t="n">
-        <v>110683.1903543406</v>
+        <v>-311963.2841599102</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,28 +575,29 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>100.9</v>
+        <v>97.81</v>
       </c>
       <c r="C6" t="n">
-        <v>100.9</v>
+        <v>97.81</v>
       </c>
       <c r="D6" t="n">
-        <v>100.9</v>
+        <v>97.81</v>
       </c>
       <c r="E6" t="n">
-        <v>100.9</v>
+        <v>97.81</v>
       </c>
       <c r="F6" t="n">
-        <v>65.08580000000001</v>
+        <v>3696.5584</v>
       </c>
       <c r="G6" t="n">
-        <v>110748.2761543406</v>
+        <v>-315659.8425599101</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,28 +611,29 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>100.9</v>
+        <v>97.70999999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>100.9</v>
+        <v>97.70999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>100.9</v>
+        <v>97.70999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>100.9</v>
+        <v>97.70999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>1301.3904</v>
+        <v>44317.5604</v>
       </c>
       <c r="G7" t="n">
-        <v>110748.2761543406</v>
+        <v>-359977.4029599102</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,28 +647,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>100.9</v>
+        <v>97.62</v>
       </c>
       <c r="C8" t="n">
-        <v>100.9</v>
+        <v>97.62</v>
       </c>
       <c r="D8" t="n">
-        <v>100.9</v>
+        <v>97.62</v>
       </c>
       <c r="E8" t="n">
-        <v>100.9</v>
+        <v>97.62</v>
       </c>
       <c r="F8" t="n">
-        <v>444.6668</v>
+        <v>7897.5329</v>
       </c>
       <c r="G8" t="n">
-        <v>110748.2761543406</v>
+        <v>-367874.9358599102</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,34 +683,35 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>100.6</v>
+        <v>97.63</v>
       </c>
       <c r="C9" t="n">
-        <v>100.6</v>
+        <v>97.61</v>
       </c>
       <c r="D9" t="n">
-        <v>100.6</v>
+        <v>97.63</v>
       </c>
       <c r="E9" t="n">
-        <v>100.6</v>
+        <v>97.61</v>
       </c>
       <c r="F9" t="n">
-        <v>3830.9809</v>
+        <v>8184.8952</v>
       </c>
       <c r="G9" t="n">
-        <v>106917.2952543406</v>
+        <v>-376059.8310599102</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -707,28 +719,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>100.2</v>
+        <v>97.62</v>
       </c>
       <c r="C10" t="n">
-        <v>100.2</v>
+        <v>97.61</v>
       </c>
       <c r="D10" t="n">
-        <v>100.2</v>
+        <v>97.62</v>
       </c>
       <c r="E10" t="n">
-        <v>100.2</v>
+        <v>97.61</v>
       </c>
       <c r="F10" t="n">
-        <v>280</v>
+        <v>11311.2798</v>
       </c>
       <c r="G10" t="n">
-        <v>106637.2952543406</v>
+        <v>-376059.8310599102</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,34 +755,35 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>100.2</v>
+        <v>97.39</v>
       </c>
       <c r="C11" t="n">
-        <v>99.97</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>100.2</v>
+        <v>97.39</v>
       </c>
       <c r="E11" t="n">
-        <v>99.97</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>16991.6875</v>
+        <v>24140.6743</v>
       </c>
       <c r="G11" t="n">
-        <v>89645.60775434063</v>
+        <v>-400200.5053599102</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -777,34 +791,35 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>100.2</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>100.2</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>100.2</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>100.2</v>
+        <v>96.91</v>
       </c>
       <c r="F12" t="n">
-        <v>5262.9768</v>
+        <v>98859.44469999999</v>
       </c>
       <c r="G12" t="n">
-        <v>94908.58455434063</v>
+        <v>-400200.5053599102</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -812,34 +827,35 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>99.97</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>99.97</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>99.97</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>99.97</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="F13" t="n">
-        <v>3762.6514</v>
+        <v>3621.0827</v>
       </c>
       <c r="G13" t="n">
-        <v>91145.93315434063</v>
+        <v>-400200.5053599102</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -847,34 +863,35 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>99.97</v>
+        <v>97.09</v>
       </c>
       <c r="C14" t="n">
-        <v>99.97</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>99.97</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>99.97</v>
+        <v>97.09</v>
       </c>
       <c r="F14" t="n">
-        <v>5000</v>
+        <v>52239.878</v>
       </c>
       <c r="G14" t="n">
-        <v>91145.93315434063</v>
+        <v>-400200.5053599102</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -882,28 +899,29 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>99.97</v>
+        <v>97</v>
       </c>
       <c r="C15" t="n">
-        <v>99.90000000000001</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>99.97</v>
+        <v>97</v>
       </c>
       <c r="E15" t="n">
-        <v>99.90000000000001</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="F15" t="n">
-        <v>34336.0212</v>
+        <v>140876.4748</v>
       </c>
       <c r="G15" t="n">
-        <v>56809.91195434063</v>
+        <v>-541076.9801599102</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,28 +935,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>99.90000000000001</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>100.4</v>
+        <v>96.03</v>
       </c>
       <c r="D16" t="n">
-        <v>100.4</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>99.90000000000001</v>
+        <v>96.03</v>
       </c>
       <c r="F16" t="n">
-        <v>16362.9726</v>
+        <v>27730</v>
       </c>
       <c r="G16" t="n">
-        <v>73172.88455434062</v>
+        <v>-568806.9801599102</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,28 +971,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>100.5</v>
+        <v>96.03</v>
       </c>
       <c r="C17" t="n">
-        <v>100.5</v>
+        <v>96.98</v>
       </c>
       <c r="D17" t="n">
-        <v>100.5</v>
+        <v>96.98</v>
       </c>
       <c r="E17" t="n">
-        <v>100.5</v>
+        <v>96.03</v>
       </c>
       <c r="F17" t="n">
-        <v>9</v>
+        <v>121711.4748</v>
       </c>
       <c r="G17" t="n">
-        <v>73181.88455434062</v>
+        <v>-447095.5053599102</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,28 +1007,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>99.91</v>
+        <v>96.89</v>
       </c>
       <c r="C18" t="n">
-        <v>99.91</v>
+        <v>96.89</v>
       </c>
       <c r="D18" t="n">
-        <v>99.91</v>
+        <v>96.89</v>
       </c>
       <c r="E18" t="n">
-        <v>99.91</v>
+        <v>96.89</v>
       </c>
       <c r="F18" t="n">
-        <v>2030.8006</v>
+        <v>100108.6933</v>
       </c>
       <c r="G18" t="n">
-        <v>71151.08395434062</v>
+        <v>-547204.1986599102</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,28 +1043,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>100</v>
+        <v>96.87</v>
       </c>
       <c r="C19" t="n">
-        <v>100</v>
+        <v>96.88</v>
       </c>
       <c r="D19" t="n">
-        <v>100</v>
+        <v>96.88</v>
       </c>
       <c r="E19" t="n">
-        <v>100</v>
+        <v>96.87</v>
       </c>
       <c r="F19" t="n">
-        <v>985.5629</v>
+        <v>5225.4704</v>
       </c>
       <c r="G19" t="n">
-        <v>72136.64685434062</v>
+        <v>-552429.6690599102</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,28 +1079,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>99.89</v>
+        <v>96.95999999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>99.89</v>
+        <v>97.05</v>
       </c>
       <c r="D20" t="n">
-        <v>99.91</v>
+        <v>97.05</v>
       </c>
       <c r="E20" t="n">
-        <v>99.89</v>
+        <v>96.95999999999999</v>
       </c>
       <c r="F20" t="n">
-        <v>7533.7649</v>
+        <v>20000</v>
       </c>
       <c r="G20" t="n">
-        <v>64602.88195434062</v>
+        <v>-532429.6690599102</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,28 +1115,29 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>99.84</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>99.84</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>99.84</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>99.84</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="F21" t="n">
-        <v>102.645</v>
+        <v>1268.8554</v>
       </c>
       <c r="G21" t="n">
-        <v>64500.23695434062</v>
+        <v>-533698.5244599102</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1127,28 +1151,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>99.84</v>
+        <v>96.94</v>
       </c>
       <c r="C22" t="n">
-        <v>100.5</v>
+        <v>96.94</v>
       </c>
       <c r="D22" t="n">
-        <v>100.5</v>
+        <v>96.94</v>
       </c>
       <c r="E22" t="n">
-        <v>99.84</v>
+        <v>96.94</v>
       </c>
       <c r="F22" t="n">
-        <v>7292.7511</v>
+        <v>3805.0265</v>
       </c>
       <c r="G22" t="n">
-        <v>71792.98805434062</v>
+        <v>-529893.4979599102</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1162,28 +1187,29 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>99.81</v>
+        <v>96.76000000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>99.73</v>
+        <v>96.76000000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>99.81</v>
+        <v>96.76000000000001</v>
       </c>
       <c r="E23" t="n">
-        <v>99.73</v>
+        <v>96.76000000000001</v>
       </c>
       <c r="F23" t="n">
-        <v>5928.8694</v>
+        <v>2406.7191</v>
       </c>
       <c r="G23" t="n">
-        <v>65864.11865434062</v>
+        <v>-532300.2170599102</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,28 +1223,29 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>99.73</v>
+        <v>96.2</v>
       </c>
       <c r="C24" t="n">
-        <v>99.73</v>
+        <v>96.7</v>
       </c>
       <c r="D24" t="n">
-        <v>99.73</v>
+        <v>96.7</v>
       </c>
       <c r="E24" t="n">
-        <v>99.73</v>
+        <v>96.2</v>
       </c>
       <c r="F24" t="n">
-        <v>9418.545400000001</v>
+        <v>2702.8203</v>
       </c>
       <c r="G24" t="n">
-        <v>65864.11865434062</v>
+        <v>-535003.0373599102</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,28 +1259,29 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>99.70999999999999</v>
+        <v>96.3</v>
       </c>
       <c r="C25" t="n">
-        <v>99.59999999999999</v>
+        <v>96.88</v>
       </c>
       <c r="D25" t="n">
-        <v>99.70999999999999</v>
+        <v>96.89</v>
       </c>
       <c r="E25" t="n">
-        <v>99.59999999999999</v>
+        <v>96.3</v>
       </c>
       <c r="F25" t="n">
-        <v>1600</v>
+        <v>6962.5129</v>
       </c>
       <c r="G25" t="n">
-        <v>64264.11865434062</v>
+        <v>-528040.5244599102</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1267,28 +1295,29 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>99.81999999999999</v>
+        <v>96.8</v>
       </c>
       <c r="C26" t="n">
-        <v>99.59999999999999</v>
+        <v>96.88</v>
       </c>
       <c r="D26" t="n">
-        <v>100.4</v>
+        <v>96.88</v>
       </c>
       <c r="E26" t="n">
-        <v>99.5</v>
+        <v>96.8</v>
       </c>
       <c r="F26" t="n">
-        <v>75319.74490000001</v>
+        <v>4358.1012</v>
       </c>
       <c r="G26" t="n">
-        <v>64264.11865434062</v>
+        <v>-528040.5244599102</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,28 +1331,29 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>99.63</v>
+        <v>96.3</v>
       </c>
       <c r="C27" t="n">
-        <v>99.42</v>
+        <v>96.3</v>
       </c>
       <c r="D27" t="n">
-        <v>99.63</v>
+        <v>96.3</v>
       </c>
       <c r="E27" t="n">
-        <v>99.41</v>
+        <v>96.3</v>
       </c>
       <c r="F27" t="n">
-        <v>104653.828</v>
+        <v>6257.6282</v>
       </c>
       <c r="G27" t="n">
-        <v>-40389.70934565937</v>
+        <v>-534298.1526599103</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1337,28 +1367,29 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>99.41</v>
+        <v>96.3</v>
       </c>
       <c r="C28" t="n">
-        <v>99.23</v>
+        <v>96.3</v>
       </c>
       <c r="D28" t="n">
-        <v>99.41</v>
+        <v>96.3</v>
       </c>
       <c r="E28" t="n">
-        <v>99.23</v>
+        <v>96.3</v>
       </c>
       <c r="F28" t="n">
-        <v>94135.55130000001</v>
+        <v>0.0001</v>
       </c>
       <c r="G28" t="n">
-        <v>-134525.2606456594</v>
+        <v>-534298.1526599103</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1372,28 +1403,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>99.18000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="C29" t="n">
-        <v>98.94</v>
+        <v>97.23999999999999</v>
       </c>
       <c r="D29" t="n">
-        <v>99.18000000000001</v>
+        <v>97.23999999999999</v>
       </c>
       <c r="E29" t="n">
-        <v>98.90000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="F29" t="n">
-        <v>71704.26029999999</v>
+        <v>36561.8836</v>
       </c>
       <c r="G29" t="n">
-        <v>-206229.5209456594</v>
+        <v>-497736.2690599103</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1407,28 +1439,29 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>98.90000000000001</v>
+        <v>97.45999999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>98.90000000000001</v>
+        <v>97.45999999999999</v>
       </c>
       <c r="D30" t="n">
-        <v>98.90000000000001</v>
+        <v>97.45999999999999</v>
       </c>
       <c r="E30" t="n">
-        <v>98.90000000000001</v>
+        <v>97.45999999999999</v>
       </c>
       <c r="F30" t="n">
-        <v>27439.1693</v>
+        <v>15.4936</v>
       </c>
       <c r="G30" t="n">
-        <v>-233668.6902456594</v>
+        <v>-497720.7754599103</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1442,28 +1475,29 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>99.48999999999999</v>
+        <v>97.12</v>
       </c>
       <c r="C31" t="n">
-        <v>99.48999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="D31" t="n">
-        <v>99.48999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="E31" t="n">
-        <v>99.48999999999999</v>
+        <v>97.12</v>
       </c>
       <c r="F31" t="n">
-        <v>18.0923</v>
+        <v>82327.8983</v>
       </c>
       <c r="G31" t="n">
-        <v>-233650.5979456594</v>
+        <v>-580048.6737599103</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1477,28 +1511,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>98.90000000000001</v>
+        <v>97.2</v>
       </c>
       <c r="C32" t="n">
-        <v>98.81999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="D32" t="n">
-        <v>98.90000000000001</v>
+        <v>97.2</v>
       </c>
       <c r="E32" t="n">
-        <v>98.81999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="F32" t="n">
-        <v>1124.3442</v>
+        <v>1900</v>
       </c>
       <c r="G32" t="n">
-        <v>-234774.9421456594</v>
+        <v>-580048.6737599103</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1512,28 +1547,29 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>98.2</v>
+        <v>97.2</v>
       </c>
       <c r="C33" t="n">
-        <v>98.2</v>
+        <v>97.2</v>
       </c>
       <c r="D33" t="n">
-        <v>98.2</v>
+        <v>97.2</v>
       </c>
       <c r="E33" t="n">
-        <v>98.2</v>
+        <v>97.2</v>
       </c>
       <c r="F33" t="n">
-        <v>1150.3408</v>
+        <v>13000</v>
       </c>
       <c r="G33" t="n">
-        <v>-235925.2829456594</v>
+        <v>-580048.6737599103</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1547,28 +1583,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>98.12</v>
+        <v>97.2</v>
       </c>
       <c r="C34" t="n">
-        <v>97.83</v>
+        <v>97.2</v>
       </c>
       <c r="D34" t="n">
-        <v>98.7</v>
+        <v>97.2</v>
       </c>
       <c r="E34" t="n">
-        <v>97.83</v>
+        <v>97.2</v>
       </c>
       <c r="F34" t="n">
-        <v>77563.75290000001</v>
+        <v>608.3825000000001</v>
       </c>
       <c r="G34" t="n">
-        <v>-313489.0358456594</v>
+        <v>-580048.6737599103</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1582,28 +1619,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>98.01000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>98.59999999999999</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D35" t="n">
-        <v>98.59999999999999</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E35" t="n">
-        <v>98.01000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="F35" t="n">
-        <v>10762.7688</v>
+        <v>10.29866117404737</v>
       </c>
       <c r="G35" t="n">
-        <v>-302726.2670456594</v>
+        <v>-580058.9724210843</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1617,28 +1655,29 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>97.83</v>
+        <v>96.5</v>
       </c>
       <c r="C36" t="n">
-        <v>97.83</v>
+        <v>96.5</v>
       </c>
       <c r="D36" t="n">
-        <v>97.83</v>
+        <v>96.5</v>
       </c>
       <c r="E36" t="n">
-        <v>97.83</v>
+        <v>96.5</v>
       </c>
       <c r="F36" t="n">
-        <v>352.6114</v>
+        <v>10.6518</v>
       </c>
       <c r="G36" t="n">
-        <v>-303078.8784456594</v>
+        <v>-580069.6242210843</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1652,28 +1691,29 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>98.47</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>98.47</v>
+        <v>96.5</v>
       </c>
       <c r="D37" t="n">
-        <v>98.47</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="E37" t="n">
-        <v>98.47</v>
+        <v>96.5</v>
       </c>
       <c r="F37" t="n">
-        <v>81.1572</v>
+        <v>2775.3755</v>
       </c>
       <c r="G37" t="n">
-        <v>-302997.7212456593</v>
+        <v>-580069.6242210843</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1687,28 +1727,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>97.83</v>
+        <v>96.7</v>
       </c>
       <c r="C38" t="n">
-        <v>98.56999999999999</v>
+        <v>96.3</v>
       </c>
       <c r="D38" t="n">
-        <v>98.56999999999999</v>
+        <v>96.7</v>
       </c>
       <c r="E38" t="n">
-        <v>97.83</v>
+        <v>96.3</v>
       </c>
       <c r="F38" t="n">
-        <v>15540.5205</v>
+        <v>34573.8412</v>
       </c>
       <c r="G38" t="n">
-        <v>-287457.2007456594</v>
+        <v>-614643.4654210843</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1722,28 +1763,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>97.83</v>
+        <v>96.3</v>
       </c>
       <c r="C39" t="n">
-        <v>97.83</v>
+        <v>96.20999999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>97.83</v>
+        <v>96.3</v>
       </c>
       <c r="E39" t="n">
-        <v>97.83</v>
+        <v>96.20999999999999</v>
       </c>
       <c r="F39" t="n">
-        <v>4709.7017</v>
+        <v>3428.0117</v>
       </c>
       <c r="G39" t="n">
-        <v>-292166.9024456593</v>
+        <v>-618071.4771210843</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1757,28 +1799,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>97.90000000000001</v>
+        <v>96.3</v>
       </c>
       <c r="C40" t="n">
-        <v>97.90000000000001</v>
+        <v>96.3</v>
       </c>
       <c r="D40" t="n">
-        <v>97.90000000000001</v>
+        <v>96.3</v>
       </c>
       <c r="E40" t="n">
-        <v>97.90000000000001</v>
+        <v>96.3</v>
       </c>
       <c r="F40" t="n">
-        <v>8315.560600000001</v>
+        <v>14590.4235</v>
       </c>
       <c r="G40" t="n">
-        <v>-283851.3418456593</v>
+        <v>-603481.0536210843</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1792,28 +1835,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>98.23</v>
+        <v>96.8</v>
       </c>
       <c r="C41" t="n">
-        <v>98.23</v>
+        <v>96.8</v>
       </c>
       <c r="D41" t="n">
-        <v>98.23</v>
+        <v>96.8</v>
       </c>
       <c r="E41" t="n">
-        <v>98.23</v>
+        <v>96.8</v>
       </c>
       <c r="F41" t="n">
-        <v>3469.0406</v>
+        <v>374.8069</v>
       </c>
       <c r="G41" t="n">
-        <v>-280382.3012456593</v>
+        <v>-603106.2467210843</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1827,28 +1871,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>98.23</v>
+        <v>96.84999999999999</v>
       </c>
       <c r="C42" t="n">
-        <v>98.48999999999999</v>
+        <v>96.84999999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>98.48999999999999</v>
+        <v>96.84999999999999</v>
       </c>
       <c r="E42" t="n">
-        <v>98.23</v>
+        <v>96.84999999999999</v>
       </c>
       <c r="F42" t="n">
-        <v>28462.7042</v>
+        <v>392.4325</v>
       </c>
       <c r="G42" t="n">
-        <v>-251919.5970456593</v>
+        <v>-602713.8142210844</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1862,28 +1907,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>98.5</v>
+        <v>96.84999999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>98.5</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>98.5</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="E43" t="n">
-        <v>98.5</v>
+        <v>96.84999999999999</v>
       </c>
       <c r="F43" t="n">
-        <v>365.5379</v>
+        <v>81921.9675</v>
       </c>
       <c r="G43" t="n">
-        <v>-251554.0591456593</v>
+        <v>-520791.8467210843</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1897,28 +1943,29 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>98.09999999999999</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>98</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>98.09999999999999</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>98</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="F44" t="n">
-        <v>1389.8713</v>
+        <v>1969.7897</v>
       </c>
       <c r="G44" t="n">
-        <v>-252943.9304456593</v>
+        <v>-520791.8467210843</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1932,28 +1979,29 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>98.2</v>
+        <v>97.17</v>
       </c>
       <c r="C45" t="n">
-        <v>98.2</v>
+        <v>97.17</v>
       </c>
       <c r="D45" t="n">
-        <v>98.2</v>
+        <v>97.17</v>
       </c>
       <c r="E45" t="n">
-        <v>98.2</v>
+        <v>97.17</v>
       </c>
       <c r="F45" t="n">
-        <v>365.5379</v>
+        <v>6</v>
       </c>
       <c r="G45" t="n">
-        <v>-252578.3925456593</v>
+        <v>-520785.8467210843</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1967,28 +2015,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>98.2</v>
+        <v>97.17</v>
       </c>
       <c r="C46" t="n">
-        <v>97.20999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="D46" t="n">
-        <v>98.2</v>
+        <v>97.2</v>
       </c>
       <c r="E46" t="n">
-        <v>97.20999999999999</v>
+        <v>97.17</v>
       </c>
       <c r="F46" t="n">
-        <v>104086.8098</v>
+        <v>1225.554</v>
       </c>
       <c r="G46" t="n">
-        <v>-356665.2023456593</v>
+        <v>-519560.2927210843</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2002,28 +2051,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>98.01000000000001</v>
+        <v>97.2</v>
       </c>
       <c r="C47" t="n">
-        <v>98.28</v>
+        <v>97.2</v>
       </c>
       <c r="D47" t="n">
-        <v>98.38</v>
+        <v>97.2</v>
       </c>
       <c r="E47" t="n">
-        <v>97.02</v>
+        <v>97.2</v>
       </c>
       <c r="F47" t="n">
-        <v>44701.91818574913</v>
+        <v>0.0001</v>
       </c>
       <c r="G47" t="n">
-        <v>-311963.2841599102</v>
+        <v>-519560.2927210843</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2037,28 +2087,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>97.81</v>
+        <v>97.2</v>
       </c>
       <c r="C48" t="n">
-        <v>97.81</v>
+        <v>97.2</v>
       </c>
       <c r="D48" t="n">
-        <v>97.81</v>
+        <v>97.2</v>
       </c>
       <c r="E48" t="n">
-        <v>97.81</v>
+        <v>97.2</v>
       </c>
       <c r="F48" t="n">
-        <v>3696.5584</v>
+        <v>9.9999</v>
       </c>
       <c r="G48" t="n">
-        <v>-315659.8425599101</v>
+        <v>-519560.2927210843</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2072,28 +2123,29 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>97.70999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="C49" t="n">
-        <v>97.70999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="D49" t="n">
-        <v>97.70999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="E49" t="n">
-        <v>97.70999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="F49" t="n">
-        <v>44317.5604</v>
+        <v>2064.0277</v>
       </c>
       <c r="G49" t="n">
-        <v>-359977.4029599102</v>
+        <v>-519560.2927210843</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2107,28 +2159,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>97.62</v>
+        <v>97.19</v>
       </c>
       <c r="C50" t="n">
-        <v>97.62</v>
+        <v>97.2</v>
       </c>
       <c r="D50" t="n">
-        <v>97.62</v>
+        <v>97.2</v>
       </c>
       <c r="E50" t="n">
-        <v>97.62</v>
+        <v>97.19</v>
       </c>
       <c r="F50" t="n">
-        <v>7897.5329</v>
+        <v>917.0569</v>
       </c>
       <c r="G50" t="n">
-        <v>-367874.9358599102</v>
+        <v>-519560.2927210843</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2142,28 +2195,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>97.63</v>
+        <v>97.2</v>
       </c>
       <c r="C51" t="n">
-        <v>97.61</v>
+        <v>97.2</v>
       </c>
       <c r="D51" t="n">
-        <v>97.63</v>
+        <v>97.2</v>
       </c>
       <c r="E51" t="n">
-        <v>97.61</v>
+        <v>97.2</v>
       </c>
       <c r="F51" t="n">
-        <v>8184.8952</v>
+        <v>552.2329</v>
       </c>
       <c r="G51" t="n">
-        <v>-376059.8310599102</v>
+        <v>-519560.2927210843</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2177,28 +2231,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>97.62</v>
+        <v>97.2</v>
       </c>
       <c r="C52" t="n">
-        <v>97.61</v>
+        <v>97.2</v>
       </c>
       <c r="D52" t="n">
-        <v>97.62</v>
+        <v>97.2</v>
       </c>
       <c r="E52" t="n">
-        <v>97.61</v>
+        <v>97.2</v>
       </c>
       <c r="F52" t="n">
-        <v>11311.2798</v>
+        <v>20</v>
       </c>
       <c r="G52" t="n">
-        <v>-376059.8310599102</v>
+        <v>-519560.2927210843</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2212,28 +2267,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>97.39</v>
+        <v>97.2</v>
       </c>
       <c r="C53" t="n">
-        <v>97.09999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="D53" t="n">
-        <v>97.39</v>
+        <v>97.2</v>
       </c>
       <c r="E53" t="n">
-        <v>97.09999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="F53" t="n">
-        <v>24140.6743</v>
+        <v>222.9595</v>
       </c>
       <c r="G53" t="n">
-        <v>-400200.5053599102</v>
+        <v>-519560.2927210843</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2247,28 +2303,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>97.09999999999999</v>
+        <v>97.76000000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>97.09999999999999</v>
+        <v>97.79000000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>97.09999999999999</v>
+        <v>97.79000000000001</v>
       </c>
       <c r="E54" t="n">
-        <v>96.91</v>
+        <v>97.76000000000001</v>
       </c>
       <c r="F54" t="n">
-        <v>98859.44469999999</v>
+        <v>10980</v>
       </c>
       <c r="G54" t="n">
-        <v>-400200.5053599102</v>
+        <v>-508580.2927210843</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2282,28 +2339,29 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>97.09999999999999</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>97.09999999999999</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="D55" t="n">
-        <v>97.09999999999999</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="E55" t="n">
-        <v>97.09999999999999</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="F55" t="n">
-        <v>3621.0827</v>
+        <v>96</v>
       </c>
       <c r="G55" t="n">
-        <v>-400200.5053599102</v>
+        <v>-508676.2927210843</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2317,28 +2375,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>97.09</v>
+        <v>97.7</v>
       </c>
       <c r="C56" t="n">
-        <v>97.09999999999999</v>
+        <v>98.09</v>
       </c>
       <c r="D56" t="n">
-        <v>97.09999999999999</v>
+        <v>98.09</v>
       </c>
       <c r="E56" t="n">
-        <v>97.09</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="F56" t="n">
-        <v>52239.878</v>
+        <v>2078.5833</v>
       </c>
       <c r="G56" t="n">
-        <v>-400200.5053599102</v>
+        <v>-506597.7094210843</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2352,28 +2411,29 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>97</v>
+        <v>97.5</v>
       </c>
       <c r="C57" t="n">
-        <v>96.90000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="D57" t="n">
-        <v>97</v>
+        <v>97.5</v>
       </c>
       <c r="E57" t="n">
-        <v>96.90000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="F57" t="n">
-        <v>140876.4748</v>
+        <v>330</v>
       </c>
       <c r="G57" t="n">
-        <v>-541076.9801599102</v>
+        <v>-506927.7094210843</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2387,28 +2447,29 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>96.90000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="C58" t="n">
-        <v>96.03</v>
+        <v>97.5</v>
       </c>
       <c r="D58" t="n">
-        <v>96.90000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="E58" t="n">
-        <v>96.03</v>
+        <v>97.5</v>
       </c>
       <c r="F58" t="n">
-        <v>27730</v>
+        <v>157.1994</v>
       </c>
       <c r="G58" t="n">
-        <v>-568806.9801599102</v>
+        <v>-506927.7094210843</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2422,28 +2483,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>96.03</v>
+        <v>97.98</v>
       </c>
       <c r="C59" t="n">
-        <v>96.98</v>
+        <v>97.98</v>
       </c>
       <c r="D59" t="n">
-        <v>96.98</v>
+        <v>97.98</v>
       </c>
       <c r="E59" t="n">
-        <v>96.03</v>
+        <v>97.98</v>
       </c>
       <c r="F59" t="n">
-        <v>121711.4748</v>
+        <v>330</v>
       </c>
       <c r="G59" t="n">
-        <v>-447095.5053599102</v>
+        <v>-506597.7094210843</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2457,28 +2519,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>96.89</v>
+        <v>97.3</v>
       </c>
       <c r="C60" t="n">
-        <v>96.89</v>
+        <v>97.3</v>
       </c>
       <c r="D60" t="n">
-        <v>96.89</v>
+        <v>97.3</v>
       </c>
       <c r="E60" t="n">
-        <v>96.89</v>
+        <v>97.3</v>
       </c>
       <c r="F60" t="n">
-        <v>100108.6933</v>
+        <v>270.2434</v>
       </c>
       <c r="G60" t="n">
-        <v>-547204.1986599102</v>
+        <v>-506867.9528210843</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2492,28 +2555,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>96.87</v>
+        <v>97.3</v>
       </c>
       <c r="C61" t="n">
-        <v>96.88</v>
+        <v>97.3</v>
       </c>
       <c r="D61" t="n">
-        <v>96.88</v>
+        <v>97.3</v>
       </c>
       <c r="E61" t="n">
-        <v>96.87</v>
+        <v>97.3</v>
       </c>
       <c r="F61" t="n">
-        <v>5225.4704</v>
+        <v>268.811</v>
       </c>
       <c r="G61" t="n">
-        <v>-552429.6690599102</v>
+        <v>-506867.9528210843</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2527,28 +2591,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>96.95999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="C62" t="n">
-        <v>97.05</v>
+        <v>97.2</v>
       </c>
       <c r="D62" t="n">
-        <v>97.05</v>
+        <v>97.2</v>
       </c>
       <c r="E62" t="n">
-        <v>96.95999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="F62" t="n">
-        <v>20000</v>
+        <v>30</v>
       </c>
       <c r="G62" t="n">
-        <v>-532429.6690599102</v>
+        <v>-506897.9528210843</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2562,28 +2627,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>96.90000000000001</v>
+        <v>97.3</v>
       </c>
       <c r="C63" t="n">
-        <v>96.90000000000001</v>
+        <v>97.3</v>
       </c>
       <c r="D63" t="n">
-        <v>96.90000000000001</v>
+        <v>97.3</v>
       </c>
       <c r="E63" t="n">
-        <v>96.90000000000001</v>
+        <v>97.3</v>
       </c>
       <c r="F63" t="n">
-        <v>1268.8554</v>
+        <v>114.5984</v>
       </c>
       <c r="G63" t="n">
-        <v>-533698.5244599102</v>
+        <v>-506783.3544210843</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2597,28 +2663,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>96.94</v>
+        <v>97.3</v>
       </c>
       <c r="C64" t="n">
-        <v>96.94</v>
+        <v>97.3</v>
       </c>
       <c r="D64" t="n">
-        <v>96.94</v>
+        <v>97.3</v>
       </c>
       <c r="E64" t="n">
-        <v>96.94</v>
+        <v>97.3</v>
       </c>
       <c r="F64" t="n">
-        <v>3805.0265</v>
+        <v>103.1385</v>
       </c>
       <c r="G64" t="n">
-        <v>-529893.4979599102</v>
+        <v>-506783.3544210843</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2632,28 +2699,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>96.76000000000001</v>
+        <v>97.3</v>
       </c>
       <c r="C65" t="n">
-        <v>96.76000000000001</v>
+        <v>97.3</v>
       </c>
       <c r="D65" t="n">
-        <v>96.76000000000001</v>
+        <v>97.3</v>
       </c>
       <c r="E65" t="n">
-        <v>96.76000000000001</v>
+        <v>97.3</v>
       </c>
       <c r="F65" t="n">
-        <v>2406.7191</v>
+        <v>92.82470000000001</v>
       </c>
       <c r="G65" t="n">
-        <v>-532300.2170599102</v>
+        <v>-506783.3544210843</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2667,28 +2735,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>96.2</v>
+        <v>97.3</v>
       </c>
       <c r="C66" t="n">
-        <v>96.7</v>
+        <v>97.3</v>
       </c>
       <c r="D66" t="n">
-        <v>96.7</v>
+        <v>97.3</v>
       </c>
       <c r="E66" t="n">
-        <v>96.2</v>
+        <v>97.3</v>
       </c>
       <c r="F66" t="n">
-        <v>2702.8203</v>
+        <v>83.54219999999999</v>
       </c>
       <c r="G66" t="n">
-        <v>-535003.0373599102</v>
+        <v>-506783.3544210843</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2702,28 +2771,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>96.3</v>
+        <v>97.20999999999999</v>
       </c>
       <c r="C67" t="n">
-        <v>96.88</v>
+        <v>97.20999999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>96.89</v>
+        <v>97.20999999999999</v>
       </c>
       <c r="E67" t="n">
-        <v>96.3</v>
+        <v>97.20999999999999</v>
       </c>
       <c r="F67" t="n">
-        <v>6962.5129</v>
+        <v>2280.0188</v>
       </c>
       <c r="G67" t="n">
-        <v>-528040.5244599102</v>
+        <v>-509063.3732210843</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2737,28 +2807,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>96.8</v>
+        <v>97.20999999999999</v>
       </c>
       <c r="C68" t="n">
-        <v>96.88</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D68" t="n">
-        <v>96.88</v>
+        <v>97.20999999999999</v>
       </c>
       <c r="E68" t="n">
-        <v>96.8</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="F68" t="n">
-        <v>4358.1012</v>
+        <v>1589.3652</v>
       </c>
       <c r="G68" t="n">
-        <v>-528040.5244599102</v>
+        <v>-510652.7384210843</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2772,28 +2843,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>96.3</v>
+        <v>97.01000000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>96.3</v>
+        <v>96.91</v>
       </c>
       <c r="D69" t="n">
-        <v>96.3</v>
+        <v>97.01000000000001</v>
       </c>
       <c r="E69" t="n">
-        <v>96.3</v>
+        <v>96.91</v>
       </c>
       <c r="F69" t="n">
-        <v>6257.6282</v>
+        <v>1017.7427</v>
       </c>
       <c r="G69" t="n">
-        <v>-534298.1526599103</v>
+        <v>-511670.4811210843</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2807,28 +2879,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>96.3</v>
+        <v>96.91</v>
       </c>
       <c r="C70" t="n">
-        <v>96.3</v>
+        <v>96.91</v>
       </c>
       <c r="D70" t="n">
-        <v>96.3</v>
+        <v>96.91</v>
       </c>
       <c r="E70" t="n">
-        <v>96.3</v>
+        <v>96.91</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0001</v>
+        <v>9829.936100000001</v>
       </c>
       <c r="G70" t="n">
-        <v>-534298.1526599103</v>
+        <v>-511670.4811210843</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2842,28 +2915,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>96.8</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="C71" t="n">
-        <v>97.23999999999999</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D71" t="n">
-        <v>97.23999999999999</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E71" t="n">
-        <v>96.8</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="F71" t="n">
-        <v>36561.8836</v>
+        <v>4000</v>
       </c>
       <c r="G71" t="n">
-        <v>-497736.2690599103</v>
+        <v>-507670.4811210843</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2877,28 +2951,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>97.45999999999999</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="C72" t="n">
-        <v>97.45999999999999</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D72" t="n">
-        <v>97.45999999999999</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E72" t="n">
-        <v>97.45999999999999</v>
+        <v>97</v>
       </c>
       <c r="F72" t="n">
-        <v>15.4936</v>
+        <v>17827.2179</v>
       </c>
       <c r="G72" t="n">
-        <v>-497720.7754599103</v>
+        <v>-507670.4811210843</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2912,28 +2987,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>97.12</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="C73" t="n">
-        <v>97.2</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D73" t="n">
-        <v>97.2</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E73" t="n">
-        <v>97.12</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="F73" t="n">
-        <v>82327.8983</v>
+        <v>4892.6428</v>
       </c>
       <c r="G73" t="n">
-        <v>-580048.6737599103</v>
+        <v>-507670.4811210843</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2947,28 +3023,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>97.2</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="C74" t="n">
-        <v>97.2</v>
+        <v>97.34999999999999</v>
       </c>
       <c r="D74" t="n">
-        <v>97.2</v>
+        <v>97.34999999999999</v>
       </c>
       <c r="E74" t="n">
-        <v>97.2</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="F74" t="n">
-        <v>1900</v>
+        <v>6444.8601</v>
       </c>
       <c r="G74" t="n">
-        <v>-580048.6737599103</v>
+        <v>-501225.6210210843</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2982,28 +3059,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>97.2</v>
+        <v>97.34999999999999</v>
       </c>
       <c r="C75" t="n">
-        <v>97.2</v>
+        <v>97.34999999999999</v>
       </c>
       <c r="D75" t="n">
-        <v>97.2</v>
+        <v>97.34999999999999</v>
       </c>
       <c r="E75" t="n">
-        <v>97.2</v>
+        <v>97.34999999999999</v>
       </c>
       <c r="F75" t="n">
-        <v>13000</v>
+        <v>135.188</v>
       </c>
       <c r="G75" t="n">
-        <v>-580048.6737599103</v>
+        <v>-501225.6210210843</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3017,28 +3095,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>97.2</v>
+        <v>97.34999999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>97.2</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D76" t="n">
-        <v>97.2</v>
+        <v>97.34999999999999</v>
       </c>
       <c r="E76" t="n">
-        <v>97.2</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="F76" t="n">
-        <v>608.3825000000001</v>
+        <v>1117.8713</v>
       </c>
       <c r="G76" t="n">
-        <v>-580048.6737599103</v>
+        <v>-502343.4923210843</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3052,6 +3131,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3070,10 +3150,10 @@
         <v>97.09999999999999</v>
       </c>
       <c r="F77" t="n">
-        <v>10.29866117404737</v>
+        <v>232.3836</v>
       </c>
       <c r="G77" t="n">
-        <v>-580058.9724210843</v>
+        <v>-502343.4923210843</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3087,28 +3167,29 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>96.5</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>96.5</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D78" t="n">
-        <v>96.5</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E78" t="n">
-        <v>96.5</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="F78" t="n">
-        <v>10.6518</v>
+        <v>0.3308</v>
       </c>
       <c r="G78" t="n">
-        <v>-580069.6242210843</v>
+        <v>-502343.4923210843</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3122,28 +3203,29 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>96.59999999999999</v>
+        <v>97.41</v>
       </c>
       <c r="C79" t="n">
-        <v>96.5</v>
+        <v>97.41</v>
       </c>
       <c r="D79" t="n">
-        <v>96.59999999999999</v>
+        <v>97.41</v>
       </c>
       <c r="E79" t="n">
-        <v>96.5</v>
+        <v>97.41</v>
       </c>
       <c r="F79" t="n">
-        <v>2775.3755</v>
+        <v>3000</v>
       </c>
       <c r="G79" t="n">
-        <v>-580069.6242210843</v>
+        <v>-499343.4923210843</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3157,28 +3239,29 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>96.7</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="C80" t="n">
-        <v>96.3</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="D80" t="n">
-        <v>96.7</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="E80" t="n">
-        <v>96.3</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="F80" t="n">
-        <v>34573.8412</v>
+        <v>536.0131</v>
       </c>
       <c r="G80" t="n">
-        <v>-614643.4654210843</v>
+        <v>-498807.4792210843</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3192,28 +3275,29 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>96.3</v>
+        <v>97.48</v>
       </c>
       <c r="C81" t="n">
-        <v>96.20999999999999</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="D81" t="n">
-        <v>96.3</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="E81" t="n">
-        <v>96.20999999999999</v>
+        <v>96.94</v>
       </c>
       <c r="F81" t="n">
-        <v>3428.0117</v>
+        <v>13588.1729</v>
       </c>
       <c r="G81" t="n">
-        <v>-618071.4771210843</v>
+        <v>-498807.4792210843</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3227,28 +3311,29 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>96.3</v>
+        <v>97.48</v>
       </c>
       <c r="C82" t="n">
-        <v>96.3</v>
+        <v>98.39</v>
       </c>
       <c r="D82" t="n">
-        <v>96.3</v>
+        <v>98.39</v>
       </c>
       <c r="E82" t="n">
-        <v>96.3</v>
+        <v>97.48</v>
       </c>
       <c r="F82" t="n">
-        <v>14590.4235</v>
+        <v>999</v>
       </c>
       <c r="G82" t="n">
-        <v>-603481.0536210843</v>
+        <v>-497808.4792210843</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3262,67 +3347,65 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>96.8</v>
+        <v>98.39</v>
       </c>
       <c r="C83" t="n">
-        <v>96.8</v>
+        <v>98.39</v>
       </c>
       <c r="D83" t="n">
-        <v>96.8</v>
+        <v>98.39</v>
       </c>
       <c r="E83" t="n">
-        <v>96.8</v>
+        <v>98.39</v>
       </c>
       <c r="F83" t="n">
-        <v>374.8069</v>
+        <v>3000</v>
       </c>
       <c r="G83" t="n">
-        <v>-603106.2467210843</v>
+        <v>-497808.4792210843</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>96.3</v>
-      </c>
-      <c r="K83" t="n">
-        <v>96.3</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>96.84999999999999</v>
+        <v>97.42</v>
       </c>
       <c r="C84" t="n">
-        <v>96.84999999999999</v>
+        <v>97.42</v>
       </c>
       <c r="D84" t="n">
-        <v>96.84999999999999</v>
+        <v>97.42</v>
       </c>
       <c r="E84" t="n">
-        <v>96.84999999999999</v>
+        <v>97.42</v>
       </c>
       <c r="F84" t="n">
-        <v>392.4325</v>
+        <v>12000</v>
       </c>
       <c r="G84" t="n">
-        <v>-602713.8142210844</v>
+        <v>-509808.4792210843</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3331,39 +3414,34 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>96.3</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>96.84999999999999</v>
+        <v>97.42</v>
       </c>
       <c r="C85" t="n">
-        <v>96.90000000000001</v>
+        <v>97.42</v>
       </c>
       <c r="D85" t="n">
-        <v>96.90000000000001</v>
+        <v>97.42</v>
       </c>
       <c r="E85" t="n">
-        <v>96.84999999999999</v>
+        <v>97.42</v>
       </c>
       <c r="F85" t="n">
-        <v>81921.9675</v>
+        <v>221.9891</v>
       </c>
       <c r="G85" t="n">
-        <v>-520791.8467210843</v>
+        <v>-509808.4792210843</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3372,39 +3450,34 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>96.3</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>96.90000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="C86" t="n">
-        <v>96.90000000000001</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="D86" t="n">
-        <v>96.90000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="E86" t="n">
-        <v>96.90000000000001</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="F86" t="n">
-        <v>1969.7897</v>
+        <v>12990.9794</v>
       </c>
       <c r="G86" t="n">
-        <v>-520791.8467210843</v>
+        <v>-522799.4586210843</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3418,28 +3491,29 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>97.17</v>
+        <v>97.3</v>
       </c>
       <c r="C87" t="n">
-        <v>97.17</v>
+        <v>97.3</v>
       </c>
       <c r="D87" t="n">
-        <v>97.17</v>
+        <v>97.3</v>
       </c>
       <c r="E87" t="n">
-        <v>97.17</v>
+        <v>97.3</v>
       </c>
       <c r="F87" t="n">
-        <v>6</v>
+        <v>1000</v>
       </c>
       <c r="G87" t="n">
-        <v>-520785.8467210843</v>
+        <v>-523799.4586210843</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3453,28 +3527,29 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>97.17</v>
+        <v>97.3</v>
       </c>
       <c r="C88" t="n">
-        <v>97.2</v>
+        <v>97.3</v>
       </c>
       <c r="D88" t="n">
-        <v>97.2</v>
+        <v>97.3</v>
       </c>
       <c r="E88" t="n">
-        <v>97.17</v>
+        <v>97.3</v>
       </c>
       <c r="F88" t="n">
-        <v>1225.554</v>
+        <v>27</v>
       </c>
       <c r="G88" t="n">
-        <v>-519560.2927210843</v>
+        <v>-523799.4586210843</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3488,28 +3563,29 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>97.2</v>
+        <v>97.98999999999999</v>
       </c>
       <c r="C89" t="n">
-        <v>97.2</v>
+        <v>97.98999999999999</v>
       </c>
       <c r="D89" t="n">
-        <v>97.2</v>
+        <v>97.98999999999999</v>
       </c>
       <c r="E89" t="n">
-        <v>97.2</v>
+        <v>97.98999999999999</v>
       </c>
       <c r="F89" t="n">
-        <v>0.0001</v>
+        <v>66.1283</v>
       </c>
       <c r="G89" t="n">
-        <v>-519560.2927210843</v>
+        <v>-523733.3303210844</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3523,28 +3599,29 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>97.2</v>
+        <v>97.5</v>
       </c>
       <c r="C90" t="n">
-        <v>97.2</v>
+        <v>97.5</v>
       </c>
       <c r="D90" t="n">
-        <v>97.2</v>
+        <v>97.5</v>
       </c>
       <c r="E90" t="n">
-        <v>97.2</v>
+        <v>97.5</v>
       </c>
       <c r="F90" t="n">
-        <v>9.9999</v>
+        <v>84.69670000000001</v>
       </c>
       <c r="G90" t="n">
-        <v>-519560.2927210843</v>
+        <v>-523818.0270210843</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3558,28 +3635,29 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>97.2</v>
+        <v>97.5</v>
       </c>
       <c r="C91" t="n">
-        <v>97.2</v>
+        <v>97.5</v>
       </c>
       <c r="D91" t="n">
-        <v>97.2</v>
+        <v>97.5</v>
       </c>
       <c r="E91" t="n">
-        <v>97.2</v>
+        <v>97.5</v>
       </c>
       <c r="F91" t="n">
-        <v>2064.0277</v>
+        <v>221.989</v>
       </c>
       <c r="G91" t="n">
-        <v>-519560.2927210843</v>
+        <v>-523818.0270210843</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3593,28 +3671,29 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>97.19</v>
+        <v>97.41</v>
       </c>
       <c r="C92" t="n">
-        <v>97.2</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="D92" t="n">
-        <v>97.2</v>
+        <v>97.41</v>
       </c>
       <c r="E92" t="n">
-        <v>97.19</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="F92" t="n">
-        <v>917.0569</v>
+        <v>13000</v>
       </c>
       <c r="G92" t="n">
-        <v>-519560.2927210843</v>
+        <v>-536818.0270210843</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3628,28 +3707,29 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>97.2</v>
+        <v>97.98999999999999</v>
       </c>
       <c r="C93" t="n">
-        <v>97.2</v>
+        <v>97.98999999999999</v>
       </c>
       <c r="D93" t="n">
-        <v>97.2</v>
+        <v>97.98999999999999</v>
       </c>
       <c r="E93" t="n">
-        <v>97.2</v>
+        <v>97.98999999999999</v>
       </c>
       <c r="F93" t="n">
-        <v>552.2329</v>
+        <v>6</v>
       </c>
       <c r="G93" t="n">
-        <v>-519560.2927210843</v>
+        <v>-536812.0270210843</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3663,28 +3743,29 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>97.2</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="C94" t="n">
-        <v>97.2</v>
+        <v>97</v>
       </c>
       <c r="D94" t="n">
-        <v>97.2</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E94" t="n">
-        <v>97.2</v>
+        <v>97</v>
       </c>
       <c r="F94" t="n">
-        <v>20</v>
+        <v>4000</v>
       </c>
       <c r="G94" t="n">
-        <v>-519560.2927210843</v>
+        <v>-540812.0270210843</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3698,28 +3779,29 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>97.2</v>
+        <v>97</v>
       </c>
       <c r="C95" t="n">
-        <v>97.2</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="D95" t="n">
-        <v>97.2</v>
+        <v>97</v>
       </c>
       <c r="E95" t="n">
-        <v>97.2</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="F95" t="n">
-        <v>222.9595</v>
+        <v>1000</v>
       </c>
       <c r="G95" t="n">
-        <v>-519560.2927210843</v>
+        <v>-541812.0270210843</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3733,28 +3815,29 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>97.76000000000001</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="C96" t="n">
-        <v>97.79000000000001</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="D96" t="n">
-        <v>97.79000000000001</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>97.76000000000001</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="F96" t="n">
-        <v>10980</v>
+        <v>498.3848</v>
       </c>
       <c r="G96" t="n">
-        <v>-508580.2927210843</v>
+        <v>-541812.0270210843</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3768,28 +3851,29 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>97.40000000000001</v>
+        <v>96.79000000000001</v>
       </c>
       <c r="C97" t="n">
-        <v>97.40000000000001</v>
+        <v>96.79000000000001</v>
       </c>
       <c r="D97" t="n">
-        <v>97.40000000000001</v>
+        <v>96.79000000000001</v>
       </c>
       <c r="E97" t="n">
-        <v>97.40000000000001</v>
+        <v>96.79000000000001</v>
       </c>
       <c r="F97" t="n">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="G97" t="n">
-        <v>-508676.2927210843</v>
+        <v>-541772.0270210843</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3803,28 +3887,29 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>97.7</v>
+        <v>96.79000000000001</v>
       </c>
       <c r="C98" t="n">
-        <v>98.09</v>
+        <v>96.79000000000001</v>
       </c>
       <c r="D98" t="n">
-        <v>98.09</v>
+        <v>96.79000000000001</v>
       </c>
       <c r="E98" t="n">
-        <v>97.59999999999999</v>
+        <v>96.79000000000001</v>
       </c>
       <c r="F98" t="n">
-        <v>2078.5833</v>
+        <v>3093.6499</v>
       </c>
       <c r="G98" t="n">
-        <v>-506597.7094210843</v>
+        <v>-541772.0270210843</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3838,28 +3923,29 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>97.5</v>
+        <v>96.78</v>
       </c>
       <c r="C99" t="n">
-        <v>97.5</v>
+        <v>96.78</v>
       </c>
       <c r="D99" t="n">
-        <v>97.5</v>
+        <v>96.78</v>
       </c>
       <c r="E99" t="n">
-        <v>97.5</v>
+        <v>96.78</v>
       </c>
       <c r="F99" t="n">
-        <v>330</v>
+        <v>2113.019251994214</v>
       </c>
       <c r="G99" t="n">
-        <v>-506927.7094210843</v>
+        <v>-543885.0462730785</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3873,28 +3959,29 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>97.5</v>
+        <v>96.77</v>
       </c>
       <c r="C100" t="n">
-        <v>97.5</v>
+        <v>96.77</v>
       </c>
       <c r="D100" t="n">
-        <v>97.5</v>
+        <v>96.77</v>
       </c>
       <c r="E100" t="n">
-        <v>97.5</v>
+        <v>96.77</v>
       </c>
       <c r="F100" t="n">
-        <v>157.1994</v>
+        <v>2683.1049</v>
       </c>
       <c r="G100" t="n">
-        <v>-506927.7094210843</v>
+        <v>-546568.1511730786</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3908,28 +3995,29 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>97.98</v>
+        <v>96.79000000000001</v>
       </c>
       <c r="C101" t="n">
-        <v>97.98</v>
+        <v>96.79000000000001</v>
       </c>
       <c r="D101" t="n">
-        <v>97.98</v>
+        <v>96.79000000000001</v>
       </c>
       <c r="E101" t="n">
-        <v>97.98</v>
+        <v>96.79000000000001</v>
       </c>
       <c r="F101" t="n">
-        <v>330</v>
+        <v>360.8359</v>
       </c>
       <c r="G101" t="n">
-        <v>-506597.7094210843</v>
+        <v>-546207.3152730786</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3943,28 +4031,29 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>97.3</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="C102" t="n">
-        <v>97.3</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="D102" t="n">
-        <v>97.3</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="E102" t="n">
-        <v>97.3</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="F102" t="n">
-        <v>270.2434</v>
+        <v>1084.8681</v>
       </c>
       <c r="G102" t="n">
-        <v>-506867.9528210843</v>
+        <v>-547292.1833730786</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3978,28 +4067,29 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>97.3</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="C103" t="n">
-        <v>97.3</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="D103" t="n">
-        <v>97.3</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="E103" t="n">
-        <v>97.3</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="F103" t="n">
-        <v>268.811</v>
+        <v>2000</v>
       </c>
       <c r="G103" t="n">
-        <v>-506867.9528210843</v>
+        <v>-547292.1833730786</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4013,168 +4103,197 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>97.2</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="C104" t="n">
-        <v>97.2</v>
+        <v>96.59</v>
       </c>
       <c r="D104" t="n">
-        <v>97.2</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="E104" t="n">
-        <v>97.2</v>
+        <v>96.5</v>
       </c>
       <c r="F104" t="n">
-        <v>30</v>
+        <v>3717.4854</v>
       </c>
       <c r="G104" t="n">
-        <v>-506897.9528210843</v>
+        <v>-551009.6687730786</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>96.59999999999999</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>97.3</v>
+        <v>96.3</v>
       </c>
       <c r="C105" t="n">
-        <v>97.3</v>
+        <v>96.3</v>
       </c>
       <c r="D105" t="n">
-        <v>97.3</v>
+        <v>96.3</v>
       </c>
       <c r="E105" t="n">
-        <v>97.3</v>
+        <v>96.3</v>
       </c>
       <c r="F105" t="n">
-        <v>114.5984</v>
+        <v>3221.6486</v>
       </c>
       <c r="G105" t="n">
-        <v>-506783.3544210843</v>
+        <v>-554231.3173730785</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>96.59</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>97.3</v>
+        <v>96.3</v>
       </c>
       <c r="C106" t="n">
-        <v>97.3</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="D106" t="n">
-        <v>97.3</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="E106" t="n">
-        <v>97.3</v>
+        <v>94.97</v>
       </c>
       <c r="F106" t="n">
-        <v>103.1385</v>
+        <v>397844.6606</v>
       </c>
       <c r="G106" t="n">
-        <v>-506783.3544210843</v>
+        <v>-156386.6567730785</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>96.3</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>97.3</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="C107" t="n">
-        <v>97.3</v>
+        <v>96.48</v>
       </c>
       <c r="D107" t="n">
-        <v>97.3</v>
+        <v>96.5</v>
       </c>
       <c r="E107" t="n">
-        <v>97.3</v>
+        <v>96.39</v>
       </c>
       <c r="F107" t="n">
-        <v>92.82470000000001</v>
+        <v>58590</v>
       </c>
       <c r="G107" t="n">
-        <v>-506783.3544210843</v>
+        <v>-214976.6567730785</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>96.59999999999999</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>97.3</v>
+        <v>96.69</v>
       </c>
       <c r="C108" t="n">
-        <v>97.3</v>
+        <v>96.20999999999999</v>
       </c>
       <c r="D108" t="n">
-        <v>97.3</v>
+        <v>96.69</v>
       </c>
       <c r="E108" t="n">
-        <v>97.3</v>
+        <v>96.20999999999999</v>
       </c>
       <c r="F108" t="n">
-        <v>83.54219999999999</v>
+        <v>10865</v>
       </c>
       <c r="G108" t="n">
-        <v>-506783.3544210843</v>
+        <v>-225841.6567730785</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4184,67 +4303,79 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>97.20999999999999</v>
+        <v>96.67</v>
       </c>
       <c r="C109" t="n">
-        <v>97.20999999999999</v>
+        <v>96.68000000000001</v>
       </c>
       <c r="D109" t="n">
-        <v>97.20999999999999</v>
+        <v>96.69</v>
       </c>
       <c r="E109" t="n">
-        <v>97.20999999999999</v>
+        <v>96.67</v>
       </c>
       <c r="F109" t="n">
-        <v>2280.0188</v>
+        <v>5150</v>
       </c>
       <c r="G109" t="n">
-        <v>-509063.3732210843</v>
+        <v>-220691.6567730785</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>96.20999999999999</v>
+      </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>97.20999999999999</v>
+        <v>96.98999999999999</v>
       </c>
       <c r="C110" t="n">
-        <v>97.09999999999999</v>
+        <v>96.98999999999999</v>
       </c>
       <c r="D110" t="n">
-        <v>97.20999999999999</v>
+        <v>96.98999999999999</v>
       </c>
       <c r="E110" t="n">
-        <v>97.09999999999999</v>
+        <v>96.98999999999999</v>
       </c>
       <c r="F110" t="n">
-        <v>1589.3652</v>
+        <v>2000</v>
       </c>
       <c r="G110" t="n">
-        <v>-510652.7384210843</v>
+        <v>-218691.6567730785</v>
       </c>
       <c r="H110" t="n">
         <v>1</v>
@@ -4253,39 +4384,40 @@
         <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>97.20999999999999</v>
+        <v>96.68000000000001</v>
       </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>97.01000000000001</v>
+        <v>96.98</v>
       </c>
       <c r="C111" t="n">
-        <v>96.91</v>
+        <v>96.98</v>
       </c>
       <c r="D111" t="n">
-        <v>97.01000000000001</v>
+        <v>96.98</v>
       </c>
       <c r="E111" t="n">
-        <v>96.91</v>
+        <v>96.98</v>
       </c>
       <c r="F111" t="n">
-        <v>1017.7427</v>
+        <v>12179.3083</v>
       </c>
       <c r="G111" t="n">
-        <v>-511670.4811210843</v>
+        <v>-230870.9650730786</v>
       </c>
       <c r="H111" t="n">
         <v>1</v>
@@ -4294,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>97.09999999999999</v>
+        <v>96.98999999999999</v>
       </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr">
@@ -4305,28 +4437,29 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>96.91</v>
+        <v>96.31</v>
       </c>
       <c r="C112" t="n">
-        <v>96.91</v>
+        <v>96.31</v>
       </c>
       <c r="D112" t="n">
-        <v>96.91</v>
+        <v>96.31</v>
       </c>
       <c r="E112" t="n">
-        <v>96.91</v>
+        <v>96.31</v>
       </c>
       <c r="F112" t="n">
-        <v>9829.936100000001</v>
+        <v>1982.9453</v>
       </c>
       <c r="G112" t="n">
-        <v>-511670.4811210843</v>
+        <v>-232853.9103730785</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4344,28 +4477,29 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>97.09999999999999</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="C113" t="n">
-        <v>97.09999999999999</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="D113" t="n">
-        <v>97.09999999999999</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="E113" t="n">
-        <v>97.09999999999999</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="F113" t="n">
-        <v>4000</v>
+        <v>7035.7291</v>
       </c>
       <c r="G113" t="n">
-        <v>-507670.4811210843</v>
+        <v>-225818.1812730785</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4383,36 +4517,39 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>97.09999999999999</v>
+        <v>96.88</v>
       </c>
       <c r="C114" t="n">
-        <v>97.09999999999999</v>
+        <v>96.89</v>
       </c>
       <c r="D114" t="n">
-        <v>97.09999999999999</v>
+        <v>96.89</v>
       </c>
       <c r="E114" t="n">
-        <v>97</v>
+        <v>96.88</v>
       </c>
       <c r="F114" t="n">
-        <v>17827.2179</v>
+        <v>14689.4068</v>
       </c>
       <c r="G114" t="n">
-        <v>-507670.4811210843</v>
+        <v>-240507.5880730785</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>96.90000000000001</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr">
         <is>
@@ -4422,28 +4559,29 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>97.09999999999999</v>
+        <v>96.87</v>
       </c>
       <c r="C115" t="n">
-        <v>97.09999999999999</v>
+        <v>96.61</v>
       </c>
       <c r="D115" t="n">
-        <v>97.09999999999999</v>
+        <v>96.87</v>
       </c>
       <c r="E115" t="n">
-        <v>97.09999999999999</v>
+        <v>96.61</v>
       </c>
       <c r="F115" t="n">
-        <v>4892.6428</v>
+        <v>8161.2072</v>
       </c>
       <c r="G115" t="n">
-        <v>-507670.4811210843</v>
+        <v>-248668.7952730785</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4461,38 +4599,37 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>97.09999999999999</v>
+        <v>96.89</v>
       </c>
       <c r="C116" t="n">
-        <v>97.34999999999999</v>
+        <v>96.88</v>
       </c>
       <c r="D116" t="n">
-        <v>97.34999999999999</v>
+        <v>96.89</v>
       </c>
       <c r="E116" t="n">
-        <v>97.09999999999999</v>
+        <v>96.88</v>
       </c>
       <c r="F116" t="n">
-        <v>6444.8601</v>
+        <v>13058.3204</v>
       </c>
       <c r="G116" t="n">
-        <v>-501225.6210210843</v>
+        <v>-235610.4748730786</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>97.09999999999999</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr">
         <is>
@@ -4502,38 +4639,37 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>97.34999999999999</v>
+        <v>96.87</v>
       </c>
       <c r="C117" t="n">
-        <v>97.34999999999999</v>
+        <v>96.87</v>
       </c>
       <c r="D117" t="n">
-        <v>97.34999999999999</v>
+        <v>96.87</v>
       </c>
       <c r="E117" t="n">
-        <v>97.34999999999999</v>
+        <v>96.87</v>
       </c>
       <c r="F117" t="n">
-        <v>135.188</v>
+        <v>6377.4669</v>
       </c>
       <c r="G117" t="n">
-        <v>-501225.6210210843</v>
+        <v>-241987.9417730785</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>97.34999999999999</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr">
         <is>
@@ -4543,38 +4679,37 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>97.34999999999999</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="C118" t="n">
-        <v>97.09999999999999</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="D118" t="n">
-        <v>97.34999999999999</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="E118" t="n">
-        <v>97.09999999999999</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="F118" t="n">
-        <v>1117.8713</v>
+        <v>27258.1313</v>
       </c>
       <c r="G118" t="n">
-        <v>-502343.4923210843</v>
+        <v>-269246.0730730785</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>97.34999999999999</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr">
         <is>
@@ -4584,38 +4719,37 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>97.09999999999999</v>
+        <v>96.89</v>
       </c>
       <c r="C119" t="n">
-        <v>97.09999999999999</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="D119" t="n">
-        <v>97.09999999999999</v>
+        <v>96.89</v>
       </c>
       <c r="E119" t="n">
-        <v>97.09999999999999</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="F119" t="n">
-        <v>232.3836</v>
+        <v>8753.4195</v>
       </c>
       <c r="G119" t="n">
-        <v>-502343.4923210843</v>
+        <v>-269246.0730730785</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>97.09999999999999</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr">
         <is>
@@ -4625,38 +4759,37 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>97.09999999999999</v>
+        <v>96.88</v>
       </c>
       <c r="C120" t="n">
-        <v>97.09999999999999</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="D120" t="n">
-        <v>97.09999999999999</v>
+        <v>96.88</v>
       </c>
       <c r="E120" t="n">
-        <v>97.09999999999999</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="F120" t="n">
-        <v>0.3308</v>
+        <v>15145</v>
       </c>
       <c r="G120" t="n">
-        <v>-502343.4923210843</v>
+        <v>-269246.0730730785</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>97.09999999999999</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr">
         <is>
@@ -4666,38 +4799,37 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>97.41</v>
+        <v>96.45</v>
       </c>
       <c r="C121" t="n">
-        <v>97.41</v>
+        <v>96.31</v>
       </c>
       <c r="D121" t="n">
-        <v>97.41</v>
+        <v>96.45</v>
       </c>
       <c r="E121" t="n">
-        <v>97.41</v>
+        <v>96.31</v>
       </c>
       <c r="F121" t="n">
-        <v>3000</v>
+        <v>9929</v>
       </c>
       <c r="G121" t="n">
-        <v>-499343.4923210843</v>
+        <v>-279175.0730730785</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>97.09999999999999</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr">
         <is>
@@ -4707,36 +4839,39 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>97.90000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="C122" t="n">
-        <v>97.90000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="D122" t="n">
-        <v>97.90000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="E122" t="n">
-        <v>97.90000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="F122" t="n">
-        <v>536.0131</v>
+        <v>1007.6455</v>
       </c>
       <c r="G122" t="n">
-        <v>-498807.4792210843</v>
+        <v>-278167.4275730785</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>96.31</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr">
         <is>
@@ -4746,28 +4881,29 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>97.48</v>
+        <v>96.8</v>
       </c>
       <c r="C123" t="n">
-        <v>97.90000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="D123" t="n">
-        <v>97.90000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="E123" t="n">
-        <v>96.94</v>
+        <v>96.8</v>
       </c>
       <c r="F123" t="n">
-        <v>13588.1729</v>
+        <v>223.2387</v>
       </c>
       <c r="G123" t="n">
-        <v>-498807.4792210843</v>
+        <v>-278167.4275730785</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4785,28 +4921,29 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>97.48</v>
+        <v>96.42</v>
       </c>
       <c r="C124" t="n">
-        <v>98.39</v>
+        <v>96.8</v>
       </c>
       <c r="D124" t="n">
-        <v>98.39</v>
+        <v>96.8</v>
       </c>
       <c r="E124" t="n">
-        <v>97.48</v>
+        <v>96.42</v>
       </c>
       <c r="F124" t="n">
-        <v>999</v>
+        <v>433.2972</v>
       </c>
       <c r="G124" t="n">
-        <v>-497808.4792210843</v>
+        <v>-278167.4275730785</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4824,28 +4961,29 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>98.39</v>
+        <v>96.44</v>
       </c>
       <c r="C125" t="n">
-        <v>98.39</v>
+        <v>96.44</v>
       </c>
       <c r="D125" t="n">
-        <v>98.39</v>
+        <v>96.44</v>
       </c>
       <c r="E125" t="n">
-        <v>98.39</v>
+        <v>96.44</v>
       </c>
       <c r="F125" t="n">
-        <v>3000</v>
+        <v>316.7939</v>
       </c>
       <c r="G125" t="n">
-        <v>-497808.4792210843</v>
+        <v>-278484.2214730785</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4863,28 +5001,29 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>97.42</v>
+        <v>96.78</v>
       </c>
       <c r="C126" t="n">
-        <v>97.42</v>
+        <v>96.77</v>
       </c>
       <c r="D126" t="n">
-        <v>97.42</v>
+        <v>96.78</v>
       </c>
       <c r="E126" t="n">
-        <v>97.42</v>
+        <v>96.77</v>
       </c>
       <c r="F126" t="n">
-        <v>12000</v>
+        <v>4876</v>
       </c>
       <c r="G126" t="n">
-        <v>-509808.4792210843</v>
+        <v>-273608.2214730785</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4902,28 +5041,29 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>97.42</v>
+        <v>96.98999999999999</v>
       </c>
       <c r="C127" t="n">
-        <v>97.42</v>
+        <v>96.98999999999999</v>
       </c>
       <c r="D127" t="n">
-        <v>97.42</v>
+        <v>96.98999999999999</v>
       </c>
       <c r="E127" t="n">
-        <v>97.42</v>
+        <v>96.98999999999999</v>
       </c>
       <c r="F127" t="n">
-        <v>221.9891</v>
+        <v>6</v>
       </c>
       <c r="G127" t="n">
-        <v>-509808.4792210843</v>
+        <v>-273602.2214730785</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4941,28 +5081,29 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>97.5</v>
+        <v>96.98</v>
       </c>
       <c r="C128" t="n">
-        <v>97.40000000000001</v>
+        <v>96.98</v>
       </c>
       <c r="D128" t="n">
-        <v>97.5</v>
+        <v>96.98</v>
       </c>
       <c r="E128" t="n">
-        <v>97.40000000000001</v>
+        <v>96.98</v>
       </c>
       <c r="F128" t="n">
-        <v>12990.9794</v>
+        <v>7355</v>
       </c>
       <c r="G128" t="n">
-        <v>-522799.4586210843</v>
+        <v>-280957.2214730785</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4980,36 +5121,39 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>97.3</v>
+        <v>96.98</v>
       </c>
       <c r="C129" t="n">
-        <v>97.3</v>
+        <v>96.98999999999999</v>
       </c>
       <c r="D129" t="n">
-        <v>97.3</v>
+        <v>96.98999999999999</v>
       </c>
       <c r="E129" t="n">
-        <v>97.3</v>
+        <v>96.98</v>
       </c>
       <c r="F129" t="n">
-        <v>1000</v>
+        <v>10889.5444</v>
       </c>
       <c r="G129" t="n">
-        <v>-523799.4586210843</v>
+        <v>-270067.6770730785</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>96.98</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr">
         <is>
@@ -5019,36 +5163,39 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>97.3</v>
+        <v>96.98999999999999</v>
       </c>
       <c r="C130" t="n">
-        <v>97.3</v>
+        <v>96.98999999999999</v>
       </c>
       <c r="D130" t="n">
-        <v>97.3</v>
+        <v>96.98999999999999</v>
       </c>
       <c r="E130" t="n">
-        <v>97.3</v>
+        <v>96.98999999999999</v>
       </c>
       <c r="F130" t="n">
-        <v>27</v>
+        <v>588.1763999999999</v>
       </c>
       <c r="G130" t="n">
-        <v>-523799.4586210843</v>
+        <v>-270067.6770730785</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>96.98999999999999</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr">
         <is>
@@ -5058,36 +5205,39 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>97.98999999999999</v>
+        <v>96.98999999999999</v>
       </c>
       <c r="C131" t="n">
-        <v>97.98999999999999</v>
+        <v>96.98999999999999</v>
       </c>
       <c r="D131" t="n">
-        <v>97.98999999999999</v>
+        <v>96.98999999999999</v>
       </c>
       <c r="E131" t="n">
-        <v>97.98999999999999</v>
+        <v>96.98999999999999</v>
       </c>
       <c r="F131" t="n">
-        <v>66.1283</v>
+        <v>824.2472</v>
       </c>
       <c r="G131" t="n">
-        <v>-523733.3303210844</v>
+        <v>-270067.6770730785</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>96.98999999999999</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr">
         <is>
@@ -5097,36 +5247,39 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>97.5</v>
+        <v>96.98</v>
       </c>
       <c r="C132" t="n">
-        <v>97.5</v>
+        <v>96.98</v>
       </c>
       <c r="D132" t="n">
-        <v>97.5</v>
+        <v>96.98999999999999</v>
       </c>
       <c r="E132" t="n">
-        <v>97.5</v>
+        <v>96.97</v>
       </c>
       <c r="F132" t="n">
-        <v>84.69670000000001</v>
+        <v>9210.763000000001</v>
       </c>
       <c r="G132" t="n">
-        <v>-523818.0270210843</v>
+        <v>-279278.4400730785</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>96.98999999999999</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr">
         <is>
@@ -5136,36 +5289,39 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>97.5</v>
+        <v>96.98999999999999</v>
       </c>
       <c r="C133" t="n">
-        <v>97.5</v>
+        <v>96.98</v>
       </c>
       <c r="D133" t="n">
-        <v>97.5</v>
+        <v>96.98999999999999</v>
       </c>
       <c r="E133" t="n">
-        <v>97.5</v>
+        <v>96.8</v>
       </c>
       <c r="F133" t="n">
-        <v>221.989</v>
+        <v>17584.0311</v>
       </c>
       <c r="G133" t="n">
-        <v>-523818.0270210843</v>
+        <v>-279278.4400730785</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>96.98</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr">
         <is>
@@ -5175,36 +5331,39 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>97.41</v>
+        <v>96.98999999999999</v>
       </c>
       <c r="C134" t="n">
-        <v>97.40000000000001</v>
+        <v>96.98</v>
       </c>
       <c r="D134" t="n">
-        <v>97.41</v>
+        <v>96.98999999999999</v>
       </c>
       <c r="E134" t="n">
-        <v>97.40000000000001</v>
+        <v>96.98</v>
       </c>
       <c r="F134" t="n">
-        <v>13000</v>
+        <v>3683.631</v>
       </c>
       <c r="G134" t="n">
-        <v>-536818.0270210843</v>
+        <v>-279278.4400730785</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>96.98</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr">
         <is>
@@ -5214,36 +5373,39 @@
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>97.98999999999999</v>
+        <v>96.98999999999999</v>
       </c>
       <c r="C135" t="n">
-        <v>97.98999999999999</v>
+        <v>96.98999999999999</v>
       </c>
       <c r="D135" t="n">
-        <v>97.98999999999999</v>
+        <v>96.98999999999999</v>
       </c>
       <c r="E135" t="n">
-        <v>97.98999999999999</v>
+        <v>96.98999999999999</v>
       </c>
       <c r="F135" t="n">
-        <v>6</v>
+        <v>2912.8738</v>
       </c>
       <c r="G135" t="n">
-        <v>-536812.0270210843</v>
+        <v>-276365.5662730785</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>96.98</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr">
         <is>
@@ -5253,36 +5415,39 @@
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>97.09999999999999</v>
+        <v>96.98999999999999</v>
       </c>
       <c r="C136" t="n">
-        <v>97</v>
+        <v>97.19</v>
       </c>
       <c r="D136" t="n">
-        <v>97.09999999999999</v>
+        <v>97.19</v>
       </c>
       <c r="E136" t="n">
-        <v>97</v>
+        <v>96.98999999999999</v>
       </c>
       <c r="F136" t="n">
-        <v>4000</v>
+        <v>12110</v>
       </c>
       <c r="G136" t="n">
-        <v>-540812.0270210843</v>
+        <v>-264255.5662730785</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>96.98999999999999</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr">
         <is>
@@ -5292,28 +5457,29 @@
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>97</v>
+        <v>97.19</v>
       </c>
       <c r="C137" t="n">
-        <v>96.59999999999999</v>
+        <v>97.19</v>
       </c>
       <c r="D137" t="n">
-        <v>97</v>
+        <v>97.19</v>
       </c>
       <c r="E137" t="n">
-        <v>96.59999999999999</v>
+        <v>97.19</v>
       </c>
       <c r="F137" t="n">
-        <v>1000</v>
+        <v>2420</v>
       </c>
       <c r="G137" t="n">
-        <v>-541812.0270210843</v>
+        <v>-264255.5662730785</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5331,28 +5497,29 @@
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>96.59999999999999</v>
+        <v>97.15000000000001</v>
       </c>
       <c r="C138" t="n">
-        <v>96.59999999999999</v>
+        <v>97.19</v>
       </c>
       <c r="D138" t="n">
-        <v>96.59999999999999</v>
+        <v>97.19</v>
       </c>
       <c r="E138" t="n">
-        <v>96.59999999999999</v>
+        <v>97.15000000000001</v>
       </c>
       <c r="F138" t="n">
-        <v>498.3848</v>
+        <v>3512.3537</v>
       </c>
       <c r="G138" t="n">
-        <v>-541812.0270210843</v>
+        <v>-264255.5662730785</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5370,28 +5537,29 @@
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>96.79000000000001</v>
+        <v>97.2</v>
       </c>
       <c r="C139" t="n">
-        <v>96.79000000000001</v>
+        <v>97.2</v>
       </c>
       <c r="D139" t="n">
-        <v>96.79000000000001</v>
+        <v>97.2</v>
       </c>
       <c r="E139" t="n">
-        <v>96.79000000000001</v>
+        <v>97.2</v>
       </c>
       <c r="F139" t="n">
-        <v>40</v>
+        <v>878.2794</v>
       </c>
       <c r="G139" t="n">
-        <v>-541772.0270210843</v>
+        <v>-263377.2868730785</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5409,38 +5577,37 @@
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>96.79000000000001</v>
+        <v>97</v>
       </c>
       <c r="C140" t="n">
-        <v>96.79000000000001</v>
+        <v>97</v>
       </c>
       <c r="D140" t="n">
-        <v>96.79000000000001</v>
+        <v>97</v>
       </c>
       <c r="E140" t="n">
-        <v>96.79000000000001</v>
+        <v>97</v>
       </c>
       <c r="F140" t="n">
-        <v>3093.6499</v>
+        <v>10525.6441</v>
       </c>
       <c r="G140" t="n">
-        <v>-541772.0270210843</v>
+        <v>-273902.9309730785</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>96.79000000000001</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr">
         <is>
@@ -5450,38 +5617,37 @@
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>96.78</v>
+        <v>97.2</v>
       </c>
       <c r="C141" t="n">
-        <v>96.78</v>
+        <v>97.2</v>
       </c>
       <c r="D141" t="n">
-        <v>96.78</v>
+        <v>97.2</v>
       </c>
       <c r="E141" t="n">
-        <v>96.78</v>
+        <v>97.2</v>
       </c>
       <c r="F141" t="n">
-        <v>2113.019251994214</v>
+        <v>6</v>
       </c>
       <c r="G141" t="n">
-        <v>-543885.0462730785</v>
+        <v>-273896.9309730785</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>96.79000000000001</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr">
         <is>
@@ -5491,38 +5657,37 @@
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>96.77</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="C142" t="n">
-        <v>96.77</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D142" t="n">
-        <v>96.77</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E142" t="n">
-        <v>96.77</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="F142" t="n">
-        <v>2683.1049</v>
+        <v>1461.3629</v>
       </c>
       <c r="G142" t="n">
-        <v>-546568.1511730786</v>
+        <v>-275358.2938730785</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>96.78</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr">
         <is>
@@ -5532,38 +5697,37 @@
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>96.79000000000001</v>
+        <v>97.2</v>
       </c>
       <c r="C143" t="n">
-        <v>96.79000000000001</v>
+        <v>97.2</v>
       </c>
       <c r="D143" t="n">
-        <v>96.79000000000001</v>
+        <v>97.2</v>
       </c>
       <c r="E143" t="n">
-        <v>96.79000000000001</v>
+        <v>97.2</v>
       </c>
       <c r="F143" t="n">
-        <v>360.8359</v>
+        <v>6</v>
       </c>
       <c r="G143" t="n">
-        <v>-546207.3152730786</v>
+        <v>-275352.2938730785</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>96.77</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr">
         <is>
@@ -5573,38 +5737,37 @@
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>96.59999999999999</v>
+        <v>97.01000000000001</v>
       </c>
       <c r="C144" t="n">
-        <v>96.59999999999999</v>
+        <v>97.01000000000001</v>
       </c>
       <c r="D144" t="n">
-        <v>96.59999999999999</v>
+        <v>97.01000000000001</v>
       </c>
       <c r="E144" t="n">
-        <v>96.59999999999999</v>
+        <v>97.01000000000001</v>
       </c>
       <c r="F144" t="n">
-        <v>1084.8681</v>
+        <v>12860.6742</v>
       </c>
       <c r="G144" t="n">
-        <v>-547292.1833730786</v>
+        <v>-288212.9680730785</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>96.79000000000001</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr">
         <is>
@@ -5614,38 +5777,37 @@
       <c r="M144" t="n">
         <v>1</v>
       </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>96.59999999999999</v>
+        <v>97.01000000000001</v>
       </c>
       <c r="C145" t="n">
-        <v>96.59999999999999</v>
+        <v>97.01000000000001</v>
       </c>
       <c r="D145" t="n">
-        <v>96.59999999999999</v>
+        <v>97.01000000000001</v>
       </c>
       <c r="E145" t="n">
-        <v>96.59999999999999</v>
+        <v>97.01000000000001</v>
       </c>
       <c r="F145" t="n">
-        <v>2000</v>
+        <v>3163.9491</v>
       </c>
       <c r="G145" t="n">
-        <v>-547292.1833730786</v>
+        <v>-288212.9680730785</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>96.59999999999999</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr">
         <is>
@@ -5655,38 +5817,37 @@
       <c r="M145" t="n">
         <v>1</v>
       </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>96.59999999999999</v>
+        <v>97.01000000000001</v>
       </c>
       <c r="C146" t="n">
-        <v>96.59</v>
+        <v>97.2</v>
       </c>
       <c r="D146" t="n">
-        <v>96.59999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="E146" t="n">
-        <v>96.5</v>
+        <v>97.01000000000001</v>
       </c>
       <c r="F146" t="n">
-        <v>3717.4854</v>
+        <v>442.4327</v>
       </c>
       <c r="G146" t="n">
-        <v>-551009.6687730786</v>
+        <v>-287770.5353730785</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>96.59999999999999</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr">
         <is>
@@ -5696,38 +5857,37 @@
       <c r="M146" t="n">
         <v>1</v>
       </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>96.3</v>
+        <v>97.2</v>
       </c>
       <c r="C147" t="n">
-        <v>96.3</v>
+        <v>97.2</v>
       </c>
       <c r="D147" t="n">
-        <v>96.3</v>
+        <v>97.2</v>
       </c>
       <c r="E147" t="n">
-        <v>96.3</v>
+        <v>97.2</v>
       </c>
       <c r="F147" t="n">
-        <v>3221.6486</v>
+        <v>635.7907</v>
       </c>
       <c r="G147" t="n">
-        <v>-554231.3173730785</v>
+        <v>-287770.5353730785</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>96.59</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr">
         <is>
@@ -5737,38 +5897,37 @@
       <c r="M147" t="n">
         <v>1</v>
       </c>
+      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>96.3</v>
+        <v>97.2</v>
       </c>
       <c r="C148" t="n">
-        <v>96.59999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="D148" t="n">
-        <v>96.59999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="E148" t="n">
-        <v>94.97</v>
+        <v>97.2</v>
       </c>
       <c r="F148" t="n">
-        <v>397844.6606</v>
+        <v>1000.3</v>
       </c>
       <c r="G148" t="n">
-        <v>-156386.6567730785</v>
+        <v>-287770.5353730785</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
-        <v>96.3</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr">
         <is>
@@ -5778,28 +5937,29 @@
       <c r="M148" t="n">
         <v>1</v>
       </c>
+      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>96.40000000000001</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="C149" t="n">
-        <v>96.48</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="D149" t="n">
-        <v>96.5</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="E149" t="n">
-        <v>96.39</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="F149" t="n">
-        <v>58590</v>
+        <v>3760.8453</v>
       </c>
       <c r="G149" t="n">
-        <v>-214976.6567730785</v>
+        <v>-291531.3806730785</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5817,28 +5977,29 @@
       <c r="M149" t="n">
         <v>1</v>
       </c>
+      <c r="N149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>96.69</v>
+        <v>97.2</v>
       </c>
       <c r="C150" t="n">
-        <v>96.20999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="D150" t="n">
-        <v>96.69</v>
+        <v>97.2</v>
       </c>
       <c r="E150" t="n">
-        <v>96.20999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="F150" t="n">
-        <v>10865</v>
+        <v>6</v>
       </c>
       <c r="G150" t="n">
-        <v>-225841.6567730785</v>
+        <v>-291525.3806730785</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5856,28 +6017,29 @@
       <c r="M150" t="n">
         <v>1</v>
       </c>
+      <c r="N150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>96.67</v>
+        <v>97.2</v>
       </c>
       <c r="C151" t="n">
-        <v>96.68000000000001</v>
+        <v>97.2</v>
       </c>
       <c r="D151" t="n">
-        <v>96.69</v>
+        <v>97.2</v>
       </c>
       <c r="E151" t="n">
-        <v>96.67</v>
+        <v>97.2</v>
       </c>
       <c r="F151" t="n">
-        <v>5150</v>
+        <v>597.9793</v>
       </c>
       <c r="G151" t="n">
-        <v>-220691.6567730785</v>
+        <v>-291525.3806730785</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5895,28 +6057,29 @@
       <c r="M151" t="n">
         <v>1</v>
       </c>
+      <c r="N151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>96.98999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="C152" t="n">
-        <v>96.98999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="D152" t="n">
-        <v>96.98999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="E152" t="n">
-        <v>96.98999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="F152" t="n">
-        <v>2000</v>
+        <v>354.2062</v>
       </c>
       <c r="G152" t="n">
-        <v>-218691.6567730785</v>
+        <v>-291525.3806730785</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5934,38 +6097,37 @@
       <c r="M152" t="n">
         <v>1</v>
       </c>
+      <c r="N152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>96.98</v>
+        <v>97.2</v>
       </c>
       <c r="C153" t="n">
-        <v>96.98</v>
+        <v>97.2</v>
       </c>
       <c r="D153" t="n">
-        <v>96.98</v>
+        <v>97.2</v>
       </c>
       <c r="E153" t="n">
-        <v>96.98</v>
+        <v>97.2</v>
       </c>
       <c r="F153" t="n">
-        <v>12179.3083</v>
+        <v>749.2394</v>
       </c>
       <c r="G153" t="n">
-        <v>-230870.9650730786</v>
+        <v>-291525.3806730785</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
-        <v>96.98999999999999</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr">
         <is>
@@ -5975,38 +6137,37 @@
       <c r="M153" t="n">
         <v>1</v>
       </c>
+      <c r="N153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>96.31</v>
+        <v>97.2</v>
       </c>
       <c r="C154" t="n">
-        <v>96.31</v>
+        <v>97.2</v>
       </c>
       <c r="D154" t="n">
-        <v>96.31</v>
+        <v>97.2</v>
       </c>
       <c r="E154" t="n">
-        <v>96.31</v>
+        <v>97.2</v>
       </c>
       <c r="F154" t="n">
-        <v>1982.9453</v>
+        <v>349.8471</v>
       </c>
       <c r="G154" t="n">
-        <v>-232853.9103730785</v>
+        <v>-291525.3806730785</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="n">
-        <v>96.98</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr">
         <is>
@@ -6016,38 +6177,37 @@
       <c r="M154" t="n">
         <v>1</v>
       </c>
+      <c r="N154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>96.90000000000001</v>
+        <v>97.2</v>
       </c>
       <c r="C155" t="n">
-        <v>96.90000000000001</v>
+        <v>97.56</v>
       </c>
       <c r="D155" t="n">
-        <v>96.90000000000001</v>
+        <v>97.56</v>
       </c>
       <c r="E155" t="n">
-        <v>96.90000000000001</v>
+        <v>97.2</v>
       </c>
       <c r="F155" t="n">
-        <v>7035.7291</v>
+        <v>2000</v>
       </c>
       <c r="G155" t="n">
-        <v>-225818.1812730785</v>
+        <v>-289525.3806730785</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="n">
-        <v>96.31</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr">
         <is>
@@ -6057,28 +6217,29 @@
       <c r="M155" t="n">
         <v>1</v>
       </c>
+      <c r="N155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>96.88</v>
+        <v>97.5</v>
       </c>
       <c r="C156" t="n">
-        <v>96.89</v>
+        <v>97.5</v>
       </c>
       <c r="D156" t="n">
-        <v>96.89</v>
+        <v>97.5</v>
       </c>
       <c r="E156" t="n">
-        <v>96.88</v>
+        <v>97.5</v>
       </c>
       <c r="F156" t="n">
-        <v>14689.4068</v>
+        <v>5099.6298</v>
       </c>
       <c r="G156" t="n">
-        <v>-240507.5880730785</v>
+        <v>-294625.0104730785</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6096,28 +6257,29 @@
       <c r="M156" t="n">
         <v>1</v>
       </c>
+      <c r="N156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>96.87</v>
+        <v>97.5</v>
       </c>
       <c r="C157" t="n">
-        <v>96.61</v>
+        <v>97.5</v>
       </c>
       <c r="D157" t="n">
-        <v>96.87</v>
+        <v>97.5</v>
       </c>
       <c r="E157" t="n">
-        <v>96.61</v>
+        <v>97.5</v>
       </c>
       <c r="F157" t="n">
-        <v>8161.2072</v>
+        <v>621.6648</v>
       </c>
       <c r="G157" t="n">
-        <v>-248668.7952730785</v>
+        <v>-294625.0104730785</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6135,28 +6297,29 @@
       <c r="M157" t="n">
         <v>1</v>
       </c>
+      <c r="N157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>96.89</v>
+        <v>97.01000000000001</v>
       </c>
       <c r="C158" t="n">
-        <v>96.88</v>
+        <v>97.01000000000001</v>
       </c>
       <c r="D158" t="n">
-        <v>96.89</v>
+        <v>97.01000000000001</v>
       </c>
       <c r="E158" t="n">
-        <v>96.88</v>
+        <v>97.01000000000001</v>
       </c>
       <c r="F158" t="n">
-        <v>13058.3204</v>
+        <v>4901.9608</v>
       </c>
       <c r="G158" t="n">
-        <v>-235610.4748730786</v>
+        <v>-299526.9712730785</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6174,28 +6337,29 @@
       <c r="M158" t="n">
         <v>1</v>
       </c>
+      <c r="N158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>96.87</v>
+        <v>97.5</v>
       </c>
       <c r="C159" t="n">
-        <v>96.87</v>
+        <v>97.5</v>
       </c>
       <c r="D159" t="n">
-        <v>96.87</v>
+        <v>97.5</v>
       </c>
       <c r="E159" t="n">
-        <v>96.87</v>
+        <v>97.5</v>
       </c>
       <c r="F159" t="n">
-        <v>6377.4669</v>
+        <v>6</v>
       </c>
       <c r="G159" t="n">
-        <v>-241987.9417730785</v>
+        <v>-299520.9712730785</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6213,28 +6377,29 @@
       <c r="M159" t="n">
         <v>1</v>
       </c>
+      <c r="N159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>96.59999999999999</v>
+        <v>97</v>
       </c>
       <c r="C160" t="n">
-        <v>96.59999999999999</v>
+        <v>96.91</v>
       </c>
       <c r="D160" t="n">
-        <v>96.59999999999999</v>
+        <v>97</v>
       </c>
       <c r="E160" t="n">
-        <v>96.59999999999999</v>
+        <v>96.91</v>
       </c>
       <c r="F160" t="n">
-        <v>27258.1313</v>
+        <v>19655.2854</v>
       </c>
       <c r="G160" t="n">
-        <v>-269246.0730730785</v>
+        <v>-319176.2566730785</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6252,1646 +6417,7 @@
       <c r="M160" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>96.89</v>
-      </c>
-      <c r="C161" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="D161" t="n">
-        <v>96.89</v>
-      </c>
-      <c r="E161" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="F161" t="n">
-        <v>8753.4195</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-269246.0730730785</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>96.88</v>
-      </c>
-      <c r="C162" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="D162" t="n">
-        <v>96.88</v>
-      </c>
-      <c r="E162" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="F162" t="n">
-        <v>15145</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-269246.0730730785</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>96.45</v>
-      </c>
-      <c r="C163" t="n">
-        <v>96.31</v>
-      </c>
-      <c r="D163" t="n">
-        <v>96.45</v>
-      </c>
-      <c r="E163" t="n">
-        <v>96.31</v>
-      </c>
-      <c r="F163" t="n">
-        <v>9929</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-279175.0730730785</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>96.8</v>
-      </c>
-      <c r="C164" t="n">
-        <v>96.8</v>
-      </c>
-      <c r="D164" t="n">
-        <v>96.8</v>
-      </c>
-      <c r="E164" t="n">
-        <v>96.8</v>
-      </c>
-      <c r="F164" t="n">
-        <v>1007.6455</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-278167.4275730785</v>
-      </c>
-      <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="n">
-        <v>96.31</v>
-      </c>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>96.8</v>
-      </c>
-      <c r="C165" t="n">
-        <v>96.8</v>
-      </c>
-      <c r="D165" t="n">
-        <v>96.8</v>
-      </c>
-      <c r="E165" t="n">
-        <v>96.8</v>
-      </c>
-      <c r="F165" t="n">
-        <v>223.2387</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-278167.4275730785</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>96.42</v>
-      </c>
-      <c r="C166" t="n">
-        <v>96.8</v>
-      </c>
-      <c r="D166" t="n">
-        <v>96.8</v>
-      </c>
-      <c r="E166" t="n">
-        <v>96.42</v>
-      </c>
-      <c r="F166" t="n">
-        <v>433.2972</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-278167.4275730785</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>96.44</v>
-      </c>
-      <c r="C167" t="n">
-        <v>96.44</v>
-      </c>
-      <c r="D167" t="n">
-        <v>96.44</v>
-      </c>
-      <c r="E167" t="n">
-        <v>96.44</v>
-      </c>
-      <c r="F167" t="n">
-        <v>316.7939</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-278484.2214730785</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>96.78</v>
-      </c>
-      <c r="C168" t="n">
-        <v>96.77</v>
-      </c>
-      <c r="D168" t="n">
-        <v>96.78</v>
-      </c>
-      <c r="E168" t="n">
-        <v>96.77</v>
-      </c>
-      <c r="F168" t="n">
-        <v>4876</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-273608.2214730785</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>96.98999999999999</v>
-      </c>
-      <c r="C169" t="n">
-        <v>96.98999999999999</v>
-      </c>
-      <c r="D169" t="n">
-        <v>96.98999999999999</v>
-      </c>
-      <c r="E169" t="n">
-        <v>96.98999999999999</v>
-      </c>
-      <c r="F169" t="n">
-        <v>6</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-273602.2214730785</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>96.98</v>
-      </c>
-      <c r="C170" t="n">
-        <v>96.98</v>
-      </c>
-      <c r="D170" t="n">
-        <v>96.98</v>
-      </c>
-      <c r="E170" t="n">
-        <v>96.98</v>
-      </c>
-      <c r="F170" t="n">
-        <v>7355</v>
-      </c>
-      <c r="G170" t="n">
-        <v>-280957.2214730785</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>96.98</v>
-      </c>
-      <c r="C171" t="n">
-        <v>96.98999999999999</v>
-      </c>
-      <c r="D171" t="n">
-        <v>96.98999999999999</v>
-      </c>
-      <c r="E171" t="n">
-        <v>96.98</v>
-      </c>
-      <c r="F171" t="n">
-        <v>10889.5444</v>
-      </c>
-      <c r="G171" t="n">
-        <v>-270067.6770730785</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>96.98999999999999</v>
-      </c>
-      <c r="C172" t="n">
-        <v>96.98999999999999</v>
-      </c>
-      <c r="D172" t="n">
-        <v>96.98999999999999</v>
-      </c>
-      <c r="E172" t="n">
-        <v>96.98999999999999</v>
-      </c>
-      <c r="F172" t="n">
-        <v>588.1763999999999</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-270067.6770730785</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>96.98999999999999</v>
-      </c>
-      <c r="C173" t="n">
-        <v>96.98999999999999</v>
-      </c>
-      <c r="D173" t="n">
-        <v>96.98999999999999</v>
-      </c>
-      <c r="E173" t="n">
-        <v>96.98999999999999</v>
-      </c>
-      <c r="F173" t="n">
-        <v>824.2472</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-270067.6770730785</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>96.98</v>
-      </c>
-      <c r="C174" t="n">
-        <v>96.98</v>
-      </c>
-      <c r="D174" t="n">
-        <v>96.98999999999999</v>
-      </c>
-      <c r="E174" t="n">
-        <v>96.97</v>
-      </c>
-      <c r="F174" t="n">
-        <v>9210.763000000001</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-279278.4400730785</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>96.98999999999999</v>
-      </c>
-      <c r="C175" t="n">
-        <v>96.98</v>
-      </c>
-      <c r="D175" t="n">
-        <v>96.98999999999999</v>
-      </c>
-      <c r="E175" t="n">
-        <v>96.8</v>
-      </c>
-      <c r="F175" t="n">
-        <v>17584.0311</v>
-      </c>
-      <c r="G175" t="n">
-        <v>-279278.4400730785</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>96.98999999999999</v>
-      </c>
-      <c r="C176" t="n">
-        <v>96.98</v>
-      </c>
-      <c r="D176" t="n">
-        <v>96.98999999999999</v>
-      </c>
-      <c r="E176" t="n">
-        <v>96.98</v>
-      </c>
-      <c r="F176" t="n">
-        <v>3683.631</v>
-      </c>
-      <c r="G176" t="n">
-        <v>-279278.4400730785</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>96.98999999999999</v>
-      </c>
-      <c r="C177" t="n">
-        <v>96.98999999999999</v>
-      </c>
-      <c r="D177" t="n">
-        <v>96.98999999999999</v>
-      </c>
-      <c r="E177" t="n">
-        <v>96.98999999999999</v>
-      </c>
-      <c r="F177" t="n">
-        <v>2912.8738</v>
-      </c>
-      <c r="G177" t="n">
-        <v>-276365.5662730785</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>96.98999999999999</v>
-      </c>
-      <c r="C178" t="n">
-        <v>97.19</v>
-      </c>
-      <c r="D178" t="n">
-        <v>97.19</v>
-      </c>
-      <c r="E178" t="n">
-        <v>96.98999999999999</v>
-      </c>
-      <c r="F178" t="n">
-        <v>12110</v>
-      </c>
-      <c r="G178" t="n">
-        <v>-264255.5662730785</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>97.19</v>
-      </c>
-      <c r="C179" t="n">
-        <v>97.19</v>
-      </c>
-      <c r="D179" t="n">
-        <v>97.19</v>
-      </c>
-      <c r="E179" t="n">
-        <v>97.19</v>
-      </c>
-      <c r="F179" t="n">
-        <v>2420</v>
-      </c>
-      <c r="G179" t="n">
-        <v>-264255.5662730785</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>97.15000000000001</v>
-      </c>
-      <c r="C180" t="n">
-        <v>97.19</v>
-      </c>
-      <c r="D180" t="n">
-        <v>97.19</v>
-      </c>
-      <c r="E180" t="n">
-        <v>97.15000000000001</v>
-      </c>
-      <c r="F180" t="n">
-        <v>3512.3537</v>
-      </c>
-      <c r="G180" t="n">
-        <v>-264255.5662730785</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>97.2</v>
-      </c>
-      <c r="C181" t="n">
-        <v>97.2</v>
-      </c>
-      <c r="D181" t="n">
-        <v>97.2</v>
-      </c>
-      <c r="E181" t="n">
-        <v>97.2</v>
-      </c>
-      <c r="F181" t="n">
-        <v>878.2794</v>
-      </c>
-      <c r="G181" t="n">
-        <v>-263377.2868730785</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>97</v>
-      </c>
-      <c r="C182" t="n">
-        <v>97</v>
-      </c>
-      <c r="D182" t="n">
-        <v>97</v>
-      </c>
-      <c r="E182" t="n">
-        <v>97</v>
-      </c>
-      <c r="F182" t="n">
-        <v>10525.6441</v>
-      </c>
-      <c r="G182" t="n">
-        <v>-273902.9309730785</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>97.2</v>
-      </c>
-      <c r="C183" t="n">
-        <v>97.2</v>
-      </c>
-      <c r="D183" t="n">
-        <v>97.2</v>
-      </c>
-      <c r="E183" t="n">
-        <v>97.2</v>
-      </c>
-      <c r="F183" t="n">
-        <v>6</v>
-      </c>
-      <c r="G183" t="n">
-        <v>-273896.9309730785</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>97.09999999999999</v>
-      </c>
-      <c r="C184" t="n">
-        <v>97.09999999999999</v>
-      </c>
-      <c r="D184" t="n">
-        <v>97.09999999999999</v>
-      </c>
-      <c r="E184" t="n">
-        <v>97.09999999999999</v>
-      </c>
-      <c r="F184" t="n">
-        <v>1461.3629</v>
-      </c>
-      <c r="G184" t="n">
-        <v>-275358.2938730785</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>97.2</v>
-      </c>
-      <c r="C185" t="n">
-        <v>97.2</v>
-      </c>
-      <c r="D185" t="n">
-        <v>97.2</v>
-      </c>
-      <c r="E185" t="n">
-        <v>97.2</v>
-      </c>
-      <c r="F185" t="n">
-        <v>6</v>
-      </c>
-      <c r="G185" t="n">
-        <v>-275352.2938730785</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>97.01000000000001</v>
-      </c>
-      <c r="C186" t="n">
-        <v>97.01000000000001</v>
-      </c>
-      <c r="D186" t="n">
-        <v>97.01000000000001</v>
-      </c>
-      <c r="E186" t="n">
-        <v>97.01000000000001</v>
-      </c>
-      <c r="F186" t="n">
-        <v>12860.6742</v>
-      </c>
-      <c r="G186" t="n">
-        <v>-288212.9680730785</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>97.01000000000001</v>
-      </c>
-      <c r="C187" t="n">
-        <v>97.01000000000001</v>
-      </c>
-      <c r="D187" t="n">
-        <v>97.01000000000001</v>
-      </c>
-      <c r="E187" t="n">
-        <v>97.01000000000001</v>
-      </c>
-      <c r="F187" t="n">
-        <v>3163.9491</v>
-      </c>
-      <c r="G187" t="n">
-        <v>-288212.9680730785</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>97.01000000000001</v>
-      </c>
-      <c r="C188" t="n">
-        <v>97.2</v>
-      </c>
-      <c r="D188" t="n">
-        <v>97.2</v>
-      </c>
-      <c r="E188" t="n">
-        <v>97.01000000000001</v>
-      </c>
-      <c r="F188" t="n">
-        <v>442.4327</v>
-      </c>
-      <c r="G188" t="n">
-        <v>-287770.5353730785</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>97.2</v>
-      </c>
-      <c r="C189" t="n">
-        <v>97.2</v>
-      </c>
-      <c r="D189" t="n">
-        <v>97.2</v>
-      </c>
-      <c r="E189" t="n">
-        <v>97.2</v>
-      </c>
-      <c r="F189" t="n">
-        <v>635.7907</v>
-      </c>
-      <c r="G189" t="n">
-        <v>-287770.5353730785</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>97.2</v>
-      </c>
-      <c r="C190" t="n">
-        <v>97.2</v>
-      </c>
-      <c r="D190" t="n">
-        <v>97.2</v>
-      </c>
-      <c r="E190" t="n">
-        <v>97.2</v>
-      </c>
-      <c r="F190" t="n">
-        <v>1000.3</v>
-      </c>
-      <c r="G190" t="n">
-        <v>-287770.5353730785</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>96.90000000000001</v>
-      </c>
-      <c r="C191" t="n">
-        <v>96.90000000000001</v>
-      </c>
-      <c r="D191" t="n">
-        <v>96.90000000000001</v>
-      </c>
-      <c r="E191" t="n">
-        <v>96.90000000000001</v>
-      </c>
-      <c r="F191" t="n">
-        <v>3760.8453</v>
-      </c>
-      <c r="G191" t="n">
-        <v>-291531.3806730785</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>97.2</v>
-      </c>
-      <c r="C192" t="n">
-        <v>97.2</v>
-      </c>
-      <c r="D192" t="n">
-        <v>97.2</v>
-      </c>
-      <c r="E192" t="n">
-        <v>97.2</v>
-      </c>
-      <c r="F192" t="n">
-        <v>6</v>
-      </c>
-      <c r="G192" t="n">
-        <v>-291525.3806730785</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>97.2</v>
-      </c>
-      <c r="C193" t="n">
-        <v>97.2</v>
-      </c>
-      <c r="D193" t="n">
-        <v>97.2</v>
-      </c>
-      <c r="E193" t="n">
-        <v>97.2</v>
-      </c>
-      <c r="F193" t="n">
-        <v>597.9793</v>
-      </c>
-      <c r="G193" t="n">
-        <v>-291525.3806730785</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>97.2</v>
-      </c>
-      <c r="C194" t="n">
-        <v>97.2</v>
-      </c>
-      <c r="D194" t="n">
-        <v>97.2</v>
-      </c>
-      <c r="E194" t="n">
-        <v>97.2</v>
-      </c>
-      <c r="F194" t="n">
-        <v>354.2062</v>
-      </c>
-      <c r="G194" t="n">
-        <v>-291525.3806730785</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>97.2</v>
-      </c>
-      <c r="C195" t="n">
-        <v>97.2</v>
-      </c>
-      <c r="D195" t="n">
-        <v>97.2</v>
-      </c>
-      <c r="E195" t="n">
-        <v>97.2</v>
-      </c>
-      <c r="F195" t="n">
-        <v>749.2394</v>
-      </c>
-      <c r="G195" t="n">
-        <v>-291525.3806730785</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>97.2</v>
-      </c>
-      <c r="C196" t="n">
-        <v>97.2</v>
-      </c>
-      <c r="D196" t="n">
-        <v>97.2</v>
-      </c>
-      <c r="E196" t="n">
-        <v>97.2</v>
-      </c>
-      <c r="F196" t="n">
-        <v>349.8471</v>
-      </c>
-      <c r="G196" t="n">
-        <v>-291525.3806730785</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>97.2</v>
-      </c>
-      <c r="C197" t="n">
-        <v>97.56</v>
-      </c>
-      <c r="D197" t="n">
-        <v>97.56</v>
-      </c>
-      <c r="E197" t="n">
-        <v>97.2</v>
-      </c>
-      <c r="F197" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G197" t="n">
-        <v>-289525.3806730785</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="C198" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="D198" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="E198" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="F198" t="n">
-        <v>5099.6298</v>
-      </c>
-      <c r="G198" t="n">
-        <v>-294625.0104730785</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="C199" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="D199" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="E199" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="F199" t="n">
-        <v>621.6648</v>
-      </c>
-      <c r="G199" t="n">
-        <v>-294625.0104730785</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>97.01000000000001</v>
-      </c>
-      <c r="C200" t="n">
-        <v>97.01000000000001</v>
-      </c>
-      <c r="D200" t="n">
-        <v>97.01000000000001</v>
-      </c>
-      <c r="E200" t="n">
-        <v>97.01000000000001</v>
-      </c>
-      <c r="F200" t="n">
-        <v>4901.9608</v>
-      </c>
-      <c r="G200" t="n">
-        <v>-299526.9712730785</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="C201" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="D201" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="E201" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="F201" t="n">
-        <v>6</v>
-      </c>
-      <c r="G201" t="n">
-        <v>-299520.9712730785</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>97</v>
-      </c>
-      <c r="C202" t="n">
-        <v>96.91</v>
-      </c>
-      <c r="D202" t="n">
-        <v>97</v>
-      </c>
-      <c r="E202" t="n">
-        <v>96.91</v>
-      </c>
-      <c r="F202" t="n">
-        <v>19655.2854</v>
-      </c>
-      <c r="G202" t="n">
-        <v>-319176.2566730785</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
+      <c r="N160" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-26 BackTest ENJ.xlsx
+++ b/BackTest/2020-01-26 BackTest ENJ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N160"/>
+  <dimension ref="A1:N231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>98.09999999999999</v>
+        <v>101.4</v>
       </c>
       <c r="C2" t="n">
-        <v>98</v>
+        <v>101.4</v>
       </c>
       <c r="D2" t="n">
-        <v>98.09999999999999</v>
+        <v>101.4</v>
       </c>
       <c r="E2" t="n">
-        <v>98</v>
+        <v>101.4</v>
       </c>
       <c r="F2" t="n">
-        <v>1389.8713</v>
+        <v>319.7591</v>
       </c>
       <c r="G2" t="n">
-        <v>-252943.9304456593</v>
+        <v>281125.5498390628</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>98.2</v>
+        <v>101.4</v>
       </c>
       <c r="C3" t="n">
-        <v>98.2</v>
+        <v>100.9</v>
       </c>
       <c r="D3" t="n">
-        <v>98.2</v>
+        <v>101.4</v>
       </c>
       <c r="E3" t="n">
-        <v>98.2</v>
+        <v>100.9</v>
       </c>
       <c r="F3" t="n">
-        <v>365.5379</v>
+        <v>1606.5156</v>
       </c>
       <c r="G3" t="n">
-        <v>-252578.3925456593</v>
+        <v>279519.0342390629</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>98.2</v>
+        <v>101</v>
       </c>
       <c r="C4" t="n">
-        <v>97.20999999999999</v>
+        <v>101</v>
       </c>
       <c r="D4" t="n">
-        <v>98.2</v>
+        <v>101</v>
       </c>
       <c r="E4" t="n">
-        <v>97.20999999999999</v>
+        <v>101</v>
       </c>
       <c r="F4" t="n">
-        <v>104086.8098</v>
+        <v>590</v>
       </c>
       <c r="G4" t="n">
-        <v>-356665.2023456593</v>
+        <v>280109.0342390629</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>98.01000000000001</v>
+        <v>101.7</v>
       </c>
       <c r="C5" t="n">
-        <v>98.28</v>
+        <v>101.8</v>
       </c>
       <c r="D5" t="n">
-        <v>98.38</v>
+        <v>101.9</v>
       </c>
       <c r="E5" t="n">
-        <v>97.02</v>
+        <v>101.7</v>
       </c>
       <c r="F5" t="n">
-        <v>44701.91818574913</v>
+        <v>1537.742750147203</v>
       </c>
       <c r="G5" t="n">
-        <v>-311963.2841599102</v>
+        <v>281646.77698921</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>97.81</v>
+        <v>101</v>
       </c>
       <c r="C6" t="n">
-        <v>97.81</v>
+        <v>101</v>
       </c>
       <c r="D6" t="n">
-        <v>97.81</v>
+        <v>101</v>
       </c>
       <c r="E6" t="n">
-        <v>97.81</v>
+        <v>101</v>
       </c>
       <c r="F6" t="n">
-        <v>3696.5584</v>
+        <v>620</v>
       </c>
       <c r="G6" t="n">
-        <v>-315659.8425599101</v>
+        <v>281026.77698921</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>97.70999999999999</v>
+        <v>100.9</v>
       </c>
       <c r="C7" t="n">
-        <v>97.70999999999999</v>
+        <v>100.9</v>
       </c>
       <c r="D7" t="n">
-        <v>97.70999999999999</v>
+        <v>100.9</v>
       </c>
       <c r="E7" t="n">
-        <v>97.70999999999999</v>
+        <v>100.9</v>
       </c>
       <c r="F7" t="n">
-        <v>44317.5604</v>
+        <v>480</v>
       </c>
       <c r="G7" t="n">
-        <v>-359977.4029599102</v>
+        <v>280546.77698921</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>97.62</v>
+        <v>101</v>
       </c>
       <c r="C8" t="n">
-        <v>97.62</v>
+        <v>101</v>
       </c>
       <c r="D8" t="n">
-        <v>97.62</v>
+        <v>101</v>
       </c>
       <c r="E8" t="n">
-        <v>97.62</v>
+        <v>101</v>
       </c>
       <c r="F8" t="n">
-        <v>7897.5329</v>
+        <v>620</v>
       </c>
       <c r="G8" t="n">
-        <v>-367874.9358599102</v>
+        <v>281166.77698921</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,28 +690,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>97.63</v>
+        <v>101</v>
       </c>
       <c r="C9" t="n">
-        <v>97.61</v>
+        <v>101</v>
       </c>
       <c r="D9" t="n">
-        <v>97.63</v>
+        <v>101</v>
       </c>
       <c r="E9" t="n">
-        <v>97.61</v>
+        <v>101</v>
       </c>
       <c r="F9" t="n">
-        <v>8184.8952</v>
+        <v>17106.3598</v>
       </c>
       <c r="G9" t="n">
-        <v>-376059.8310599102</v>
+        <v>281166.77698921</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -726,28 +726,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>97.62</v>
+        <v>100.4</v>
       </c>
       <c r="C10" t="n">
-        <v>97.61</v>
+        <v>100.4</v>
       </c>
       <c r="D10" t="n">
-        <v>97.62</v>
+        <v>100.4</v>
       </c>
       <c r="E10" t="n">
-        <v>97.61</v>
+        <v>100.4</v>
       </c>
       <c r="F10" t="n">
-        <v>11311.2798</v>
+        <v>1778.3988</v>
       </c>
       <c r="G10" t="n">
-        <v>-376059.8310599102</v>
+        <v>279388.37818921</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>97.39</v>
+        <v>100.4</v>
       </c>
       <c r="C11" t="n">
-        <v>97.09999999999999</v>
+        <v>100.4</v>
       </c>
       <c r="D11" t="n">
-        <v>97.39</v>
+        <v>100.4</v>
       </c>
       <c r="E11" t="n">
-        <v>97.09999999999999</v>
+        <v>100.4</v>
       </c>
       <c r="F11" t="n">
-        <v>24140.6743</v>
+        <v>27.24103585657371</v>
       </c>
       <c r="G11" t="n">
-        <v>-400200.5053599102</v>
+        <v>279388.37818921</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>97.09999999999999</v>
+        <v>100.4</v>
       </c>
       <c r="C12" t="n">
-        <v>97.09999999999999</v>
+        <v>101</v>
       </c>
       <c r="D12" t="n">
-        <v>97.09999999999999</v>
+        <v>101</v>
       </c>
       <c r="E12" t="n">
-        <v>96.91</v>
+        <v>100.4</v>
       </c>
       <c r="F12" t="n">
-        <v>98859.44469999999</v>
+        <v>20043.17606414343</v>
       </c>
       <c r="G12" t="n">
-        <v>-400200.5053599102</v>
+        <v>299431.5542533534</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>97.09999999999999</v>
+        <v>101</v>
       </c>
       <c r="C13" t="n">
-        <v>97.09999999999999</v>
+        <v>101</v>
       </c>
       <c r="D13" t="n">
-        <v>97.09999999999999</v>
+        <v>101</v>
       </c>
       <c r="E13" t="n">
-        <v>97.09999999999999</v>
+        <v>101</v>
       </c>
       <c r="F13" t="n">
-        <v>3621.0827</v>
+        <v>2000</v>
       </c>
       <c r="G13" t="n">
-        <v>-400200.5053599102</v>
+        <v>299431.5542533534</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>97.09</v>
+        <v>100.9</v>
       </c>
       <c r="C14" t="n">
-        <v>97.09999999999999</v>
+        <v>100.9</v>
       </c>
       <c r="D14" t="n">
-        <v>97.09999999999999</v>
+        <v>100.9</v>
       </c>
       <c r="E14" t="n">
-        <v>97.09</v>
+        <v>100.9</v>
       </c>
       <c r="F14" t="n">
-        <v>52239.878</v>
+        <v>352.6114</v>
       </c>
       <c r="G14" t="n">
-        <v>-400200.5053599102</v>
+        <v>299078.9428533535</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>97</v>
+        <v>100.9</v>
       </c>
       <c r="C15" t="n">
-        <v>96.90000000000001</v>
+        <v>100.9</v>
       </c>
       <c r="D15" t="n">
-        <v>97</v>
+        <v>100.9</v>
       </c>
       <c r="E15" t="n">
-        <v>96.90000000000001</v>
+        <v>100.9</v>
       </c>
       <c r="F15" t="n">
-        <v>140876.4748</v>
+        <v>197.3886</v>
       </c>
       <c r="G15" t="n">
-        <v>-541076.9801599102</v>
+        <v>299078.9428533535</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -942,28 +942,28 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>96.90000000000001</v>
+        <v>100.9</v>
       </c>
       <c r="C16" t="n">
-        <v>96.03</v>
+        <v>100.9</v>
       </c>
       <c r="D16" t="n">
-        <v>96.90000000000001</v>
+        <v>100.9</v>
       </c>
       <c r="E16" t="n">
-        <v>96.03</v>
+        <v>100.9</v>
       </c>
       <c r="F16" t="n">
-        <v>27730</v>
+        <v>10688.9302</v>
       </c>
       <c r="G16" t="n">
-        <v>-568806.9801599102</v>
+        <v>299078.9428533535</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -978,28 +978,28 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>96.03</v>
+        <v>101</v>
       </c>
       <c r="C17" t="n">
-        <v>96.98</v>
+        <v>101</v>
       </c>
       <c r="D17" t="n">
-        <v>96.98</v>
+        <v>101</v>
       </c>
       <c r="E17" t="n">
-        <v>96.03</v>
+        <v>101</v>
       </c>
       <c r="F17" t="n">
-        <v>121711.4748</v>
+        <v>9025.6281</v>
       </c>
       <c r="G17" t="n">
-        <v>-447095.5053599102</v>
+        <v>308104.5709533534</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -1014,28 +1014,28 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>96.89</v>
+        <v>101</v>
       </c>
       <c r="C18" t="n">
-        <v>96.89</v>
+        <v>101</v>
       </c>
       <c r="D18" t="n">
-        <v>96.89</v>
+        <v>101</v>
       </c>
       <c r="E18" t="n">
-        <v>96.89</v>
+        <v>100.9</v>
       </c>
       <c r="F18" t="n">
-        <v>100108.6933</v>
+        <v>17656.3598</v>
       </c>
       <c r="G18" t="n">
-        <v>-547204.1986599102</v>
+        <v>308104.5709533534</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1050,28 +1050,28 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>96.87</v>
+        <v>101</v>
       </c>
       <c r="C19" t="n">
-        <v>96.88</v>
+        <v>101</v>
       </c>
       <c r="D19" t="n">
-        <v>96.88</v>
+        <v>101</v>
       </c>
       <c r="E19" t="n">
-        <v>96.87</v>
+        <v>101</v>
       </c>
       <c r="F19" t="n">
-        <v>5225.4704</v>
+        <v>575.4383</v>
       </c>
       <c r="G19" t="n">
-        <v>-552429.6690599102</v>
+        <v>308104.5709533534</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1086,28 +1086,28 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>96.95999999999999</v>
+        <v>101</v>
       </c>
       <c r="C20" t="n">
-        <v>97.05</v>
+        <v>100.4</v>
       </c>
       <c r="D20" t="n">
-        <v>97.05</v>
+        <v>101</v>
       </c>
       <c r="E20" t="n">
-        <v>96.95999999999999</v>
+        <v>100.4</v>
       </c>
       <c r="F20" t="n">
-        <v>20000</v>
+        <v>7355.7875</v>
       </c>
       <c r="G20" t="n">
-        <v>-532429.6690599102</v>
+        <v>300748.7834533534</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1122,28 +1122,28 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>96.90000000000001</v>
+        <v>100.1</v>
       </c>
       <c r="C21" t="n">
-        <v>96.90000000000001</v>
+        <v>100.1</v>
       </c>
       <c r="D21" t="n">
-        <v>96.90000000000001</v>
+        <v>100.1</v>
       </c>
       <c r="E21" t="n">
-        <v>96.90000000000001</v>
+        <v>100.1</v>
       </c>
       <c r="F21" t="n">
-        <v>1268.8554</v>
+        <v>94.18729999999999</v>
       </c>
       <c r="G21" t="n">
-        <v>-533698.5244599102</v>
+        <v>300654.5961533535</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1158,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>96.94</v>
+        <v>101</v>
       </c>
       <c r="C22" t="n">
-        <v>96.94</v>
+        <v>100.2</v>
       </c>
       <c r="D22" t="n">
-        <v>96.94</v>
+        <v>101.3</v>
       </c>
       <c r="E22" t="n">
-        <v>96.94</v>
+        <v>100.2</v>
       </c>
       <c r="F22" t="n">
-        <v>3805.0265</v>
+        <v>16921.81050098717</v>
       </c>
       <c r="G22" t="n">
-        <v>-529893.4979599102</v>
+        <v>317576.4066543406</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1194,28 +1194,28 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>96.76000000000001</v>
+        <v>101</v>
       </c>
       <c r="C23" t="n">
-        <v>96.76000000000001</v>
+        <v>101</v>
       </c>
       <c r="D23" t="n">
-        <v>96.76000000000001</v>
+        <v>101</v>
       </c>
       <c r="E23" t="n">
-        <v>96.76000000000001</v>
+        <v>101</v>
       </c>
       <c r="F23" t="n">
-        <v>2406.7191</v>
+        <v>2000</v>
       </c>
       <c r="G23" t="n">
-        <v>-532300.2170599102</v>
+        <v>319576.4066543406</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1230,28 +1230,28 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>96.2</v>
+        <v>101</v>
       </c>
       <c r="C24" t="n">
-        <v>96.7</v>
+        <v>101</v>
       </c>
       <c r="D24" t="n">
-        <v>96.7</v>
+        <v>101</v>
       </c>
       <c r="E24" t="n">
-        <v>96.2</v>
+        <v>101</v>
       </c>
       <c r="F24" t="n">
-        <v>2702.8203</v>
+        <v>1184.0814</v>
       </c>
       <c r="G24" t="n">
-        <v>-535003.0373599102</v>
+        <v>319576.4066543406</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1266,28 +1266,28 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>96.3</v>
+        <v>101</v>
       </c>
       <c r="C25" t="n">
-        <v>96.88</v>
+        <v>101</v>
       </c>
       <c r="D25" t="n">
-        <v>96.89</v>
+        <v>101</v>
       </c>
       <c r="E25" t="n">
-        <v>96.3</v>
+        <v>101</v>
       </c>
       <c r="F25" t="n">
-        <v>6962.5129</v>
+        <v>1625.9186</v>
       </c>
       <c r="G25" t="n">
-        <v>-528040.5244599102</v>
+        <v>319576.4066543406</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1302,28 +1302,28 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>96.8</v>
+        <v>100.9</v>
       </c>
       <c r="C26" t="n">
-        <v>96.88</v>
+        <v>100.9</v>
       </c>
       <c r="D26" t="n">
-        <v>96.88</v>
+        <v>100.9</v>
       </c>
       <c r="E26" t="n">
-        <v>96.8</v>
+        <v>100.9</v>
       </c>
       <c r="F26" t="n">
-        <v>4358.1012</v>
+        <v>4728.6784</v>
       </c>
       <c r="G26" t="n">
-        <v>-528040.5244599102</v>
+        <v>314847.7282543406</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1338,28 +1338,28 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>96.3</v>
+        <v>100.8</v>
       </c>
       <c r="C27" t="n">
-        <v>96.3</v>
+        <v>100.8</v>
       </c>
       <c r="D27" t="n">
-        <v>96.3</v>
+        <v>100.8</v>
       </c>
       <c r="E27" t="n">
-        <v>96.3</v>
+        <v>100.8</v>
       </c>
       <c r="F27" t="n">
-        <v>6257.6282</v>
+        <v>6755.9952</v>
       </c>
       <c r="G27" t="n">
-        <v>-534298.1526599103</v>
+        <v>308091.7330543406</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1374,28 +1374,28 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>96.3</v>
+        <v>101.1</v>
       </c>
       <c r="C28" t="n">
-        <v>96.3</v>
+        <v>101.1</v>
       </c>
       <c r="D28" t="n">
-        <v>96.3</v>
+        <v>101.1</v>
       </c>
       <c r="E28" t="n">
-        <v>96.3</v>
+        <v>101.1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0001</v>
+        <v>2344.5144</v>
       </c>
       <c r="G28" t="n">
-        <v>-534298.1526599103</v>
+        <v>310436.2474543406</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1410,28 +1410,28 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>96.8</v>
+        <v>100.8</v>
       </c>
       <c r="C29" t="n">
-        <v>97.23999999999999</v>
+        <v>100.8</v>
       </c>
       <c r="D29" t="n">
-        <v>97.23999999999999</v>
+        <v>100.8</v>
       </c>
       <c r="E29" t="n">
-        <v>96.8</v>
+        <v>100.8</v>
       </c>
       <c r="F29" t="n">
-        <v>36561.8836</v>
+        <v>809.9998000000001</v>
       </c>
       <c r="G29" t="n">
-        <v>-497736.2690599103</v>
+        <v>309626.2476543406</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1446,28 +1446,28 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>97.45999999999999</v>
+        <v>100.7</v>
       </c>
       <c r="C30" t="n">
-        <v>97.45999999999999</v>
+        <v>100.5</v>
       </c>
       <c r="D30" t="n">
-        <v>97.45999999999999</v>
+        <v>100.7</v>
       </c>
       <c r="E30" t="n">
-        <v>97.45999999999999</v>
+        <v>100.5</v>
       </c>
       <c r="F30" t="n">
-        <v>15.4936</v>
+        <v>6643.1348</v>
       </c>
       <c r="G30" t="n">
-        <v>-497720.7754599103</v>
+        <v>302983.1128543406</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1482,28 +1482,28 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>97.12</v>
+        <v>100.8</v>
       </c>
       <c r="C31" t="n">
-        <v>97.2</v>
+        <v>100.8</v>
       </c>
       <c r="D31" t="n">
-        <v>97.2</v>
+        <v>100.8</v>
       </c>
       <c r="E31" t="n">
-        <v>97.12</v>
+        <v>100.8</v>
       </c>
       <c r="F31" t="n">
-        <v>82327.8983</v>
+        <v>399.9999</v>
       </c>
       <c r="G31" t="n">
-        <v>-580048.6737599103</v>
+        <v>303383.1127543406</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1518,28 +1518,28 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>97.2</v>
+        <v>101</v>
       </c>
       <c r="C32" t="n">
-        <v>97.2</v>
+        <v>100.2</v>
       </c>
       <c r="D32" t="n">
-        <v>97.2</v>
+        <v>101.2</v>
       </c>
       <c r="E32" t="n">
-        <v>97.2</v>
+        <v>100</v>
       </c>
       <c r="F32" t="n">
-        <v>1900</v>
+        <v>199113.2606</v>
       </c>
       <c r="G32" t="n">
-        <v>-580048.6737599103</v>
+        <v>104269.8521543406</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -1554,28 +1554,28 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>97.2</v>
+        <v>100.9</v>
       </c>
       <c r="C33" t="n">
-        <v>97.2</v>
+        <v>100.9</v>
       </c>
       <c r="D33" t="n">
-        <v>97.2</v>
+        <v>100.9</v>
       </c>
       <c r="E33" t="n">
-        <v>97.2</v>
+        <v>100.9</v>
       </c>
       <c r="F33" t="n">
-        <v>13000</v>
+        <v>10930</v>
       </c>
       <c r="G33" t="n">
-        <v>-580048.6737599103</v>
+        <v>115199.8521543406</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1590,28 +1590,28 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>97.2</v>
+        <v>100.5</v>
       </c>
       <c r="C34" t="n">
-        <v>97.2</v>
+        <v>100.5</v>
       </c>
       <c r="D34" t="n">
-        <v>97.2</v>
+        <v>100.5</v>
       </c>
       <c r="E34" t="n">
-        <v>97.2</v>
+        <v>100.5</v>
       </c>
       <c r="F34" t="n">
-        <v>608.3825000000001</v>
+        <v>4516.6618</v>
       </c>
       <c r="G34" t="n">
-        <v>-580048.6737599103</v>
+        <v>110683.1903543406</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1626,28 +1626,28 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>97.09999999999999</v>
+        <v>100.9</v>
       </c>
       <c r="C35" t="n">
-        <v>97.09999999999999</v>
+        <v>100.9</v>
       </c>
       <c r="D35" t="n">
-        <v>97.09999999999999</v>
+        <v>100.9</v>
       </c>
       <c r="E35" t="n">
-        <v>97.09999999999999</v>
+        <v>100.9</v>
       </c>
       <c r="F35" t="n">
-        <v>10.29866117404737</v>
+        <v>65.08580000000001</v>
       </c>
       <c r="G35" t="n">
-        <v>-580058.9724210843</v>
+        <v>110748.2761543406</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -1662,28 +1662,28 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>96.5</v>
+        <v>100.9</v>
       </c>
       <c r="C36" t="n">
-        <v>96.5</v>
+        <v>100.9</v>
       </c>
       <c r="D36" t="n">
-        <v>96.5</v>
+        <v>100.9</v>
       </c>
       <c r="E36" t="n">
-        <v>96.5</v>
+        <v>100.9</v>
       </c>
       <c r="F36" t="n">
-        <v>10.6518</v>
+        <v>1301.3904</v>
       </c>
       <c r="G36" t="n">
-        <v>-580069.6242210843</v>
+        <v>110748.2761543406</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -1698,28 +1698,28 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>96.59999999999999</v>
+        <v>100.9</v>
       </c>
       <c r="C37" t="n">
-        <v>96.5</v>
+        <v>100.9</v>
       </c>
       <c r="D37" t="n">
-        <v>96.59999999999999</v>
+        <v>100.9</v>
       </c>
       <c r="E37" t="n">
-        <v>96.5</v>
+        <v>100.9</v>
       </c>
       <c r="F37" t="n">
-        <v>2775.3755</v>
+        <v>444.6668</v>
       </c>
       <c r="G37" t="n">
-        <v>-580069.6242210843</v>
+        <v>110748.2761543406</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -1734,28 +1734,28 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>96.7</v>
+        <v>100.6</v>
       </c>
       <c r="C38" t="n">
-        <v>96.3</v>
+        <v>100.6</v>
       </c>
       <c r="D38" t="n">
-        <v>96.7</v>
+        <v>100.6</v>
       </c>
       <c r="E38" t="n">
-        <v>96.3</v>
+        <v>100.6</v>
       </c>
       <c r="F38" t="n">
-        <v>34573.8412</v>
+        <v>3830.9809</v>
       </c>
       <c r="G38" t="n">
-        <v>-614643.4654210843</v>
+        <v>106917.2952543406</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -1770,28 +1770,28 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>96.3</v>
+        <v>100.2</v>
       </c>
       <c r="C39" t="n">
-        <v>96.20999999999999</v>
+        <v>100.2</v>
       </c>
       <c r="D39" t="n">
-        <v>96.3</v>
+        <v>100.2</v>
       </c>
       <c r="E39" t="n">
-        <v>96.20999999999999</v>
+        <v>100.2</v>
       </c>
       <c r="F39" t="n">
-        <v>3428.0117</v>
+        <v>280</v>
       </c>
       <c r="G39" t="n">
-        <v>-618071.4771210843</v>
+        <v>106637.2952543406</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -1806,28 +1806,28 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>96.3</v>
+        <v>100.2</v>
       </c>
       <c r="C40" t="n">
-        <v>96.3</v>
+        <v>99.97</v>
       </c>
       <c r="D40" t="n">
-        <v>96.3</v>
+        <v>100.2</v>
       </c>
       <c r="E40" t="n">
-        <v>96.3</v>
+        <v>99.97</v>
       </c>
       <c r="F40" t="n">
-        <v>14590.4235</v>
+        <v>16991.6875</v>
       </c>
       <c r="G40" t="n">
-        <v>-603481.0536210843</v>
+        <v>89645.60775434063</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -1842,22 +1842,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>96.8</v>
+        <v>100.2</v>
       </c>
       <c r="C41" t="n">
-        <v>96.8</v>
+        <v>100.2</v>
       </c>
       <c r="D41" t="n">
-        <v>96.8</v>
+        <v>100.2</v>
       </c>
       <c r="E41" t="n">
-        <v>96.8</v>
+        <v>100.2</v>
       </c>
       <c r="F41" t="n">
-        <v>374.8069</v>
+        <v>5262.9768</v>
       </c>
       <c r="G41" t="n">
-        <v>-603106.2467210843</v>
+        <v>94908.58455434063</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1878,28 +1878,28 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>96.84999999999999</v>
+        <v>99.97</v>
       </c>
       <c r="C42" t="n">
-        <v>96.84999999999999</v>
+        <v>99.97</v>
       </c>
       <c r="D42" t="n">
-        <v>96.84999999999999</v>
+        <v>99.97</v>
       </c>
       <c r="E42" t="n">
-        <v>96.84999999999999</v>
+        <v>99.97</v>
       </c>
       <c r="F42" t="n">
-        <v>392.4325</v>
+        <v>3762.6514</v>
       </c>
       <c r="G42" t="n">
-        <v>-602713.8142210844</v>
+        <v>91145.93315434063</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -1914,28 +1914,28 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>96.84999999999999</v>
+        <v>99.97</v>
       </c>
       <c r="C43" t="n">
-        <v>96.90000000000001</v>
+        <v>99.97</v>
       </c>
       <c r="D43" t="n">
-        <v>96.90000000000001</v>
+        <v>99.97</v>
       </c>
       <c r="E43" t="n">
-        <v>96.84999999999999</v>
+        <v>99.97</v>
       </c>
       <c r="F43" t="n">
-        <v>81921.9675</v>
+        <v>5000</v>
       </c>
       <c r="G43" t="n">
-        <v>-520791.8467210843</v>
+        <v>91145.93315434063</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -1950,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>96.90000000000001</v>
+        <v>99.97</v>
       </c>
       <c r="C44" t="n">
-        <v>96.90000000000001</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>96.90000000000001</v>
+        <v>99.97</v>
       </c>
       <c r="E44" t="n">
-        <v>96.90000000000001</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F44" t="n">
-        <v>1969.7897</v>
+        <v>34336.0212</v>
       </c>
       <c r="G44" t="n">
-        <v>-520791.8467210843</v>
+        <v>56809.91195434063</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1986,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>97.17</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>97.17</v>
+        <v>100.4</v>
       </c>
       <c r="D45" t="n">
-        <v>97.17</v>
+        <v>100.4</v>
       </c>
       <c r="E45" t="n">
-        <v>97.17</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F45" t="n">
-        <v>6</v>
+        <v>16362.9726</v>
       </c>
       <c r="G45" t="n">
-        <v>-520785.8467210843</v>
+        <v>73172.88455434062</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2022,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>97.17</v>
+        <v>100.5</v>
       </c>
       <c r="C46" t="n">
-        <v>97.2</v>
+        <v>100.5</v>
       </c>
       <c r="D46" t="n">
-        <v>97.2</v>
+        <v>100.5</v>
       </c>
       <c r="E46" t="n">
-        <v>97.17</v>
+        <v>100.5</v>
       </c>
       <c r="F46" t="n">
-        <v>1225.554</v>
+        <v>9</v>
       </c>
       <c r="G46" t="n">
-        <v>-519560.2927210843</v>
+        <v>73181.88455434062</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2058,28 +2058,28 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>97.2</v>
+        <v>99.91</v>
       </c>
       <c r="C47" t="n">
-        <v>97.2</v>
+        <v>99.91</v>
       </c>
       <c r="D47" t="n">
-        <v>97.2</v>
+        <v>99.91</v>
       </c>
       <c r="E47" t="n">
-        <v>97.2</v>
+        <v>99.91</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0001</v>
+        <v>2030.8006</v>
       </c>
       <c r="G47" t="n">
-        <v>-519560.2927210843</v>
+        <v>71151.08395434062</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -2094,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>97.2</v>
+        <v>100</v>
       </c>
       <c r="C48" t="n">
-        <v>97.2</v>
+        <v>100</v>
       </c>
       <c r="D48" t="n">
-        <v>97.2</v>
+        <v>100</v>
       </c>
       <c r="E48" t="n">
-        <v>97.2</v>
+        <v>100</v>
       </c>
       <c r="F48" t="n">
-        <v>9.9999</v>
+        <v>985.5629</v>
       </c>
       <c r="G48" t="n">
-        <v>-519560.2927210843</v>
+        <v>72136.64685434062</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2130,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>97.2</v>
+        <v>99.89</v>
       </c>
       <c r="C49" t="n">
-        <v>97.2</v>
+        <v>99.89</v>
       </c>
       <c r="D49" t="n">
-        <v>97.2</v>
+        <v>99.91</v>
       </c>
       <c r="E49" t="n">
-        <v>97.2</v>
+        <v>99.89</v>
       </c>
       <c r="F49" t="n">
-        <v>2064.0277</v>
+        <v>7533.7649</v>
       </c>
       <c r="G49" t="n">
-        <v>-519560.2927210843</v>
+        <v>64602.88195434062</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2166,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>97.19</v>
+        <v>99.84</v>
       </c>
       <c r="C50" t="n">
-        <v>97.2</v>
+        <v>99.84</v>
       </c>
       <c r="D50" t="n">
-        <v>97.2</v>
+        <v>99.84</v>
       </c>
       <c r="E50" t="n">
-        <v>97.19</v>
+        <v>99.84</v>
       </c>
       <c r="F50" t="n">
-        <v>917.0569</v>
+        <v>102.645</v>
       </c>
       <c r="G50" t="n">
-        <v>-519560.2927210843</v>
+        <v>64500.23695434062</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2202,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>97.2</v>
+        <v>99.84</v>
       </c>
       <c r="C51" t="n">
-        <v>97.2</v>
+        <v>100.5</v>
       </c>
       <c r="D51" t="n">
-        <v>97.2</v>
+        <v>100.5</v>
       </c>
       <c r="E51" t="n">
-        <v>97.2</v>
+        <v>99.84</v>
       </c>
       <c r="F51" t="n">
-        <v>552.2329</v>
+        <v>7292.7511</v>
       </c>
       <c r="G51" t="n">
-        <v>-519560.2927210843</v>
+        <v>71792.98805434062</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2238,22 +2238,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>97.2</v>
+        <v>99.81</v>
       </c>
       <c r="C52" t="n">
-        <v>97.2</v>
+        <v>99.73</v>
       </c>
       <c r="D52" t="n">
-        <v>97.2</v>
+        <v>99.81</v>
       </c>
       <c r="E52" t="n">
-        <v>97.2</v>
+        <v>99.73</v>
       </c>
       <c r="F52" t="n">
-        <v>20</v>
+        <v>5928.8694</v>
       </c>
       <c r="G52" t="n">
-        <v>-519560.2927210843</v>
+        <v>65864.11865434062</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2274,22 +2274,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>97.2</v>
+        <v>99.73</v>
       </c>
       <c r="C53" t="n">
-        <v>97.2</v>
+        <v>99.73</v>
       </c>
       <c r="D53" t="n">
-        <v>97.2</v>
+        <v>99.73</v>
       </c>
       <c r="E53" t="n">
-        <v>97.2</v>
+        <v>99.73</v>
       </c>
       <c r="F53" t="n">
-        <v>222.9595</v>
+        <v>9418.545400000001</v>
       </c>
       <c r="G53" t="n">
-        <v>-519560.2927210843</v>
+        <v>65864.11865434062</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2310,22 +2310,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>97.76000000000001</v>
+        <v>99.70999999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>97.79000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="D54" t="n">
-        <v>97.79000000000001</v>
+        <v>99.70999999999999</v>
       </c>
       <c r="E54" t="n">
-        <v>97.76000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="F54" t="n">
-        <v>10980</v>
+        <v>1600</v>
       </c>
       <c r="G54" t="n">
-        <v>-508580.2927210843</v>
+        <v>64264.11865434062</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2346,22 +2346,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>97.40000000000001</v>
+        <v>99.81999999999999</v>
       </c>
       <c r="C55" t="n">
-        <v>97.40000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="D55" t="n">
-        <v>97.40000000000001</v>
+        <v>100.4</v>
       </c>
       <c r="E55" t="n">
-        <v>97.40000000000001</v>
+        <v>99.5</v>
       </c>
       <c r="F55" t="n">
-        <v>96</v>
+        <v>75319.74490000001</v>
       </c>
       <c r="G55" t="n">
-        <v>-508676.2927210843</v>
+        <v>64264.11865434062</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2382,22 +2382,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>97.7</v>
+        <v>99.63</v>
       </c>
       <c r="C56" t="n">
-        <v>98.09</v>
+        <v>99.42</v>
       </c>
       <c r="D56" t="n">
-        <v>98.09</v>
+        <v>99.63</v>
       </c>
       <c r="E56" t="n">
-        <v>97.59999999999999</v>
+        <v>99.41</v>
       </c>
       <c r="F56" t="n">
-        <v>2078.5833</v>
+        <v>104653.828</v>
       </c>
       <c r="G56" t="n">
-        <v>-506597.7094210843</v>
+        <v>-40389.70934565937</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2418,22 +2418,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>97.5</v>
+        <v>99.41</v>
       </c>
       <c r="C57" t="n">
-        <v>97.5</v>
+        <v>99.23</v>
       </c>
       <c r="D57" t="n">
-        <v>97.5</v>
+        <v>99.41</v>
       </c>
       <c r="E57" t="n">
-        <v>97.5</v>
+        <v>99.23</v>
       </c>
       <c r="F57" t="n">
-        <v>330</v>
+        <v>94135.55130000001</v>
       </c>
       <c r="G57" t="n">
-        <v>-506927.7094210843</v>
+        <v>-134525.2606456594</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2454,22 +2454,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>97.5</v>
+        <v>99.18000000000001</v>
       </c>
       <c r="C58" t="n">
-        <v>97.5</v>
+        <v>98.94</v>
       </c>
       <c r="D58" t="n">
-        <v>97.5</v>
+        <v>99.18000000000001</v>
       </c>
       <c r="E58" t="n">
-        <v>97.5</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="F58" t="n">
-        <v>157.1994</v>
+        <v>71704.26029999999</v>
       </c>
       <c r="G58" t="n">
-        <v>-506927.7094210843</v>
+        <v>-206229.5209456594</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2490,22 +2490,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>97.98</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>97.98</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="D59" t="n">
-        <v>97.98</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="E59" t="n">
-        <v>97.98</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="F59" t="n">
-        <v>330</v>
+        <v>27439.1693</v>
       </c>
       <c r="G59" t="n">
-        <v>-506597.7094210843</v>
+        <v>-233668.6902456594</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>97.3</v>
+        <v>99.48999999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>97.3</v>
+        <v>99.48999999999999</v>
       </c>
       <c r="D60" t="n">
-        <v>97.3</v>
+        <v>99.48999999999999</v>
       </c>
       <c r="E60" t="n">
-        <v>97.3</v>
+        <v>99.48999999999999</v>
       </c>
       <c r="F60" t="n">
-        <v>270.2434</v>
+        <v>18.0923</v>
       </c>
       <c r="G60" t="n">
-        <v>-506867.9528210843</v>
+        <v>-233650.5979456594</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2562,22 +2562,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>97.3</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C61" t="n">
-        <v>97.3</v>
+        <v>98.81999999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>97.3</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="E61" t="n">
-        <v>97.3</v>
+        <v>98.81999999999999</v>
       </c>
       <c r="F61" t="n">
-        <v>268.811</v>
+        <v>1124.3442</v>
       </c>
       <c r="G61" t="n">
-        <v>-506867.9528210843</v>
+        <v>-234774.9421456594</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2598,22 +2598,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>97.2</v>
+        <v>98.2</v>
       </c>
       <c r="C62" t="n">
-        <v>97.2</v>
+        <v>98.2</v>
       </c>
       <c r="D62" t="n">
-        <v>97.2</v>
+        <v>98.2</v>
       </c>
       <c r="E62" t="n">
-        <v>97.2</v>
+        <v>98.2</v>
       </c>
       <c r="F62" t="n">
-        <v>30</v>
+        <v>1150.3408</v>
       </c>
       <c r="G62" t="n">
-        <v>-506897.9528210843</v>
+        <v>-235925.2829456594</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2634,22 +2634,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>97.3</v>
+        <v>98.12</v>
       </c>
       <c r="C63" t="n">
-        <v>97.3</v>
+        <v>97.83</v>
       </c>
       <c r="D63" t="n">
-        <v>97.3</v>
+        <v>98.7</v>
       </c>
       <c r="E63" t="n">
-        <v>97.3</v>
+        <v>97.83</v>
       </c>
       <c r="F63" t="n">
-        <v>114.5984</v>
+        <v>77563.75290000001</v>
       </c>
       <c r="G63" t="n">
-        <v>-506783.3544210843</v>
+        <v>-313489.0358456594</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2670,22 +2670,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>97.3</v>
+        <v>98.01000000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>97.3</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="D64" t="n">
-        <v>97.3</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="E64" t="n">
-        <v>97.3</v>
+        <v>98.01000000000001</v>
       </c>
       <c r="F64" t="n">
-        <v>103.1385</v>
+        <v>10762.7688</v>
       </c>
       <c r="G64" t="n">
-        <v>-506783.3544210843</v>
+        <v>-302726.2670456594</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2706,22 +2706,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>97.3</v>
+        <v>97.83</v>
       </c>
       <c r="C65" t="n">
-        <v>97.3</v>
+        <v>97.83</v>
       </c>
       <c r="D65" t="n">
-        <v>97.3</v>
+        <v>97.83</v>
       </c>
       <c r="E65" t="n">
-        <v>97.3</v>
+        <v>97.83</v>
       </c>
       <c r="F65" t="n">
-        <v>92.82470000000001</v>
+        <v>352.6114</v>
       </c>
       <c r="G65" t="n">
-        <v>-506783.3544210843</v>
+        <v>-303078.8784456594</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2742,22 +2742,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>97.3</v>
+        <v>98.47</v>
       </c>
       <c r="C66" t="n">
-        <v>97.3</v>
+        <v>98.47</v>
       </c>
       <c r="D66" t="n">
-        <v>97.3</v>
+        <v>98.47</v>
       </c>
       <c r="E66" t="n">
-        <v>97.3</v>
+        <v>98.47</v>
       </c>
       <c r="F66" t="n">
-        <v>83.54219999999999</v>
+        <v>81.1572</v>
       </c>
       <c r="G66" t="n">
-        <v>-506783.3544210843</v>
+        <v>-302997.7212456593</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>97.20999999999999</v>
+        <v>97.83</v>
       </c>
       <c r="C67" t="n">
-        <v>97.20999999999999</v>
+        <v>98.56999999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>97.20999999999999</v>
+        <v>98.56999999999999</v>
       </c>
       <c r="E67" t="n">
-        <v>97.20999999999999</v>
+        <v>97.83</v>
       </c>
       <c r="F67" t="n">
-        <v>2280.0188</v>
+        <v>15540.5205</v>
       </c>
       <c r="G67" t="n">
-        <v>-509063.3732210843</v>
+        <v>-287457.2007456594</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2814,22 +2814,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>97.20999999999999</v>
+        <v>97.83</v>
       </c>
       <c r="C68" t="n">
-        <v>97.09999999999999</v>
+        <v>97.83</v>
       </c>
       <c r="D68" t="n">
-        <v>97.20999999999999</v>
+        <v>97.83</v>
       </c>
       <c r="E68" t="n">
-        <v>97.09999999999999</v>
+        <v>97.83</v>
       </c>
       <c r="F68" t="n">
-        <v>1589.3652</v>
+        <v>4709.7017</v>
       </c>
       <c r="G68" t="n">
-        <v>-510652.7384210843</v>
+        <v>-292166.9024456593</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2850,22 +2850,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>97.01000000000001</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>96.91</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="D69" t="n">
-        <v>97.01000000000001</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="E69" t="n">
-        <v>96.91</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="F69" t="n">
-        <v>1017.7427</v>
+        <v>8315.560600000001</v>
       </c>
       <c r="G69" t="n">
-        <v>-511670.4811210843</v>
+        <v>-283851.3418456593</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2886,22 +2886,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>96.91</v>
+        <v>98.23</v>
       </c>
       <c r="C70" t="n">
-        <v>96.91</v>
+        <v>98.23</v>
       </c>
       <c r="D70" t="n">
-        <v>96.91</v>
+        <v>98.23</v>
       </c>
       <c r="E70" t="n">
-        <v>96.91</v>
+        <v>98.23</v>
       </c>
       <c r="F70" t="n">
-        <v>9829.936100000001</v>
+        <v>3469.0406</v>
       </c>
       <c r="G70" t="n">
-        <v>-511670.4811210843</v>
+        <v>-280382.3012456593</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>97.09999999999999</v>
+        <v>98.23</v>
       </c>
       <c r="C71" t="n">
-        <v>97.09999999999999</v>
+        <v>98.48999999999999</v>
       </c>
       <c r="D71" t="n">
-        <v>97.09999999999999</v>
+        <v>98.48999999999999</v>
       </c>
       <c r="E71" t="n">
-        <v>97.09999999999999</v>
+        <v>98.23</v>
       </c>
       <c r="F71" t="n">
-        <v>4000</v>
+        <v>28462.7042</v>
       </c>
       <c r="G71" t="n">
-        <v>-507670.4811210843</v>
+        <v>-251919.5970456593</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2958,22 +2958,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>97.09999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="C72" t="n">
-        <v>97.09999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="D72" t="n">
-        <v>97.09999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="E72" t="n">
-        <v>97</v>
+        <v>98.5</v>
       </c>
       <c r="F72" t="n">
-        <v>17827.2179</v>
+        <v>365.5379</v>
       </c>
       <c r="G72" t="n">
-        <v>-507670.4811210843</v>
+        <v>-251554.0591456593</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2994,22 +2994,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>97.09999999999999</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="C73" t="n">
-        <v>97.09999999999999</v>
+        <v>98</v>
       </c>
       <c r="D73" t="n">
-        <v>97.09999999999999</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="E73" t="n">
-        <v>97.09999999999999</v>
+        <v>98</v>
       </c>
       <c r="F73" t="n">
-        <v>4892.6428</v>
+        <v>1389.8713</v>
       </c>
       <c r="G73" t="n">
-        <v>-507670.4811210843</v>
+        <v>-252943.9304456593</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3030,22 +3030,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>97.09999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="C74" t="n">
-        <v>97.34999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="D74" t="n">
-        <v>97.34999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="E74" t="n">
-        <v>97.09999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="F74" t="n">
-        <v>6444.8601</v>
+        <v>365.5379</v>
       </c>
       <c r="G74" t="n">
-        <v>-501225.6210210843</v>
+        <v>-252578.3925456593</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3066,22 +3066,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>97.34999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="C75" t="n">
-        <v>97.34999999999999</v>
+        <v>97.20999999999999</v>
       </c>
       <c r="D75" t="n">
-        <v>97.34999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="E75" t="n">
-        <v>97.34999999999999</v>
+        <v>97.20999999999999</v>
       </c>
       <c r="F75" t="n">
-        <v>135.188</v>
+        <v>104086.8098</v>
       </c>
       <c r="G75" t="n">
-        <v>-501225.6210210843</v>
+        <v>-356665.2023456593</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3102,22 +3102,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>97.34999999999999</v>
+        <v>98.01000000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>97.09999999999999</v>
+        <v>98.28</v>
       </c>
       <c r="D76" t="n">
-        <v>97.34999999999999</v>
+        <v>98.38</v>
       </c>
       <c r="E76" t="n">
-        <v>97.09999999999999</v>
+        <v>97.02</v>
       </c>
       <c r="F76" t="n">
-        <v>1117.8713</v>
+        <v>44701.91818574913</v>
       </c>
       <c r="G76" t="n">
-        <v>-502343.4923210843</v>
+        <v>-311963.2841599102</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3138,22 +3138,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>97.09999999999999</v>
+        <v>97.81</v>
       </c>
       <c r="C77" t="n">
-        <v>97.09999999999999</v>
+        <v>97.81</v>
       </c>
       <c r="D77" t="n">
-        <v>97.09999999999999</v>
+        <v>97.81</v>
       </c>
       <c r="E77" t="n">
-        <v>97.09999999999999</v>
+        <v>97.81</v>
       </c>
       <c r="F77" t="n">
-        <v>232.3836</v>
+        <v>3696.5584</v>
       </c>
       <c r="G77" t="n">
-        <v>-502343.4923210843</v>
+        <v>-315659.8425599101</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3174,22 +3174,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>97.09999999999999</v>
+        <v>97.70999999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>97.09999999999999</v>
+        <v>97.70999999999999</v>
       </c>
       <c r="D78" t="n">
-        <v>97.09999999999999</v>
+        <v>97.70999999999999</v>
       </c>
       <c r="E78" t="n">
-        <v>97.09999999999999</v>
+        <v>97.70999999999999</v>
       </c>
       <c r="F78" t="n">
-        <v>0.3308</v>
+        <v>44317.5604</v>
       </c>
       <c r="G78" t="n">
-        <v>-502343.4923210843</v>
+        <v>-359977.4029599102</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3210,22 +3210,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>97.41</v>
+        <v>97.62</v>
       </c>
       <c r="C79" t="n">
-        <v>97.41</v>
+        <v>97.62</v>
       </c>
       <c r="D79" t="n">
-        <v>97.41</v>
+        <v>97.62</v>
       </c>
       <c r="E79" t="n">
-        <v>97.41</v>
+        <v>97.62</v>
       </c>
       <c r="F79" t="n">
-        <v>3000</v>
+        <v>7897.5329</v>
       </c>
       <c r="G79" t="n">
-        <v>-499343.4923210843</v>
+        <v>-367874.9358599102</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3246,22 +3246,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>97.90000000000001</v>
+        <v>97.63</v>
       </c>
       <c r="C80" t="n">
-        <v>97.90000000000001</v>
+        <v>97.61</v>
       </c>
       <c r="D80" t="n">
-        <v>97.90000000000001</v>
+        <v>97.63</v>
       </c>
       <c r="E80" t="n">
-        <v>97.90000000000001</v>
+        <v>97.61</v>
       </c>
       <c r="F80" t="n">
-        <v>536.0131</v>
+        <v>8184.8952</v>
       </c>
       <c r="G80" t="n">
-        <v>-498807.4792210843</v>
+        <v>-376059.8310599102</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3282,22 +3282,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>97.48</v>
+        <v>97.62</v>
       </c>
       <c r="C81" t="n">
-        <v>97.90000000000001</v>
+        <v>97.61</v>
       </c>
       <c r="D81" t="n">
-        <v>97.90000000000001</v>
+        <v>97.62</v>
       </c>
       <c r="E81" t="n">
-        <v>96.94</v>
+        <v>97.61</v>
       </c>
       <c r="F81" t="n">
-        <v>13588.1729</v>
+        <v>11311.2798</v>
       </c>
       <c r="G81" t="n">
-        <v>-498807.4792210843</v>
+        <v>-376059.8310599102</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3318,22 +3318,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>97.48</v>
+        <v>97.39</v>
       </c>
       <c r="C82" t="n">
-        <v>98.39</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D82" t="n">
-        <v>98.39</v>
+        <v>97.39</v>
       </c>
       <c r="E82" t="n">
-        <v>97.48</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="F82" t="n">
-        <v>999</v>
+        <v>24140.6743</v>
       </c>
       <c r="G82" t="n">
-        <v>-497808.4792210843</v>
+        <v>-400200.5053599102</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3354,22 +3354,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>98.39</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="C83" t="n">
-        <v>98.39</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D83" t="n">
-        <v>98.39</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E83" t="n">
-        <v>98.39</v>
+        <v>96.91</v>
       </c>
       <c r="F83" t="n">
-        <v>3000</v>
+        <v>98859.44469999999</v>
       </c>
       <c r="G83" t="n">
-        <v>-497808.4792210843</v>
+        <v>-400200.5053599102</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3390,22 +3390,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>97.42</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="C84" t="n">
-        <v>97.42</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D84" t="n">
-        <v>97.42</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E84" t="n">
-        <v>97.42</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="F84" t="n">
-        <v>12000</v>
+        <v>3621.0827</v>
       </c>
       <c r="G84" t="n">
-        <v>-509808.4792210843</v>
+        <v>-400200.5053599102</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3426,22 +3426,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>97.42</v>
+        <v>97.09</v>
       </c>
       <c r="C85" t="n">
-        <v>97.42</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D85" t="n">
-        <v>97.42</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E85" t="n">
-        <v>97.42</v>
+        <v>97.09</v>
       </c>
       <c r="F85" t="n">
-        <v>221.9891</v>
+        <v>52239.878</v>
       </c>
       <c r="G85" t="n">
-        <v>-509808.4792210843</v>
+        <v>-400200.5053599102</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3462,22 +3462,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>97.5</v>
+        <v>97</v>
       </c>
       <c r="C86" t="n">
-        <v>97.40000000000001</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="D86" t="n">
-        <v>97.5</v>
+        <v>97</v>
       </c>
       <c r="E86" t="n">
-        <v>97.40000000000001</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="F86" t="n">
-        <v>12990.9794</v>
+        <v>140876.4748</v>
       </c>
       <c r="G86" t="n">
-        <v>-522799.4586210843</v>
+        <v>-541076.9801599102</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3498,22 +3498,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>97.3</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="C87" t="n">
-        <v>97.3</v>
+        <v>96.03</v>
       </c>
       <c r="D87" t="n">
-        <v>97.3</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="E87" t="n">
-        <v>97.3</v>
+        <v>96.03</v>
       </c>
       <c r="F87" t="n">
-        <v>1000</v>
+        <v>27730</v>
       </c>
       <c r="G87" t="n">
-        <v>-523799.4586210843</v>
+        <v>-568806.9801599102</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3534,22 +3534,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>97.3</v>
+        <v>96.03</v>
       </c>
       <c r="C88" t="n">
-        <v>97.3</v>
+        <v>96.98</v>
       </c>
       <c r="D88" t="n">
-        <v>97.3</v>
+        <v>96.98</v>
       </c>
       <c r="E88" t="n">
-        <v>97.3</v>
+        <v>96.03</v>
       </c>
       <c r="F88" t="n">
-        <v>27</v>
+        <v>121711.4748</v>
       </c>
       <c r="G88" t="n">
-        <v>-523799.4586210843</v>
+        <v>-447095.5053599102</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3570,22 +3570,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>97.98999999999999</v>
+        <v>96.89</v>
       </c>
       <c r="C89" t="n">
-        <v>97.98999999999999</v>
+        <v>96.89</v>
       </c>
       <c r="D89" t="n">
-        <v>97.98999999999999</v>
+        <v>96.89</v>
       </c>
       <c r="E89" t="n">
-        <v>97.98999999999999</v>
+        <v>96.89</v>
       </c>
       <c r="F89" t="n">
-        <v>66.1283</v>
+        <v>100108.6933</v>
       </c>
       <c r="G89" t="n">
-        <v>-523733.3303210844</v>
+        <v>-547204.1986599102</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3606,22 +3606,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>97.5</v>
+        <v>96.87</v>
       </c>
       <c r="C90" t="n">
-        <v>97.5</v>
+        <v>96.88</v>
       </c>
       <c r="D90" t="n">
-        <v>97.5</v>
+        <v>96.88</v>
       </c>
       <c r="E90" t="n">
-        <v>97.5</v>
+        <v>96.87</v>
       </c>
       <c r="F90" t="n">
-        <v>84.69670000000001</v>
+        <v>5225.4704</v>
       </c>
       <c r="G90" t="n">
-        <v>-523818.0270210843</v>
+        <v>-552429.6690599102</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3642,22 +3642,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>97.5</v>
+        <v>96.95999999999999</v>
       </c>
       <c r="C91" t="n">
-        <v>97.5</v>
+        <v>97.05</v>
       </c>
       <c r="D91" t="n">
-        <v>97.5</v>
+        <v>97.05</v>
       </c>
       <c r="E91" t="n">
-        <v>97.5</v>
+        <v>96.95999999999999</v>
       </c>
       <c r="F91" t="n">
-        <v>221.989</v>
+        <v>20000</v>
       </c>
       <c r="G91" t="n">
-        <v>-523818.0270210843</v>
+        <v>-532429.6690599102</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3678,22 +3678,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>97.41</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="C92" t="n">
-        <v>97.40000000000001</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="D92" t="n">
-        <v>97.41</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="E92" t="n">
-        <v>97.40000000000001</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="F92" t="n">
-        <v>13000</v>
+        <v>1268.8554</v>
       </c>
       <c r="G92" t="n">
-        <v>-536818.0270210843</v>
+        <v>-533698.5244599102</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>97.98999999999999</v>
+        <v>96.94</v>
       </c>
       <c r="C93" t="n">
-        <v>97.98999999999999</v>
+        <v>96.94</v>
       </c>
       <c r="D93" t="n">
-        <v>97.98999999999999</v>
+        <v>96.94</v>
       </c>
       <c r="E93" t="n">
-        <v>97.98999999999999</v>
+        <v>96.94</v>
       </c>
       <c r="F93" t="n">
-        <v>6</v>
+        <v>3805.0265</v>
       </c>
       <c r="G93" t="n">
-        <v>-536812.0270210843</v>
+        <v>-529893.4979599102</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3750,22 +3750,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>97.09999999999999</v>
+        <v>96.76000000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>97</v>
+        <v>96.76000000000001</v>
       </c>
       <c r="D94" t="n">
-        <v>97.09999999999999</v>
+        <v>96.76000000000001</v>
       </c>
       <c r="E94" t="n">
-        <v>97</v>
+        <v>96.76000000000001</v>
       </c>
       <c r="F94" t="n">
-        <v>4000</v>
+        <v>2406.7191</v>
       </c>
       <c r="G94" t="n">
-        <v>-540812.0270210843</v>
+        <v>-532300.2170599102</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3786,22 +3786,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>97</v>
+        <v>96.2</v>
       </c>
       <c r="C95" t="n">
-        <v>96.59999999999999</v>
+        <v>96.7</v>
       </c>
       <c r="D95" t="n">
-        <v>97</v>
+        <v>96.7</v>
       </c>
       <c r="E95" t="n">
-        <v>96.59999999999999</v>
+        <v>96.2</v>
       </c>
       <c r="F95" t="n">
-        <v>1000</v>
+        <v>2702.8203</v>
       </c>
       <c r="G95" t="n">
-        <v>-541812.0270210843</v>
+        <v>-535003.0373599102</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3822,22 +3822,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>96.59999999999999</v>
+        <v>96.3</v>
       </c>
       <c r="C96" t="n">
-        <v>96.59999999999999</v>
+        <v>96.88</v>
       </c>
       <c r="D96" t="n">
-        <v>96.59999999999999</v>
+        <v>96.89</v>
       </c>
       <c r="E96" t="n">
-        <v>96.59999999999999</v>
+        <v>96.3</v>
       </c>
       <c r="F96" t="n">
-        <v>498.3848</v>
+        <v>6962.5129</v>
       </c>
       <c r="G96" t="n">
-        <v>-541812.0270210843</v>
+        <v>-528040.5244599102</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3858,22 +3858,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>96.79000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="C97" t="n">
-        <v>96.79000000000001</v>
+        <v>96.88</v>
       </c>
       <c r="D97" t="n">
-        <v>96.79000000000001</v>
+        <v>96.88</v>
       </c>
       <c r="E97" t="n">
-        <v>96.79000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="F97" t="n">
-        <v>40</v>
+        <v>4358.1012</v>
       </c>
       <c r="G97" t="n">
-        <v>-541772.0270210843</v>
+        <v>-528040.5244599102</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3894,22 +3894,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>96.79000000000001</v>
+        <v>96.3</v>
       </c>
       <c r="C98" t="n">
-        <v>96.79000000000001</v>
+        <v>96.3</v>
       </c>
       <c r="D98" t="n">
-        <v>96.79000000000001</v>
+        <v>96.3</v>
       </c>
       <c r="E98" t="n">
-        <v>96.79000000000001</v>
+        <v>96.3</v>
       </c>
       <c r="F98" t="n">
-        <v>3093.6499</v>
+        <v>6257.6282</v>
       </c>
       <c r="G98" t="n">
-        <v>-541772.0270210843</v>
+        <v>-534298.1526599103</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3930,22 +3930,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>96.78</v>
+        <v>96.3</v>
       </c>
       <c r="C99" t="n">
-        <v>96.78</v>
+        <v>96.3</v>
       </c>
       <c r="D99" t="n">
-        <v>96.78</v>
+        <v>96.3</v>
       </c>
       <c r="E99" t="n">
-        <v>96.78</v>
+        <v>96.3</v>
       </c>
       <c r="F99" t="n">
-        <v>2113.019251994214</v>
+        <v>0.0001</v>
       </c>
       <c r="G99" t="n">
-        <v>-543885.0462730785</v>
+        <v>-534298.1526599103</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3966,22 +3966,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>96.77</v>
+        <v>96.8</v>
       </c>
       <c r="C100" t="n">
-        <v>96.77</v>
+        <v>97.23999999999999</v>
       </c>
       <c r="D100" t="n">
-        <v>96.77</v>
+        <v>97.23999999999999</v>
       </c>
       <c r="E100" t="n">
-        <v>96.77</v>
+        <v>96.8</v>
       </c>
       <c r="F100" t="n">
-        <v>2683.1049</v>
+        <v>36561.8836</v>
       </c>
       <c r="G100" t="n">
-        <v>-546568.1511730786</v>
+        <v>-497736.2690599103</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4002,22 +4002,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>96.79000000000001</v>
+        <v>97.45999999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>96.79000000000001</v>
+        <v>97.45999999999999</v>
       </c>
       <c r="D101" t="n">
-        <v>96.79000000000001</v>
+        <v>97.45999999999999</v>
       </c>
       <c r="E101" t="n">
-        <v>96.79000000000001</v>
+        <v>97.45999999999999</v>
       </c>
       <c r="F101" t="n">
-        <v>360.8359</v>
+        <v>15.4936</v>
       </c>
       <c r="G101" t="n">
-        <v>-546207.3152730786</v>
+        <v>-497720.7754599103</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4038,22 +4038,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>96.59999999999999</v>
+        <v>97.12</v>
       </c>
       <c r="C102" t="n">
-        <v>96.59999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="D102" t="n">
-        <v>96.59999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="E102" t="n">
-        <v>96.59999999999999</v>
+        <v>97.12</v>
       </c>
       <c r="F102" t="n">
-        <v>1084.8681</v>
+        <v>82327.8983</v>
       </c>
       <c r="G102" t="n">
-        <v>-547292.1833730786</v>
+        <v>-580048.6737599103</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4074,22 +4074,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>96.59999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="C103" t="n">
-        <v>96.59999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="D103" t="n">
-        <v>96.59999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="E103" t="n">
-        <v>96.59999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="F103" t="n">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="G103" t="n">
-        <v>-547292.1833730786</v>
+        <v>-580048.6737599103</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4110,38 +4110,32 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>96.59999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="C104" t="n">
-        <v>96.59</v>
+        <v>97.2</v>
       </c>
       <c r="D104" t="n">
-        <v>96.59999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="E104" t="n">
-        <v>96.5</v>
+        <v>97.2</v>
       </c>
       <c r="F104" t="n">
-        <v>3717.4854</v>
+        <v>13000</v>
       </c>
       <c r="G104" t="n">
-        <v>-551009.6687730786</v>
+        <v>-580048.6737599103</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>96.59999999999999</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4152,38 +4146,32 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>96.3</v>
+        <v>97.2</v>
       </c>
       <c r="C105" t="n">
-        <v>96.3</v>
+        <v>97.2</v>
       </c>
       <c r="D105" t="n">
-        <v>96.3</v>
+        <v>97.2</v>
       </c>
       <c r="E105" t="n">
-        <v>96.3</v>
+        <v>97.2</v>
       </c>
       <c r="F105" t="n">
-        <v>3221.6486</v>
+        <v>608.3825000000001</v>
       </c>
       <c r="G105" t="n">
-        <v>-554231.3173730785</v>
+        <v>-580048.6737599103</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>96.59</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4194,38 +4182,32 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>96.3</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="C106" t="n">
-        <v>96.59999999999999</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D106" t="n">
-        <v>96.59999999999999</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E106" t="n">
-        <v>94.97</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="F106" t="n">
-        <v>397844.6606</v>
+        <v>10.29866117404737</v>
       </c>
       <c r="G106" t="n">
-        <v>-156386.6567730785</v>
+        <v>-580058.9724210843</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>96.3</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4236,38 +4218,32 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>96.40000000000001</v>
+        <v>96.5</v>
       </c>
       <c r="C107" t="n">
-        <v>96.48</v>
+        <v>96.5</v>
       </c>
       <c r="D107" t="n">
         <v>96.5</v>
       </c>
       <c r="E107" t="n">
-        <v>96.39</v>
+        <v>96.5</v>
       </c>
       <c r="F107" t="n">
-        <v>58590</v>
+        <v>10.6518</v>
       </c>
       <c r="G107" t="n">
-        <v>-214976.6567730785</v>
+        <v>-580069.6242210843</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>96.59999999999999</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4278,22 +4254,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>96.69</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="C108" t="n">
-        <v>96.20999999999999</v>
+        <v>96.5</v>
       </c>
       <c r="D108" t="n">
-        <v>96.69</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="E108" t="n">
-        <v>96.20999999999999</v>
+        <v>96.5</v>
       </c>
       <c r="F108" t="n">
-        <v>10865</v>
+        <v>2775.3755</v>
       </c>
       <c r="G108" t="n">
-        <v>-225841.6567730785</v>
+        <v>-580069.6242210843</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4303,11 +4279,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4318,38 +4290,32 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>96.67</v>
+        <v>96.7</v>
       </c>
       <c r="C109" t="n">
-        <v>96.68000000000001</v>
+        <v>96.3</v>
       </c>
       <c r="D109" t="n">
-        <v>96.69</v>
+        <v>96.7</v>
       </c>
       <c r="E109" t="n">
-        <v>96.67</v>
+        <v>96.3</v>
       </c>
       <c r="F109" t="n">
-        <v>5150</v>
+        <v>34573.8412</v>
       </c>
       <c r="G109" t="n">
-        <v>-220691.6567730785</v>
+        <v>-614643.4654210843</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>96.20999999999999</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4360,38 +4326,32 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>96.98999999999999</v>
+        <v>96.3</v>
       </c>
       <c r="C110" t="n">
-        <v>96.98999999999999</v>
+        <v>96.20999999999999</v>
       </c>
       <c r="D110" t="n">
-        <v>96.98999999999999</v>
+        <v>96.3</v>
       </c>
       <c r="E110" t="n">
-        <v>96.98999999999999</v>
+        <v>96.20999999999999</v>
       </c>
       <c r="F110" t="n">
-        <v>2000</v>
+        <v>3428.0117</v>
       </c>
       <c r="G110" t="n">
-        <v>-218691.6567730785</v>
+        <v>-618071.4771210843</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>96.68000000000001</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4402,38 +4362,32 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>96.98</v>
+        <v>96.3</v>
       </c>
       <c r="C111" t="n">
-        <v>96.98</v>
+        <v>96.3</v>
       </c>
       <c r="D111" t="n">
-        <v>96.98</v>
+        <v>96.3</v>
       </c>
       <c r="E111" t="n">
-        <v>96.98</v>
+        <v>96.3</v>
       </c>
       <c r="F111" t="n">
-        <v>12179.3083</v>
+        <v>14590.4235</v>
       </c>
       <c r="G111" t="n">
-        <v>-230870.9650730786</v>
+        <v>-603481.0536210843</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>96.98999999999999</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4444,22 +4398,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>96.31</v>
+        <v>96.8</v>
       </c>
       <c r="C112" t="n">
-        <v>96.31</v>
+        <v>96.8</v>
       </c>
       <c r="D112" t="n">
-        <v>96.31</v>
+        <v>96.8</v>
       </c>
       <c r="E112" t="n">
-        <v>96.31</v>
+        <v>96.8</v>
       </c>
       <c r="F112" t="n">
-        <v>1982.9453</v>
+        <v>374.8069</v>
       </c>
       <c r="G112" t="n">
-        <v>-232853.9103730785</v>
+        <v>-603106.2467210843</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4469,11 +4423,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4484,22 +4434,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>96.90000000000001</v>
+        <v>96.84999999999999</v>
       </c>
       <c r="C113" t="n">
-        <v>96.90000000000001</v>
+        <v>96.84999999999999</v>
       </c>
       <c r="D113" t="n">
-        <v>96.90000000000001</v>
+        <v>96.84999999999999</v>
       </c>
       <c r="E113" t="n">
-        <v>96.90000000000001</v>
+        <v>96.84999999999999</v>
       </c>
       <c r="F113" t="n">
-        <v>7035.7291</v>
+        <v>392.4325</v>
       </c>
       <c r="G113" t="n">
-        <v>-225818.1812730785</v>
+        <v>-602713.8142210844</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4509,11 +4459,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4524,38 +4470,32 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>96.88</v>
+        <v>96.84999999999999</v>
       </c>
       <c r="C114" t="n">
-        <v>96.89</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="D114" t="n">
-        <v>96.89</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="E114" t="n">
-        <v>96.88</v>
+        <v>96.84999999999999</v>
       </c>
       <c r="F114" t="n">
-        <v>14689.4068</v>
+        <v>81921.9675</v>
       </c>
       <c r="G114" t="n">
-        <v>-240507.5880730785</v>
+        <v>-520791.8467210843</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>96.90000000000001</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4566,22 +4506,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>96.87</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="C115" t="n">
-        <v>96.61</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="D115" t="n">
-        <v>96.87</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="E115" t="n">
-        <v>96.61</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="F115" t="n">
-        <v>8161.2072</v>
+        <v>1969.7897</v>
       </c>
       <c r="G115" t="n">
-        <v>-248668.7952730785</v>
+        <v>-520791.8467210843</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4591,11 +4531,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4606,22 +4542,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>96.89</v>
+        <v>97.17</v>
       </c>
       <c r="C116" t="n">
-        <v>96.88</v>
+        <v>97.17</v>
       </c>
       <c r="D116" t="n">
-        <v>96.89</v>
+        <v>97.17</v>
       </c>
       <c r="E116" t="n">
-        <v>96.88</v>
+        <v>97.17</v>
       </c>
       <c r="F116" t="n">
-        <v>13058.3204</v>
+        <v>6</v>
       </c>
       <c r="G116" t="n">
-        <v>-235610.4748730786</v>
+        <v>-520785.8467210843</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4631,11 +4567,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4646,22 +4578,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>96.87</v>
+        <v>97.17</v>
       </c>
       <c r="C117" t="n">
-        <v>96.87</v>
+        <v>97.2</v>
       </c>
       <c r="D117" t="n">
-        <v>96.87</v>
+        <v>97.2</v>
       </c>
       <c r="E117" t="n">
-        <v>96.87</v>
+        <v>97.17</v>
       </c>
       <c r="F117" t="n">
-        <v>6377.4669</v>
+        <v>1225.554</v>
       </c>
       <c r="G117" t="n">
-        <v>-241987.9417730785</v>
+        <v>-519560.2927210843</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4671,11 +4603,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4686,22 +4614,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>96.59999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="C118" t="n">
-        <v>96.59999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="D118" t="n">
-        <v>96.59999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="E118" t="n">
-        <v>96.59999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="F118" t="n">
-        <v>27258.1313</v>
+        <v>0.0001</v>
       </c>
       <c r="G118" t="n">
-        <v>-269246.0730730785</v>
+        <v>-519560.2927210843</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4711,11 +4639,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4726,22 +4650,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>96.89</v>
+        <v>97.2</v>
       </c>
       <c r="C119" t="n">
-        <v>96.59999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="D119" t="n">
-        <v>96.89</v>
+        <v>97.2</v>
       </c>
       <c r="E119" t="n">
-        <v>96.59999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="F119" t="n">
-        <v>8753.4195</v>
+        <v>9.9999</v>
       </c>
       <c r="G119" t="n">
-        <v>-269246.0730730785</v>
+        <v>-519560.2927210843</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4751,11 +4675,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4766,22 +4686,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>96.88</v>
+        <v>97.2</v>
       </c>
       <c r="C120" t="n">
-        <v>96.59999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="D120" t="n">
-        <v>96.88</v>
+        <v>97.2</v>
       </c>
       <c r="E120" t="n">
-        <v>96.59999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="F120" t="n">
-        <v>15145</v>
+        <v>2064.0277</v>
       </c>
       <c r="G120" t="n">
-        <v>-269246.0730730785</v>
+        <v>-519560.2927210843</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4791,11 +4711,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4806,22 +4722,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>96.45</v>
+        <v>97.19</v>
       </c>
       <c r="C121" t="n">
-        <v>96.31</v>
+        <v>97.2</v>
       </c>
       <c r="D121" t="n">
-        <v>96.45</v>
+        <v>97.2</v>
       </c>
       <c r="E121" t="n">
-        <v>96.31</v>
+        <v>97.19</v>
       </c>
       <c r="F121" t="n">
-        <v>9929</v>
+        <v>917.0569</v>
       </c>
       <c r="G121" t="n">
-        <v>-279175.0730730785</v>
+        <v>-519560.2927210843</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4831,11 +4747,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4846,38 +4758,32 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>96.8</v>
+        <v>97.2</v>
       </c>
       <c r="C122" t="n">
-        <v>96.8</v>
+        <v>97.2</v>
       </c>
       <c r="D122" t="n">
-        <v>96.8</v>
+        <v>97.2</v>
       </c>
       <c r="E122" t="n">
-        <v>96.8</v>
+        <v>97.2</v>
       </c>
       <c r="F122" t="n">
-        <v>1007.6455</v>
+        <v>552.2329</v>
       </c>
       <c r="G122" t="n">
-        <v>-278167.4275730785</v>
+        <v>-519560.2927210843</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>96.31</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4888,22 +4794,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>96.8</v>
+        <v>97.2</v>
       </c>
       <c r="C123" t="n">
-        <v>96.8</v>
+        <v>97.2</v>
       </c>
       <c r="D123" t="n">
-        <v>96.8</v>
+        <v>97.2</v>
       </c>
       <c r="E123" t="n">
-        <v>96.8</v>
+        <v>97.2</v>
       </c>
       <c r="F123" t="n">
-        <v>223.2387</v>
+        <v>20</v>
       </c>
       <c r="G123" t="n">
-        <v>-278167.4275730785</v>
+        <v>-519560.2927210843</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4913,11 +4819,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4928,22 +4830,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>96.42</v>
+        <v>97.2</v>
       </c>
       <c r="C124" t="n">
-        <v>96.8</v>
+        <v>97.2</v>
       </c>
       <c r="D124" t="n">
-        <v>96.8</v>
+        <v>97.2</v>
       </c>
       <c r="E124" t="n">
-        <v>96.42</v>
+        <v>97.2</v>
       </c>
       <c r="F124" t="n">
-        <v>433.2972</v>
+        <v>222.9595</v>
       </c>
       <c r="G124" t="n">
-        <v>-278167.4275730785</v>
+        <v>-519560.2927210843</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4953,11 +4855,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4968,22 +4866,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>96.44</v>
+        <v>97.76000000000001</v>
       </c>
       <c r="C125" t="n">
-        <v>96.44</v>
+        <v>97.79000000000001</v>
       </c>
       <c r="D125" t="n">
-        <v>96.44</v>
+        <v>97.79000000000001</v>
       </c>
       <c r="E125" t="n">
-        <v>96.44</v>
+        <v>97.76000000000001</v>
       </c>
       <c r="F125" t="n">
-        <v>316.7939</v>
+        <v>10980</v>
       </c>
       <c r="G125" t="n">
-        <v>-278484.2214730785</v>
+        <v>-508580.2927210843</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4993,11 +4891,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5008,22 +4902,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>96.78</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="C126" t="n">
-        <v>96.77</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="D126" t="n">
-        <v>96.78</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="E126" t="n">
-        <v>96.77</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="F126" t="n">
-        <v>4876</v>
+        <v>96</v>
       </c>
       <c r="G126" t="n">
-        <v>-273608.2214730785</v>
+        <v>-508676.2927210843</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5033,11 +4927,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5048,22 +4938,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>96.98999999999999</v>
+        <v>97.7</v>
       </c>
       <c r="C127" t="n">
-        <v>96.98999999999999</v>
+        <v>98.09</v>
       </c>
       <c r="D127" t="n">
-        <v>96.98999999999999</v>
+        <v>98.09</v>
       </c>
       <c r="E127" t="n">
-        <v>96.98999999999999</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="F127" t="n">
-        <v>6</v>
+        <v>2078.5833</v>
       </c>
       <c r="G127" t="n">
-        <v>-273602.2214730785</v>
+        <v>-506597.7094210843</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5073,11 +4963,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5088,22 +4974,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>96.98</v>
+        <v>97.5</v>
       </c>
       <c r="C128" t="n">
-        <v>96.98</v>
+        <v>97.5</v>
       </c>
       <c r="D128" t="n">
-        <v>96.98</v>
+        <v>97.5</v>
       </c>
       <c r="E128" t="n">
-        <v>96.98</v>
+        <v>97.5</v>
       </c>
       <c r="F128" t="n">
-        <v>7355</v>
+        <v>330</v>
       </c>
       <c r="G128" t="n">
-        <v>-280957.2214730785</v>
+        <v>-506927.7094210843</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5113,11 +4999,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5128,38 +5010,32 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>96.98</v>
+        <v>97.5</v>
       </c>
       <c r="C129" t="n">
-        <v>96.98999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="D129" t="n">
-        <v>96.98999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="E129" t="n">
-        <v>96.98</v>
+        <v>97.5</v>
       </c>
       <c r="F129" t="n">
-        <v>10889.5444</v>
+        <v>157.1994</v>
       </c>
       <c r="G129" t="n">
-        <v>-270067.6770730785</v>
+        <v>-506927.7094210843</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>96.98</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5170,38 +5046,32 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>96.98999999999999</v>
+        <v>97.98</v>
       </c>
       <c r="C130" t="n">
-        <v>96.98999999999999</v>
+        <v>97.98</v>
       </c>
       <c r="D130" t="n">
-        <v>96.98999999999999</v>
+        <v>97.98</v>
       </c>
       <c r="E130" t="n">
-        <v>96.98999999999999</v>
+        <v>97.98</v>
       </c>
       <c r="F130" t="n">
-        <v>588.1763999999999</v>
+        <v>330</v>
       </c>
       <c r="G130" t="n">
-        <v>-270067.6770730785</v>
+        <v>-506597.7094210843</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>96.98999999999999</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5212,38 +5082,32 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>96.98999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="C131" t="n">
-        <v>96.98999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="D131" t="n">
-        <v>96.98999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="E131" t="n">
-        <v>96.98999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="F131" t="n">
-        <v>824.2472</v>
+        <v>270.2434</v>
       </c>
       <c r="G131" t="n">
-        <v>-270067.6770730785</v>
+        <v>-506867.9528210843</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>96.98999999999999</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5254,38 +5118,32 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>96.98</v>
+        <v>97.3</v>
       </c>
       <c r="C132" t="n">
-        <v>96.98</v>
+        <v>97.3</v>
       </c>
       <c r="D132" t="n">
-        <v>96.98999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="E132" t="n">
-        <v>96.97</v>
+        <v>97.3</v>
       </c>
       <c r="F132" t="n">
-        <v>9210.763000000001</v>
+        <v>268.811</v>
       </c>
       <c r="G132" t="n">
-        <v>-279278.4400730785</v>
+        <v>-506867.9528210843</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>96.98999999999999</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5296,38 +5154,32 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>96.98999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="C133" t="n">
-        <v>96.98</v>
+        <v>97.2</v>
       </c>
       <c r="D133" t="n">
-        <v>96.98999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="E133" t="n">
-        <v>96.8</v>
+        <v>97.2</v>
       </c>
       <c r="F133" t="n">
-        <v>17584.0311</v>
+        <v>30</v>
       </c>
       <c r="G133" t="n">
-        <v>-279278.4400730785</v>
+        <v>-506897.9528210843</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>96.98</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5338,38 +5190,32 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>96.98999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="C134" t="n">
-        <v>96.98</v>
+        <v>97.3</v>
       </c>
       <c r="D134" t="n">
-        <v>96.98999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="E134" t="n">
-        <v>96.98</v>
+        <v>97.3</v>
       </c>
       <c r="F134" t="n">
-        <v>3683.631</v>
+        <v>114.5984</v>
       </c>
       <c r="G134" t="n">
-        <v>-279278.4400730785</v>
+        <v>-506783.3544210843</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>96.98</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5380,38 +5226,32 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>96.98999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="C135" t="n">
-        <v>96.98999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="D135" t="n">
-        <v>96.98999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="E135" t="n">
-        <v>96.98999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="F135" t="n">
-        <v>2912.8738</v>
+        <v>103.1385</v>
       </c>
       <c r="G135" t="n">
-        <v>-276365.5662730785</v>
+        <v>-506783.3544210843</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>96.98</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5422,38 +5262,32 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>96.98999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="C136" t="n">
-        <v>97.19</v>
+        <v>97.3</v>
       </c>
       <c r="D136" t="n">
-        <v>97.19</v>
+        <v>97.3</v>
       </c>
       <c r="E136" t="n">
-        <v>96.98999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="F136" t="n">
-        <v>12110</v>
+        <v>92.82470000000001</v>
       </c>
       <c r="G136" t="n">
-        <v>-264255.5662730785</v>
+        <v>-506783.3544210843</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>96.98999999999999</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5464,22 +5298,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>97.19</v>
+        <v>97.3</v>
       </c>
       <c r="C137" t="n">
-        <v>97.19</v>
+        <v>97.3</v>
       </c>
       <c r="D137" t="n">
-        <v>97.19</v>
+        <v>97.3</v>
       </c>
       <c r="E137" t="n">
-        <v>97.19</v>
+        <v>97.3</v>
       </c>
       <c r="F137" t="n">
-        <v>2420</v>
+        <v>83.54219999999999</v>
       </c>
       <c r="G137" t="n">
-        <v>-264255.5662730785</v>
+        <v>-506783.3544210843</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5489,11 +5323,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5504,22 +5334,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>97.15000000000001</v>
+        <v>97.20999999999999</v>
       </c>
       <c r="C138" t="n">
-        <v>97.19</v>
+        <v>97.20999999999999</v>
       </c>
       <c r="D138" t="n">
-        <v>97.19</v>
+        <v>97.20999999999999</v>
       </c>
       <c r="E138" t="n">
-        <v>97.15000000000001</v>
+        <v>97.20999999999999</v>
       </c>
       <c r="F138" t="n">
-        <v>3512.3537</v>
+        <v>2280.0188</v>
       </c>
       <c r="G138" t="n">
-        <v>-264255.5662730785</v>
+        <v>-509063.3732210843</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5529,11 +5359,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5544,22 +5370,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>97.2</v>
+        <v>97.20999999999999</v>
       </c>
       <c r="C139" t="n">
-        <v>97.2</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D139" t="n">
-        <v>97.2</v>
+        <v>97.20999999999999</v>
       </c>
       <c r="E139" t="n">
-        <v>97.2</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="F139" t="n">
-        <v>878.2794</v>
+        <v>1589.3652</v>
       </c>
       <c r="G139" t="n">
-        <v>-263377.2868730785</v>
+        <v>-510652.7384210843</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5569,11 +5395,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5584,22 +5406,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>97</v>
+        <v>97.01000000000001</v>
       </c>
       <c r="C140" t="n">
-        <v>97</v>
+        <v>96.91</v>
       </c>
       <c r="D140" t="n">
-        <v>97</v>
+        <v>97.01000000000001</v>
       </c>
       <c r="E140" t="n">
-        <v>97</v>
+        <v>96.91</v>
       </c>
       <c r="F140" t="n">
-        <v>10525.6441</v>
+        <v>1017.7427</v>
       </c>
       <c r="G140" t="n">
-        <v>-273902.9309730785</v>
+        <v>-511670.4811210843</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5609,11 +5431,7 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5624,36 +5442,36 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>97.2</v>
+        <v>96.91</v>
       </c>
       <c r="C141" t="n">
-        <v>97.2</v>
+        <v>96.91</v>
       </c>
       <c r="D141" t="n">
-        <v>97.2</v>
+        <v>96.91</v>
       </c>
       <c r="E141" t="n">
-        <v>97.2</v>
+        <v>96.91</v>
       </c>
       <c r="F141" t="n">
-        <v>6</v>
+        <v>9829.936100000001</v>
       </c>
       <c r="G141" t="n">
-        <v>-273896.9309730785</v>
+        <v>-511670.4811210843</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="n">
+        <v>96.91</v>
+      </c>
+      <c r="K141" t="n">
+        <v>96.91</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5676,22 +5494,26 @@
         <v>97.09999999999999</v>
       </c>
       <c r="F142" t="n">
-        <v>1461.3629</v>
+        <v>4000</v>
       </c>
       <c r="G142" t="n">
-        <v>-275358.2938730785</v>
+        <v>-507670.4811210843</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>96.91</v>
+      </c>
+      <c r="K142" t="n">
+        <v>96.91</v>
+      </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M142" t="n">
@@ -5704,34 +5526,38 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>97.2</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="C143" t="n">
-        <v>97.2</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D143" t="n">
-        <v>97.2</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E143" t="n">
-        <v>97.2</v>
+        <v>97</v>
       </c>
       <c r="F143" t="n">
-        <v>6</v>
+        <v>17827.2179</v>
       </c>
       <c r="G143" t="n">
-        <v>-275352.2938730785</v>
+        <v>-507670.4811210843</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="K143" t="n">
+        <v>96.91</v>
+      </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M143" t="n">
@@ -5744,36 +5570,36 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>97.01000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="C144" t="n">
-        <v>97.01000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D144" t="n">
-        <v>97.01000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E144" t="n">
-        <v>97.01000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="F144" t="n">
-        <v>12860.6742</v>
+        <v>4892.6428</v>
       </c>
       <c r="G144" t="n">
-        <v>-288212.9680730785</v>
+        <v>-507670.4811210843</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="K144" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5784,34 +5610,38 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>97.01000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="C145" t="n">
-        <v>97.01000000000001</v>
+        <v>97.34999999999999</v>
       </c>
       <c r="D145" t="n">
-        <v>97.01000000000001</v>
+        <v>97.34999999999999</v>
       </c>
       <c r="E145" t="n">
-        <v>97.01000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="F145" t="n">
-        <v>3163.9491</v>
+        <v>6444.8601</v>
       </c>
       <c r="G145" t="n">
-        <v>-288212.9680730785</v>
+        <v>-501225.6210210843</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="K145" t="n">
+        <v>97.09999999999999</v>
+      </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M145" t="n">
@@ -5824,31 +5654,35 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>97.01000000000001</v>
+        <v>97.34999999999999</v>
       </c>
       <c r="C146" t="n">
-        <v>97.2</v>
+        <v>97.34999999999999</v>
       </c>
       <c r="D146" t="n">
-        <v>97.2</v>
+        <v>97.34999999999999</v>
       </c>
       <c r="E146" t="n">
-        <v>97.01000000000001</v>
+        <v>97.34999999999999</v>
       </c>
       <c r="F146" t="n">
-        <v>442.4327</v>
+        <v>135.188</v>
       </c>
       <c r="G146" t="n">
-        <v>-287770.5353730785</v>
+        <v>-501225.6210210843</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>97.34999999999999</v>
+      </c>
+      <c r="K146" t="n">
+        <v>97.09999999999999</v>
+      </c>
       <c r="L146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5864,31 +5698,35 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>97.2</v>
+        <v>97.34999999999999</v>
       </c>
       <c r="C147" t="n">
-        <v>97.2</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D147" t="n">
-        <v>97.2</v>
+        <v>97.34999999999999</v>
       </c>
       <c r="E147" t="n">
-        <v>97.2</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="F147" t="n">
-        <v>635.7907</v>
+        <v>1117.8713</v>
       </c>
       <c r="G147" t="n">
-        <v>-287770.5353730785</v>
+        <v>-502343.4923210843</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>97.34999999999999</v>
+      </c>
+      <c r="K147" t="n">
+        <v>97.09999999999999</v>
+      </c>
       <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5904,31 +5742,35 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>97.2</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="C148" t="n">
-        <v>97.2</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D148" t="n">
-        <v>97.2</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E148" t="n">
-        <v>97.2</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="F148" t="n">
-        <v>1000.3</v>
+        <v>232.3836</v>
       </c>
       <c r="G148" t="n">
-        <v>-287770.5353730785</v>
+        <v>-502343.4923210843</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="K148" t="n">
+        <v>97.09999999999999</v>
+      </c>
       <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5944,31 +5786,35 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>96.90000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="C149" t="n">
-        <v>96.90000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D149" t="n">
-        <v>96.90000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E149" t="n">
-        <v>96.90000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="F149" t="n">
-        <v>3760.8453</v>
+        <v>0.3308</v>
       </c>
       <c r="G149" t="n">
-        <v>-291531.3806730785</v>
+        <v>-502343.4923210843</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="K149" t="n">
+        <v>97.09999999999999</v>
+      </c>
       <c r="L149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5984,31 +5830,35 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>97.2</v>
+        <v>97.41</v>
       </c>
       <c r="C150" t="n">
-        <v>97.2</v>
+        <v>97.41</v>
       </c>
       <c r="D150" t="n">
-        <v>97.2</v>
+        <v>97.41</v>
       </c>
       <c r="E150" t="n">
-        <v>97.2</v>
+        <v>97.41</v>
       </c>
       <c r="F150" t="n">
-        <v>6</v>
+        <v>3000</v>
       </c>
       <c r="G150" t="n">
-        <v>-291525.3806730785</v>
+        <v>-499343.4923210843</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="K150" t="n">
+        <v>97.09999999999999</v>
+      </c>
       <c r="L150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6024,31 +5874,35 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>97.2</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="C151" t="n">
-        <v>97.2</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="D151" t="n">
-        <v>97.2</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="E151" t="n">
-        <v>97.2</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="F151" t="n">
-        <v>597.9793</v>
+        <v>536.0131</v>
       </c>
       <c r="G151" t="n">
-        <v>-291525.3806730785</v>
+        <v>-498807.4792210843</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>97.41</v>
+      </c>
+      <c r="K151" t="n">
+        <v>97.09999999999999</v>
+      </c>
       <c r="L151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6064,31 +5918,35 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>97.2</v>
+        <v>97.48</v>
       </c>
       <c r="C152" t="n">
-        <v>97.2</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="D152" t="n">
-        <v>97.2</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="E152" t="n">
-        <v>97.2</v>
+        <v>96.94</v>
       </c>
       <c r="F152" t="n">
-        <v>354.2062</v>
+        <v>13588.1729</v>
       </c>
       <c r="G152" t="n">
-        <v>-291525.3806730785</v>
+        <v>-498807.4792210843</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="K152" t="n">
+        <v>97.09999999999999</v>
+      </c>
       <c r="L152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6104,31 +5962,35 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>97.2</v>
+        <v>97.48</v>
       </c>
       <c r="C153" t="n">
-        <v>97.2</v>
+        <v>98.39</v>
       </c>
       <c r="D153" t="n">
-        <v>97.2</v>
+        <v>98.39</v>
       </c>
       <c r="E153" t="n">
-        <v>97.2</v>
+        <v>97.48</v>
       </c>
       <c r="F153" t="n">
-        <v>749.2394</v>
+        <v>999</v>
       </c>
       <c r="G153" t="n">
-        <v>-291525.3806730785</v>
+        <v>-497808.4792210843</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="K153" t="n">
+        <v>97.09999999999999</v>
+      </c>
       <c r="L153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6144,22 +6006,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>97.2</v>
+        <v>98.39</v>
       </c>
       <c r="C154" t="n">
-        <v>97.2</v>
+        <v>98.39</v>
       </c>
       <c r="D154" t="n">
-        <v>97.2</v>
+        <v>98.39</v>
       </c>
       <c r="E154" t="n">
-        <v>97.2</v>
+        <v>98.39</v>
       </c>
       <c r="F154" t="n">
-        <v>349.8471</v>
+        <v>3000</v>
       </c>
       <c r="G154" t="n">
-        <v>-291525.3806730785</v>
+        <v>-497808.4792210843</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6168,7 +6030,9 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>97.09999999999999</v>
+      </c>
       <c r="L154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6184,22 +6048,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>97.2</v>
+        <v>97.42</v>
       </c>
       <c r="C155" t="n">
-        <v>97.56</v>
+        <v>97.42</v>
       </c>
       <c r="D155" t="n">
-        <v>97.56</v>
+        <v>97.42</v>
       </c>
       <c r="E155" t="n">
-        <v>97.2</v>
+        <v>97.42</v>
       </c>
       <c r="F155" t="n">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="G155" t="n">
-        <v>-289525.3806730785</v>
+        <v>-509808.4792210843</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6208,7 +6072,9 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>97.09999999999999</v>
+      </c>
       <c r="L155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6224,22 +6090,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>97.5</v>
+        <v>97.42</v>
       </c>
       <c r="C156" t="n">
-        <v>97.5</v>
+        <v>97.42</v>
       </c>
       <c r="D156" t="n">
-        <v>97.5</v>
+        <v>97.42</v>
       </c>
       <c r="E156" t="n">
-        <v>97.5</v>
+        <v>97.42</v>
       </c>
       <c r="F156" t="n">
-        <v>5099.6298</v>
+        <v>221.9891</v>
       </c>
       <c r="G156" t="n">
-        <v>-294625.0104730785</v>
+        <v>-509808.4792210843</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6248,7 +6114,9 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>97.09999999999999</v>
+      </c>
       <c r="L156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6267,19 +6135,19 @@
         <v>97.5</v>
       </c>
       <c r="C157" t="n">
-        <v>97.5</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="D157" t="n">
         <v>97.5</v>
       </c>
       <c r="E157" t="n">
-        <v>97.5</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="F157" t="n">
-        <v>621.6648</v>
+        <v>12990.9794</v>
       </c>
       <c r="G157" t="n">
-        <v>-294625.0104730785</v>
+        <v>-522799.4586210843</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6288,7 +6156,9 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>97.09999999999999</v>
+      </c>
       <c r="L157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6304,31 +6174,35 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>97.01000000000001</v>
+        <v>97.3</v>
       </c>
       <c r="C158" t="n">
-        <v>97.01000000000001</v>
+        <v>97.3</v>
       </c>
       <c r="D158" t="n">
-        <v>97.01000000000001</v>
+        <v>97.3</v>
       </c>
       <c r="E158" t="n">
-        <v>97.01000000000001</v>
+        <v>97.3</v>
       </c>
       <c r="F158" t="n">
-        <v>4901.9608</v>
+        <v>1000</v>
       </c>
       <c r="G158" t="n">
-        <v>-299526.9712730785</v>
+        <v>-523799.4586210843</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="K158" t="n">
+        <v>97.09999999999999</v>
+      </c>
       <c r="L158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6344,31 +6218,35 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>97.5</v>
+        <v>97.3</v>
       </c>
       <c r="C159" t="n">
-        <v>97.5</v>
+        <v>97.3</v>
       </c>
       <c r="D159" t="n">
-        <v>97.5</v>
+        <v>97.3</v>
       </c>
       <c r="E159" t="n">
-        <v>97.5</v>
+        <v>97.3</v>
       </c>
       <c r="F159" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="G159" t="n">
-        <v>-299520.9712730785</v>
+        <v>-523799.4586210843</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>97.3</v>
+      </c>
+      <c r="K159" t="n">
+        <v>97.09999999999999</v>
+      </c>
       <c r="L159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6384,40 +6262,3092 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
+        <v>97.98999999999999</v>
+      </c>
+      <c r="C160" t="n">
+        <v>97.98999999999999</v>
+      </c>
+      <c r="D160" t="n">
+        <v>97.98999999999999</v>
+      </c>
+      <c r="E160" t="n">
+        <v>97.98999999999999</v>
+      </c>
+      <c r="F160" t="n">
+        <v>66.1283</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-523733.3303210844</v>
+      </c>
+      <c r="H160" t="n">
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>97.3</v>
+      </c>
+      <c r="K160" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="C161" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="D161" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="E161" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="F161" t="n">
+        <v>84.69670000000001</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-523818.0270210843</v>
+      </c>
+      <c r="H161" t="n">
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>97.98999999999999</v>
+      </c>
+      <c r="K161" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="C162" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="D162" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="E162" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="F162" t="n">
+        <v>221.989</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-523818.0270210843</v>
+      </c>
+      <c r="H162" t="n">
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="K162" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>97.41</v>
+      </c>
+      <c r="C163" t="n">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="D163" t="n">
+        <v>97.41</v>
+      </c>
+      <c r="E163" t="n">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="F163" t="n">
+        <v>13000</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-536818.0270210843</v>
+      </c>
+      <c r="H163" t="n">
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="K163" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>97.98999999999999</v>
+      </c>
+      <c r="C164" t="n">
+        <v>97.98999999999999</v>
+      </c>
+      <c r="D164" t="n">
+        <v>97.98999999999999</v>
+      </c>
+      <c r="E164" t="n">
+        <v>97.98999999999999</v>
+      </c>
+      <c r="F164" t="n">
+        <v>6</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-536812.0270210843</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="C165" t="n">
         <v>97</v>
       </c>
-      <c r="C160" t="n">
+      <c r="D165" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="E165" t="n">
+        <v>97</v>
+      </c>
+      <c r="F165" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-540812.0270210843</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>97</v>
+      </c>
+      <c r="C166" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="D166" t="n">
+        <v>97</v>
+      </c>
+      <c r="E166" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="F166" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-541812.0270210843</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="C167" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="D167" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="E167" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="F167" t="n">
+        <v>498.3848</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-541812.0270210843</v>
+      </c>
+      <c r="H167" t="n">
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="K167" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>96.79000000000001</v>
+      </c>
+      <c r="C168" t="n">
+        <v>96.79000000000001</v>
+      </c>
+      <c r="D168" t="n">
+        <v>96.79000000000001</v>
+      </c>
+      <c r="E168" t="n">
+        <v>96.79000000000001</v>
+      </c>
+      <c r="F168" t="n">
+        <v>40</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-541772.0270210843</v>
+      </c>
+      <c r="H168" t="n">
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="K168" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>96.79000000000001</v>
+      </c>
+      <c r="C169" t="n">
+        <v>96.79000000000001</v>
+      </c>
+      <c r="D169" t="n">
+        <v>96.79000000000001</v>
+      </c>
+      <c r="E169" t="n">
+        <v>96.79000000000001</v>
+      </c>
+      <c r="F169" t="n">
+        <v>3093.6499</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-541772.0270210843</v>
+      </c>
+      <c r="H169" t="n">
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="n">
+        <v>96.79000000000001</v>
+      </c>
+      <c r="K169" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>96.78</v>
+      </c>
+      <c r="C170" t="n">
+        <v>96.78</v>
+      </c>
+      <c r="D170" t="n">
+        <v>96.78</v>
+      </c>
+      <c r="E170" t="n">
+        <v>96.78</v>
+      </c>
+      <c r="F170" t="n">
+        <v>2113.019251994214</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-543885.0462730785</v>
+      </c>
+      <c r="H170" t="n">
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="n">
+        <v>96.79000000000001</v>
+      </c>
+      <c r="K170" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>96.77</v>
+      </c>
+      <c r="C171" t="n">
+        <v>96.77</v>
+      </c>
+      <c r="D171" t="n">
+        <v>96.77</v>
+      </c>
+      <c r="E171" t="n">
+        <v>96.77</v>
+      </c>
+      <c r="F171" t="n">
+        <v>2683.1049</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-546568.1511730786</v>
+      </c>
+      <c r="H171" t="n">
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="n">
+        <v>96.78</v>
+      </c>
+      <c r="K171" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>96.79000000000001</v>
+      </c>
+      <c r="C172" t="n">
+        <v>96.79000000000001</v>
+      </c>
+      <c r="D172" t="n">
+        <v>96.79000000000001</v>
+      </c>
+      <c r="E172" t="n">
+        <v>96.79000000000001</v>
+      </c>
+      <c r="F172" t="n">
+        <v>360.8359</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-546207.3152730786</v>
+      </c>
+      <c r="H172" t="n">
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="n">
+        <v>96.77</v>
+      </c>
+      <c r="K172" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="C173" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="D173" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="E173" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="F173" t="n">
+        <v>1084.8681</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-547292.1833730786</v>
+      </c>
+      <c r="H173" t="n">
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>96.79000000000001</v>
+      </c>
+      <c r="K173" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="C174" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="D174" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="E174" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="F174" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-547292.1833730786</v>
+      </c>
+      <c r="H174" t="n">
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="K174" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="C175" t="n">
+        <v>96.59</v>
+      </c>
+      <c r="D175" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="E175" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="F175" t="n">
+        <v>3717.4854</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-551009.6687730786</v>
+      </c>
+      <c r="H175" t="n">
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="K175" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>96.3</v>
+      </c>
+      <c r="C176" t="n">
+        <v>96.3</v>
+      </c>
+      <c r="D176" t="n">
+        <v>96.3</v>
+      </c>
+      <c r="E176" t="n">
+        <v>96.3</v>
+      </c>
+      <c r="F176" t="n">
+        <v>3221.6486</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-554231.3173730785</v>
+      </c>
+      <c r="H176" t="n">
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="n">
+        <v>96.59</v>
+      </c>
+      <c r="K176" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>96.3</v>
+      </c>
+      <c r="C177" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="D177" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="E177" t="n">
+        <v>94.97</v>
+      </c>
+      <c r="F177" t="n">
+        <v>397844.6606</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-156386.6567730785</v>
+      </c>
+      <c r="H177" t="n">
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>96.3</v>
+      </c>
+      <c r="K177" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="C178" t="n">
+        <v>96.48</v>
+      </c>
+      <c r="D178" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="E178" t="n">
+        <v>96.39</v>
+      </c>
+      <c r="F178" t="n">
+        <v>58590</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-214976.6567730785</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>96.69</v>
+      </c>
+      <c r="C179" t="n">
+        <v>96.20999999999999</v>
+      </c>
+      <c r="D179" t="n">
+        <v>96.69</v>
+      </c>
+      <c r="E179" t="n">
+        <v>96.20999999999999</v>
+      </c>
+      <c r="F179" t="n">
+        <v>10865</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-225841.6567730785</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>96.67</v>
+      </c>
+      <c r="C180" t="n">
+        <v>96.68000000000001</v>
+      </c>
+      <c r="D180" t="n">
+        <v>96.69</v>
+      </c>
+      <c r="E180" t="n">
+        <v>96.67</v>
+      </c>
+      <c r="F180" t="n">
+        <v>5150</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-220691.6567730785</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>96.98999999999999</v>
+      </c>
+      <c r="C181" t="n">
+        <v>96.98999999999999</v>
+      </c>
+      <c r="D181" t="n">
+        <v>96.98999999999999</v>
+      </c>
+      <c r="E181" t="n">
+        <v>96.98999999999999</v>
+      </c>
+      <c r="F181" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-218691.6567730785</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>96.98</v>
+      </c>
+      <c r="C182" t="n">
+        <v>96.98</v>
+      </c>
+      <c r="D182" t="n">
+        <v>96.98</v>
+      </c>
+      <c r="E182" t="n">
+        <v>96.98</v>
+      </c>
+      <c r="F182" t="n">
+        <v>12179.3083</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-230870.9650730786</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>96.31</v>
+      </c>
+      <c r="C183" t="n">
+        <v>96.31</v>
+      </c>
+      <c r="D183" t="n">
+        <v>96.31</v>
+      </c>
+      <c r="E183" t="n">
+        <v>96.31</v>
+      </c>
+      <c r="F183" t="n">
+        <v>1982.9453</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-232853.9103730785</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>96.90000000000001</v>
+      </c>
+      <c r="C184" t="n">
+        <v>96.90000000000001</v>
+      </c>
+      <c r="D184" t="n">
+        <v>96.90000000000001</v>
+      </c>
+      <c r="E184" t="n">
+        <v>96.90000000000001</v>
+      </c>
+      <c r="F184" t="n">
+        <v>7035.7291</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-225818.1812730785</v>
+      </c>
+      <c r="H184" t="n">
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="n">
+        <v>96.31</v>
+      </c>
+      <c r="K184" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>96.88</v>
+      </c>
+      <c r="C185" t="n">
+        <v>96.89</v>
+      </c>
+      <c r="D185" t="n">
+        <v>96.89</v>
+      </c>
+      <c r="E185" t="n">
+        <v>96.88</v>
+      </c>
+      <c r="F185" t="n">
+        <v>14689.4068</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-240507.5880730785</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>96.87</v>
+      </c>
+      <c r="C186" t="n">
+        <v>96.61</v>
+      </c>
+      <c r="D186" t="n">
+        <v>96.87</v>
+      </c>
+      <c r="E186" t="n">
+        <v>96.61</v>
+      </c>
+      <c r="F186" t="n">
+        <v>8161.2072</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-248668.7952730785</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>96.89</v>
+      </c>
+      <c r="C187" t="n">
+        <v>96.88</v>
+      </c>
+      <c r="D187" t="n">
+        <v>96.89</v>
+      </c>
+      <c r="E187" t="n">
+        <v>96.88</v>
+      </c>
+      <c r="F187" t="n">
+        <v>13058.3204</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-235610.4748730786</v>
+      </c>
+      <c r="H187" t="n">
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="n">
+        <v>96.61</v>
+      </c>
+      <c r="K187" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>96.87</v>
+      </c>
+      <c r="C188" t="n">
+        <v>96.87</v>
+      </c>
+      <c r="D188" t="n">
+        <v>96.87</v>
+      </c>
+      <c r="E188" t="n">
+        <v>96.87</v>
+      </c>
+      <c r="F188" t="n">
+        <v>6377.4669</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-241987.9417730785</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="C189" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="D189" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="E189" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="F189" t="n">
+        <v>27258.1313</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-269246.0730730785</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>96.89</v>
+      </c>
+      <c r="C190" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="D190" t="n">
+        <v>96.89</v>
+      </c>
+      <c r="E190" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="F190" t="n">
+        <v>8753.4195</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-269246.0730730785</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>96.88</v>
+      </c>
+      <c r="C191" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="D191" t="n">
+        <v>96.88</v>
+      </c>
+      <c r="E191" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="F191" t="n">
+        <v>15145</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-269246.0730730785</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>96.45</v>
+      </c>
+      <c r="C192" t="n">
+        <v>96.31</v>
+      </c>
+      <c r="D192" t="n">
+        <v>96.45</v>
+      </c>
+      <c r="E192" t="n">
+        <v>96.31</v>
+      </c>
+      <c r="F192" t="n">
+        <v>9929</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-279175.0730730785</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>96.8</v>
+      </c>
+      <c r="C193" t="n">
+        <v>96.8</v>
+      </c>
+      <c r="D193" t="n">
+        <v>96.8</v>
+      </c>
+      <c r="E193" t="n">
+        <v>96.8</v>
+      </c>
+      <c r="F193" t="n">
+        <v>1007.6455</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-278167.4275730785</v>
+      </c>
+      <c r="H193" t="n">
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="n">
+        <v>96.31</v>
+      </c>
+      <c r="K193" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>96.8</v>
+      </c>
+      <c r="C194" t="n">
+        <v>96.8</v>
+      </c>
+      <c r="D194" t="n">
+        <v>96.8</v>
+      </c>
+      <c r="E194" t="n">
+        <v>96.8</v>
+      </c>
+      <c r="F194" t="n">
+        <v>223.2387</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-278167.4275730785</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>96.42</v>
+      </c>
+      <c r="C195" t="n">
+        <v>96.8</v>
+      </c>
+      <c r="D195" t="n">
+        <v>96.8</v>
+      </c>
+      <c r="E195" t="n">
+        <v>96.42</v>
+      </c>
+      <c r="F195" t="n">
+        <v>433.2972</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-278167.4275730785</v>
+      </c>
+      <c r="H195" t="n">
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="n">
+        <v>96.8</v>
+      </c>
+      <c r="K195" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>96.44</v>
+      </c>
+      <c r="C196" t="n">
+        <v>96.44</v>
+      </c>
+      <c r="D196" t="n">
+        <v>96.44</v>
+      </c>
+      <c r="E196" t="n">
+        <v>96.44</v>
+      </c>
+      <c r="F196" t="n">
+        <v>316.7939</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-278484.2214730785</v>
+      </c>
+      <c r="H196" t="n">
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="n">
+        <v>96.8</v>
+      </c>
+      <c r="K196" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>96.78</v>
+      </c>
+      <c r="C197" t="n">
+        <v>96.77</v>
+      </c>
+      <c r="D197" t="n">
+        <v>96.78</v>
+      </c>
+      <c r="E197" t="n">
+        <v>96.77</v>
+      </c>
+      <c r="F197" t="n">
+        <v>4876</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-273608.2214730785</v>
+      </c>
+      <c r="H197" t="n">
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="n">
+        <v>96.44</v>
+      </c>
+      <c r="K197" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>96.98999999999999</v>
+      </c>
+      <c r="C198" t="n">
+        <v>96.98999999999999</v>
+      </c>
+      <c r="D198" t="n">
+        <v>96.98999999999999</v>
+      </c>
+      <c r="E198" t="n">
+        <v>96.98999999999999</v>
+      </c>
+      <c r="F198" t="n">
+        <v>6</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-273602.2214730785</v>
+      </c>
+      <c r="H198" t="n">
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="n">
+        <v>96.77</v>
+      </c>
+      <c r="K198" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>96.98</v>
+      </c>
+      <c r="C199" t="n">
+        <v>96.98</v>
+      </c>
+      <c r="D199" t="n">
+        <v>96.98</v>
+      </c>
+      <c r="E199" t="n">
+        <v>96.98</v>
+      </c>
+      <c r="F199" t="n">
+        <v>7355</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-280957.2214730785</v>
+      </c>
+      <c r="H199" t="n">
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="n">
+        <v>96.98999999999999</v>
+      </c>
+      <c r="K199" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>96.98</v>
+      </c>
+      <c r="C200" t="n">
+        <v>96.98999999999999</v>
+      </c>
+      <c r="D200" t="n">
+        <v>96.98999999999999</v>
+      </c>
+      <c r="E200" t="n">
+        <v>96.98</v>
+      </c>
+      <c r="F200" t="n">
+        <v>10889.5444</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-270067.6770730785</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>96.98999999999999</v>
+      </c>
+      <c r="C201" t="n">
+        <v>96.98999999999999</v>
+      </c>
+      <c r="D201" t="n">
+        <v>96.98999999999999</v>
+      </c>
+      <c r="E201" t="n">
+        <v>96.98999999999999</v>
+      </c>
+      <c r="F201" t="n">
+        <v>588.1763999999999</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-270067.6770730785</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>96.98999999999999</v>
+      </c>
+      <c r="C202" t="n">
+        <v>96.98999999999999</v>
+      </c>
+      <c r="D202" t="n">
+        <v>96.98999999999999</v>
+      </c>
+      <c r="E202" t="n">
+        <v>96.98999999999999</v>
+      </c>
+      <c r="F202" t="n">
+        <v>824.2472</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-270067.6770730785</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>96.98</v>
+      </c>
+      <c r="C203" t="n">
+        <v>96.98</v>
+      </c>
+      <c r="D203" t="n">
+        <v>96.98999999999999</v>
+      </c>
+      <c r="E203" t="n">
+        <v>96.97</v>
+      </c>
+      <c r="F203" t="n">
+        <v>9210.763000000001</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-279278.4400730785</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>96.98999999999999</v>
+      </c>
+      <c r="C204" t="n">
+        <v>96.98</v>
+      </c>
+      <c r="D204" t="n">
+        <v>96.98999999999999</v>
+      </c>
+      <c r="E204" t="n">
+        <v>96.8</v>
+      </c>
+      <c r="F204" t="n">
+        <v>17584.0311</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-279278.4400730785</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>96.98999999999999</v>
+      </c>
+      <c r="C205" t="n">
+        <v>96.98</v>
+      </c>
+      <c r="D205" t="n">
+        <v>96.98999999999999</v>
+      </c>
+      <c r="E205" t="n">
+        <v>96.98</v>
+      </c>
+      <c r="F205" t="n">
+        <v>3683.631</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-279278.4400730785</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>96.98999999999999</v>
+      </c>
+      <c r="C206" t="n">
+        <v>96.98999999999999</v>
+      </c>
+      <c r="D206" t="n">
+        <v>96.98999999999999</v>
+      </c>
+      <c r="E206" t="n">
+        <v>96.98999999999999</v>
+      </c>
+      <c r="F206" t="n">
+        <v>2912.8738</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-276365.5662730785</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>96.98999999999999</v>
+      </c>
+      <c r="C207" t="n">
+        <v>97.19</v>
+      </c>
+      <c r="D207" t="n">
+        <v>97.19</v>
+      </c>
+      <c r="E207" t="n">
+        <v>96.98999999999999</v>
+      </c>
+      <c r="F207" t="n">
+        <v>12110</v>
+      </c>
+      <c r="G207" t="n">
+        <v>-264255.5662730785</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>97.19</v>
+      </c>
+      <c r="C208" t="n">
+        <v>97.19</v>
+      </c>
+      <c r="D208" t="n">
+        <v>97.19</v>
+      </c>
+      <c r="E208" t="n">
+        <v>97.19</v>
+      </c>
+      <c r="F208" t="n">
+        <v>2420</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-264255.5662730785</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>97.15000000000001</v>
+      </c>
+      <c r="C209" t="n">
+        <v>97.19</v>
+      </c>
+      <c r="D209" t="n">
+        <v>97.19</v>
+      </c>
+      <c r="E209" t="n">
+        <v>97.15000000000001</v>
+      </c>
+      <c r="F209" t="n">
+        <v>3512.3537</v>
+      </c>
+      <c r="G209" t="n">
+        <v>-264255.5662730785</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="C210" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="D210" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="E210" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="F210" t="n">
+        <v>878.2794</v>
+      </c>
+      <c r="G210" t="n">
+        <v>-263377.2868730785</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>97</v>
+      </c>
+      <c r="C211" t="n">
+        <v>97</v>
+      </c>
+      <c r="D211" t="n">
+        <v>97</v>
+      </c>
+      <c r="E211" t="n">
+        <v>97</v>
+      </c>
+      <c r="F211" t="n">
+        <v>10525.6441</v>
+      </c>
+      <c r="G211" t="n">
+        <v>-273902.9309730785</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="C212" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="D212" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="E212" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="F212" t="n">
+        <v>6</v>
+      </c>
+      <c r="G212" t="n">
+        <v>-273896.9309730785</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="C213" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="D213" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="E213" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="F213" t="n">
+        <v>1461.3629</v>
+      </c>
+      <c r="G213" t="n">
+        <v>-275358.2938730785</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="C214" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="D214" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="E214" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="F214" t="n">
+        <v>6</v>
+      </c>
+      <c r="G214" t="n">
+        <v>-275352.2938730785</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>97.01000000000001</v>
+      </c>
+      <c r="C215" t="n">
+        <v>97.01000000000001</v>
+      </c>
+      <c r="D215" t="n">
+        <v>97.01000000000001</v>
+      </c>
+      <c r="E215" t="n">
+        <v>97.01000000000001</v>
+      </c>
+      <c r="F215" t="n">
+        <v>12860.6742</v>
+      </c>
+      <c r="G215" t="n">
+        <v>-288212.9680730785</v>
+      </c>
+      <c r="H215" t="n">
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="K215" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="N215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>97.01000000000001</v>
+      </c>
+      <c r="C216" t="n">
+        <v>97.01000000000001</v>
+      </c>
+      <c r="D216" t="n">
+        <v>97.01000000000001</v>
+      </c>
+      <c r="E216" t="n">
+        <v>97.01000000000001</v>
+      </c>
+      <c r="F216" t="n">
+        <v>3163.9491</v>
+      </c>
+      <c r="G216" t="n">
+        <v>-288212.9680730785</v>
+      </c>
+      <c r="H216" t="n">
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="n">
+        <v>97.01000000000001</v>
+      </c>
+      <c r="K216" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>97.01000000000001</v>
+      </c>
+      <c r="C217" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="D217" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="E217" t="n">
+        <v>97.01000000000001</v>
+      </c>
+      <c r="F217" t="n">
+        <v>442.4327</v>
+      </c>
+      <c r="G217" t="n">
+        <v>-287770.5353730785</v>
+      </c>
+      <c r="H217" t="n">
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="n">
+        <v>97.01000000000001</v>
+      </c>
+      <c r="K217" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="N217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="C218" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="D218" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="E218" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="F218" t="n">
+        <v>635.7907</v>
+      </c>
+      <c r="G218" t="n">
+        <v>-287770.5353730785</v>
+      </c>
+      <c r="H218" t="n">
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="K218" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="C219" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="D219" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="E219" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="F219" t="n">
+        <v>1000.3</v>
+      </c>
+      <c r="G219" t="n">
+        <v>-287770.5353730785</v>
+      </c>
+      <c r="H219" t="n">
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="K219" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+      <c r="N219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>96.90000000000001</v>
+      </c>
+      <c r="C220" t="n">
+        <v>96.90000000000001</v>
+      </c>
+      <c r="D220" t="n">
+        <v>96.90000000000001</v>
+      </c>
+      <c r="E220" t="n">
+        <v>96.90000000000001</v>
+      </c>
+      <c r="F220" t="n">
+        <v>3760.8453</v>
+      </c>
+      <c r="G220" t="n">
+        <v>-291531.3806730785</v>
+      </c>
+      <c r="H220" t="n">
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="K220" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="N220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="C221" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="D221" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="E221" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="F221" t="n">
+        <v>6</v>
+      </c>
+      <c r="G221" t="n">
+        <v>-291525.3806730785</v>
+      </c>
+      <c r="H221" t="n">
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="n">
+        <v>96.90000000000001</v>
+      </c>
+      <c r="K221" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M221" t="n">
+        <v>1</v>
+      </c>
+      <c r="N221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="C222" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="D222" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="E222" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="F222" t="n">
+        <v>597.9793</v>
+      </c>
+      <c r="G222" t="n">
+        <v>-291525.3806730785</v>
+      </c>
+      <c r="H222" t="n">
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="K222" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M222" t="n">
+        <v>1</v>
+      </c>
+      <c r="N222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="C223" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="D223" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="E223" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="F223" t="n">
+        <v>354.2062</v>
+      </c>
+      <c r="G223" t="n">
+        <v>-291525.3806730785</v>
+      </c>
+      <c r="H223" t="n">
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="K223" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M223" t="n">
+        <v>1</v>
+      </c>
+      <c r="N223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="C224" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="D224" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="E224" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="F224" t="n">
+        <v>749.2394</v>
+      </c>
+      <c r="G224" t="n">
+        <v>-291525.3806730785</v>
+      </c>
+      <c r="H224" t="n">
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="K224" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M224" t="n">
+        <v>1</v>
+      </c>
+      <c r="N224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="C225" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="D225" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="E225" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="F225" t="n">
+        <v>349.8471</v>
+      </c>
+      <c r="G225" t="n">
+        <v>-291525.3806730785</v>
+      </c>
+      <c r="H225" t="n">
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="K225" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M225" t="n">
+        <v>1</v>
+      </c>
+      <c r="N225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="C226" t="n">
+        <v>97.56</v>
+      </c>
+      <c r="D226" t="n">
+        <v>97.56</v>
+      </c>
+      <c r="E226" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="F226" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G226" t="n">
+        <v>-289525.3806730785</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M226" t="n">
+        <v>1</v>
+      </c>
+      <c r="N226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="C227" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="D227" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="E227" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="F227" t="n">
+        <v>5099.6298</v>
+      </c>
+      <c r="G227" t="n">
+        <v>-294625.0104730785</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M227" t="n">
+        <v>1</v>
+      </c>
+      <c r="N227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="C228" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="D228" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="E228" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="F228" t="n">
+        <v>621.6648</v>
+      </c>
+      <c r="G228" t="n">
+        <v>-294625.0104730785</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M228" t="n">
+        <v>1</v>
+      </c>
+      <c r="N228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>97.01000000000001</v>
+      </c>
+      <c r="C229" t="n">
+        <v>97.01000000000001</v>
+      </c>
+      <c r="D229" t="n">
+        <v>97.01000000000001</v>
+      </c>
+      <c r="E229" t="n">
+        <v>97.01000000000001</v>
+      </c>
+      <c r="F229" t="n">
+        <v>4901.9608</v>
+      </c>
+      <c r="G229" t="n">
+        <v>-299526.9712730785</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M229" t="n">
+        <v>1</v>
+      </c>
+      <c r="N229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="C230" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="D230" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="E230" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="F230" t="n">
+        <v>6</v>
+      </c>
+      <c r="G230" t="n">
+        <v>-299520.9712730785</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M230" t="n">
+        <v>1</v>
+      </c>
+      <c r="N230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>97</v>
+      </c>
+      <c r="C231" t="n">
         <v>96.91</v>
       </c>
-      <c r="D160" t="n">
+      <c r="D231" t="n">
         <v>97</v>
       </c>
-      <c r="E160" t="n">
+      <c r="E231" t="n">
         <v>96.91</v>
       </c>
-      <c r="F160" t="n">
+      <c r="F231" t="n">
         <v>19655.2854</v>
       </c>
-      <c r="G160" t="n">
+      <c r="G231" t="n">
         <v>-319176.2566730785</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="L231" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="M231" t="n">
+        <v>1</v>
+      </c>
+      <c r="N231" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-26 BackTest ENJ.xlsx
+++ b/BackTest/2020-01-26 BackTest ENJ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -583,7 +583,7 @@
         <v>281026.77698921</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>280546.77698921</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>281166.77698921</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>279388.37818921</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>299431.5542533534</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>299431.5542533534</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>299078.9428533535</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>308104.5709533534</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>308104.5709533534</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>308104.5709533534</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>300654.5961533535</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>317576.4066543406</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>319576.4066543406</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>319576.4066543406</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>314847.7282543406</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>104269.8521543406</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>89645.60775434063</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>94908.58455434063</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>91145.93315434063</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>91145.93315434063</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>56809.91195434063</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>73172.88455434062</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>73181.88455434062</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>71151.08395434062</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>72136.64685434062</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>64602.88195434062</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>64500.23695434062</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>71792.98805434062</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>65864.11865434062</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>65864.11865434062</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>64264.11865434062</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>64264.11865434062</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-40389.70934565937</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-134525.2606456594</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-206229.5209456594</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-233668.6902456594</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-233650.5979456594</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-303078.8784456594</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-302997.7212456593</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-287457.2007456594</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-292166.9024456593</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-280382.3012456593</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-376059.8310599102</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -4081,10 +4081,14 @@
         <v>-603106.2467210843</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>96.3</v>
+      </c>
+      <c r="J112" t="n">
+        <v>96.3</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
@@ -4117,8 +4121,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>96.3</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4150,8 +4160,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>96.3</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -5863,11 +5879,17 @@
         <v>-541812.0270210843</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>97</v>
+      </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5896,11 +5918,17 @@
         <v>-541812.0270210843</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>96.59999999999999</v>
+      </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5929,11 +5957,17 @@
         <v>-541772.0270210843</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>96.59999999999999</v>
+      </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5962,15 +5996,17 @@
         <v>-541772.0270210843</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I169" t="n">
         <v>96.79000000000001</v>
       </c>
-      <c r="J169" t="n">
-        <v>96.79000000000001</v>
-      </c>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -5999,15 +6035,15 @@
         <v>-543885.0462730785</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
         <v>96.79000000000001</v>
       </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L170" t="n">
@@ -6038,15 +6074,15 @@
         <v>-546568.1511730786</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>96.79000000000001</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>96.78</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L171" t="n">
@@ -6077,15 +6113,17 @@
         <v>-546207.3152730786</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I172" t="n">
         <v>96.77</v>
       </c>
-      <c r="J172" t="n">
-        <v>96.77</v>
-      </c>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6114,15 +6152,15 @@
         <v>-547292.1833730786</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>96.77</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>96.79000000000001</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L173" t="n">
@@ -6153,15 +6191,15 @@
         <v>-547292.1833730786</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>96.77</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L174" t="n">
@@ -6192,17 +6230,15 @@
         <v>-551009.6687730786</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I175" t="n">
         <v>96.59999999999999</v>
       </c>
-      <c r="J175" t="n">
-        <v>96.77</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L175" t="n">
@@ -6233,14 +6269,12 @@
         <v>-554231.3173730785</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I176" t="n">
         <v>96.59</v>
       </c>
-      <c r="J176" t="n">
-        <v>96.77</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6274,14 +6308,12 @@
         <v>-156386.6567730785</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I177" t="n">
         <v>96.3</v>
       </c>
-      <c r="J177" t="n">
-        <v>96.77</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6318,9 +6350,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>96.77</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6357,9 +6387,7 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>96.77</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6396,9 +6424,7 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>96.77</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6435,9 +6461,7 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>96.77</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6471,12 +6495,12 @@
         <v>-230870.9650730786</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>96.77</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>96.98999999999999</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6510,12 +6534,12 @@
         <v>-232853.9103730785</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>96.77</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>96.98</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6549,12 +6573,12 @@
         <v>-225818.1812730785</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>96.77</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>96.31</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6588,14 +6612,12 @@
         <v>-240507.5880730785</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I185" t="n">
         <v>96.90000000000001</v>
       </c>
-      <c r="J185" t="n">
-        <v>96.77</v>
-      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6629,14 +6651,12 @@
         <v>-248668.7952730785</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I186" t="n">
         <v>96.89</v>
       </c>
-      <c r="J186" t="n">
-        <v>96.77</v>
-      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6670,14 +6690,12 @@
         <v>-235610.4748730786</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I187" t="n">
         <v>96.61</v>
       </c>
-      <c r="J187" t="n">
-        <v>96.77</v>
-      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6711,14 +6729,12 @@
         <v>-241987.9417730785</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I188" t="n">
         <v>96.88</v>
       </c>
-      <c r="J188" t="n">
-        <v>96.77</v>
-      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6752,12 +6768,12 @@
         <v>-269246.0730730785</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>96.77</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>96.87</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6794,9 +6810,7 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>96.77</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6830,12 +6844,12 @@
         <v>-269246.0730730785</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>96.77</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6872,9 +6886,7 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>96.77</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6908,12 +6920,12 @@
         <v>-278167.4275730785</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>96.77</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>96.31</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6947,14 +6959,12 @@
         <v>-278167.4275730785</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I194" t="n">
         <v>96.8</v>
       </c>
-      <c r="J194" t="n">
-        <v>96.77</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6988,12 +6998,12 @@
         <v>-278167.4275730785</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>96.77</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>96.8</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7027,14 +7037,12 @@
         <v>-278484.2214730785</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I196" t="n">
         <v>96.8</v>
       </c>
-      <c r="J196" t="n">
-        <v>96.77</v>
-      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7068,12 +7076,12 @@
         <v>-273608.2214730785</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>96.77</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>96.44</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7107,12 +7115,12 @@
         <v>-273602.2214730785</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
         <v>96.77</v>
       </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7146,12 +7154,12 @@
         <v>-280957.2214730785</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>96.77</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>96.98999999999999</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7188,9 +7196,7 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>96.77</v>
-      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7227,9 +7233,7 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>96.77</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7266,9 +7270,7 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>96.77</v>
-      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7305,9 +7307,7 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>96.77</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7344,9 +7344,7 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>96.77</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7383,9 +7381,7 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>96.77</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7422,9 +7418,7 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>96.77</v>
-      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7461,9 +7455,7 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>96.77</v>
-      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7500,9 +7492,7 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>96.77</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7539,9 +7529,7 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>96.77</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7578,9 +7566,7 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>96.77</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7617,9 +7603,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>96.77</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7656,9 +7640,7 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>96.77</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7695,9 +7677,7 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>96.77</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7734,9 +7714,7 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>96.77</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7773,9 +7751,7 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>96.77</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7812,9 +7788,7 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>96.77</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7851,9 +7825,7 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>96.77</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7890,9 +7862,7 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>96.77</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7929,9 +7899,7 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>96.77</v>
-      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7968,9 +7936,7 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>96.77</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8007,9 +7973,7 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>96.77</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8046,9 +8010,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>96.77</v>
-      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8085,9 +8047,7 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>96.77</v>
-      </c>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8124,9 +8084,7 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>96.77</v>
-      </c>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8160,14 +8118,10 @@
         <v>-291525.3806730785</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
-      </c>
-      <c r="I225" t="n">
-        <v>97.2</v>
-      </c>
-      <c r="J225" t="n">
-        <v>96.77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8201,14 +8155,10 @@
         <v>-289525.3806730785</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
-      </c>
-      <c r="I226" t="n">
-        <v>97.2</v>
-      </c>
-      <c r="J226" t="n">
-        <v>96.77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8245,9 +8195,7 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>96.77</v>
-      </c>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8284,9 +8232,7 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>96.77</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8323,9 +8269,7 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>96.77</v>
-      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8362,9 +8306,7 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>96.77</v>
-      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8401,9 +8343,7 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>96.77</v>
-      </c>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8415,6 +8355,6 @@
       <c r="M231" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-26 BackTest ENJ.xlsx
+++ b/BackTest/2020-01-26 BackTest ENJ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -583,7 +583,7 @@
         <v>281026.77698921</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>279388.37818921</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>299431.5542533534</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>299431.5542533534</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>319576.4066543406</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>319576.4066543406</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>314847.7282543406</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>94908.58455434063</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>91145.93315434063</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>91145.93315434063</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>56809.91195434063</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>73172.88455434062</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>73181.88455434062</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>71151.08395434062</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>72136.64685434062</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>64602.88195434062</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>64500.23695434062</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>71792.98805434062</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>65864.11865434062</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>65864.11865434062</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>64264.11865434062</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>64264.11865434062</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-40389.70934565937</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-134525.2606456594</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-206229.5209456594</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-233668.6902456594</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-233650.5979456594</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-303078.8784456594</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-302997.7212456593</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-287457.2007456594</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-292166.9024456593</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -4081,14 +4081,10 @@
         <v>-603106.2467210843</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>96.3</v>
-      </c>
-      <c r="J112" t="n">
-        <v>96.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
@@ -4121,14 +4117,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>96.3</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4160,14 +4150,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>96.3</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4955,7 +4939,7 @@
         <v>-509063.3732210843</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4988,7 +4972,7 @@
         <v>-510652.7384210843</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5021,7 +5005,7 @@
         <v>-511670.4811210843</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5417,7 +5401,7 @@
         <v>-498807.4792210843</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5450,7 +5434,7 @@
         <v>-497808.4792210843</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5483,7 +5467,7 @@
         <v>-497808.4792210843</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5516,7 +5500,7 @@
         <v>-509808.4792210843</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5549,7 +5533,7 @@
         <v>-509808.4792210843</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5582,7 +5566,7 @@
         <v>-522799.4586210843</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5615,7 +5599,7 @@
         <v>-523799.4586210843</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5648,7 +5632,7 @@
         <v>-523799.4586210843</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5681,7 +5665,7 @@
         <v>-523733.3303210844</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5714,7 +5698,7 @@
         <v>-523818.0270210843</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5747,7 +5731,7 @@
         <v>-523818.0270210843</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5780,7 +5764,7 @@
         <v>-536818.0270210843</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5846,7 +5830,7 @@
         <v>-540812.0270210843</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5879,368 +5863,340 @@
         <v>-541812.0270210843</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>97</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="C167" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="D167" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="E167" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="F167" t="n">
+        <v>498.3848</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-541812.0270210843</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>96.79000000000001</v>
+      </c>
+      <c r="C168" t="n">
+        <v>96.79000000000001</v>
+      </c>
+      <c r="D168" t="n">
+        <v>96.79000000000001</v>
+      </c>
+      <c r="E168" t="n">
+        <v>96.79000000000001</v>
+      </c>
+      <c r="F168" t="n">
+        <v>40</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-541772.0270210843</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>96.79000000000001</v>
+      </c>
+      <c r="C169" t="n">
+        <v>96.79000000000001</v>
+      </c>
+      <c r="D169" t="n">
+        <v>96.79000000000001</v>
+      </c>
+      <c r="E169" t="n">
+        <v>96.79000000000001</v>
+      </c>
+      <c r="F169" t="n">
+        <v>3093.6499</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-541772.0270210843</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>96.78</v>
+      </c>
+      <c r="C170" t="n">
+        <v>96.78</v>
+      </c>
+      <c r="D170" t="n">
+        <v>96.78</v>
+      </c>
+      <c r="E170" t="n">
+        <v>96.78</v>
+      </c>
+      <c r="F170" t="n">
+        <v>2113.019251994214</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-543885.0462730785</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>96.77</v>
+      </c>
+      <c r="C171" t="n">
+        <v>96.77</v>
+      </c>
+      <c r="D171" t="n">
+        <v>96.77</v>
+      </c>
+      <c r="E171" t="n">
+        <v>96.77</v>
+      </c>
+      <c r="F171" t="n">
+        <v>2683.1049</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-546568.1511730786</v>
+      </c>
+      <c r="H171" t="n">
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>96.78</v>
+      </c>
+      <c r="J171" t="n">
+        <v>96.78</v>
+      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>96.79000000000001</v>
+      </c>
+      <c r="C172" t="n">
+        <v>96.79000000000001</v>
+      </c>
+      <c r="D172" t="n">
+        <v>96.79000000000001</v>
+      </c>
+      <c r="E172" t="n">
+        <v>96.79000000000001</v>
+      </c>
+      <c r="F172" t="n">
+        <v>360.8359</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-546207.3152730786</v>
+      </c>
+      <c r="H172" t="n">
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>96.77</v>
+      </c>
+      <c r="J172" t="n">
+        <v>96.78</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="C173" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="D173" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="E173" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="F173" t="n">
+        <v>1084.8681</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-547292.1833730786</v>
+      </c>
+      <c r="H173" t="n">
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>96.79000000000001</v>
+      </c>
+      <c r="J173" t="n">
+        <v>96.78</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="C174" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="D174" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="E174" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="F174" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-547292.1833730786</v>
+      </c>
+      <c r="H174" t="n">
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="J174" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="C175" t="n">
+        <v>96.59</v>
+      </c>
+      <c r="D175" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="E175" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="F175" t="n">
+        <v>3717.4854</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-551009.6687730786</v>
+      </c>
+      <c r="H175" t="n">
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="J175" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="K175" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="C167" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="D167" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="E167" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="F167" t="n">
-        <v>498.3848</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-541812.0270210843</v>
-      </c>
-      <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>96.79000000000001</v>
-      </c>
-      <c r="C168" t="n">
-        <v>96.79000000000001</v>
-      </c>
-      <c r="D168" t="n">
-        <v>96.79000000000001</v>
-      </c>
-      <c r="E168" t="n">
-        <v>96.79000000000001</v>
-      </c>
-      <c r="F168" t="n">
-        <v>40</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-541772.0270210843</v>
-      </c>
-      <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>96.79000000000001</v>
-      </c>
-      <c r="C169" t="n">
-        <v>96.79000000000001</v>
-      </c>
-      <c r="D169" t="n">
-        <v>96.79000000000001</v>
-      </c>
-      <c r="E169" t="n">
-        <v>96.79000000000001</v>
-      </c>
-      <c r="F169" t="n">
-        <v>3093.6499</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-541772.0270210843</v>
-      </c>
-      <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>96.79000000000001</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>96.78</v>
-      </c>
-      <c r="C170" t="n">
-        <v>96.78</v>
-      </c>
-      <c r="D170" t="n">
-        <v>96.78</v>
-      </c>
-      <c r="E170" t="n">
-        <v>96.78</v>
-      </c>
-      <c r="F170" t="n">
-        <v>2113.019251994214</v>
-      </c>
-      <c r="G170" t="n">
-        <v>-543885.0462730785</v>
-      </c>
-      <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>96.79000000000001</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>96.77</v>
-      </c>
-      <c r="C171" t="n">
-        <v>96.77</v>
-      </c>
-      <c r="D171" t="n">
-        <v>96.77</v>
-      </c>
-      <c r="E171" t="n">
-        <v>96.77</v>
-      </c>
-      <c r="F171" t="n">
-        <v>2683.1049</v>
-      </c>
-      <c r="G171" t="n">
-        <v>-546568.1511730786</v>
-      </c>
-      <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>96.78</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>96.79000000000001</v>
-      </c>
-      <c r="C172" t="n">
-        <v>96.79000000000001</v>
-      </c>
-      <c r="D172" t="n">
-        <v>96.79000000000001</v>
-      </c>
-      <c r="E172" t="n">
-        <v>96.79000000000001</v>
-      </c>
-      <c r="F172" t="n">
-        <v>360.8359</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-546207.3152730786</v>
-      </c>
-      <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>96.77</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="C173" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="D173" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="E173" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="F173" t="n">
-        <v>1084.8681</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-547292.1833730786</v>
-      </c>
-      <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>96.79000000000001</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="C174" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="D174" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="E174" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="F174" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-547292.1833730786</v>
-      </c>
-      <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="C175" t="n">
-        <v>96.59</v>
-      </c>
-      <c r="D175" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="E175" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="F175" t="n">
-        <v>3717.4854</v>
-      </c>
-      <c r="G175" t="n">
-        <v>-551009.6687730786</v>
-      </c>
-      <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6274,7 +6230,9 @@
       <c r="I176" t="n">
         <v>96.59</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>96.59999999999999</v>
+      </c>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6313,7 +6271,9 @@
       <c r="I177" t="n">
         <v>96.3</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>96.59999999999999</v>
+      </c>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6350,7 +6310,9 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>96.59999999999999</v>
+      </c>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6387,7 +6349,9 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>96.59999999999999</v>
+      </c>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6421,10 +6385,14 @@
         <v>-220691.6567730785</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>96.20999999999999</v>
+      </c>
+      <c r="J180" t="n">
+        <v>96.59999999999999</v>
+      </c>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6461,7 +6429,9 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>96.59999999999999</v>
+      </c>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6495,12 +6465,12 @@
         <v>-230870.9650730786</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>96.98999999999999</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>96.59999999999999</v>
+      </c>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6534,12 +6504,12 @@
         <v>-232853.9103730785</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>96.98</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>96.59999999999999</v>
+      </c>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6573,12 +6543,12 @@
         <v>-225818.1812730785</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>96.31</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>96.59999999999999</v>
+      </c>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6612,12 +6582,12 @@
         <v>-240507.5880730785</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>96.90000000000001</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>96.59999999999999</v>
+      </c>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6651,19 +6621,19 @@
         <v>-248668.7952730785</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>96.89</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>96.59999999999999</v>
+      </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L186" t="n">
-        <v>1</v>
+        <v>0.9951035196687371</v>
       </c>
       <c r="M186" t="inlineStr"/>
     </row>
@@ -6690,17 +6660,11 @@
         <v>-235610.4748730786</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>96.61</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6729,17 +6693,11 @@
         <v>-241987.9417730785</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>96.88</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6768,17 +6726,11 @@
         <v>-269246.0730730785</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>96.87</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6807,15 +6759,11 @@
         <v>-269246.0730730785</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6844,17 +6792,11 @@
         <v>-269246.0730730785</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>96.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6887,11 +6829,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6920,17 +6858,11 @@
         <v>-278167.4275730785</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>96.31</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6959,17 +6891,11 @@
         <v>-278167.4275730785</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>96.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6998,17 +6924,11 @@
         <v>-278167.4275730785</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>96.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7037,17 +6957,11 @@
         <v>-278484.2214730785</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>96.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7076,17 +6990,11 @@
         <v>-273608.2214730785</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>96.44</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7115,17 +7023,11 @@
         <v>-273602.2214730785</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>96.77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7154,17 +7056,11 @@
         <v>-280957.2214730785</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>96.98999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7197,11 +7093,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7234,11 +7126,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7271,11 +7159,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7308,11 +7192,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7345,11 +7225,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7382,11 +7258,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7419,11 +7291,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7456,11 +7324,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7493,11 +7357,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7530,11 +7390,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7567,11 +7423,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7604,11 +7456,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7641,11 +7489,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7678,11 +7522,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7715,11 +7555,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7752,11 +7588,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7789,11 +7621,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7826,11 +7654,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7863,11 +7687,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7900,11 +7720,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7937,11 +7753,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7974,11 +7786,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8011,11 +7819,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8048,11 +7852,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8085,11 +7885,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8122,11 +7918,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8159,11 +7951,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8196,11 +7984,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8233,11 +8017,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8270,11 +8050,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8307,11 +8083,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8344,17 +8116,13 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
       <c r="M231" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-26 BackTest ENJ.xlsx
+++ b/BackTest/2020-01-26 BackTest ENJ.xlsx
@@ -484,7 +484,7 @@
         <v>279519.0342390629</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>280109.0342390629</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>281646.77698921</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>281026.77698921</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>280546.77698921</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>281166.77698921</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>281166.77698921</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>279388.37818921</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>279388.37818921</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>299431.5542533534</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>299078.9428533535</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>299078.9428533535</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>299078.9428533535</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>308104.5709533534</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>300748.7834533534</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>300654.5961533535</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>317576.4066543406</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>319576.4066543406</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>319576.4066543406</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>319576.4066543406</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>314847.7282543406</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>308091.7330543406</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>310436.2474543406</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>309626.2476543406</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>302983.1128543406</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>303383.1127543406</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>104269.8521543406</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>115199.8521543406</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>110683.1903543406</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-509063.3732210843</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-510652.7384210843</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,11 +5005,17 @@
         <v>-511670.4811210843</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>97.09999999999999</v>
+      </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5038,11 +5044,17 @@
         <v>-511670.4811210843</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>96.91</v>
+      </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5071,11 +5083,17 @@
         <v>-507670.4811210843</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>96.91</v>
+      </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5104,11 +5122,17 @@
         <v>-507670.4811210843</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>97.09999999999999</v>
+      </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5137,11 +5161,17 @@
         <v>-507670.4811210843</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>97.09999999999999</v>
+      </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5170,11 +5200,17 @@
         <v>-501225.6210210843</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>97.09999999999999</v>
+      </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5203,11 +5239,17 @@
         <v>-501225.6210210843</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>97.34999999999999</v>
+      </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5236,11 +5278,17 @@
         <v>-502343.4923210843</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>97.34999999999999</v>
+      </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5269,11 +5317,17 @@
         <v>-502343.4923210843</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>97.09999999999999</v>
+      </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5302,11 +5356,17 @@
         <v>-502343.4923210843</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>97.09999999999999</v>
+      </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5335,11 +5395,17 @@
         <v>-499343.4923210843</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>97.09999999999999</v>
+      </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5368,11 +5434,17 @@
         <v>-498807.4792210843</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>97.41</v>
+      </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5401,11 +5473,15 @@
         <v>-498807.4792210843</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5434,11 +5510,17 @@
         <v>-497808.4792210843</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>97.90000000000001</v>
+      </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5467,11 +5549,15 @@
         <v>-497808.4792210843</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5500,11 +5586,15 @@
         <v>-509808.4792210843</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5533,11 +5623,17 @@
         <v>-509808.4792210843</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>97.42</v>
+      </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5566,11 +5662,17 @@
         <v>-522799.4586210843</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>97.42</v>
+      </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5599,11 +5701,17 @@
         <v>-523799.4586210843</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>97.40000000000001</v>
+      </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5632,11 +5740,15 @@
         <v>-523799.4586210843</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5665,11 +5777,17 @@
         <v>-523733.3303210844</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>97.3</v>
+      </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5698,11 +5816,17 @@
         <v>-523818.0270210843</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>97.98999999999999</v>
+      </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5731,11 +5855,17 @@
         <v>-523818.0270210843</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>97.5</v>
+      </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5764,11 +5894,17 @@
         <v>-536818.0270210843</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>97.5</v>
+      </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5797,11 +5933,17 @@
         <v>-536812.0270210843</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>97.40000000000001</v>
+      </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5830,11 +5972,15 @@
         <v>-540812.0270210843</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5863,11 +6009,17 @@
         <v>-541812.0270210843</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>97</v>
+      </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5896,11 +6048,17 @@
         <v>-541812.0270210843</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>96.59999999999999</v>
+      </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5929,11 +6087,17 @@
         <v>-541772.0270210843</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>96.59999999999999</v>
+      </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5962,11 +6126,17 @@
         <v>-541772.0270210843</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>96.79000000000001</v>
+      </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -5995,11 +6165,17 @@
         <v>-543885.0462730785</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>96.79000000000001</v>
+      </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6033,10 +6209,12 @@
       <c r="I171" t="n">
         <v>96.78</v>
       </c>
-      <c r="J171" t="n">
-        <v>96.78</v>
-      </c>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6070,12 +6248,10 @@
       <c r="I172" t="n">
         <v>96.77</v>
       </c>
-      <c r="J172" t="n">
-        <v>96.78</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L172" t="n">
@@ -6111,12 +6287,10 @@
       <c r="I173" t="n">
         <v>96.79000000000001</v>
       </c>
-      <c r="J173" t="n">
-        <v>96.78</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L173" t="n">
@@ -6152,10 +6326,12 @@
       <c r="I174" t="n">
         <v>96.59999999999999</v>
       </c>
-      <c r="J174" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6189,12 +6365,10 @@
       <c r="I175" t="n">
         <v>96.59999999999999</v>
       </c>
-      <c r="J175" t="n">
-        <v>96.59999999999999</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L175" t="n">
@@ -6230,9 +6404,7 @@
       <c r="I176" t="n">
         <v>96.59</v>
       </c>
-      <c r="J176" t="n">
-        <v>96.59999999999999</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6271,9 +6443,7 @@
       <c r="I177" t="n">
         <v>96.3</v>
       </c>
-      <c r="J177" t="n">
-        <v>96.59999999999999</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6310,9 +6480,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>96.59999999999999</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6349,9 +6517,7 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>96.59999999999999</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6385,14 +6551,10 @@
         <v>-220691.6567730785</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>96.20999999999999</v>
-      </c>
-      <c r="J180" t="n">
-        <v>96.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6429,9 +6591,7 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>96.59999999999999</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6468,9 +6628,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>96.59999999999999</v>
-      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6507,9 +6665,7 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>96.59999999999999</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6546,9 +6702,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>96.59999999999999</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6582,12 +6736,10 @@
         <v>-240507.5880730785</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>96.59999999999999</v>
-      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6621,19 +6773,17 @@
         <v>-248668.7952730785</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>96.59999999999999</v>
-      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L186" t="n">
-        <v>0.9951035196687371</v>
+        <v>1</v>
       </c>
       <c r="M186" t="inlineStr"/>
     </row>
@@ -6660,11 +6810,15 @@
         <v>-235610.4748730786</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6693,11 +6847,15 @@
         <v>-241987.9417730785</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6726,11 +6884,15 @@
         <v>-269246.0730730785</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6759,11 +6921,15 @@
         <v>-269246.0730730785</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6796,7 +6962,11 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6829,7 +6999,11 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6862,7 +7036,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6895,7 +7073,11 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6928,7 +7110,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6961,7 +7147,11 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6994,7 +7184,11 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7027,7 +7221,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7060,7 +7258,11 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7093,7 +7295,11 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7126,7 +7332,11 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7159,7 +7369,11 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7192,7 +7406,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7225,7 +7443,11 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7258,7 +7480,11 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7291,7 +7517,11 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7324,7 +7554,11 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7357,7 +7591,11 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7390,7 +7628,11 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7423,7 +7665,11 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7456,7 +7702,11 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7489,7 +7739,11 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7522,7 +7776,11 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7555,7 +7813,11 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7588,7 +7850,11 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7621,7 +7887,11 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7654,7 +7924,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7687,7 +7961,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7720,7 +7998,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7753,7 +8035,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7786,7 +8072,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7819,7 +8109,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7852,7 +8146,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7885,7 +8183,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7918,7 +8220,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7951,7 +8257,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7984,7 +8294,11 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8017,7 +8331,11 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8050,7 +8368,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8083,7 +8405,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8116,7 +8442,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-26 BackTest ENJ.xlsx
+++ b/BackTest/2020-01-26 BackTest ENJ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M231"/>
+  <dimension ref="A1:L231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>319.7591</v>
       </c>
       <c r="G2" t="n">
-        <v>281125.5498390628</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>1606.5156</v>
       </c>
       <c r="G3" t="n">
-        <v>279519.0342390629</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>590</v>
       </c>
       <c r="G4" t="n">
-        <v>280109.0342390629</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>1537.742750147203</v>
       </c>
       <c r="G5" t="n">
-        <v>281646.77698921</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>620</v>
       </c>
       <c r="G6" t="n">
-        <v>281026.77698921</v>
-      </c>
-      <c r="H6" t="n">
         <v>2</v>
       </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>480</v>
       </c>
       <c r="G7" t="n">
-        <v>280546.77698921</v>
-      </c>
-      <c r="H7" t="n">
         <v>2</v>
       </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>620</v>
       </c>
       <c r="G8" t="n">
-        <v>281166.77698921</v>
-      </c>
-      <c r="H8" t="n">
         <v>2</v>
       </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>17106.3598</v>
       </c>
       <c r="G9" t="n">
-        <v>281166.77698921</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>1778.3988</v>
       </c>
       <c r="G10" t="n">
-        <v>279388.37818921</v>
-      </c>
-      <c r="H10" t="n">
         <v>2</v>
       </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>27.24103585657371</v>
       </c>
       <c r="G11" t="n">
-        <v>279388.37818921</v>
-      </c>
-      <c r="H11" t="n">
         <v>2</v>
       </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>20043.17606414343</v>
       </c>
       <c r="G12" t="n">
-        <v>299431.5542533534</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>2000</v>
       </c>
       <c r="G13" t="n">
-        <v>299431.5542533534</v>
-      </c>
-      <c r="H13" t="n">
         <v>2</v>
       </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>352.6114</v>
       </c>
       <c r="G14" t="n">
-        <v>299078.9428533535</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>197.3886</v>
       </c>
       <c r="G15" t="n">
-        <v>299078.9428533535</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>10688.9302</v>
       </c>
       <c r="G16" t="n">
-        <v>299078.9428533535</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>9025.6281</v>
       </c>
       <c r="G17" t="n">
-        <v>308104.5709533534</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>17656.3598</v>
       </c>
       <c r="G18" t="n">
-        <v>308104.5709533534</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>575.4383</v>
       </c>
       <c r="G19" t="n">
-        <v>308104.5709533534</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>7355.7875</v>
       </c>
       <c r="G20" t="n">
-        <v>300748.7834533534</v>
-      </c>
-      <c r="H20" t="n">
         <v>2</v>
       </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>94.18729999999999</v>
       </c>
       <c r="G21" t="n">
-        <v>300654.5961533535</v>
-      </c>
-      <c r="H21" t="n">
         <v>2</v>
       </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>16921.81050098717</v>
       </c>
       <c r="G22" t="n">
-        <v>317576.4066543406</v>
-      </c>
-      <c r="H22" t="n">
         <v>2</v>
       </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>2000</v>
       </c>
       <c r="G23" t="n">
-        <v>319576.4066543406</v>
-      </c>
-      <c r="H23" t="n">
         <v>2</v>
       </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>1184.0814</v>
       </c>
       <c r="G24" t="n">
-        <v>319576.4066543406</v>
-      </c>
-      <c r="H24" t="n">
         <v>2</v>
       </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>1625.9186</v>
       </c>
       <c r="G25" t="n">
-        <v>319576.4066543406</v>
-      </c>
-      <c r="H25" t="n">
         <v>2</v>
       </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>4728.6784</v>
       </c>
       <c r="G26" t="n">
-        <v>314847.7282543406</v>
-      </c>
-      <c r="H26" t="n">
         <v>2</v>
       </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>6755.9952</v>
       </c>
       <c r="G27" t="n">
-        <v>308091.7330543406</v>
-      </c>
-      <c r="H27" t="n">
         <v>2</v>
       </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>2344.5144</v>
       </c>
       <c r="G28" t="n">
-        <v>310436.2474543406</v>
-      </c>
-      <c r="H28" t="n">
         <v>2</v>
       </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>809.9998000000001</v>
       </c>
       <c r="G29" t="n">
-        <v>309626.2476543406</v>
-      </c>
-      <c r="H29" t="n">
         <v>2</v>
       </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>6643.1348</v>
       </c>
       <c r="G30" t="n">
-        <v>302983.1128543406</v>
-      </c>
-      <c r="H30" t="n">
         <v>2</v>
       </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>399.9999</v>
       </c>
       <c r="G31" t="n">
-        <v>303383.1127543406</v>
-      </c>
-      <c r="H31" t="n">
         <v>2</v>
       </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>199113.2606</v>
       </c>
       <c r="G32" t="n">
-        <v>104269.8521543406</v>
-      </c>
-      <c r="H32" t="n">
         <v>2</v>
       </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>10930</v>
       </c>
       <c r="G33" t="n">
-        <v>115199.8521543406</v>
-      </c>
-      <c r="H33" t="n">
         <v>2</v>
       </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>4516.6618</v>
       </c>
       <c r="G34" t="n">
-        <v>110683.1903543406</v>
-      </c>
-      <c r="H34" t="n">
         <v>2</v>
       </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>65.08580000000001</v>
       </c>
       <c r="G35" t="n">
-        <v>110748.2761543406</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>1301.3904</v>
       </c>
       <c r="G36" t="n">
-        <v>110748.2761543406</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>444.6668</v>
       </c>
       <c r="G37" t="n">
-        <v>110748.2761543406</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>3830.9809</v>
       </c>
       <c r="G38" t="n">
-        <v>106917.2952543406</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>280</v>
       </c>
       <c r="G39" t="n">
-        <v>106637.2952543406</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>16991.6875</v>
       </c>
       <c r="G40" t="n">
-        <v>89645.60775434063</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>5262.9768</v>
       </c>
       <c r="G41" t="n">
-        <v>94908.58455434063</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>3762.6514</v>
       </c>
       <c r="G42" t="n">
-        <v>91145.93315434063</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>5000</v>
       </c>
       <c r="G43" t="n">
-        <v>91145.93315434063</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>34336.0212</v>
       </c>
       <c r="G44" t="n">
-        <v>56809.91195434063</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>16362.9726</v>
       </c>
       <c r="G45" t="n">
-        <v>73172.88455434062</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>9</v>
       </c>
       <c r="G46" t="n">
-        <v>73181.88455434062</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>2030.8006</v>
       </c>
       <c r="G47" t="n">
-        <v>71151.08395434062</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>985.5629</v>
       </c>
       <c r="G48" t="n">
-        <v>72136.64685434062</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>7533.7649</v>
       </c>
       <c r="G49" t="n">
-        <v>64602.88195434062</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>102.645</v>
       </c>
       <c r="G50" t="n">
-        <v>64500.23695434062</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>7292.7511</v>
       </c>
       <c r="G51" t="n">
-        <v>71792.98805434062</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>5928.8694</v>
       </c>
       <c r="G52" t="n">
-        <v>65864.11865434062</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>9418.545400000001</v>
       </c>
       <c r="G53" t="n">
-        <v>65864.11865434062</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>1600</v>
       </c>
       <c r="G54" t="n">
-        <v>64264.11865434062</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>75319.74490000001</v>
       </c>
       <c r="G55" t="n">
-        <v>64264.11865434062</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>104653.828</v>
       </c>
       <c r="G56" t="n">
-        <v>-40389.70934565937</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>94135.55130000001</v>
       </c>
       <c r="G57" t="n">
-        <v>-134525.2606456594</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>71704.26029999999</v>
       </c>
       <c r="G58" t="n">
-        <v>-206229.5209456594</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>27439.1693</v>
       </c>
       <c r="G59" t="n">
-        <v>-233668.6902456594</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>18.0923</v>
       </c>
       <c r="G60" t="n">
-        <v>-233650.5979456594</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>1124.3442</v>
       </c>
       <c r="G61" t="n">
-        <v>-234774.9421456594</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>1150.3408</v>
       </c>
       <c r="G62" t="n">
-        <v>-235925.2829456594</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>77563.75290000001</v>
       </c>
       <c r="G63" t="n">
-        <v>-313489.0358456594</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>10762.7688</v>
       </c>
       <c r="G64" t="n">
-        <v>-302726.2670456594</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>352.6114</v>
       </c>
       <c r="G65" t="n">
-        <v>-303078.8784456594</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>81.1572</v>
       </c>
       <c r="G66" t="n">
-        <v>-302997.7212456593</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>15540.5205</v>
       </c>
       <c r="G67" t="n">
-        <v>-287457.2007456594</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>4709.7017</v>
       </c>
       <c r="G68" t="n">
-        <v>-292166.9024456593</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>8315.560600000001</v>
       </c>
       <c r="G69" t="n">
-        <v>-283851.3418456593</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>3469.0406</v>
       </c>
       <c r="G70" t="n">
-        <v>-280382.3012456593</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>28462.7042</v>
       </c>
       <c r="G71" t="n">
-        <v>-251919.5970456593</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>365.5379</v>
       </c>
       <c r="G72" t="n">
-        <v>-251554.0591456593</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>1389.8713</v>
       </c>
       <c r="G73" t="n">
-        <v>-252943.9304456593</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>365.5379</v>
       </c>
       <c r="G74" t="n">
-        <v>-252578.3925456593</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>104086.8098</v>
       </c>
       <c r="G75" t="n">
-        <v>-356665.2023456593</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>44701.91818574913</v>
       </c>
       <c r="G76" t="n">
-        <v>-311963.2841599102</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>3696.5584</v>
       </c>
       <c r="G77" t="n">
-        <v>-315659.8425599101</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>44317.5604</v>
       </c>
       <c r="G78" t="n">
-        <v>-359977.4029599102</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>7897.5329</v>
       </c>
       <c r="G79" t="n">
-        <v>-367874.9358599102</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>8184.8952</v>
       </c>
       <c r="G80" t="n">
-        <v>-376059.8310599102</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>11311.2798</v>
       </c>
       <c r="G81" t="n">
-        <v>-376059.8310599102</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>24140.6743</v>
       </c>
       <c r="G82" t="n">
-        <v>-400200.5053599102</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>98859.44469999999</v>
       </c>
       <c r="G83" t="n">
-        <v>-400200.5053599102</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>3621.0827</v>
       </c>
       <c r="G84" t="n">
-        <v>-400200.5053599102</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>52239.878</v>
       </c>
       <c r="G85" t="n">
-        <v>-400200.5053599102</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>140876.4748</v>
       </c>
       <c r="G86" t="n">
-        <v>-541076.9801599102</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>27730</v>
       </c>
       <c r="G87" t="n">
-        <v>-568806.9801599102</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>121711.4748</v>
       </c>
       <c r="G88" t="n">
-        <v>-447095.5053599102</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>100108.6933</v>
       </c>
       <c r="G89" t="n">
-        <v>-547204.1986599102</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>5225.4704</v>
       </c>
       <c r="G90" t="n">
-        <v>-552429.6690599102</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>20000</v>
       </c>
       <c r="G91" t="n">
-        <v>-532429.6690599102</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>1268.8554</v>
       </c>
       <c r="G92" t="n">
-        <v>-533698.5244599102</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>3805.0265</v>
       </c>
       <c r="G93" t="n">
-        <v>-529893.4979599102</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>2406.7191</v>
       </c>
       <c r="G94" t="n">
-        <v>-532300.2170599102</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>2702.8203</v>
       </c>
       <c r="G95" t="n">
-        <v>-535003.0373599102</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,21 @@
         <v>6962.5129</v>
       </c>
       <c r="G96" t="n">
-        <v>-528040.5244599102</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>96.7</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3299,21 @@
         <v>4358.1012</v>
       </c>
       <c r="G97" t="n">
-        <v>-528040.5244599102</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>96.88</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3335,21 @@
         <v>6257.6282</v>
       </c>
       <c r="G98" t="n">
-        <v>-534298.1526599103</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>96.88</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3371,21 @@
         <v>0.0001</v>
       </c>
       <c r="G99" t="n">
-        <v>-534298.1526599103</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>96.3</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3407,21 @@
         <v>36561.8836</v>
       </c>
       <c r="G100" t="n">
-        <v>-497736.2690599103</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>96.3</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3443,19 @@
         <v>15.4936</v>
       </c>
       <c r="G101" t="n">
-        <v>-497720.7754599103</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3477,19 @@
         <v>82327.8983</v>
       </c>
       <c r="G102" t="n">
-        <v>-580048.6737599103</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3511,19 @@
         <v>1900</v>
       </c>
       <c r="G103" t="n">
-        <v>-580048.6737599103</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3545,19 @@
         <v>13000</v>
       </c>
       <c r="G104" t="n">
-        <v>-580048.6737599103</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3579,19 @@
         <v>608.3825000000001</v>
       </c>
       <c r="G105" t="n">
-        <v>-580048.6737599103</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3613,19 @@
         <v>10.29866117404737</v>
       </c>
       <c r="G106" t="n">
-        <v>-580058.9724210843</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3647,19 @@
         <v>10.6518</v>
       </c>
       <c r="G107" t="n">
-        <v>-580069.6242210843</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3681,19 @@
         <v>2775.3755</v>
       </c>
       <c r="G108" t="n">
-        <v>-580069.6242210843</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3715,19 @@
         <v>34573.8412</v>
       </c>
       <c r="G109" t="n">
-        <v>-614643.4654210843</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3749,19 @@
         <v>3428.0117</v>
       </c>
       <c r="G110" t="n">
-        <v>-618071.4771210843</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3783,19 @@
         <v>14590.4235</v>
       </c>
       <c r="G111" t="n">
-        <v>-603481.0536210843</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3817,21 @@
         <v>374.8069</v>
       </c>
       <c r="G112" t="n">
-        <v>-603106.2467210843</v>
+        <v>1</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>96.3</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3853,19 @@
         <v>392.4325</v>
       </c>
       <c r="G113" t="n">
-        <v>-602713.8142210844</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3887,19 @@
         <v>81921.9675</v>
       </c>
       <c r="G114" t="n">
-        <v>-520791.8467210843</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3921,19 @@
         <v>1969.7897</v>
       </c>
       <c r="G115" t="n">
-        <v>-520791.8467210843</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3955,21 @@
         <v>6</v>
       </c>
       <c r="G116" t="n">
-        <v>-520785.8467210843</v>
+        <v>1</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3991,19 @@
         <v>1225.554</v>
       </c>
       <c r="G117" t="n">
-        <v>-519560.2927210843</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +4025,21 @@
         <v>0.0001</v>
       </c>
       <c r="G118" t="n">
-        <v>-519560.2927210843</v>
+        <v>1</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>97.2</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +4061,19 @@
         <v>9.9999</v>
       </c>
       <c r="G119" t="n">
-        <v>-519560.2927210843</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +4095,19 @@
         <v>2064.0277</v>
       </c>
       <c r="G120" t="n">
-        <v>-519560.2927210843</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4129,19 @@
         <v>917.0569</v>
       </c>
       <c r="G121" t="n">
-        <v>-519560.2927210843</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4163,19 @@
         <v>552.2329</v>
       </c>
       <c r="G122" t="n">
-        <v>-519560.2927210843</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4197,19 @@
         <v>20</v>
       </c>
       <c r="G123" t="n">
-        <v>-519560.2927210843</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4231,19 @@
         <v>222.9595</v>
       </c>
       <c r="G124" t="n">
-        <v>-519560.2927210843</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4265,19 @@
         <v>10980</v>
       </c>
       <c r="G125" t="n">
-        <v>-508580.2927210843</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4299,19 @@
         <v>96</v>
       </c>
       <c r="G126" t="n">
-        <v>-508676.2927210843</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4333,19 @@
         <v>2078.5833</v>
       </c>
       <c r="G127" t="n">
-        <v>-506597.7094210843</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4367,19 @@
         <v>330</v>
       </c>
       <c r="G128" t="n">
-        <v>-506927.7094210843</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4401,19 @@
         <v>157.1994</v>
       </c>
       <c r="G129" t="n">
-        <v>-506927.7094210843</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4435,19 @@
         <v>330</v>
       </c>
       <c r="G130" t="n">
-        <v>-506597.7094210843</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4469,19 @@
         <v>270.2434</v>
       </c>
       <c r="G131" t="n">
-        <v>-506867.9528210843</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4503,19 @@
         <v>268.811</v>
       </c>
       <c r="G132" t="n">
-        <v>-506867.9528210843</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4537,19 @@
         <v>30</v>
       </c>
       <c r="G133" t="n">
-        <v>-506897.9528210843</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4571,19 @@
         <v>114.5984</v>
       </c>
       <c r="G134" t="n">
-        <v>-506783.3544210843</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4605,19 @@
         <v>103.1385</v>
       </c>
       <c r="G135" t="n">
-        <v>-506783.3544210843</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4639,19 @@
         <v>92.82470000000001</v>
       </c>
       <c r="G136" t="n">
-        <v>-506783.3544210843</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4673,19 @@
         <v>83.54219999999999</v>
       </c>
       <c r="G137" t="n">
-        <v>-506783.3544210843</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4707,19 @@
         <v>2280.0188</v>
       </c>
       <c r="G138" t="n">
-        <v>-509063.3732210843</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4741,19 @@
         <v>1589.3652</v>
       </c>
       <c r="G139" t="n">
-        <v>-510652.7384210843</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,24 +4775,19 @@
         <v>1017.7427</v>
       </c>
       <c r="G140" t="n">
-        <v>-511670.4811210843</v>
-      </c>
-      <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>97.09999999999999</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5041,24 +4809,19 @@
         <v>9829.936100000001</v>
       </c>
       <c r="G141" t="n">
-        <v>-511670.4811210843</v>
-      </c>
-      <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>96.91</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5080,24 +4843,19 @@
         <v>4000</v>
       </c>
       <c r="G142" t="n">
-        <v>-507670.4811210843</v>
-      </c>
-      <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>96.91</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5119,24 +4877,19 @@
         <v>17827.2179</v>
       </c>
       <c r="G143" t="n">
-        <v>-507670.4811210843</v>
-      </c>
-      <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>97.09999999999999</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5158,24 +4911,19 @@
         <v>4892.6428</v>
       </c>
       <c r="G144" t="n">
-        <v>-507670.4811210843</v>
-      </c>
-      <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>97.09999999999999</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5197,24 +4945,19 @@
         <v>6444.8601</v>
       </c>
       <c r="G145" t="n">
-        <v>-501225.6210210843</v>
-      </c>
-      <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>97.09999999999999</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5236,24 +4979,19 @@
         <v>135.188</v>
       </c>
       <c r="G146" t="n">
-        <v>-501225.6210210843</v>
-      </c>
-      <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>97.34999999999999</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5275,24 +5013,19 @@
         <v>1117.8713</v>
       </c>
       <c r="G147" t="n">
-        <v>-502343.4923210843</v>
-      </c>
-      <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>97.34999999999999</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5314,24 +5047,19 @@
         <v>232.3836</v>
       </c>
       <c r="G148" t="n">
-        <v>-502343.4923210843</v>
-      </c>
-      <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>97.09999999999999</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5353,24 +5081,19 @@
         <v>0.3308</v>
       </c>
       <c r="G149" t="n">
-        <v>-502343.4923210843</v>
-      </c>
-      <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>97.09999999999999</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5392,24 +5115,19 @@
         <v>3000</v>
       </c>
       <c r="G150" t="n">
-        <v>-499343.4923210843</v>
-      </c>
-      <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>97.09999999999999</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5431,24 +5149,19 @@
         <v>536.0131</v>
       </c>
       <c r="G151" t="n">
-        <v>-498807.4792210843</v>
-      </c>
-      <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>97.41</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5470,22 +5183,19 @@
         <v>13588.1729</v>
       </c>
       <c r="G152" t="n">
-        <v>-498807.4792210843</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5507,24 +5217,19 @@
         <v>999</v>
       </c>
       <c r="G153" t="n">
-        <v>-497808.4792210843</v>
-      </c>
-      <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>97.90000000000001</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5546,22 +5251,19 @@
         <v>3000</v>
       </c>
       <c r="G154" t="n">
-        <v>-497808.4792210843</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5583,22 +5285,19 @@
         <v>12000</v>
       </c>
       <c r="G155" t="n">
-        <v>-509808.4792210843</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5620,24 +5319,19 @@
         <v>221.9891</v>
       </c>
       <c r="G156" t="n">
-        <v>-509808.4792210843</v>
-      </c>
-      <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>97.42</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5659,24 +5353,19 @@
         <v>12990.9794</v>
       </c>
       <c r="G157" t="n">
-        <v>-522799.4586210843</v>
-      </c>
-      <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>97.42</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5698,24 +5387,19 @@
         <v>1000</v>
       </c>
       <c r="G158" t="n">
-        <v>-523799.4586210843</v>
-      </c>
-      <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>97.40000000000001</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5737,22 +5421,19 @@
         <v>27</v>
       </c>
       <c r="G159" t="n">
-        <v>-523799.4586210843</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5774,24 +5455,19 @@
         <v>66.1283</v>
       </c>
       <c r="G160" t="n">
-        <v>-523733.3303210844</v>
-      </c>
-      <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>97.3</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5813,24 +5489,19 @@
         <v>84.69670000000001</v>
       </c>
       <c r="G161" t="n">
-        <v>-523818.0270210843</v>
-      </c>
-      <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>97.98999999999999</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5852,24 +5523,19 @@
         <v>221.989</v>
       </c>
       <c r="G162" t="n">
-        <v>-523818.0270210843</v>
-      </c>
-      <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5891,24 +5557,19 @@
         <v>13000</v>
       </c>
       <c r="G163" t="n">
-        <v>-536818.0270210843</v>
-      </c>
-      <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5930,24 +5591,19 @@
         <v>6</v>
       </c>
       <c r="G164" t="n">
-        <v>-536812.0270210843</v>
-      </c>
-      <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>97.40000000000001</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5969,22 +5625,19 @@
         <v>4000</v>
       </c>
       <c r="G165" t="n">
-        <v>-540812.0270210843</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6006,24 +5659,19 @@
         <v>1000</v>
       </c>
       <c r="G166" t="n">
-        <v>-541812.0270210843</v>
-      </c>
-      <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>97</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6045,24 +5693,19 @@
         <v>498.3848</v>
       </c>
       <c r="G167" t="n">
-        <v>-541812.0270210843</v>
-      </c>
-      <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6084,24 +5727,19 @@
         <v>40</v>
       </c>
       <c r="G168" t="n">
-        <v>-541772.0270210843</v>
-      </c>
-      <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6123,24 +5761,19 @@
         <v>3093.6499</v>
       </c>
       <c r="G169" t="n">
-        <v>-541772.0270210843</v>
-      </c>
-      <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>96.79000000000001</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6162,24 +5795,19 @@
         <v>2113.019251994214</v>
       </c>
       <c r="G170" t="n">
-        <v>-543885.0462730785</v>
-      </c>
-      <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>96.79000000000001</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6201,24 +5829,19 @@
         <v>2683.1049</v>
       </c>
       <c r="G171" t="n">
-        <v>-546568.1511730786</v>
-      </c>
-      <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>96.78</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6240,24 +5863,19 @@
         <v>360.8359</v>
       </c>
       <c r="G172" t="n">
-        <v>-546207.3152730786</v>
-      </c>
-      <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>96.77</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6279,24 +5897,19 @@
         <v>1084.8681</v>
       </c>
       <c r="G173" t="n">
-        <v>-547292.1833730786</v>
-      </c>
-      <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>96.79000000000001</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6318,24 +5931,19 @@
         <v>2000</v>
       </c>
       <c r="G174" t="n">
-        <v>-547292.1833730786</v>
-      </c>
-      <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6357,24 +5965,19 @@
         <v>3717.4854</v>
       </c>
       <c r="G175" t="n">
-        <v>-551009.6687730786</v>
-      </c>
-      <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6396,24 +5999,19 @@
         <v>3221.6486</v>
       </c>
       <c r="G176" t="n">
-        <v>-554231.3173730785</v>
-      </c>
-      <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>96.59</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6435,24 +6033,19 @@
         <v>397844.6606</v>
       </c>
       <c r="G177" t="n">
-        <v>-156386.6567730785</v>
-      </c>
-      <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>96.3</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6474,22 +6067,19 @@
         <v>58590</v>
       </c>
       <c r="G178" t="n">
-        <v>-214976.6567730785</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6511,22 +6101,19 @@
         <v>10865</v>
       </c>
       <c r="G179" t="n">
-        <v>-225841.6567730785</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6548,22 +6135,19 @@
         <v>5150</v>
       </c>
       <c r="G180" t="n">
-        <v>-220691.6567730785</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6585,22 +6169,19 @@
         <v>2000</v>
       </c>
       <c r="G181" t="n">
-        <v>-218691.6567730785</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6622,22 +6203,19 @@
         <v>12179.3083</v>
       </c>
       <c r="G182" t="n">
-        <v>-230870.9650730786</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6659,22 +6237,19 @@
         <v>1982.9453</v>
       </c>
       <c r="G183" t="n">
-        <v>-232853.9103730785</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6696,22 +6271,19 @@
         <v>7035.7291</v>
       </c>
       <c r="G184" t="n">
-        <v>-225818.1812730785</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6733,22 +6305,19 @@
         <v>14689.4068</v>
       </c>
       <c r="G185" t="n">
-        <v>-240507.5880730785</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6770,22 +6339,19 @@
         <v>8161.2072</v>
       </c>
       <c r="G186" t="n">
-        <v>-248668.7952730785</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6807,22 +6373,19 @@
         <v>13058.3204</v>
       </c>
       <c r="G187" t="n">
-        <v>-235610.4748730786</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6844,22 +6407,19 @@
         <v>6377.4669</v>
       </c>
       <c r="G188" t="n">
-        <v>-241987.9417730785</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6881,22 +6441,19 @@
         <v>27258.1313</v>
       </c>
       <c r="G189" t="n">
-        <v>-269246.0730730785</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6918,22 +6475,19 @@
         <v>8753.4195</v>
       </c>
       <c r="G190" t="n">
-        <v>-269246.0730730785</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6955,22 +6509,19 @@
         <v>15145</v>
       </c>
       <c r="G191" t="n">
-        <v>-269246.0730730785</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6992,22 +6543,19 @@
         <v>9929</v>
       </c>
       <c r="G192" t="n">
-        <v>-279175.0730730785</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7029,22 +6577,19 @@
         <v>1007.6455</v>
       </c>
       <c r="G193" t="n">
-        <v>-278167.4275730785</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7066,22 +6611,19 @@
         <v>223.2387</v>
       </c>
       <c r="G194" t="n">
-        <v>-278167.4275730785</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7103,22 +6645,21 @@
         <v>433.2972</v>
       </c>
       <c r="G195" t="n">
-        <v>-278167.4275730785</v>
+        <v>1</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>96.8</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7140,22 +6681,19 @@
         <v>316.7939</v>
       </c>
       <c r="G196" t="n">
-        <v>-278484.2214730785</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7177,22 +6715,19 @@
         <v>4876</v>
       </c>
       <c r="G197" t="n">
-        <v>-273608.2214730785</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7214,22 +6749,21 @@
         <v>6</v>
       </c>
       <c r="G198" t="n">
-        <v>-273602.2214730785</v>
+        <v>1</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>96.77</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7251,22 +6785,21 @@
         <v>7355</v>
       </c>
       <c r="G199" t="n">
-        <v>-280957.2214730785</v>
+        <v>1</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>96.98999999999999</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7288,22 +6821,21 @@
         <v>10889.5444</v>
       </c>
       <c r="G200" t="n">
-        <v>-270067.6770730785</v>
+        <v>1</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>96.98</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7325,22 +6857,19 @@
         <v>588.1763999999999</v>
       </c>
       <c r="G201" t="n">
-        <v>-270067.6770730785</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7362,22 +6891,21 @@
         <v>824.2472</v>
       </c>
       <c r="G202" t="n">
-        <v>-270067.6770730785</v>
+        <v>1</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>96.98999999999999</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7399,22 +6927,21 @@
         <v>9210.763000000001</v>
       </c>
       <c r="G203" t="n">
-        <v>-279278.4400730785</v>
+        <v>1</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>96.98999999999999</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7436,22 +6963,19 @@
         <v>17584.0311</v>
       </c>
       <c r="G204" t="n">
-        <v>-279278.4400730785</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7473,22 +6997,21 @@
         <v>3683.631</v>
       </c>
       <c r="G205" t="n">
-        <v>-279278.4400730785</v>
+        <v>1</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>96.98</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7510,22 +7033,21 @@
         <v>2912.8738</v>
       </c>
       <c r="G206" t="n">
-        <v>-276365.5662730785</v>
+        <v>1</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>96.98</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7547,22 +7069,19 @@
         <v>12110</v>
       </c>
       <c r="G207" t="n">
-        <v>-264255.5662730785</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7584,22 +7103,19 @@
         <v>2420</v>
       </c>
       <c r="G208" t="n">
-        <v>-264255.5662730785</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7621,22 +7137,19 @@
         <v>3512.3537</v>
       </c>
       <c r="G209" t="n">
-        <v>-264255.5662730785</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7658,22 +7171,19 @@
         <v>878.2794</v>
       </c>
       <c r="G210" t="n">
-        <v>-263377.2868730785</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7695,22 +7205,19 @@
         <v>10525.6441</v>
       </c>
       <c r="G211" t="n">
-        <v>-273902.9309730785</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7732,22 +7239,21 @@
         <v>6</v>
       </c>
       <c r="G212" t="n">
-        <v>-273896.9309730785</v>
+        <v>1</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7769,22 +7275,19 @@
         <v>1461.3629</v>
       </c>
       <c r="G213" t="n">
-        <v>-275358.2938730785</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7806,22 +7309,19 @@
         <v>6</v>
       </c>
       <c r="G214" t="n">
-        <v>-275352.2938730785</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7843,22 +7343,19 @@
         <v>12860.6742</v>
       </c>
       <c r="G215" t="n">
-        <v>-288212.9680730785</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7880,22 +7377,19 @@
         <v>3163.9491</v>
       </c>
       <c r="G216" t="n">
-        <v>-288212.9680730785</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7917,22 +7411,19 @@
         <v>442.4327</v>
       </c>
       <c r="G217" t="n">
-        <v>-287770.5353730785</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7954,22 +7445,21 @@
         <v>635.7907</v>
       </c>
       <c r="G218" t="n">
-        <v>-287770.5353730785</v>
+        <v>1</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>97.2</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7991,22 +7481,19 @@
         <v>1000.3</v>
       </c>
       <c r="G219" t="n">
-        <v>-287770.5353730785</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8028,22 +7515,21 @@
         <v>3760.8453</v>
       </c>
       <c r="G220" t="n">
-        <v>-291531.3806730785</v>
+        <v>1</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>97.2</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8065,22 +7551,21 @@
         <v>6</v>
       </c>
       <c r="G221" t="n">
-        <v>-291525.3806730785</v>
+        <v>1</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8102,22 +7587,19 @@
         <v>597.9793</v>
       </c>
       <c r="G222" t="n">
-        <v>-291525.3806730785</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8139,22 +7621,19 @@
         <v>354.2062</v>
       </c>
       <c r="G223" t="n">
-        <v>-291525.3806730785</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8176,22 +7655,19 @@
         <v>749.2394</v>
       </c>
       <c r="G224" t="n">
-        <v>-291525.3806730785</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8213,22 +7689,19 @@
         <v>349.8471</v>
       </c>
       <c r="G225" t="n">
-        <v>-291525.3806730785</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8250,22 +7723,19 @@
         <v>2000</v>
       </c>
       <c r="G226" t="n">
-        <v>-289525.3806730785</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8287,22 +7757,19 @@
         <v>5099.6298</v>
       </c>
       <c r="G227" t="n">
-        <v>-294625.0104730785</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8324,22 +7791,19 @@
         <v>621.6648</v>
       </c>
       <c r="G228" t="n">
-        <v>-294625.0104730785</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8361,22 +7825,19 @@
         <v>4901.9608</v>
       </c>
       <c r="G229" t="n">
-        <v>-299526.9712730785</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8398,22 +7859,19 @@
         <v>6</v>
       </c>
       <c r="G230" t="n">
-        <v>-299520.9712730785</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8435,22 +7893,19 @@
         <v>19655.2854</v>
       </c>
       <c r="G231" t="n">
-        <v>-319176.2566730785</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
